--- a/docs/data/commons_written_questions_interests/latest/commons_written_questions_interests.xlsx
+++ b/docs/data/commons_written_questions_interests/latest/commons_written_questions_interests.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4849" uniqueCount="2017">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4852" uniqueCount="2019">
   <si>
     <t>Dataset</t>
   </si>
@@ -640,6 +640,9 @@
     <t>2024-09-02T00:00:00</t>
   </si>
   <si>
+    <t>2024-10-28T00:00:00</t>
+  </si>
+  <si>
     <t>2024-10-30T00:00:00</t>
   </si>
   <si>
@@ -679,9 +682,6 @@
     <t>2024-10-09T00:00:00</t>
   </si>
   <si>
-    <t>2024-10-28T00:00:00</t>
-  </si>
-  <si>
     <t>2024-11-01T00:00:00</t>
   </si>
   <si>
@@ -1648,6 +1648,9 @@
     <t>3910</t>
   </si>
   <si>
+    <t>11509</t>
+  </si>
+  <si>
     <t>11938</t>
   </si>
   <si>
@@ -1720,9 +1723,6 @@
     <t>5960</t>
   </si>
   <si>
-    <t>11509</t>
-  </si>
-  <si>
     <t>12252</t>
   </si>
   <si>
@@ -2560,6 +2560,9 @@
     <t>To ask the Secretary of State for Education, with reference to section 8.1.1 of her Department's publication entitled School workforce census guide 2023: Guide for schools including academies within a Multi Academy Trust, published in July 2023, if she wi</t>
   </si>
   <si>
+    <t>To ask the Secretary of State for Science, Innovation and Technology, what progress he has made on appointing a Ministerial lead for the UK's seat on the Open Government Partnership Steering Committee.</t>
+  </si>
+  <si>
     <t>To ask the Secretary of State for Health and Social Care, with reference to paragraph 2.40 of the Autumn Budget 2024, HC 295, published on 30 October 2024, what estimate he has made of the increased cost to the NHS (a) directly and (b) indirectly of the i</t>
   </si>
   <si>
@@ -2635,9 +2638,6 @@
     <t>To ask the Secretary of State for Environment, Food and Rural Affairs, whether his Department plans to develop a National Food Security Strategy.</t>
   </si>
   <si>
-    <t>To ask the Secretary of State for Science, Innovation and Technology, what progress he has made on appointing a Ministerial lead for the UK's seat on the Open Government Partnership Steering Committee.</t>
-  </si>
-  <si>
     <t>To ask the Secretary of State for Culture, Media and Sport, if she will hold discussions with the Charity Commission on when the Commission plans to provide a substantive reply to the letter from the Conservative Party to the Commission of 14 June 2024, a</t>
   </si>
   <si>
@@ -3709,6 +3709,9 @@
     <t>School support staff play a vital role in children’s education and development. The department values and recognises the professionalism of the entire school workforce and will address recruitment and retention challenges by reinstating the School Support...</t>
   </si>
   <si>
+    <t>The responsibility for the interrelated areas of open government and open data is currently held in the Central Digital and Data Office (CDDO). However, as part of a Machinery of Government change to create the Digital Centre of Government, CDDO has moved...</t>
+  </si>
+  <si>
     <t>The Department of Health and Social Care has indicated that it will not be possible to answer this question within the usual time period. An answer is being prepared and will be provided as soon as it is available.</t>
   </si>
   <si>
@@ -4384,6 +4387,9 @@
     <t>Schools: Non-teaching Staff</t>
   </si>
   <si>
+    <t>Open Government Partnership: Public Appointments</t>
+  </si>
+  <si>
     <t>NHS: Employers' Contributions</t>
   </si>
   <si>
@@ -4405,7 +4411,7 @@
     <t>Academies: Special Educational Needs</t>
   </si>
   <si>
-    <t>Agriculture: Tax Allowances</t>
+    <t>Agriculture: Inheritance Tax</t>
   </si>
   <si>
     <t>All-party Parliamentary Groups: Membership</t>
@@ -4438,7 +4444,7 @@
     <t>Food Supply</t>
   </si>
   <si>
-    <t>Open Government Partnership: Public Appointments</t>
+    <t>Charity Commission: Correspondence</t>
   </si>
   <si>
     <t>[{'dateTabled': '2023-09-19T00:00:00', 'questionUin': '200234'}
@@ -4920,6 +4926,9 @@
     <t>26317</t>
   </si>
   <si>
+    <t>26477</t>
+  </si>
+  <si>
     <t>26533</t>
   </si>
   <si>
@@ -4953,9 +4962,6 @@
     <t>26576</t>
   </si>
   <si>
-    <t>26477</t>
-  </si>
-  <si>
     <t>24787</t>
   </si>
   <si>
@@ -5178,6 +5184,9 @@
     <t>Josh Newbury</t>
   </si>
   <si>
+    <t>Joe Powell</t>
+  </si>
+  <si>
     <t>Warinder Juss</t>
   </si>
   <si>
@@ -5211,9 +5220,6 @@
     <t>David Taylor</t>
   </si>
   <si>
-    <t>Joe Powell</t>
-  </si>
-  <si>
     <t>Richard Fuller</t>
   </si>
   <si>
@@ -6051,6 +6057,9 @@
     <t>https://questions-statements.parliament.uk/written-questions/detail/2024-09-02/3910/</t>
   </si>
   <si>
+    <t>https://questions-statements.parliament.uk/written-questions/detail/2024-10-28/11509/</t>
+  </si>
+  <si>
     <t>https://questions-statements.parliament.uk/written-questions/detail/2024-10-30/11938/</t>
   </si>
   <si>
@@ -6124,9 +6133,6 @@
   </si>
   <si>
     <t>https://questions-statements.parliament.uk/written-questions/detail/2024-10-04/5960/</t>
-  </si>
-  <si>
-    <t>https://questions-statements.parliament.uk/written-questions/detail/2024-10-28/11509/</t>
   </si>
   <si>
     <t>https://questions-statements.parliament.uk/written-questions/detail/2024-11-01/12252/</t>
@@ -7518,7 +7524,7 @@
         <v>0</v>
       </c>
       <c r="AB2" s="3" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="AC2" t="s">
         <v>108</v>
@@ -7527,13 +7533,13 @@
         <v>108</v>
       </c>
       <c r="AE2" t="s">
-        <v>1540</v>
+        <v>1542</v>
       </c>
       <c r="AF2" t="s">
-        <v>1626</v>
+        <v>1628</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>1712</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="3" spans="1:33">
@@ -7595,7 +7601,7 @@
         <v>0</v>
       </c>
       <c r="AB3" s="3" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="AC3" t="s">
         <v>108</v>
@@ -7604,13 +7610,13 @@
         <v>108</v>
       </c>
       <c r="AE3" t="s">
-        <v>1541</v>
+        <v>1543</v>
       </c>
       <c r="AF3" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="AG3" s="2" t="s">
-        <v>1713</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="4" spans="1:33">
@@ -7672,7 +7678,7 @@
         <v>0</v>
       </c>
       <c r="AB4" s="3" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="AC4" t="s">
         <v>108</v>
@@ -7681,13 +7687,13 @@
         <v>108</v>
       </c>
       <c r="AE4" t="s">
-        <v>1542</v>
+        <v>1544</v>
       </c>
       <c r="AF4" t="s">
-        <v>1628</v>
+        <v>1630</v>
       </c>
       <c r="AG4" s="2" t="s">
-        <v>1714</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="5" spans="1:33">
@@ -7749,22 +7755,22 @@
         <v>0</v>
       </c>
       <c r="AB5" s="3" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="AC5" t="s">
         <v>108</v>
       </c>
       <c r="AD5" s="3" t="s">
-        <v>1474</v>
+        <v>1476</v>
       </c>
       <c r="AE5" t="s">
-        <v>1542</v>
+        <v>1544</v>
       </c>
       <c r="AF5" t="s">
-        <v>1628</v>
+        <v>1630</v>
       </c>
       <c r="AG5" s="2" t="s">
-        <v>1715</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="6" spans="1:33">
@@ -7826,22 +7832,22 @@
         <v>0</v>
       </c>
       <c r="AB6" s="3" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="AC6" t="s">
         <v>108</v>
       </c>
       <c r="AD6" s="3" t="s">
-        <v>1475</v>
+        <v>1477</v>
       </c>
       <c r="AE6" t="s">
-        <v>1542</v>
+        <v>1544</v>
       </c>
       <c r="AF6" t="s">
-        <v>1628</v>
+        <v>1630</v>
       </c>
       <c r="AG6" s="2" t="s">
-        <v>1716</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="7" spans="1:33">
@@ -7903,22 +7909,22 @@
         <v>0</v>
       </c>
       <c r="AB7" s="3" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="AC7" t="s">
         <v>108</v>
       </c>
       <c r="AD7" s="3" t="s">
-        <v>1476</v>
+        <v>1478</v>
       </c>
       <c r="AE7" t="s">
-        <v>1542</v>
+        <v>1544</v>
       </c>
       <c r="AF7" t="s">
-        <v>1628</v>
+        <v>1630</v>
       </c>
       <c r="AG7" s="2" t="s">
-        <v>1717</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="8" spans="1:33">
@@ -7980,7 +7986,7 @@
         <v>0</v>
       </c>
       <c r="AB8" s="3" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="AC8" t="s">
         <v>108</v>
@@ -7989,13 +7995,13 @@
         <v>108</v>
       </c>
       <c r="AE8" t="s">
-        <v>1543</v>
+        <v>1545</v>
       </c>
       <c r="AF8" t="s">
-        <v>1629</v>
+        <v>1631</v>
       </c>
       <c r="AG8" s="2" t="s">
-        <v>1718</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="9" spans="1:33">
@@ -8057,7 +8063,7 @@
         <v>0</v>
       </c>
       <c r="AB9" s="3" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="AC9" t="s">
         <v>108</v>
@@ -8066,13 +8072,13 @@
         <v>108</v>
       </c>
       <c r="AE9" t="s">
-        <v>1543</v>
+        <v>1545</v>
       </c>
       <c r="AF9" t="s">
-        <v>1629</v>
+        <v>1631</v>
       </c>
       <c r="AG9" s="2" t="s">
-        <v>1719</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="10" spans="1:33">
@@ -8137,7 +8143,7 @@
         <v>0</v>
       </c>
       <c r="AB10" s="3" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="AC10" t="s">
         <v>108</v>
@@ -8146,13 +8152,13 @@
         <v>108</v>
       </c>
       <c r="AE10" t="s">
-        <v>1544</v>
+        <v>1546</v>
       </c>
       <c r="AF10" t="s">
-        <v>1630</v>
+        <v>1632</v>
       </c>
       <c r="AG10" s="2" t="s">
-        <v>1720</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="11" spans="1:33">
@@ -8214,22 +8220,22 @@
         <v>0</v>
       </c>
       <c r="AB11" s="3" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="AC11" t="s">
         <v>108</v>
       </c>
       <c r="AD11" s="3" t="s">
-        <v>1477</v>
+        <v>1479</v>
       </c>
       <c r="AE11" t="s">
-        <v>1545</v>
+        <v>1547</v>
       </c>
       <c r="AF11" t="s">
-        <v>1631</v>
+        <v>1633</v>
       </c>
       <c r="AG11" s="2" t="s">
-        <v>1721</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="12" spans="1:33">
@@ -8291,22 +8297,22 @@
         <v>0</v>
       </c>
       <c r="AB12" s="3" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="AC12" t="s">
         <v>108</v>
       </c>
       <c r="AD12" s="3" t="s">
-        <v>1478</v>
+        <v>1480</v>
       </c>
       <c r="AE12" t="s">
-        <v>1545</v>
+        <v>1547</v>
       </c>
       <c r="AF12" t="s">
-        <v>1631</v>
+        <v>1633</v>
       </c>
       <c r="AG12" s="2" t="s">
-        <v>1722</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="13" spans="1:33">
@@ -8368,7 +8374,7 @@
         <v>0</v>
       </c>
       <c r="AB13" s="3" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="AC13" t="s">
         <v>108</v>
@@ -8377,13 +8383,13 @@
         <v>108</v>
       </c>
       <c r="AE13" t="s">
-        <v>1546</v>
+        <v>1548</v>
       </c>
       <c r="AF13" t="s">
-        <v>1632</v>
+        <v>1634</v>
       </c>
       <c r="AG13" s="2" t="s">
-        <v>1723</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="14" spans="1:33">
@@ -8445,7 +8451,7 @@
         <v>0</v>
       </c>
       <c r="AB14" s="3" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="AC14" t="s">
         <v>108</v>
@@ -8454,13 +8460,13 @@
         <v>108</v>
       </c>
       <c r="AE14" t="s">
-        <v>1546</v>
+        <v>1548</v>
       </c>
       <c r="AF14" t="s">
-        <v>1632</v>
+        <v>1634</v>
       </c>
       <c r="AG14" s="2" t="s">
-        <v>1724</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="15" spans="1:33">
@@ -8522,7 +8528,7 @@
         <v>0</v>
       </c>
       <c r="AB15" s="3" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="AC15" t="s">
         <v>108</v>
@@ -8531,13 +8537,13 @@
         <v>108</v>
       </c>
       <c r="AE15" t="s">
-        <v>1547</v>
+        <v>1549</v>
       </c>
       <c r="AF15" t="s">
-        <v>1633</v>
+        <v>1635</v>
       </c>
       <c r="AG15" s="2" t="s">
-        <v>1725</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="16" spans="1:33">
@@ -8599,7 +8605,7 @@
         <v>0</v>
       </c>
       <c r="AB16" s="3" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="AC16" t="s">
         <v>108</v>
@@ -8608,13 +8614,13 @@
         <v>108</v>
       </c>
       <c r="AE16" t="s">
-        <v>1548</v>
+        <v>1550</v>
       </c>
       <c r="AF16" t="s">
-        <v>1634</v>
+        <v>1636</v>
       </c>
       <c r="AG16" s="2" t="s">
-        <v>1726</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="17" spans="1:33">
@@ -8676,7 +8682,7 @@
         <v>0</v>
       </c>
       <c r="AB17" s="3" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="AC17" t="s">
         <v>108</v>
@@ -8685,13 +8691,13 @@
         <v>108</v>
       </c>
       <c r="AE17" t="s">
-        <v>1546</v>
+        <v>1548</v>
       </c>
       <c r="AF17" t="s">
-        <v>1632</v>
+        <v>1634</v>
       </c>
       <c r="AG17" s="2" t="s">
-        <v>1727</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="18" spans="1:33">
@@ -8753,22 +8759,22 @@
         <v>0</v>
       </c>
       <c r="AB18" s="3" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="AC18" t="s">
         <v>108</v>
       </c>
       <c r="AD18" s="3" t="s">
-        <v>1479</v>
+        <v>1481</v>
       </c>
       <c r="AE18" t="s">
-        <v>1543</v>
+        <v>1545</v>
       </c>
       <c r="AF18" t="s">
-        <v>1629</v>
+        <v>1631</v>
       </c>
       <c r="AG18" s="2" t="s">
-        <v>1728</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="19" spans="1:33">
@@ -8830,22 +8836,22 @@
         <v>0</v>
       </c>
       <c r="AB19" s="3" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="AC19" t="s">
         <v>108</v>
       </c>
       <c r="AD19" s="3" t="s">
-        <v>1480</v>
+        <v>1482</v>
       </c>
       <c r="AE19" t="s">
-        <v>1543</v>
+        <v>1545</v>
       </c>
       <c r="AF19" t="s">
-        <v>1629</v>
+        <v>1631</v>
       </c>
       <c r="AG19" s="2" t="s">
-        <v>1729</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="20" spans="1:33">
@@ -8907,22 +8913,22 @@
         <v>0</v>
       </c>
       <c r="AB20" s="3" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="AC20" t="s">
         <v>108</v>
       </c>
       <c r="AD20" s="3" t="s">
-        <v>1481</v>
+        <v>1483</v>
       </c>
       <c r="AE20" t="s">
-        <v>1543</v>
+        <v>1545</v>
       </c>
       <c r="AF20" t="s">
-        <v>1629</v>
+        <v>1631</v>
       </c>
       <c r="AG20" s="2" t="s">
-        <v>1730</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="21" spans="1:33">
@@ -8984,22 +8990,22 @@
         <v>0</v>
       </c>
       <c r="AB21" s="3" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="AC21" t="s">
         <v>108</v>
       </c>
       <c r="AD21" s="3" t="s">
-        <v>1482</v>
+        <v>1484</v>
       </c>
       <c r="AE21" t="s">
-        <v>1547</v>
+        <v>1549</v>
       </c>
       <c r="AF21" t="s">
-        <v>1633</v>
+        <v>1635</v>
       </c>
       <c r="AG21" s="2" t="s">
-        <v>1731</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="22" spans="1:33">
@@ -9061,7 +9067,7 @@
         <v>0</v>
       </c>
       <c r="AB22" s="3" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="AC22" t="s">
         <v>108</v>
@@ -9070,10 +9076,10 @@
         <v>108</v>
       </c>
       <c r="AE22" t="s">
-        <v>1549</v>
+        <v>1551</v>
       </c>
       <c r="AF22" t="s">
-        <v>1635</v>
+        <v>1637</v>
       </c>
       <c r="AG22" s="2" t="s">
         <v>117</v>
@@ -9147,13 +9153,13 @@
         <v>108</v>
       </c>
       <c r="AE23" t="s">
-        <v>1550</v>
+        <v>1552</v>
       </c>
       <c r="AF23" t="s">
-        <v>1636</v>
+        <v>1638</v>
       </c>
       <c r="AG23" s="2" t="s">
-        <v>1732</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="24" spans="1:33">
@@ -9215,7 +9221,7 @@
         <v>0</v>
       </c>
       <c r="AB24" s="3" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="AC24" t="s">
         <v>108</v>
@@ -9224,13 +9230,13 @@
         <v>108</v>
       </c>
       <c r="AE24" t="s">
-        <v>1543</v>
+        <v>1545</v>
       </c>
       <c r="AF24" t="s">
-        <v>1629</v>
+        <v>1631</v>
       </c>
       <c r="AG24" s="2" t="s">
-        <v>1733</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="25" spans="1:33">
@@ -9292,7 +9298,7 @@
         <v>0</v>
       </c>
       <c r="AB25" s="3" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="AC25" t="s">
         <v>108</v>
@@ -9301,13 +9307,13 @@
         <v>108</v>
       </c>
       <c r="AE25" t="s">
-        <v>1551</v>
+        <v>1553</v>
       </c>
       <c r="AF25" t="s">
-        <v>1637</v>
+        <v>1639</v>
       </c>
       <c r="AG25" s="2" t="s">
-        <v>1734</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="26" spans="1:33">
@@ -9369,7 +9375,7 @@
         <v>0</v>
       </c>
       <c r="AB26" s="3" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="AC26" t="s">
         <v>108</v>
@@ -9378,13 +9384,13 @@
         <v>108</v>
       </c>
       <c r="AE26" t="s">
-        <v>1550</v>
+        <v>1552</v>
       </c>
       <c r="AF26" t="s">
-        <v>1636</v>
+        <v>1638</v>
       </c>
       <c r="AG26" s="2" t="s">
-        <v>1735</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="27" spans="1:33">
@@ -9446,7 +9452,7 @@
         <v>0</v>
       </c>
       <c r="AB27" s="3" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="AC27" t="s">
         <v>108</v>
@@ -9455,13 +9461,13 @@
         <v>108</v>
       </c>
       <c r="AE27" t="s">
-        <v>1552</v>
+        <v>1554</v>
       </c>
       <c r="AF27" t="s">
-        <v>1638</v>
+        <v>1640</v>
       </c>
       <c r="AG27" s="2" t="s">
-        <v>1736</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="28" spans="1:33">
@@ -9523,7 +9529,7 @@
         <v>0</v>
       </c>
       <c r="AB28" s="3" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="AC28" t="s">
         <v>108</v>
@@ -9532,13 +9538,13 @@
         <v>108</v>
       </c>
       <c r="AE28" t="s">
-        <v>1543</v>
+        <v>1545</v>
       </c>
       <c r="AF28" t="s">
-        <v>1629</v>
+        <v>1631</v>
       </c>
       <c r="AG28" s="2" t="s">
-        <v>1737</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="29" spans="1:33">
@@ -9600,22 +9606,22 @@
         <v>0</v>
       </c>
       <c r="AB29" s="3" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="AC29" t="s">
         <v>108</v>
       </c>
       <c r="AD29" s="3" t="s">
-        <v>1483</v>
+        <v>1485</v>
       </c>
       <c r="AE29" t="s">
-        <v>1543</v>
+        <v>1545</v>
       </c>
       <c r="AF29" t="s">
-        <v>1629</v>
+        <v>1631</v>
       </c>
       <c r="AG29" s="2" t="s">
-        <v>1738</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="30" spans="1:33">
@@ -9677,22 +9683,22 @@
         <v>0</v>
       </c>
       <c r="AB30" s="3" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="AC30" t="s">
         <v>108</v>
       </c>
       <c r="AD30" s="3" t="s">
-        <v>1484</v>
+        <v>1486</v>
       </c>
       <c r="AE30" t="s">
-        <v>1543</v>
+        <v>1545</v>
       </c>
       <c r="AF30" t="s">
-        <v>1629</v>
+        <v>1631</v>
       </c>
       <c r="AG30" s="2" t="s">
-        <v>1739</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="31" spans="1:33">
@@ -9754,7 +9760,7 @@
         <v>0</v>
       </c>
       <c r="AB31" s="3" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="AC31" t="s">
         <v>108</v>
@@ -9763,13 +9769,13 @@
         <v>108</v>
       </c>
       <c r="AE31" t="s">
-        <v>1543</v>
+        <v>1545</v>
       </c>
       <c r="AF31" t="s">
-        <v>1629</v>
+        <v>1631</v>
       </c>
       <c r="AG31" s="2" t="s">
-        <v>1740</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="32" spans="1:33">
@@ -9831,7 +9837,7 @@
         <v>0</v>
       </c>
       <c r="AB32" s="3" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="AC32" t="s">
         <v>108</v>
@@ -9840,13 +9846,13 @@
         <v>108</v>
       </c>
       <c r="AE32" t="s">
-        <v>1543</v>
+        <v>1545</v>
       </c>
       <c r="AF32" t="s">
-        <v>1629</v>
+        <v>1631</v>
       </c>
       <c r="AG32" s="2" t="s">
-        <v>1741</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="33" spans="1:33">
@@ -9908,7 +9914,7 @@
         <v>0</v>
       </c>
       <c r="AB33" s="3" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="AC33" t="s">
         <v>108</v>
@@ -9917,13 +9923,13 @@
         <v>108</v>
       </c>
       <c r="AE33" t="s">
-        <v>1552</v>
+        <v>1554</v>
       </c>
       <c r="AF33" t="s">
-        <v>1638</v>
+        <v>1640</v>
       </c>
       <c r="AG33" s="2" t="s">
-        <v>1742</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="34" spans="1:33">
@@ -9985,7 +9991,7 @@
         <v>0</v>
       </c>
       <c r="AB34" s="3" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="AC34" t="s">
         <v>108</v>
@@ -9994,13 +10000,13 @@
         <v>108</v>
       </c>
       <c r="AE34" t="s">
-        <v>1553</v>
+        <v>1555</v>
       </c>
       <c r="AF34" t="s">
         <v>116</v>
       </c>
       <c r="AG34" s="2" t="s">
-        <v>1743</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="35" spans="1:33">
@@ -10062,7 +10068,7 @@
         <v>0</v>
       </c>
       <c r="AB35" s="3" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="AC35" t="s">
         <v>108</v>
@@ -10071,13 +10077,13 @@
         <v>108</v>
       </c>
       <c r="AE35" t="s">
-        <v>1546</v>
+        <v>1548</v>
       </c>
       <c r="AF35" t="s">
-        <v>1632</v>
+        <v>1634</v>
       </c>
       <c r="AG35" s="2" t="s">
-        <v>1744</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="36" spans="1:33">
@@ -10139,7 +10145,7 @@
         <v>0</v>
       </c>
       <c r="AB36" s="3" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="AC36" t="s">
         <v>108</v>
@@ -10148,13 +10154,13 @@
         <v>108</v>
       </c>
       <c r="AE36" t="s">
-        <v>1554</v>
+        <v>1556</v>
       </c>
       <c r="AF36" t="s">
-        <v>1639</v>
+        <v>1641</v>
       </c>
       <c r="AG36" s="2" t="s">
-        <v>1745</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="37" spans="1:33">
@@ -10216,7 +10222,7 @@
         <v>0</v>
       </c>
       <c r="AB37" s="3" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="AC37" t="s">
         <v>108</v>
@@ -10225,13 +10231,13 @@
         <v>108</v>
       </c>
       <c r="AE37" t="s">
-        <v>1546</v>
+        <v>1548</v>
       </c>
       <c r="AF37" t="s">
-        <v>1632</v>
+        <v>1634</v>
       </c>
       <c r="AG37" s="2" t="s">
-        <v>1746</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="38" spans="1:33">
@@ -10293,7 +10299,7 @@
         <v>0</v>
       </c>
       <c r="AB38" s="3" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="AC38" t="s">
         <v>108</v>
@@ -10302,13 +10308,13 @@
         <v>108</v>
       </c>
       <c r="AE38" t="s">
-        <v>1555</v>
+        <v>1557</v>
       </c>
       <c r="AF38" t="s">
-        <v>1640</v>
+        <v>1642</v>
       </c>
       <c r="AG38" s="2" t="s">
-        <v>1747</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="39" spans="1:33">
@@ -10370,22 +10376,22 @@
         <v>0</v>
       </c>
       <c r="AB39" s="3" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="AC39" t="s">
         <v>108</v>
       </c>
       <c r="AD39" s="3" t="s">
-        <v>1485</v>
+        <v>1487</v>
       </c>
       <c r="AE39" t="s">
-        <v>1555</v>
+        <v>1557</v>
       </c>
       <c r="AF39" t="s">
-        <v>1640</v>
+        <v>1642</v>
       </c>
       <c r="AG39" s="2" t="s">
-        <v>1748</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="40" spans="1:33">
@@ -10447,7 +10453,7 @@
         <v>0</v>
       </c>
       <c r="AB40" s="3" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="AC40" t="s">
         <v>108</v>
@@ -10456,13 +10462,13 @@
         <v>108</v>
       </c>
       <c r="AE40" t="s">
-        <v>1554</v>
+        <v>1556</v>
       </c>
       <c r="AF40" t="s">
-        <v>1639</v>
+        <v>1641</v>
       </c>
       <c r="AG40" s="2" t="s">
-        <v>1749</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="41" spans="1:33">
@@ -10524,7 +10530,7 @@
         <v>0</v>
       </c>
       <c r="AB41" s="3" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="AC41" t="s">
         <v>108</v>
@@ -10533,13 +10539,13 @@
         <v>108</v>
       </c>
       <c r="AE41" t="s">
-        <v>1556</v>
+        <v>1558</v>
       </c>
       <c r="AF41" t="s">
-        <v>1641</v>
+        <v>1643</v>
       </c>
       <c r="AG41" s="2" t="s">
-        <v>1750</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="42" spans="1:33">
@@ -10601,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="AB42" s="3" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="AC42" t="s">
         <v>108</v>
@@ -10610,13 +10616,13 @@
         <v>108</v>
       </c>
       <c r="AE42" t="s">
-        <v>1552</v>
+        <v>1554</v>
       </c>
       <c r="AF42" t="s">
-        <v>1638</v>
+        <v>1640</v>
       </c>
       <c r="AG42" s="2" t="s">
-        <v>1751</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="43" spans="1:33">
@@ -10678,7 +10684,7 @@
         <v>0</v>
       </c>
       <c r="AB43" s="3" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="AC43" t="s">
         <v>108</v>
@@ -10687,13 +10693,13 @@
         <v>108</v>
       </c>
       <c r="AE43" t="s">
-        <v>1552</v>
+        <v>1554</v>
       </c>
       <c r="AF43" t="s">
-        <v>1638</v>
+        <v>1640</v>
       </c>
       <c r="AG43" s="2" t="s">
-        <v>1752</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="44" spans="1:33">
@@ -10755,7 +10761,7 @@
         <v>0</v>
       </c>
       <c r="AB44" s="3" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="AC44" t="s">
         <v>108</v>
@@ -10764,13 +10770,13 @@
         <v>108</v>
       </c>
       <c r="AE44" t="s">
-        <v>1546</v>
+        <v>1548</v>
       </c>
       <c r="AF44" t="s">
-        <v>1632</v>
+        <v>1634</v>
       </c>
       <c r="AG44" s="2" t="s">
-        <v>1753</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="45" spans="1:33">
@@ -10832,7 +10838,7 @@
         <v>0</v>
       </c>
       <c r="AB45" s="3" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="AC45" t="s">
         <v>108</v>
@@ -10841,13 +10847,13 @@
         <v>108</v>
       </c>
       <c r="AE45" t="s">
-        <v>1554</v>
+        <v>1556</v>
       </c>
       <c r="AF45" t="s">
-        <v>1639</v>
+        <v>1641</v>
       </c>
       <c r="AG45" s="2" t="s">
-        <v>1754</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="46" spans="1:33">
@@ -10909,7 +10915,7 @@
         <v>0</v>
       </c>
       <c r="AB46" s="3" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="AC46" t="s">
         <v>108</v>
@@ -10918,13 +10924,13 @@
         <v>108</v>
       </c>
       <c r="AE46" t="s">
-        <v>1557</v>
+        <v>1559</v>
       </c>
       <c r="AF46" t="s">
-        <v>1642</v>
+        <v>1644</v>
       </c>
       <c r="AG46" s="2" t="s">
-        <v>1755</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="47" spans="1:33">
@@ -10986,7 +10992,7 @@
         <v>0</v>
       </c>
       <c r="AB47" s="3" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="AC47" t="s">
         <v>108</v>
@@ -10995,13 +11001,13 @@
         <v>108</v>
       </c>
       <c r="AE47" t="s">
-        <v>1557</v>
+        <v>1559</v>
       </c>
       <c r="AF47" t="s">
-        <v>1642</v>
+        <v>1644</v>
       </c>
       <c r="AG47" s="2" t="s">
-        <v>1756</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="48" spans="1:33">
@@ -11063,7 +11069,7 @@
         <v>0</v>
       </c>
       <c r="AB48" s="3" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="AC48" t="s">
         <v>108</v>
@@ -11072,13 +11078,13 @@
         <v>108</v>
       </c>
       <c r="AE48" t="s">
-        <v>1558</v>
+        <v>1560</v>
       </c>
       <c r="AF48" t="s">
-        <v>1643</v>
+        <v>1645</v>
       </c>
       <c r="AG48" s="2" t="s">
-        <v>1757</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="49" spans="1:33">
@@ -11140,7 +11146,7 @@
         <v>0</v>
       </c>
       <c r="AB49" s="3" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="AC49" t="s">
         <v>108</v>
@@ -11149,13 +11155,13 @@
         <v>108</v>
       </c>
       <c r="AE49" t="s">
-        <v>1558</v>
+        <v>1560</v>
       </c>
       <c r="AF49" t="s">
-        <v>1643</v>
+        <v>1645</v>
       </c>
       <c r="AG49" s="2" t="s">
-        <v>1758</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="50" spans="1:33">
@@ -11217,7 +11223,7 @@
         <v>0</v>
       </c>
       <c r="AB50" s="3" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="AC50" t="s">
         <v>108</v>
@@ -11226,13 +11232,13 @@
         <v>108</v>
       </c>
       <c r="AE50" t="s">
-        <v>1559</v>
+        <v>1561</v>
       </c>
       <c r="AF50" t="s">
-        <v>1644</v>
+        <v>1646</v>
       </c>
       <c r="AG50" s="2" t="s">
-        <v>1759</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="51" spans="1:33">
@@ -11294,7 +11300,7 @@
         <v>0</v>
       </c>
       <c r="AB51" s="3" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="AC51" t="s">
         <v>108</v>
@@ -11303,13 +11309,13 @@
         <v>108</v>
       </c>
       <c r="AE51" t="s">
-        <v>1560</v>
+        <v>1562</v>
       </c>
       <c r="AF51" t="s">
-        <v>1645</v>
+        <v>1647</v>
       </c>
       <c r="AG51" s="2" t="s">
-        <v>1760</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="52" spans="1:33">
@@ -11371,7 +11377,7 @@
         <v>0</v>
       </c>
       <c r="AB52" s="3" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="AC52" t="s">
         <v>108</v>
@@ -11380,13 +11386,13 @@
         <v>108</v>
       </c>
       <c r="AE52" t="s">
-        <v>1557</v>
+        <v>1559</v>
       </c>
       <c r="AF52" t="s">
-        <v>1642</v>
+        <v>1644</v>
       </c>
       <c r="AG52" s="2" t="s">
-        <v>1761</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="53" spans="1:33">
@@ -11448,22 +11454,22 @@
         <v>0</v>
       </c>
       <c r="AB53" s="3" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="AC53" t="s">
         <v>108</v>
       </c>
       <c r="AD53" s="3" t="s">
-        <v>1486</v>
+        <v>1488</v>
       </c>
       <c r="AE53" t="s">
-        <v>1557</v>
+        <v>1559</v>
       </c>
       <c r="AF53" t="s">
-        <v>1642</v>
+        <v>1644</v>
       </c>
       <c r="AG53" s="2" t="s">
-        <v>1762</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="54" spans="1:33">
@@ -11525,22 +11531,22 @@
         <v>0</v>
       </c>
       <c r="AB54" s="3" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="AC54" t="s">
         <v>108</v>
       </c>
       <c r="AD54" s="3" t="s">
-        <v>1487</v>
+        <v>1489</v>
       </c>
       <c r="AE54" t="s">
-        <v>1557</v>
+        <v>1559</v>
       </c>
       <c r="AF54" t="s">
-        <v>1642</v>
+        <v>1644</v>
       </c>
       <c r="AG54" s="2" t="s">
-        <v>1763</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="55" spans="1:33">
@@ -11602,22 +11608,22 @@
         <v>0</v>
       </c>
       <c r="AB55" s="3" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="AC55" t="s">
         <v>108</v>
       </c>
       <c r="AD55" s="3" t="s">
-        <v>1488</v>
+        <v>1490</v>
       </c>
       <c r="AE55" t="s">
-        <v>1557</v>
+        <v>1559</v>
       </c>
       <c r="AF55" t="s">
-        <v>1642</v>
+        <v>1644</v>
       </c>
       <c r="AG55" s="2" t="s">
-        <v>1764</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="56" spans="1:33">
@@ -11679,22 +11685,22 @@
         <v>0</v>
       </c>
       <c r="AB56" s="3" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="AC56" t="s">
         <v>108</v>
       </c>
       <c r="AD56" s="3" t="s">
-        <v>1489</v>
+        <v>1491</v>
       </c>
       <c r="AE56" t="s">
-        <v>1557</v>
+        <v>1559</v>
       </c>
       <c r="AF56" t="s">
-        <v>1642</v>
+        <v>1644</v>
       </c>
       <c r="AG56" s="2" t="s">
-        <v>1765</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="57" spans="1:33">
@@ -11756,22 +11762,22 @@
         <v>0</v>
       </c>
       <c r="AB57" s="3" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="AC57" t="s">
         <v>108</v>
       </c>
       <c r="AD57" s="3" t="s">
-        <v>1490</v>
+        <v>1492</v>
       </c>
       <c r="AE57" t="s">
-        <v>1561</v>
+        <v>1563</v>
       </c>
       <c r="AF57" t="s">
-        <v>1646</v>
+        <v>1648</v>
       </c>
       <c r="AG57" s="2" t="s">
-        <v>1766</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="58" spans="1:33">
@@ -11833,22 +11839,22 @@
         <v>0</v>
       </c>
       <c r="AB58" s="3" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="AC58" t="s">
         <v>108</v>
       </c>
       <c r="AD58" s="3" t="s">
-        <v>1491</v>
+        <v>1493</v>
       </c>
       <c r="AE58" t="s">
-        <v>1561</v>
+        <v>1563</v>
       </c>
       <c r="AF58" t="s">
-        <v>1646</v>
+        <v>1648</v>
       </c>
       <c r="AG58" s="2" t="s">
-        <v>1767</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="59" spans="1:33">
@@ -11910,7 +11916,7 @@
         <v>0</v>
       </c>
       <c r="AB59" s="3" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="AC59" t="s">
         <v>108</v>
@@ -11919,13 +11925,13 @@
         <v>108</v>
       </c>
       <c r="AE59" t="s">
-        <v>1562</v>
+        <v>1564</v>
       </c>
       <c r="AF59" t="s">
-        <v>1647</v>
+        <v>1649</v>
       </c>
       <c r="AG59" s="2" t="s">
-        <v>1768</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="60" spans="1:33">
@@ -11987,22 +11993,22 @@
         <v>0</v>
       </c>
       <c r="AB60" s="3" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="AC60" t="s">
         <v>108</v>
       </c>
       <c r="AD60" s="3" t="s">
-        <v>1492</v>
+        <v>1494</v>
       </c>
       <c r="AE60" t="s">
-        <v>1563</v>
+        <v>1565</v>
       </c>
       <c r="AF60" t="s">
-        <v>1648</v>
+        <v>1650</v>
       </c>
       <c r="AG60" s="2" t="s">
-        <v>1769</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="61" spans="1:33">
@@ -12064,22 +12070,22 @@
         <v>0</v>
       </c>
       <c r="AB61" s="3" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="AC61" t="s">
         <v>108</v>
       </c>
       <c r="AD61" s="3" t="s">
-        <v>1493</v>
+        <v>1495</v>
       </c>
       <c r="AE61" t="s">
-        <v>1563</v>
+        <v>1565</v>
       </c>
       <c r="AF61" t="s">
-        <v>1648</v>
+        <v>1650</v>
       </c>
       <c r="AG61" s="2" t="s">
-        <v>1770</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="62" spans="1:33">
@@ -12141,22 +12147,22 @@
         <v>0</v>
       </c>
       <c r="AB62" s="3" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="AC62" t="s">
         <v>108</v>
       </c>
       <c r="AD62" s="3" t="s">
-        <v>1494</v>
+        <v>1496</v>
       </c>
       <c r="AE62" t="s">
-        <v>1563</v>
+        <v>1565</v>
       </c>
       <c r="AF62" t="s">
-        <v>1648</v>
+        <v>1650</v>
       </c>
       <c r="AG62" s="2" t="s">
-        <v>1771</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="63" spans="1:33">
@@ -12218,7 +12224,7 @@
         <v>0</v>
       </c>
       <c r="AB63" s="3" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="AC63" t="s">
         <v>108</v>
@@ -12227,13 +12233,13 @@
         <v>108</v>
       </c>
       <c r="AE63" t="s">
-        <v>1564</v>
+        <v>1566</v>
       </c>
       <c r="AF63" t="s">
-        <v>1649</v>
+        <v>1651</v>
       </c>
       <c r="AG63" s="2" t="s">
-        <v>1772</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="64" spans="1:33">
@@ -12295,7 +12301,7 @@
         <v>0</v>
       </c>
       <c r="AB64" s="3" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="AC64" t="s">
         <v>108</v>
@@ -12304,13 +12310,13 @@
         <v>108</v>
       </c>
       <c r="AE64" t="s">
-        <v>1565</v>
+        <v>1567</v>
       </c>
       <c r="AF64" t="s">
-        <v>1650</v>
+        <v>1652</v>
       </c>
       <c r="AG64" s="2" t="s">
-        <v>1773</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="65" spans="1:33">
@@ -12372,7 +12378,7 @@
         <v>0</v>
       </c>
       <c r="AB65" s="3" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="AC65" t="s">
         <v>108</v>
@@ -12381,13 +12387,13 @@
         <v>108</v>
       </c>
       <c r="AE65" t="s">
-        <v>1565</v>
+        <v>1567</v>
       </c>
       <c r="AF65" t="s">
-        <v>1650</v>
+        <v>1652</v>
       </c>
       <c r="AG65" s="2" t="s">
-        <v>1774</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="66" spans="1:33">
@@ -12449,7 +12455,7 @@
         <v>0</v>
       </c>
       <c r="AB66" s="3" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="AC66" t="s">
         <v>108</v>
@@ -12458,13 +12464,13 @@
         <v>108</v>
       </c>
       <c r="AE66" t="s">
-        <v>1566</v>
+        <v>1568</v>
       </c>
       <c r="AF66" t="s">
-        <v>1651</v>
+        <v>1653</v>
       </c>
       <c r="AG66" s="2" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="67" spans="1:33">
@@ -12526,7 +12532,7 @@
         <v>0</v>
       </c>
       <c r="AB67" s="3" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="AC67" t="s">
         <v>108</v>
@@ -12535,13 +12541,13 @@
         <v>108</v>
       </c>
       <c r="AE67" t="s">
-        <v>1553</v>
+        <v>1555</v>
       </c>
       <c r="AF67" t="s">
         <v>116</v>
       </c>
       <c r="AG67" s="2" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="68" spans="1:33">
@@ -12603,7 +12609,7 @@
         <v>0</v>
       </c>
       <c r="AB68" s="3" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="AC68" t="s">
         <v>108</v>
@@ -12612,13 +12618,13 @@
         <v>108</v>
       </c>
       <c r="AE68" t="s">
-        <v>1565</v>
+        <v>1567</v>
       </c>
       <c r="AF68" t="s">
-        <v>1650</v>
+        <v>1652</v>
       </c>
       <c r="AG68" s="2" t="s">
-        <v>1777</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="69" spans="1:33">
@@ -12680,7 +12686,7 @@
         <v>0</v>
       </c>
       <c r="AB69" s="3" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="AC69" t="s">
         <v>108</v>
@@ -12689,13 +12695,13 @@
         <v>108</v>
       </c>
       <c r="AE69" t="s">
-        <v>1553</v>
+        <v>1555</v>
       </c>
       <c r="AF69" t="s">
         <v>116</v>
       </c>
       <c r="AG69" s="2" t="s">
-        <v>1778</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="70" spans="1:33">
@@ -12757,7 +12763,7 @@
         <v>0</v>
       </c>
       <c r="AB70" s="3" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="AC70" t="s">
         <v>108</v>
@@ -12766,13 +12772,13 @@
         <v>108</v>
       </c>
       <c r="AE70" t="s">
-        <v>1567</v>
+        <v>1569</v>
       </c>
       <c r="AF70" t="s">
-        <v>1652</v>
+        <v>1654</v>
       </c>
       <c r="AG70" s="2" t="s">
-        <v>1779</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="71" spans="1:33">
@@ -12834,7 +12840,7 @@
         <v>0</v>
       </c>
       <c r="AB71" s="3" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="AC71" t="s">
         <v>108</v>
@@ -12843,13 +12849,13 @@
         <v>108</v>
       </c>
       <c r="AE71" t="s">
-        <v>1555</v>
+        <v>1557</v>
       </c>
       <c r="AF71" t="s">
-        <v>1640</v>
+        <v>1642</v>
       </c>
       <c r="AG71" s="2" t="s">
-        <v>1780</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="72" spans="1:33">
@@ -12911,7 +12917,7 @@
         <v>0</v>
       </c>
       <c r="AB72" s="3" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="AC72" t="s">
         <v>108</v>
@@ -12920,13 +12926,13 @@
         <v>108</v>
       </c>
       <c r="AE72" t="s">
-        <v>1555</v>
+        <v>1557</v>
       </c>
       <c r="AF72" t="s">
-        <v>1640</v>
+        <v>1642</v>
       </c>
       <c r="AG72" s="2" t="s">
-        <v>1781</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="73" spans="1:33">
@@ -12988,7 +12994,7 @@
         <v>0</v>
       </c>
       <c r="AB73" s="3" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="AC73" t="s">
         <v>108</v>
@@ -12997,13 +13003,13 @@
         <v>108</v>
       </c>
       <c r="AE73" t="s">
-        <v>1555</v>
+        <v>1557</v>
       </c>
       <c r="AF73" t="s">
-        <v>1640</v>
+        <v>1642</v>
       </c>
       <c r="AG73" s="2" t="s">
-        <v>1782</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="74" spans="1:33">
@@ -13065,7 +13071,7 @@
         <v>0</v>
       </c>
       <c r="AB74" s="3" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="AC74" t="s">
         <v>108</v>
@@ -13074,13 +13080,13 @@
         <v>108</v>
       </c>
       <c r="AE74" t="s">
-        <v>1566</v>
+        <v>1568</v>
       </c>
       <c r="AF74" t="s">
-        <v>1651</v>
+        <v>1653</v>
       </c>
       <c r="AG74" s="2" t="s">
-        <v>1783</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="75" spans="1:33">
@@ -13142,7 +13148,7 @@
         <v>0</v>
       </c>
       <c r="AB75" s="3" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="AC75" t="s">
         <v>108</v>
@@ -13151,13 +13157,13 @@
         <v>108</v>
       </c>
       <c r="AE75" t="s">
-        <v>1553</v>
+        <v>1555</v>
       </c>
       <c r="AF75" t="s">
         <v>116</v>
       </c>
       <c r="AG75" s="2" t="s">
-        <v>1784</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="76" spans="1:33">
@@ -13219,7 +13225,7 @@
         <v>0</v>
       </c>
       <c r="AB76" s="3" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="AC76" t="s">
         <v>108</v>
@@ -13228,13 +13234,13 @@
         <v>108</v>
       </c>
       <c r="AE76" t="s">
-        <v>1553</v>
+        <v>1555</v>
       </c>
       <c r="AF76" t="s">
         <v>116</v>
       </c>
       <c r="AG76" s="2" t="s">
-        <v>1785</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="77" spans="1:33">
@@ -13296,7 +13302,7 @@
         <v>0</v>
       </c>
       <c r="AB77" s="3" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="AC77" t="s">
         <v>108</v>
@@ -13305,13 +13311,13 @@
         <v>108</v>
       </c>
       <c r="AE77" t="s">
-        <v>1568</v>
+        <v>1570</v>
       </c>
       <c r="AF77" t="s">
-        <v>1653</v>
+        <v>1655</v>
       </c>
       <c r="AG77" s="2" t="s">
-        <v>1786</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="78" spans="1:33">
@@ -13373,7 +13379,7 @@
         <v>0</v>
       </c>
       <c r="AB78" s="3" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="AC78" t="s">
         <v>108</v>
@@ -13382,13 +13388,13 @@
         <v>108</v>
       </c>
       <c r="AE78" t="s">
-        <v>1540</v>
+        <v>1542</v>
       </c>
       <c r="AF78" t="s">
-        <v>1626</v>
+        <v>1628</v>
       </c>
       <c r="AG78" s="2" t="s">
-        <v>1787</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="79" spans="1:33">
@@ -13450,7 +13456,7 @@
         <v>0</v>
       </c>
       <c r="AB79" s="3" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="AC79" t="s">
         <v>108</v>
@@ -13459,13 +13465,13 @@
         <v>108</v>
       </c>
       <c r="AE79" t="s">
-        <v>1565</v>
+        <v>1567</v>
       </c>
       <c r="AF79" t="s">
-        <v>1650</v>
+        <v>1652</v>
       </c>
       <c r="AG79" s="2" t="s">
-        <v>1788</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="80" spans="1:33">
@@ -13527,7 +13533,7 @@
         <v>0</v>
       </c>
       <c r="AB80" s="3" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="AC80" t="s">
         <v>108</v>
@@ -13536,13 +13542,13 @@
         <v>108</v>
       </c>
       <c r="AE80" t="s">
-        <v>1565</v>
+        <v>1567</v>
       </c>
       <c r="AF80" t="s">
-        <v>1650</v>
+        <v>1652</v>
       </c>
       <c r="AG80" s="2" t="s">
-        <v>1789</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="81" spans="1:33">
@@ -13604,7 +13610,7 @@
         <v>0</v>
       </c>
       <c r="AB81" s="3" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="AC81" t="s">
         <v>108</v>
@@ -13613,13 +13619,13 @@
         <v>108</v>
       </c>
       <c r="AE81" t="s">
-        <v>1565</v>
+        <v>1567</v>
       </c>
       <c r="AF81" t="s">
-        <v>1650</v>
+        <v>1652</v>
       </c>
       <c r="AG81" s="2" t="s">
-        <v>1790</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="82" spans="1:33">
@@ -13681,7 +13687,7 @@
         <v>0</v>
       </c>
       <c r="AB82" s="3" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="AC82" t="s">
         <v>108</v>
@@ -13690,13 +13696,13 @@
         <v>108</v>
       </c>
       <c r="AE82" t="s">
-        <v>1569</v>
+        <v>1571</v>
       </c>
       <c r="AF82" t="s">
-        <v>1654</v>
+        <v>1656</v>
       </c>
       <c r="AG82" s="2" t="s">
-        <v>1791</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="83" spans="1:33">
@@ -13758,7 +13764,7 @@
         <v>0</v>
       </c>
       <c r="AB83" s="3" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
       <c r="AC83" t="s">
         <v>108</v>
@@ -13767,13 +13773,13 @@
         <v>108</v>
       </c>
       <c r="AE83" t="s">
-        <v>1564</v>
+        <v>1566</v>
       </c>
       <c r="AF83" t="s">
-        <v>1649</v>
+        <v>1651</v>
       </c>
       <c r="AG83" s="2" t="s">
-        <v>1792</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="84" spans="1:33">
@@ -13835,7 +13841,7 @@
         <v>0</v>
       </c>
       <c r="AB84" s="3" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="AC84" t="s">
         <v>108</v>
@@ -13844,13 +13850,13 @@
         <v>108</v>
       </c>
       <c r="AE84" t="s">
-        <v>1568</v>
+        <v>1570</v>
       </c>
       <c r="AF84" t="s">
-        <v>1653</v>
+        <v>1655</v>
       </c>
       <c r="AG84" s="2" t="s">
-        <v>1793</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="85" spans="1:33">
@@ -13912,7 +13918,7 @@
         <v>0</v>
       </c>
       <c r="AB85" s="3" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="AC85" t="s">
         <v>108</v>
@@ -13921,13 +13927,13 @@
         <v>108</v>
       </c>
       <c r="AE85" t="s">
-        <v>1569</v>
+        <v>1571</v>
       </c>
       <c r="AF85" t="s">
-        <v>1654</v>
+        <v>1656</v>
       </c>
       <c r="AG85" s="2" t="s">
-        <v>1794</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="86" spans="1:33">
@@ -13989,7 +13995,7 @@
         <v>0</v>
       </c>
       <c r="AB86" s="3" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="AC86" t="s">
         <v>108</v>
@@ -13998,13 +14004,13 @@
         <v>108</v>
       </c>
       <c r="AE86" t="s">
-        <v>1546</v>
+        <v>1548</v>
       </c>
       <c r="AF86" t="s">
-        <v>1632</v>
+        <v>1634</v>
       </c>
       <c r="AG86" s="2" t="s">
-        <v>1795</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="87" spans="1:33">
@@ -14066,7 +14072,7 @@
         <v>0</v>
       </c>
       <c r="AB87" s="3" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="AC87" t="s">
         <v>108</v>
@@ -14075,13 +14081,13 @@
         <v>108</v>
       </c>
       <c r="AE87" t="s">
-        <v>1548</v>
+        <v>1550</v>
       </c>
       <c r="AF87" t="s">
-        <v>1634</v>
+        <v>1636</v>
       </c>
       <c r="AG87" s="2" t="s">
-        <v>1796</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="88" spans="1:33">
@@ -14143,7 +14149,7 @@
         <v>0</v>
       </c>
       <c r="AB88" s="3" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="AC88" t="s">
         <v>108</v>
@@ -14152,13 +14158,13 @@
         <v>108</v>
       </c>
       <c r="AE88" t="s">
-        <v>1548</v>
+        <v>1550</v>
       </c>
       <c r="AF88" t="s">
-        <v>1634</v>
+        <v>1636</v>
       </c>
       <c r="AG88" s="2" t="s">
-        <v>1797</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="89" spans="1:33">
@@ -14220,7 +14226,7 @@
         <v>0</v>
       </c>
       <c r="AB89" s="3" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="AC89" t="s">
         <v>108</v>
@@ -14229,13 +14235,13 @@
         <v>108</v>
       </c>
       <c r="AE89" t="s">
-        <v>1541</v>
+        <v>1543</v>
       </c>
       <c r="AF89" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="AG89" s="2" t="s">
-        <v>1798</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="90" spans="1:33">
@@ -14297,7 +14303,7 @@
         <v>0</v>
       </c>
       <c r="AB90" s="3" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="AC90" t="s">
         <v>108</v>
@@ -14306,13 +14312,13 @@
         <v>108</v>
       </c>
       <c r="AE90" t="s">
-        <v>1570</v>
+        <v>1572</v>
       </c>
       <c r="AF90" t="s">
-        <v>1655</v>
+        <v>1657</v>
       </c>
       <c r="AG90" s="2" t="s">
-        <v>1799</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="91" spans="1:33">
@@ -14374,7 +14380,7 @@
         <v>0</v>
       </c>
       <c r="AB91" s="3" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="AC91" t="s">
         <v>108</v>
@@ -14383,13 +14389,13 @@
         <v>108</v>
       </c>
       <c r="AE91" t="s">
-        <v>1543</v>
+        <v>1545</v>
       </c>
       <c r="AF91" t="s">
-        <v>1629</v>
+        <v>1631</v>
       </c>
       <c r="AG91" s="2" t="s">
-        <v>1800</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="92" spans="1:33">
@@ -14451,7 +14457,7 @@
         <v>0</v>
       </c>
       <c r="AB92" s="3" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
       <c r="AC92" t="s">
         <v>108</v>
@@ -14460,13 +14466,13 @@
         <v>108</v>
       </c>
       <c r="AE92" t="s">
-        <v>1564</v>
+        <v>1566</v>
       </c>
       <c r="AF92" t="s">
-        <v>1649</v>
+        <v>1651</v>
       </c>
       <c r="AG92" s="2" t="s">
-        <v>1801</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="93" spans="1:33">
@@ -14528,7 +14534,7 @@
         <v>0</v>
       </c>
       <c r="AB93" s="3" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="AC93" t="s">
         <v>108</v>
@@ -14537,13 +14543,13 @@
         <v>108</v>
       </c>
       <c r="AE93" t="s">
-        <v>1571</v>
+        <v>1573</v>
       </c>
       <c r="AF93" t="s">
-        <v>1656</v>
+        <v>1658</v>
       </c>
       <c r="AG93" s="2" t="s">
-        <v>1802</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="94" spans="1:33">
@@ -14605,7 +14611,7 @@
         <v>0</v>
       </c>
       <c r="AB94" s="3" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="AC94" t="s">
         <v>108</v>
@@ -14614,13 +14620,13 @@
         <v>108</v>
       </c>
       <c r="AE94" t="s">
-        <v>1572</v>
+        <v>1574</v>
       </c>
       <c r="AF94" t="s">
-        <v>1657</v>
+        <v>1659</v>
       </c>
       <c r="AG94" s="2" t="s">
-        <v>1803</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="95" spans="1:33">
@@ -14682,7 +14688,7 @@
         <v>0</v>
       </c>
       <c r="AB95" s="3" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="AC95" t="s">
         <v>108</v>
@@ -14691,13 +14697,13 @@
         <v>108</v>
       </c>
       <c r="AE95" t="s">
-        <v>1541</v>
+        <v>1543</v>
       </c>
       <c r="AF95" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="AG95" s="2" t="s">
-        <v>1804</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="96" spans="1:33">
@@ -14759,7 +14765,7 @@
         <v>0</v>
       </c>
       <c r="AB96" s="3" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="AC96" t="s">
         <v>108</v>
@@ -14768,13 +14774,13 @@
         <v>108</v>
       </c>
       <c r="AE96" t="s">
-        <v>1568</v>
+        <v>1570</v>
       </c>
       <c r="AF96" t="s">
-        <v>1653</v>
+        <v>1655</v>
       </c>
       <c r="AG96" s="2" t="s">
-        <v>1805</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="97" spans="1:33">
@@ -14836,7 +14842,7 @@
         <v>0</v>
       </c>
       <c r="AB97" s="3" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="AC97" t="s">
         <v>108</v>
@@ -14845,13 +14851,13 @@
         <v>108</v>
       </c>
       <c r="AE97" t="s">
-        <v>1571</v>
+        <v>1573</v>
       </c>
       <c r="AF97" t="s">
-        <v>1656</v>
+        <v>1658</v>
       </c>
       <c r="AG97" s="2" t="s">
-        <v>1806</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="98" spans="1:33">
@@ -14913,22 +14919,22 @@
         <v>0</v>
       </c>
       <c r="AB98" s="3" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="AC98" t="s">
         <v>108</v>
       </c>
       <c r="AD98" s="3" t="s">
-        <v>1495</v>
+        <v>1497</v>
       </c>
       <c r="AE98" t="s">
-        <v>1571</v>
+        <v>1573</v>
       </c>
       <c r="AF98" t="s">
-        <v>1656</v>
+        <v>1658</v>
       </c>
       <c r="AG98" s="2" t="s">
-        <v>1807</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="99" spans="1:33">
@@ -14990,22 +14996,22 @@
         <v>0</v>
       </c>
       <c r="AB99" s="3" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="AC99" t="s">
         <v>108</v>
       </c>
       <c r="AD99" s="3" t="s">
-        <v>1496</v>
+        <v>1498</v>
       </c>
       <c r="AE99" t="s">
-        <v>1571</v>
+        <v>1573</v>
       </c>
       <c r="AF99" t="s">
-        <v>1656</v>
+        <v>1658</v>
       </c>
       <c r="AG99" s="2" t="s">
-        <v>1808</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="100" spans="1:33">
@@ -15067,22 +15073,22 @@
         <v>0</v>
       </c>
       <c r="AB100" s="3" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="AC100" t="s">
         <v>108</v>
       </c>
       <c r="AD100" s="3" t="s">
-        <v>1497</v>
+        <v>1499</v>
       </c>
       <c r="AE100" t="s">
-        <v>1573</v>
+        <v>1575</v>
       </c>
       <c r="AF100" t="s">
-        <v>1658</v>
+        <v>1660</v>
       </c>
       <c r="AG100" s="2" t="s">
-        <v>1809</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="101" spans="1:33">
@@ -15144,22 +15150,22 @@
         <v>0</v>
       </c>
       <c r="AB101" s="3" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="AC101" t="s">
         <v>108</v>
       </c>
       <c r="AD101" s="3" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
       <c r="AE101" t="s">
-        <v>1573</v>
+        <v>1575</v>
       </c>
       <c r="AF101" t="s">
-        <v>1658</v>
+        <v>1660</v>
       </c>
       <c r="AG101" s="2" t="s">
-        <v>1810</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="102" spans="1:33">
@@ -15221,7 +15227,7 @@
         <v>0</v>
       </c>
       <c r="AB102" s="3" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="AC102" t="s">
         <v>108</v>
@@ -15230,13 +15236,13 @@
         <v>108</v>
       </c>
       <c r="AE102" t="s">
-        <v>1573</v>
+        <v>1575</v>
       </c>
       <c r="AF102" t="s">
-        <v>1658</v>
+        <v>1660</v>
       </c>
       <c r="AG102" s="2" t="s">
-        <v>1811</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="103" spans="1:33">
@@ -15298,7 +15304,7 @@
         <v>0</v>
       </c>
       <c r="AB103" s="3" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="AC103" t="s">
         <v>108</v>
@@ -15307,13 +15313,13 @@
         <v>108</v>
       </c>
       <c r="AE103" t="s">
-        <v>1572</v>
+        <v>1574</v>
       </c>
       <c r="AF103" t="s">
-        <v>1657</v>
+        <v>1659</v>
       </c>
       <c r="AG103" s="2" t="s">
-        <v>1812</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="104" spans="1:33">
@@ -15375,7 +15381,7 @@
         <v>0</v>
       </c>
       <c r="AB104" s="3" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="AC104" t="s">
         <v>108</v>
@@ -15384,13 +15390,13 @@
         <v>108</v>
       </c>
       <c r="AE104" t="s">
-        <v>1570</v>
+        <v>1572</v>
       </c>
       <c r="AF104" t="s">
-        <v>1655</v>
+        <v>1657</v>
       </c>
       <c r="AG104" s="2" t="s">
-        <v>1813</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="105" spans="1:33">
@@ -15452,7 +15458,7 @@
         <v>0</v>
       </c>
       <c r="AB105" s="3" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="AC105" t="s">
         <v>108</v>
@@ -15464,10 +15470,10 @@
         <v>115</v>
       </c>
       <c r="AF105" t="s">
-        <v>1659</v>
+        <v>1661</v>
       </c>
       <c r="AG105" s="2" t="s">
-        <v>1814</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="106" spans="1:33">
@@ -15529,7 +15535,7 @@
         <v>0</v>
       </c>
       <c r="AB106" s="3" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="AC106" t="s">
         <v>108</v>
@@ -15538,13 +15544,13 @@
         <v>108</v>
       </c>
       <c r="AE106" t="s">
-        <v>1564</v>
+        <v>1566</v>
       </c>
       <c r="AF106" t="s">
-        <v>1649</v>
+        <v>1651</v>
       </c>
       <c r="AG106" s="2" t="s">
-        <v>1815</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="107" spans="1:33">
@@ -15606,7 +15612,7 @@
         <v>0</v>
       </c>
       <c r="AB107" s="3" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="AC107" t="s">
         <v>108</v>
@@ -15615,13 +15621,13 @@
         <v>108</v>
       </c>
       <c r="AE107" t="s">
-        <v>1574</v>
+        <v>1576</v>
       </c>
       <c r="AF107" t="s">
-        <v>1660</v>
+        <v>1662</v>
       </c>
       <c r="AG107" s="2" t="s">
-        <v>1816</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="108" spans="1:33">
@@ -15683,7 +15689,7 @@
         <v>0</v>
       </c>
       <c r="AB108" s="3" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="AC108" t="s">
         <v>108</v>
@@ -15692,13 +15698,13 @@
         <v>108</v>
       </c>
       <c r="AE108" t="s">
-        <v>1575</v>
+        <v>1577</v>
       </c>
       <c r="AF108" t="s">
-        <v>1661</v>
+        <v>1663</v>
       </c>
       <c r="AG108" s="2" t="s">
-        <v>1817</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="109" spans="1:33">
@@ -15763,7 +15769,7 @@
         <v>0</v>
       </c>
       <c r="AB109" s="3" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="AC109" t="s">
         <v>108</v>
@@ -15772,13 +15778,13 @@
         <v>108</v>
       </c>
       <c r="AE109" t="s">
-        <v>1569</v>
+        <v>1571</v>
       </c>
       <c r="AF109" t="s">
-        <v>1654</v>
+        <v>1656</v>
       </c>
       <c r="AG109" s="2" t="s">
-        <v>1818</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="110" spans="1:33">
@@ -15840,7 +15846,7 @@
         <v>0</v>
       </c>
       <c r="AB110" s="3" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="AC110" t="s">
         <v>108</v>
@@ -15849,13 +15855,13 @@
         <v>108</v>
       </c>
       <c r="AE110" t="s">
-        <v>1564</v>
+        <v>1566</v>
       </c>
       <c r="AF110" t="s">
-        <v>1649</v>
+        <v>1651</v>
       </c>
       <c r="AG110" s="2" t="s">
-        <v>1819</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="111" spans="1:33">
@@ -15917,7 +15923,7 @@
         <v>0</v>
       </c>
       <c r="AB111" s="3" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="AC111" t="s">
         <v>108</v>
@@ -15926,13 +15932,13 @@
         <v>108</v>
       </c>
       <c r="AE111" t="s">
-        <v>1576</v>
+        <v>1578</v>
       </c>
       <c r="AF111" t="s">
-        <v>1662</v>
+        <v>1664</v>
       </c>
       <c r="AG111" s="2" t="s">
-        <v>1820</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="112" spans="1:33">
@@ -15994,7 +16000,7 @@
         <v>0</v>
       </c>
       <c r="AB112" s="3" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="AC112" t="s">
         <v>108</v>
@@ -16003,13 +16009,13 @@
         <v>108</v>
       </c>
       <c r="AE112" t="s">
-        <v>1569</v>
+        <v>1571</v>
       </c>
       <c r="AF112" t="s">
-        <v>1654</v>
+        <v>1656</v>
       </c>
       <c r="AG112" s="2" t="s">
-        <v>1821</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="113" spans="1:33">
@@ -16071,7 +16077,7 @@
         <v>0</v>
       </c>
       <c r="AB113" s="3" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="AC113" t="s">
         <v>108</v>
@@ -16080,13 +16086,13 @@
         <v>108</v>
       </c>
       <c r="AE113" t="s">
-        <v>1548</v>
+        <v>1550</v>
       </c>
       <c r="AF113" t="s">
-        <v>1634</v>
+        <v>1636</v>
       </c>
       <c r="AG113" s="2" t="s">
-        <v>1822</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="114" spans="1:33">
@@ -16148,7 +16154,7 @@
         <v>0</v>
       </c>
       <c r="AB114" s="3" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="AC114" t="s">
         <v>108</v>
@@ -16157,13 +16163,13 @@
         <v>108</v>
       </c>
       <c r="AE114" t="s">
-        <v>1569</v>
+        <v>1571</v>
       </c>
       <c r="AF114" t="s">
-        <v>1654</v>
+        <v>1656</v>
       </c>
       <c r="AG114" s="2" t="s">
-        <v>1823</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="115" spans="1:33">
@@ -16225,7 +16231,7 @@
         <v>0</v>
       </c>
       <c r="AB115" s="3" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="AC115" t="s">
         <v>108</v>
@@ -16234,13 +16240,13 @@
         <v>108</v>
       </c>
       <c r="AE115" t="s">
-        <v>1542</v>
+        <v>1544</v>
       </c>
       <c r="AF115" t="s">
-        <v>1628</v>
+        <v>1630</v>
       </c>
       <c r="AG115" s="2" t="s">
-        <v>1824</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="116" spans="1:33">
@@ -16302,7 +16308,7 @@
         <v>0</v>
       </c>
       <c r="AB116" s="3" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="AC116" t="s">
         <v>108</v>
@@ -16311,13 +16317,13 @@
         <v>108</v>
       </c>
       <c r="AE116" t="s">
-        <v>1577</v>
+        <v>1579</v>
       </c>
       <c r="AF116" t="s">
-        <v>1663</v>
+        <v>1665</v>
       </c>
       <c r="AG116" s="2" t="s">
-        <v>1825</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="117" spans="1:33">
@@ -16379,22 +16385,22 @@
         <v>0</v>
       </c>
       <c r="AB117" s="3" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="AC117" t="s">
         <v>108</v>
       </c>
       <c r="AD117" s="3" t="s">
-        <v>1499</v>
+        <v>1501</v>
       </c>
       <c r="AE117" t="s">
-        <v>1542</v>
+        <v>1544</v>
       </c>
       <c r="AF117" t="s">
-        <v>1628</v>
+        <v>1630</v>
       </c>
       <c r="AG117" s="2" t="s">
-        <v>1826</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="118" spans="1:33">
@@ -16456,22 +16462,22 @@
         <v>0</v>
       </c>
       <c r="AB118" s="3" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="AC118" t="s">
         <v>108</v>
       </c>
       <c r="AD118" s="3" t="s">
-        <v>1500</v>
+        <v>1502</v>
       </c>
       <c r="AE118" t="s">
-        <v>1542</v>
+        <v>1544</v>
       </c>
       <c r="AF118" t="s">
-        <v>1628</v>
+        <v>1630</v>
       </c>
       <c r="AG118" s="2" t="s">
-        <v>1827</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="119" spans="1:33">
@@ -16533,7 +16539,7 @@
         <v>0</v>
       </c>
       <c r="AB119" s="3" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="AC119" t="s">
         <v>108</v>
@@ -16542,13 +16548,13 @@
         <v>108</v>
       </c>
       <c r="AE119" t="s">
-        <v>1561</v>
+        <v>1563</v>
       </c>
       <c r="AF119" t="s">
-        <v>1646</v>
+        <v>1648</v>
       </c>
       <c r="AG119" s="2" t="s">
-        <v>1828</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="120" spans="1:33">
@@ -16610,7 +16616,7 @@
         <v>0</v>
       </c>
       <c r="AB120" s="3" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="AC120" t="s">
         <v>108</v>
@@ -16619,13 +16625,13 @@
         <v>108</v>
       </c>
       <c r="AE120" t="s">
-        <v>1578</v>
+        <v>1580</v>
       </c>
       <c r="AF120" t="s">
-        <v>1664</v>
+        <v>1666</v>
       </c>
       <c r="AG120" s="2" t="s">
-        <v>1829</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="121" spans="1:33">
@@ -16687,7 +16693,7 @@
         <v>0</v>
       </c>
       <c r="AB121" s="3" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="AC121" t="s">
         <v>108</v>
@@ -16696,13 +16702,13 @@
         <v>108</v>
       </c>
       <c r="AE121" t="s">
-        <v>1543</v>
+        <v>1545</v>
       </c>
       <c r="AF121" t="s">
-        <v>1629</v>
+        <v>1631</v>
       </c>
       <c r="AG121" s="2" t="s">
-        <v>1830</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="122" spans="1:33">
@@ -16764,22 +16770,22 @@
         <v>0</v>
       </c>
       <c r="AB122" s="3" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="AC122" t="s">
         <v>108</v>
       </c>
       <c r="AD122" s="3" t="s">
-        <v>1501</v>
+        <v>1503</v>
       </c>
       <c r="AE122" t="s">
-        <v>1543</v>
+        <v>1545</v>
       </c>
       <c r="AF122" t="s">
-        <v>1629</v>
+        <v>1631</v>
       </c>
       <c r="AG122" s="2" t="s">
-        <v>1831</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="123" spans="1:33">
@@ -16841,22 +16847,22 @@
         <v>0</v>
       </c>
       <c r="AB123" s="3" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="AC123" t="s">
         <v>108</v>
       </c>
       <c r="AD123" s="3" t="s">
-        <v>1502</v>
+        <v>1504</v>
       </c>
       <c r="AE123" t="s">
-        <v>1543</v>
+        <v>1545</v>
       </c>
       <c r="AF123" t="s">
-        <v>1629</v>
+        <v>1631</v>
       </c>
       <c r="AG123" s="2" t="s">
-        <v>1832</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="124" spans="1:33">
@@ -16918,7 +16924,7 @@
         <v>0</v>
       </c>
       <c r="AB124" s="3" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="AC124" t="s">
         <v>108</v>
@@ -16927,13 +16933,13 @@
         <v>108</v>
       </c>
       <c r="AE124" t="s">
-        <v>1566</v>
+        <v>1568</v>
       </c>
       <c r="AF124" t="s">
-        <v>1651</v>
+        <v>1653</v>
       </c>
       <c r="AG124" s="2" t="s">
-        <v>1833</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="125" spans="1:33">
@@ -16995,22 +17001,22 @@
         <v>0</v>
       </c>
       <c r="AB125" s="3" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="AC125" t="s">
         <v>108</v>
       </c>
       <c r="AD125" s="3" t="s">
-        <v>1503</v>
+        <v>1505</v>
       </c>
       <c r="AE125" t="s">
-        <v>1548</v>
+        <v>1550</v>
       </c>
       <c r="AF125" t="s">
-        <v>1634</v>
+        <v>1636</v>
       </c>
       <c r="AG125" s="2" t="s">
-        <v>1834</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="126" spans="1:33">
@@ -17072,22 +17078,22 @@
         <v>0</v>
       </c>
       <c r="AB126" s="3" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="AC126" t="s">
         <v>108</v>
       </c>
       <c r="AD126" s="3" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
       <c r="AE126" t="s">
-        <v>1548</v>
+        <v>1550</v>
       </c>
       <c r="AF126" t="s">
-        <v>1634</v>
+        <v>1636</v>
       </c>
       <c r="AG126" s="2" t="s">
-        <v>1835</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="127" spans="1:33">
@@ -17149,22 +17155,22 @@
         <v>0</v>
       </c>
       <c r="AB127" s="3" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="AC127" t="s">
         <v>108</v>
       </c>
       <c r="AD127" s="3" t="s">
-        <v>1505</v>
+        <v>1507</v>
       </c>
       <c r="AE127" t="s">
-        <v>1548</v>
+        <v>1550</v>
       </c>
       <c r="AF127" t="s">
-        <v>1634</v>
+        <v>1636</v>
       </c>
       <c r="AG127" s="2" t="s">
-        <v>1836</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="128" spans="1:33">
@@ -17226,22 +17232,22 @@
         <v>0</v>
       </c>
       <c r="AB128" s="3" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="AC128" t="s">
         <v>108</v>
       </c>
       <c r="AD128" s="3" t="s">
-        <v>1506</v>
+        <v>1508</v>
       </c>
       <c r="AE128" t="s">
-        <v>1548</v>
+        <v>1550</v>
       </c>
       <c r="AF128" t="s">
-        <v>1634</v>
+        <v>1636</v>
       </c>
       <c r="AG128" s="2" t="s">
-        <v>1837</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="129" spans="1:33">
@@ -17303,22 +17309,22 @@
         <v>0</v>
       </c>
       <c r="AB129" s="3" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="AC129" t="s">
         <v>108</v>
       </c>
       <c r="AD129" s="3" t="s">
-        <v>1507</v>
+        <v>1509</v>
       </c>
       <c r="AE129" t="s">
-        <v>1548</v>
+        <v>1550</v>
       </c>
       <c r="AF129" t="s">
-        <v>1634</v>
+        <v>1636</v>
       </c>
       <c r="AG129" s="2" t="s">
-        <v>1838</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="130" spans="1:33">
@@ -17380,22 +17386,22 @@
         <v>0</v>
       </c>
       <c r="AB130" s="3" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="AC130" t="s">
         <v>108</v>
       </c>
       <c r="AD130" s="3" t="s">
-        <v>1508</v>
+        <v>1510</v>
       </c>
       <c r="AE130" t="s">
-        <v>1548</v>
+        <v>1550</v>
       </c>
       <c r="AF130" t="s">
-        <v>1634</v>
+        <v>1636</v>
       </c>
       <c r="AG130" s="2" t="s">
-        <v>1839</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="131" spans="1:33">
@@ -17457,7 +17463,7 @@
         <v>0</v>
       </c>
       <c r="AB131" s="3" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="AC131" t="s">
         <v>108</v>
@@ -17466,13 +17472,13 @@
         <v>108</v>
       </c>
       <c r="AE131" t="s">
-        <v>1561</v>
+        <v>1563</v>
       </c>
       <c r="AF131" t="s">
-        <v>1646</v>
+        <v>1648</v>
       </c>
       <c r="AG131" s="2" t="s">
-        <v>1840</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="132" spans="1:33">
@@ -17534,7 +17540,7 @@
         <v>0</v>
       </c>
       <c r="AB132" s="3" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="AC132" t="s">
         <v>108</v>
@@ -17543,13 +17549,13 @@
         <v>108</v>
       </c>
       <c r="AE132" t="s">
-        <v>1561</v>
+        <v>1563</v>
       </c>
       <c r="AF132" t="s">
-        <v>1646</v>
+        <v>1648</v>
       </c>
       <c r="AG132" s="2" t="s">
-        <v>1841</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="133" spans="1:33">
@@ -17611,7 +17617,7 @@
         <v>0</v>
       </c>
       <c r="AB133" s="3" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="AC133" t="s">
         <v>108</v>
@@ -17620,13 +17626,13 @@
         <v>108</v>
       </c>
       <c r="AE133" t="s">
-        <v>1561</v>
+        <v>1563</v>
       </c>
       <c r="AF133" t="s">
-        <v>1646</v>
+        <v>1648</v>
       </c>
       <c r="AG133" s="2" t="s">
-        <v>1842</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="134" spans="1:33">
@@ -17688,7 +17694,7 @@
         <v>0</v>
       </c>
       <c r="AB134" s="3" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="AC134" t="s">
         <v>108</v>
@@ -17697,13 +17703,13 @@
         <v>108</v>
       </c>
       <c r="AE134" t="s">
-        <v>1561</v>
+        <v>1563</v>
       </c>
       <c r="AF134" t="s">
-        <v>1646</v>
+        <v>1648</v>
       </c>
       <c r="AG134" s="2" t="s">
-        <v>1843</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="135" spans="1:33">
@@ -17765,7 +17771,7 @@
         <v>0</v>
       </c>
       <c r="AB135" s="3" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="AC135" t="s">
         <v>108</v>
@@ -17774,13 +17780,13 @@
         <v>108</v>
       </c>
       <c r="AE135" t="s">
-        <v>1561</v>
+        <v>1563</v>
       </c>
       <c r="AF135" t="s">
-        <v>1646</v>
+        <v>1648</v>
       </c>
       <c r="AG135" s="2" t="s">
-        <v>1844</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="136" spans="1:33">
@@ -17842,7 +17848,7 @@
         <v>0</v>
       </c>
       <c r="AB136" s="3" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="AC136" t="s">
         <v>108</v>
@@ -17851,13 +17857,13 @@
         <v>108</v>
       </c>
       <c r="AE136" t="s">
-        <v>1561</v>
+        <v>1563</v>
       </c>
       <c r="AF136" t="s">
-        <v>1646</v>
+        <v>1648</v>
       </c>
       <c r="AG136" s="2" t="s">
-        <v>1845</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="137" spans="1:33">
@@ -17919,7 +17925,7 @@
         <v>0</v>
       </c>
       <c r="AB137" s="3" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="AC137" t="s">
         <v>108</v>
@@ -17928,13 +17934,13 @@
         <v>108</v>
       </c>
       <c r="AE137" t="s">
-        <v>1555</v>
+        <v>1557</v>
       </c>
       <c r="AF137" t="s">
-        <v>1640</v>
+        <v>1642</v>
       </c>
       <c r="AG137" s="2" t="s">
-        <v>1846</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="138" spans="1:33">
@@ -17996,7 +18002,7 @@
         <v>0</v>
       </c>
       <c r="AB138" s="3" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="AC138" t="s">
         <v>108</v>
@@ -18005,13 +18011,13 @@
         <v>108</v>
       </c>
       <c r="AE138" t="s">
-        <v>1561</v>
+        <v>1563</v>
       </c>
       <c r="AF138" t="s">
-        <v>1646</v>
+        <v>1648</v>
       </c>
       <c r="AG138" s="2" t="s">
-        <v>1847</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="139" spans="1:33">
@@ -18073,7 +18079,7 @@
         <v>0</v>
       </c>
       <c r="AB139" s="3" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="AC139" t="s">
         <v>108</v>
@@ -18082,13 +18088,13 @@
         <v>108</v>
       </c>
       <c r="AE139" t="s">
-        <v>1561</v>
+        <v>1563</v>
       </c>
       <c r="AF139" t="s">
-        <v>1646</v>
+        <v>1648</v>
       </c>
       <c r="AG139" s="2" t="s">
-        <v>1848</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="140" spans="1:33">
@@ -18150,7 +18156,7 @@
         <v>0</v>
       </c>
       <c r="AB140" s="3" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="AC140" t="s">
         <v>108</v>
@@ -18159,13 +18165,13 @@
         <v>108</v>
       </c>
       <c r="AE140" t="s">
-        <v>1563</v>
+        <v>1565</v>
       </c>
       <c r="AF140" t="s">
-        <v>1648</v>
+        <v>1650</v>
       </c>
       <c r="AG140" s="2" t="s">
-        <v>1849</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="141" spans="1:33">
@@ -18227,7 +18233,7 @@
         <v>0</v>
       </c>
       <c r="AB141" s="3" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="AC141" t="s">
         <v>108</v>
@@ -18236,13 +18242,13 @@
         <v>108</v>
       </c>
       <c r="AE141" t="s">
-        <v>1561</v>
+        <v>1563</v>
       </c>
       <c r="AF141" t="s">
-        <v>1646</v>
+        <v>1648</v>
       </c>
       <c r="AG141" s="2" t="s">
-        <v>1850</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="142" spans="1:33">
@@ -18304,7 +18310,7 @@
         <v>0</v>
       </c>
       <c r="AB142" s="3" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="AC142" t="s">
         <v>108</v>
@@ -18313,13 +18319,13 @@
         <v>108</v>
       </c>
       <c r="AE142" t="s">
-        <v>1561</v>
+        <v>1563</v>
       </c>
       <c r="AF142" t="s">
-        <v>1646</v>
+        <v>1648</v>
       </c>
       <c r="AG142" s="2" t="s">
-        <v>1851</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="143" spans="1:33">
@@ -18381,7 +18387,7 @@
         <v>0</v>
       </c>
       <c r="AB143" s="3" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="AC143" t="s">
         <v>108</v>
@@ -18390,13 +18396,13 @@
         <v>108</v>
       </c>
       <c r="AE143" t="s">
-        <v>1561</v>
+        <v>1563</v>
       </c>
       <c r="AF143" t="s">
-        <v>1646</v>
+        <v>1648</v>
       </c>
       <c r="AG143" s="2" t="s">
-        <v>1852</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="144" spans="1:33">
@@ -18458,7 +18464,7 @@
         <v>0</v>
       </c>
       <c r="AB144" s="3" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="AC144" t="s">
         <v>108</v>
@@ -18467,13 +18473,13 @@
         <v>108</v>
       </c>
       <c r="AE144" t="s">
-        <v>1561</v>
+        <v>1563</v>
       </c>
       <c r="AF144" t="s">
-        <v>1646</v>
+        <v>1648</v>
       </c>
       <c r="AG144" s="2" t="s">
-        <v>1853</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="145" spans="1:33">
@@ -18535,7 +18541,7 @@
         <v>0</v>
       </c>
       <c r="AB145" s="3" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="AC145" t="s">
         <v>108</v>
@@ -18544,13 +18550,13 @@
         <v>108</v>
       </c>
       <c r="AE145" t="s">
-        <v>1561</v>
+        <v>1563</v>
       </c>
       <c r="AF145" t="s">
-        <v>1646</v>
+        <v>1648</v>
       </c>
       <c r="AG145" s="2" t="s">
-        <v>1854</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="146" spans="1:33">
@@ -18612,7 +18618,7 @@
         <v>0</v>
       </c>
       <c r="AB146" s="3" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="AC146" t="s">
         <v>108</v>
@@ -18621,13 +18627,13 @@
         <v>108</v>
       </c>
       <c r="AE146" t="s">
-        <v>1561</v>
+        <v>1563</v>
       </c>
       <c r="AF146" t="s">
-        <v>1646</v>
+        <v>1648</v>
       </c>
       <c r="AG146" s="2" t="s">
-        <v>1855</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="147" spans="1:33">
@@ -18689,7 +18695,7 @@
         <v>0</v>
       </c>
       <c r="AB147" s="3" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="AC147" t="s">
         <v>108</v>
@@ -18698,13 +18704,13 @@
         <v>108</v>
       </c>
       <c r="AE147" t="s">
-        <v>1561</v>
+        <v>1563</v>
       </c>
       <c r="AF147" t="s">
-        <v>1646</v>
+        <v>1648</v>
       </c>
       <c r="AG147" s="2" t="s">
-        <v>1856</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="148" spans="1:33">
@@ -18766,7 +18772,7 @@
         <v>0</v>
       </c>
       <c r="AB148" s="3" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="AC148" t="s">
         <v>108</v>
@@ -18775,13 +18781,13 @@
         <v>108</v>
       </c>
       <c r="AE148" t="s">
-        <v>1561</v>
+        <v>1563</v>
       </c>
       <c r="AF148" t="s">
-        <v>1646</v>
+        <v>1648</v>
       </c>
       <c r="AG148" s="2" t="s">
-        <v>1857</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="149" spans="1:33">
@@ -18843,7 +18849,7 @@
         <v>0</v>
       </c>
       <c r="AB149" s="3" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="AC149" t="s">
         <v>108</v>
@@ -18852,13 +18858,13 @@
         <v>108</v>
       </c>
       <c r="AE149" t="s">
-        <v>1561</v>
+        <v>1563</v>
       </c>
       <c r="AF149" t="s">
-        <v>1646</v>
+        <v>1648</v>
       </c>
       <c r="AG149" s="2" t="s">
-        <v>1858</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="150" spans="1:33">
@@ -18920,7 +18926,7 @@
         <v>0</v>
       </c>
       <c r="AB150" s="3" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="AC150" t="s">
         <v>108</v>
@@ -18929,13 +18935,13 @@
         <v>108</v>
       </c>
       <c r="AE150" t="s">
-        <v>1561</v>
+        <v>1563</v>
       </c>
       <c r="AF150" t="s">
-        <v>1646</v>
+        <v>1648</v>
       </c>
       <c r="AG150" s="2" t="s">
-        <v>1859</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="151" spans="1:33">
@@ -18997,7 +19003,7 @@
         <v>0</v>
       </c>
       <c r="AB151" s="3" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="AC151" t="s">
         <v>108</v>
@@ -19006,13 +19012,13 @@
         <v>108</v>
       </c>
       <c r="AE151" t="s">
-        <v>1561</v>
+        <v>1563</v>
       </c>
       <c r="AF151" t="s">
-        <v>1646</v>
+        <v>1648</v>
       </c>
       <c r="AG151" s="2" t="s">
-        <v>1860</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="152" spans="1:33">
@@ -19074,7 +19080,7 @@
         <v>0</v>
       </c>
       <c r="AB152" s="3" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="AC152" t="s">
         <v>108</v>
@@ -19083,13 +19089,13 @@
         <v>108</v>
       </c>
       <c r="AE152" t="s">
-        <v>1561</v>
+        <v>1563</v>
       </c>
       <c r="AF152" t="s">
-        <v>1646</v>
+        <v>1648</v>
       </c>
       <c r="AG152" s="2" t="s">
-        <v>1861</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="153" spans="1:33">
@@ -19151,7 +19157,7 @@
         <v>0</v>
       </c>
       <c r="AB153" s="3" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="AC153" t="s">
         <v>108</v>
@@ -19160,13 +19166,13 @@
         <v>108</v>
       </c>
       <c r="AE153" t="s">
-        <v>1561</v>
+        <v>1563</v>
       </c>
       <c r="AF153" t="s">
-        <v>1646</v>
+        <v>1648</v>
       </c>
       <c r="AG153" s="2" t="s">
-        <v>1862</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="154" spans="1:33">
@@ -19228,7 +19234,7 @@
         <v>0</v>
       </c>
       <c r="AB154" s="3" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="AC154" t="s">
         <v>108</v>
@@ -19237,13 +19243,13 @@
         <v>108</v>
       </c>
       <c r="AE154" t="s">
-        <v>1569</v>
+        <v>1571</v>
       </c>
       <c r="AF154" t="s">
-        <v>1654</v>
+        <v>1656</v>
       </c>
       <c r="AG154" s="2" t="s">
-        <v>1863</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="155" spans="1:33">
@@ -19305,7 +19311,7 @@
         <v>0</v>
       </c>
       <c r="AB155" s="3" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="AC155" t="s">
         <v>108</v>
@@ -19314,13 +19320,13 @@
         <v>108</v>
       </c>
       <c r="AE155" t="s">
-        <v>1561</v>
+        <v>1563</v>
       </c>
       <c r="AF155" t="s">
-        <v>1646</v>
+        <v>1648</v>
       </c>
       <c r="AG155" s="2" t="s">
-        <v>1864</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="156" spans="1:33">
@@ -19382,22 +19388,22 @@
         <v>0</v>
       </c>
       <c r="AB156" s="3" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
       <c r="AC156" t="s">
         <v>108</v>
       </c>
       <c r="AD156" s="3" t="s">
-        <v>1509</v>
+        <v>1511</v>
       </c>
       <c r="AE156" t="s">
-        <v>1546</v>
+        <v>1548</v>
       </c>
       <c r="AF156" t="s">
-        <v>1632</v>
+        <v>1634</v>
       </c>
       <c r="AG156" s="2" t="s">
-        <v>1865</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="157" spans="1:33">
@@ -19459,22 +19465,22 @@
         <v>0</v>
       </c>
       <c r="AB157" s="3" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="AC157" t="s">
         <v>108</v>
       </c>
       <c r="AD157" s="3" t="s">
-        <v>1510</v>
+        <v>1512</v>
       </c>
       <c r="AE157" t="s">
-        <v>1546</v>
+        <v>1548</v>
       </c>
       <c r="AF157" t="s">
-        <v>1632</v>
+        <v>1634</v>
       </c>
       <c r="AG157" s="2" t="s">
-        <v>1866</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="158" spans="1:33">
@@ -19536,22 +19542,22 @@
         <v>0</v>
       </c>
       <c r="AB158" s="3" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="AC158" t="s">
         <v>108</v>
       </c>
       <c r="AD158" s="3" t="s">
-        <v>1511</v>
+        <v>1513</v>
       </c>
       <c r="AE158" t="s">
-        <v>1546</v>
+        <v>1548</v>
       </c>
       <c r="AF158" t="s">
-        <v>1632</v>
+        <v>1634</v>
       </c>
       <c r="AG158" s="2" t="s">
-        <v>1867</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="159" spans="1:33">
@@ -19613,22 +19619,22 @@
         <v>0</v>
       </c>
       <c r="AB159" s="3" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="AC159" t="s">
         <v>108</v>
       </c>
       <c r="AD159" s="3" t="s">
-        <v>1512</v>
+        <v>1514</v>
       </c>
       <c r="AE159" t="s">
-        <v>1546</v>
+        <v>1548</v>
       </c>
       <c r="AF159" t="s">
-        <v>1632</v>
+        <v>1634</v>
       </c>
       <c r="AG159" s="2" t="s">
-        <v>1868</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="160" spans="1:33">
@@ -19690,22 +19696,22 @@
         <v>0</v>
       </c>
       <c r="AB160" s="3" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="AC160" t="s">
         <v>108</v>
       </c>
       <c r="AD160" s="3" t="s">
-        <v>1513</v>
+        <v>1515</v>
       </c>
       <c r="AE160" t="s">
-        <v>1546</v>
+        <v>1548</v>
       </c>
       <c r="AF160" t="s">
-        <v>1632</v>
+        <v>1634</v>
       </c>
       <c r="AG160" s="2" t="s">
-        <v>1869</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="161" spans="1:33">
@@ -19767,7 +19773,7 @@
         <v>0</v>
       </c>
       <c r="AB161" s="3" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="AC161" t="s">
         <v>108</v>
@@ -19776,13 +19782,13 @@
         <v>108</v>
       </c>
       <c r="AE161" t="s">
-        <v>1561</v>
+        <v>1563</v>
       </c>
       <c r="AF161" t="s">
-        <v>1646</v>
+        <v>1648</v>
       </c>
       <c r="AG161" s="2" t="s">
-        <v>1870</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="162" spans="1:33">
@@ -19844,7 +19850,7 @@
         <v>0</v>
       </c>
       <c r="AB162" s="3" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="AC162" t="s">
         <v>108</v>
@@ -19853,13 +19859,13 @@
         <v>108</v>
       </c>
       <c r="AE162" t="s">
-        <v>1561</v>
+        <v>1563</v>
       </c>
       <c r="AF162" t="s">
-        <v>1646</v>
+        <v>1648</v>
       </c>
       <c r="AG162" s="2" t="s">
-        <v>1871</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="163" spans="1:33">
@@ -19921,7 +19927,7 @@
         <v>0</v>
       </c>
       <c r="AB163" s="3" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="AC163" t="s">
         <v>108</v>
@@ -19930,13 +19936,13 @@
         <v>108</v>
       </c>
       <c r="AE163" t="s">
-        <v>1569</v>
+        <v>1571</v>
       </c>
       <c r="AF163" t="s">
-        <v>1654</v>
+        <v>1656</v>
       </c>
       <c r="AG163" s="2" t="s">
-        <v>1872</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="164" spans="1:33">
@@ -19998,7 +20004,7 @@
         <v>0</v>
       </c>
       <c r="AB164" s="3" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="AC164" t="s">
         <v>108</v>
@@ -20007,13 +20013,13 @@
         <v>108</v>
       </c>
       <c r="AE164" t="s">
-        <v>1561</v>
+        <v>1563</v>
       </c>
       <c r="AF164" t="s">
-        <v>1646</v>
+        <v>1648</v>
       </c>
       <c r="AG164" s="2" t="s">
-        <v>1873</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="165" spans="1:33">
@@ -20075,7 +20081,7 @@
         <v>0</v>
       </c>
       <c r="AB165" s="3" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="AC165" t="s">
         <v>108</v>
@@ -20084,13 +20090,13 @@
         <v>108</v>
       </c>
       <c r="AE165" t="s">
-        <v>1561</v>
+        <v>1563</v>
       </c>
       <c r="AF165" t="s">
-        <v>1646</v>
+        <v>1648</v>
       </c>
       <c r="AG165" s="2" t="s">
-        <v>1874</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="166" spans="1:33">
@@ -20152,7 +20158,7 @@
         <v>0</v>
       </c>
       <c r="AB166" s="3" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="AC166" t="s">
         <v>108</v>
@@ -20161,13 +20167,13 @@
         <v>108</v>
       </c>
       <c r="AE166" t="s">
-        <v>1561</v>
+        <v>1563</v>
       </c>
       <c r="AF166" t="s">
-        <v>1646</v>
+        <v>1648</v>
       </c>
       <c r="AG166" s="2" t="s">
-        <v>1875</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="167" spans="1:33">
@@ -20229,7 +20235,7 @@
         <v>0</v>
       </c>
       <c r="AB167" s="3" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="AC167" t="s">
         <v>108</v>
@@ -20238,13 +20244,13 @@
         <v>108</v>
       </c>
       <c r="AE167" t="s">
-        <v>1561</v>
+        <v>1563</v>
       </c>
       <c r="AF167" t="s">
-        <v>1646</v>
+        <v>1648</v>
       </c>
       <c r="AG167" s="2" t="s">
-        <v>1876</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="168" spans="1:33">
@@ -20306,7 +20312,7 @@
         <v>0</v>
       </c>
       <c r="AB168" s="3" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="AC168" t="s">
         <v>108</v>
@@ -20315,13 +20321,13 @@
         <v>108</v>
       </c>
       <c r="AE168" t="s">
-        <v>1561</v>
+        <v>1563</v>
       </c>
       <c r="AF168" t="s">
-        <v>1646</v>
+        <v>1648</v>
       </c>
       <c r="AG168" s="2" t="s">
-        <v>1877</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="169" spans="1:33">
@@ -20383,7 +20389,7 @@
         <v>0</v>
       </c>
       <c r="AB169" s="3" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="AC169" t="s">
         <v>108</v>
@@ -20392,13 +20398,13 @@
         <v>108</v>
       </c>
       <c r="AE169" t="s">
-        <v>1561</v>
+        <v>1563</v>
       </c>
       <c r="AF169" t="s">
-        <v>1646</v>
+        <v>1648</v>
       </c>
       <c r="AG169" s="2" t="s">
-        <v>1878</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="170" spans="1:33">
@@ -20460,7 +20466,7 @@
         <v>0</v>
       </c>
       <c r="AB170" s="3" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="AC170" t="s">
         <v>108</v>
@@ -20469,13 +20475,13 @@
         <v>108</v>
       </c>
       <c r="AE170" t="s">
-        <v>1561</v>
+        <v>1563</v>
       </c>
       <c r="AF170" t="s">
-        <v>1646</v>
+        <v>1648</v>
       </c>
       <c r="AG170" s="2" t="s">
-        <v>1879</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="171" spans="1:33">
@@ -20537,22 +20543,22 @@
         <v>0</v>
       </c>
       <c r="AB171" s="3" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="AC171" t="s">
         <v>108</v>
       </c>
       <c r="AD171" s="3" t="s">
-        <v>1514</v>
+        <v>1516</v>
       </c>
       <c r="AE171" t="s">
-        <v>1548</v>
+        <v>1550</v>
       </c>
       <c r="AF171" t="s">
-        <v>1634</v>
+        <v>1636</v>
       </c>
       <c r="AG171" s="2" t="s">
-        <v>1880</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="172" spans="1:33">
@@ -20614,22 +20620,22 @@
         <v>0</v>
       </c>
       <c r="AB172" s="3" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="AC172" t="s">
         <v>108</v>
       </c>
       <c r="AD172" s="3" t="s">
-        <v>1515</v>
+        <v>1517</v>
       </c>
       <c r="AE172" t="s">
-        <v>1548</v>
+        <v>1550</v>
       </c>
       <c r="AF172" t="s">
-        <v>1634</v>
+        <v>1636</v>
       </c>
       <c r="AG172" s="2" t="s">
-        <v>1881</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="173" spans="1:33">
@@ -20691,7 +20697,7 @@
         <v>0</v>
       </c>
       <c r="AB173" s="3" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="AC173" t="s">
         <v>108</v>
@@ -20700,13 +20706,13 @@
         <v>108</v>
       </c>
       <c r="AE173" t="s">
-        <v>1548</v>
+        <v>1550</v>
       </c>
       <c r="AF173" t="s">
-        <v>1634</v>
+        <v>1636</v>
       </c>
       <c r="AG173" s="2" t="s">
-        <v>1882</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="174" spans="1:33">
@@ -20768,7 +20774,7 @@
         <v>0</v>
       </c>
       <c r="AB174" s="3" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="AC174" t="s">
         <v>108</v>
@@ -20777,13 +20783,13 @@
         <v>108</v>
       </c>
       <c r="AE174" t="s">
-        <v>1569</v>
+        <v>1571</v>
       </c>
       <c r="AF174" t="s">
-        <v>1654</v>
+        <v>1656</v>
       </c>
       <c r="AG174" s="2" t="s">
-        <v>1883</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="175" spans="1:33">
@@ -20845,7 +20851,7 @@
         <v>0</v>
       </c>
       <c r="AB175" s="3" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="AC175" t="s">
         <v>108</v>
@@ -20854,13 +20860,13 @@
         <v>108</v>
       </c>
       <c r="AE175" t="s">
-        <v>1561</v>
+        <v>1563</v>
       </c>
       <c r="AF175" t="s">
-        <v>1646</v>
+        <v>1648</v>
       </c>
       <c r="AG175" s="2" t="s">
-        <v>1884</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="176" spans="1:33">
@@ -20922,7 +20928,7 @@
         <v>0</v>
       </c>
       <c r="AB176" s="3" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="AC176" t="s">
         <v>108</v>
@@ -20931,13 +20937,13 @@
         <v>108</v>
       </c>
       <c r="AE176" t="s">
-        <v>1561</v>
+        <v>1563</v>
       </c>
       <c r="AF176" t="s">
-        <v>1646</v>
+        <v>1648</v>
       </c>
       <c r="AG176" s="2" t="s">
-        <v>1885</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="177" spans="1:33">
@@ -20999,7 +21005,7 @@
         <v>0</v>
       </c>
       <c r="AB177" s="3" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="AC177" t="s">
         <v>108</v>
@@ -21008,13 +21014,13 @@
         <v>108</v>
       </c>
       <c r="AE177" t="s">
-        <v>1569</v>
+        <v>1571</v>
       </c>
       <c r="AF177" t="s">
-        <v>1654</v>
+        <v>1656</v>
       </c>
       <c r="AG177" s="2" t="s">
-        <v>1886</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="178" spans="1:33">
@@ -21076,7 +21082,7 @@
         <v>0</v>
       </c>
       <c r="AB178" s="3" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="AC178" t="s">
         <v>108</v>
@@ -21085,13 +21091,13 @@
         <v>108</v>
       </c>
       <c r="AE178" t="s">
-        <v>1561</v>
+        <v>1563</v>
       </c>
       <c r="AF178" t="s">
-        <v>1646</v>
+        <v>1648</v>
       </c>
       <c r="AG178" s="2" t="s">
-        <v>1887</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="179" spans="1:33">
@@ -21153,7 +21159,7 @@
         <v>0</v>
       </c>
       <c r="AB179" s="3" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="AC179" t="s">
         <v>108</v>
@@ -21162,13 +21168,13 @@
         <v>108</v>
       </c>
       <c r="AE179" t="s">
-        <v>1561</v>
+        <v>1563</v>
       </c>
       <c r="AF179" t="s">
-        <v>1646</v>
+        <v>1648</v>
       </c>
       <c r="AG179" s="2" t="s">
-        <v>1888</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="180" spans="1:33">
@@ -21230,22 +21236,22 @@
         <v>0</v>
       </c>
       <c r="AB180" s="3" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="AC180" t="s">
         <v>108</v>
       </c>
       <c r="AD180" s="3" t="s">
-        <v>1516</v>
+        <v>1518</v>
       </c>
       <c r="AE180" t="s">
-        <v>1579</v>
+        <v>1581</v>
       </c>
       <c r="AF180" t="s">
-        <v>1665</v>
+        <v>1667</v>
       </c>
       <c r="AG180" s="2" t="s">
-        <v>1889</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="181" spans="1:33">
@@ -21307,22 +21313,22 @@
         <v>0</v>
       </c>
       <c r="AB181" s="3" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="AC181" t="s">
         <v>108</v>
       </c>
       <c r="AD181" s="3" t="s">
-        <v>1517</v>
+        <v>1519</v>
       </c>
       <c r="AE181" t="s">
-        <v>1579</v>
+        <v>1581</v>
       </c>
       <c r="AF181" t="s">
-        <v>1665</v>
+        <v>1667</v>
       </c>
       <c r="AG181" s="2" t="s">
-        <v>1890</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="182" spans="1:33">
@@ -21384,7 +21390,7 @@
         <v>0</v>
       </c>
       <c r="AB182" s="3" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="AC182" t="s">
         <v>108</v>
@@ -21393,13 +21399,13 @@
         <v>108</v>
       </c>
       <c r="AE182" t="s">
-        <v>1580</v>
+        <v>1582</v>
       </c>
       <c r="AF182" t="s">
-        <v>1666</v>
+        <v>1668</v>
       </c>
       <c r="AG182" s="2" t="s">
-        <v>1891</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="183" spans="1:33">
@@ -21461,7 +21467,7 @@
         <v>0</v>
       </c>
       <c r="AB183" s="3" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="AC183" t="s">
         <v>108</v>
@@ -21470,13 +21476,13 @@
         <v>108</v>
       </c>
       <c r="AE183" t="s">
-        <v>1581</v>
+        <v>1583</v>
       </c>
       <c r="AF183" t="s">
-        <v>1667</v>
+        <v>1669</v>
       </c>
       <c r="AG183" s="2" t="s">
-        <v>1892</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="184" spans="1:33">
@@ -21538,7 +21544,7 @@
         <v>0</v>
       </c>
       <c r="AB184" s="3" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
       <c r="AC184" t="s">
         <v>108</v>
@@ -21547,13 +21553,13 @@
         <v>108</v>
       </c>
       <c r="AE184" t="s">
-        <v>1580</v>
+        <v>1582</v>
       </c>
       <c r="AF184" t="s">
-        <v>1666</v>
+        <v>1668</v>
       </c>
       <c r="AG184" s="2" t="s">
-        <v>1893</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="185" spans="1:33">
@@ -21615,7 +21621,7 @@
         <v>0</v>
       </c>
       <c r="AB185" s="3" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="AC185" t="s">
         <v>108</v>
@@ -21624,13 +21630,13 @@
         <v>108</v>
       </c>
       <c r="AE185" t="s">
-        <v>1580</v>
+        <v>1582</v>
       </c>
       <c r="AF185" t="s">
-        <v>1666</v>
+        <v>1668</v>
       </c>
       <c r="AG185" s="2" t="s">
-        <v>1894</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="186" spans="1:33">
@@ -21692,7 +21698,7 @@
         <v>0</v>
       </c>
       <c r="AB186" s="3" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="AC186" t="s">
         <v>108</v>
@@ -21701,13 +21707,13 @@
         <v>108</v>
       </c>
       <c r="AE186" t="s">
-        <v>1580</v>
+        <v>1582</v>
       </c>
       <c r="AF186" t="s">
-        <v>1666</v>
+        <v>1668</v>
       </c>
       <c r="AG186" s="2" t="s">
-        <v>1895</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="187" spans="1:33">
@@ -21769,7 +21775,7 @@
         <v>0</v>
       </c>
       <c r="AB187" s="3" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="AC187" t="s">
         <v>108</v>
@@ -21778,13 +21784,13 @@
         <v>108</v>
       </c>
       <c r="AE187" t="s">
-        <v>1541</v>
+        <v>1543</v>
       </c>
       <c r="AF187" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="AG187" s="2" t="s">
-        <v>1896</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="188" spans="1:33">
@@ -21846,7 +21852,7 @@
         <v>0</v>
       </c>
       <c r="AB188" s="3" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
       <c r="AC188" t="s">
         <v>108</v>
@@ -21855,13 +21861,13 @@
         <v>108</v>
       </c>
       <c r="AE188" t="s">
-        <v>1541</v>
+        <v>1543</v>
       </c>
       <c r="AF188" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="AG188" s="2" t="s">
-        <v>1897</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="189" spans="1:33">
@@ -21923,22 +21929,22 @@
         <v>0</v>
       </c>
       <c r="AB189" s="3" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="AC189" t="s">
         <v>108</v>
       </c>
       <c r="AD189" s="3" t="s">
-        <v>1518</v>
+        <v>1520</v>
       </c>
       <c r="AE189" t="s">
-        <v>1548</v>
+        <v>1550</v>
       </c>
       <c r="AF189" t="s">
-        <v>1634</v>
+        <v>1636</v>
       </c>
       <c r="AG189" s="2" t="s">
-        <v>1898</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="190" spans="1:33">
@@ -22000,22 +22006,22 @@
         <v>0</v>
       </c>
       <c r="AB190" s="3" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="AC190" t="s">
         <v>108</v>
       </c>
       <c r="AD190" s="3" t="s">
-        <v>1519</v>
+        <v>1521</v>
       </c>
       <c r="AE190" t="s">
-        <v>1548</v>
+        <v>1550</v>
       </c>
       <c r="AF190" t="s">
-        <v>1634</v>
+        <v>1636</v>
       </c>
       <c r="AG190" s="2" t="s">
-        <v>1899</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="191" spans="1:33">
@@ -22077,22 +22083,22 @@
         <v>0</v>
       </c>
       <c r="AB191" s="3" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="AC191" t="s">
         <v>108</v>
       </c>
       <c r="AD191" s="3" t="s">
-        <v>1520</v>
+        <v>1522</v>
       </c>
       <c r="AE191" t="s">
-        <v>1548</v>
+        <v>1550</v>
       </c>
       <c r="AF191" t="s">
-        <v>1634</v>
+        <v>1636</v>
       </c>
       <c r="AG191" s="2" t="s">
-        <v>1900</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="192" spans="1:33">
@@ -22154,7 +22160,7 @@
         <v>0</v>
       </c>
       <c r="AB192" s="3" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="AC192" t="s">
         <v>108</v>
@@ -22163,13 +22169,13 @@
         <v>108</v>
       </c>
       <c r="AE192" t="s">
-        <v>1582</v>
+        <v>1584</v>
       </c>
       <c r="AF192" t="s">
-        <v>1668</v>
+        <v>1670</v>
       </c>
       <c r="AG192" s="2" t="s">
-        <v>1901</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="193" spans="1:33">
@@ -22231,7 +22237,7 @@
         <v>0</v>
       </c>
       <c r="AB193" s="3" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="AC193" t="s">
         <v>108</v>
@@ -22240,13 +22246,13 @@
         <v>108</v>
       </c>
       <c r="AE193" t="s">
-        <v>1582</v>
+        <v>1584</v>
       </c>
       <c r="AF193" t="s">
-        <v>1668</v>
+        <v>1670</v>
       </c>
       <c r="AG193" s="2" t="s">
-        <v>1902</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="194" spans="1:33">
@@ -22308,7 +22314,7 @@
         <v>0</v>
       </c>
       <c r="AB194" s="3" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="AC194" t="s">
         <v>108</v>
@@ -22317,13 +22323,13 @@
         <v>108</v>
       </c>
       <c r="AE194" t="s">
-        <v>1541</v>
+        <v>1543</v>
       </c>
       <c r="AF194" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="AG194" s="2" t="s">
-        <v>1903</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="195" spans="1:33">
@@ -22385,7 +22391,7 @@
         <v>0</v>
       </c>
       <c r="AB195" s="3" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="AC195" t="s">
         <v>108</v>
@@ -22394,13 +22400,13 @@
         <v>108</v>
       </c>
       <c r="AE195" t="s">
-        <v>1583</v>
+        <v>1585</v>
       </c>
       <c r="AF195" t="s">
-        <v>1669</v>
+        <v>1671</v>
       </c>
       <c r="AG195" s="2" t="s">
-        <v>1904</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="196" spans="1:33">
@@ -22462,7 +22468,7 @@
         <v>0</v>
       </c>
       <c r="AB196" s="3" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="AC196" t="s">
         <v>108</v>
@@ -22471,13 +22477,13 @@
         <v>108</v>
       </c>
       <c r="AE196" t="s">
-        <v>1572</v>
+        <v>1574</v>
       </c>
       <c r="AF196" t="s">
-        <v>1657</v>
+        <v>1659</v>
       </c>
       <c r="AG196" s="2" t="s">
-        <v>1905</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="197" spans="1:33">
@@ -22539,7 +22545,7 @@
         <v>0</v>
       </c>
       <c r="AB197" s="3" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="AC197" t="s">
         <v>108</v>
@@ -22548,13 +22554,13 @@
         <v>108</v>
       </c>
       <c r="AE197" t="s">
-        <v>1541</v>
+        <v>1543</v>
       </c>
       <c r="AF197" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="AG197" s="2" t="s">
-        <v>1906</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="198" spans="1:33">
@@ -22616,7 +22622,7 @@
         <v>0</v>
       </c>
       <c r="AB198" s="3" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="AC198" t="s">
         <v>108</v>
@@ -22625,13 +22631,13 @@
         <v>108</v>
       </c>
       <c r="AE198" t="s">
-        <v>1584</v>
+        <v>1586</v>
       </c>
       <c r="AF198" t="s">
-        <v>1670</v>
+        <v>1672</v>
       </c>
       <c r="AG198" s="2" t="s">
-        <v>1907</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="199" spans="1:33">
@@ -22693,7 +22699,7 @@
         <v>0</v>
       </c>
       <c r="AB199" s="3" t="s">
-        <v>1390</v>
+        <v>1391</v>
       </c>
       <c r="AC199" t="s">
         <v>108</v>
@@ -22702,13 +22708,13 @@
         <v>108</v>
       </c>
       <c r="AE199" t="s">
-        <v>1574</v>
+        <v>1576</v>
       </c>
       <c r="AF199" t="s">
-        <v>1660</v>
+        <v>1662</v>
       </c>
       <c r="AG199" s="2" t="s">
-        <v>1908</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="200" spans="1:33">
@@ -22770,7 +22776,7 @@
         <v>0</v>
       </c>
       <c r="AB200" s="3" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="AC200" t="s">
         <v>108</v>
@@ -22779,13 +22785,13 @@
         <v>108</v>
       </c>
       <c r="AE200" t="s">
-        <v>1585</v>
+        <v>1587</v>
       </c>
       <c r="AF200" t="s">
-        <v>1671</v>
+        <v>1673</v>
       </c>
       <c r="AG200" s="2" t="s">
-        <v>1909</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="201" spans="1:33">
@@ -22847,22 +22853,22 @@
         <v>0</v>
       </c>
       <c r="AB201" s="3" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="AC201" t="s">
         <v>108</v>
       </c>
       <c r="AD201" s="3" t="s">
-        <v>1521</v>
+        <v>1523</v>
       </c>
       <c r="AE201" t="s">
-        <v>1548</v>
+        <v>1550</v>
       </c>
       <c r="AF201" t="s">
-        <v>1634</v>
+        <v>1636</v>
       </c>
       <c r="AG201" s="2" t="s">
-        <v>1910</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="202" spans="1:33">
@@ -22924,22 +22930,22 @@
         <v>0</v>
       </c>
       <c r="AB202" s="3" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="AC202" t="s">
         <v>108</v>
       </c>
       <c r="AD202" s="3" t="s">
-        <v>1522</v>
+        <v>1524</v>
       </c>
       <c r="AE202" t="s">
-        <v>1548</v>
+        <v>1550</v>
       </c>
       <c r="AF202" t="s">
-        <v>1634</v>
+        <v>1636</v>
       </c>
       <c r="AG202" s="2" t="s">
-        <v>1911</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="203" spans="1:33">
@@ -23001,7 +23007,7 @@
         <v>0</v>
       </c>
       <c r="AB203" s="3" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="AC203" t="s">
         <v>108</v>
@@ -23010,13 +23016,13 @@
         <v>108</v>
       </c>
       <c r="AE203" t="s">
-        <v>1586</v>
+        <v>1588</v>
       </c>
       <c r="AF203" t="s">
-        <v>1672</v>
+        <v>1674</v>
       </c>
       <c r="AG203" s="2" t="s">
-        <v>1912</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="204" spans="1:33">
@@ -23078,7 +23084,7 @@
         <v>0</v>
       </c>
       <c r="AB204" s="3" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="AC204" t="s">
         <v>108</v>
@@ -23087,13 +23093,13 @@
         <v>108</v>
       </c>
       <c r="AE204" t="s">
-        <v>1582</v>
+        <v>1584</v>
       </c>
       <c r="AF204" t="s">
-        <v>1668</v>
+        <v>1670</v>
       </c>
       <c r="AG204" s="2" t="s">
-        <v>1913</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="205" spans="1:33">
@@ -23155,7 +23161,7 @@
         <v>0</v>
       </c>
       <c r="AB205" s="3" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="AC205" t="s">
         <v>108</v>
@@ -23164,13 +23170,13 @@
         <v>108</v>
       </c>
       <c r="AE205" t="s">
-        <v>1587</v>
+        <v>1589</v>
       </c>
       <c r="AF205" t="s">
-        <v>1673</v>
+        <v>1675</v>
       </c>
       <c r="AG205" s="2" t="s">
-        <v>1914</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="206" spans="1:33">
@@ -23232,22 +23238,22 @@
         <v>0</v>
       </c>
       <c r="AB206" s="3" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
       <c r="AC206" t="s">
         <v>108</v>
       </c>
       <c r="AD206" s="3" t="s">
-        <v>1523</v>
+        <v>1525</v>
       </c>
       <c r="AE206" t="s">
-        <v>1574</v>
+        <v>1576</v>
       </c>
       <c r="AF206" t="s">
-        <v>1660</v>
+        <v>1662</v>
       </c>
       <c r="AG206" s="2" t="s">
-        <v>1915</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="207" spans="1:33">
@@ -23309,7 +23315,7 @@
         <v>0</v>
       </c>
       <c r="AB207" s="3" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="AC207" t="s">
         <v>108</v>
@@ -23318,13 +23324,13 @@
         <v>108</v>
       </c>
       <c r="AE207" t="s">
-        <v>1586</v>
+        <v>1588</v>
       </c>
       <c r="AF207" t="s">
-        <v>1672</v>
+        <v>1674</v>
       </c>
       <c r="AG207" s="2" t="s">
-        <v>1916</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="208" spans="1:33">
@@ -23386,7 +23392,7 @@
         <v>0</v>
       </c>
       <c r="AB208" s="3" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="AC208" t="s">
         <v>108</v>
@@ -23395,13 +23401,13 @@
         <v>108</v>
       </c>
       <c r="AE208" t="s">
-        <v>1583</v>
+        <v>1585</v>
       </c>
       <c r="AF208" t="s">
-        <v>1669</v>
+        <v>1671</v>
       </c>
       <c r="AG208" s="2" t="s">
-        <v>1917</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="209" spans="1:33">
@@ -23463,7 +23469,7 @@
         <v>0</v>
       </c>
       <c r="AB209" s="3" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="AC209" t="s">
         <v>108</v>
@@ -23472,13 +23478,13 @@
         <v>108</v>
       </c>
       <c r="AE209" t="s">
-        <v>1582</v>
+        <v>1584</v>
       </c>
       <c r="AF209" t="s">
-        <v>1668</v>
+        <v>1670</v>
       </c>
       <c r="AG209" s="2" t="s">
-        <v>1918</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="210" spans="1:33">
@@ -23540,22 +23546,22 @@
         <v>0</v>
       </c>
       <c r="AB210" s="3" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
       <c r="AC210" t="s">
         <v>108</v>
       </c>
       <c r="AD210" s="3" t="s">
-        <v>1524</v>
+        <v>1526</v>
       </c>
       <c r="AE210" t="s">
-        <v>1588</v>
+        <v>1590</v>
       </c>
       <c r="AF210" t="s">
-        <v>1674</v>
+        <v>1676</v>
       </c>
       <c r="AG210" s="2" t="s">
-        <v>1919</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="211" spans="1:33">
@@ -23617,22 +23623,22 @@
         <v>0</v>
       </c>
       <c r="AB211" s="3" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="AC211" t="s">
         <v>108</v>
       </c>
       <c r="AD211" s="3" t="s">
-        <v>1525</v>
+        <v>1527</v>
       </c>
       <c r="AE211" t="s">
-        <v>1589</v>
+        <v>1591</v>
       </c>
       <c r="AF211" t="s">
-        <v>1675</v>
+        <v>1677</v>
       </c>
       <c r="AG211" s="2" t="s">
-        <v>1920</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="212" spans="1:33">
@@ -23694,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="AB212" s="3" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="AC212" t="s">
         <v>108</v>
       </c>
       <c r="AD212" s="3" t="s">
-        <v>1526</v>
+        <v>1528</v>
       </c>
       <c r="AE212" t="s">
-        <v>1589</v>
+        <v>1591</v>
       </c>
       <c r="AF212" t="s">
-        <v>1675</v>
+        <v>1677</v>
       </c>
       <c r="AG212" s="2" t="s">
-        <v>1921</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="213" spans="1:33">
@@ -23771,22 +23777,22 @@
         <v>0</v>
       </c>
       <c r="AB213" s="3" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="AC213" t="s">
         <v>108</v>
       </c>
       <c r="AD213" s="3" t="s">
-        <v>1527</v>
+        <v>1529</v>
       </c>
       <c r="AE213" t="s">
-        <v>1590</v>
+        <v>1592</v>
       </c>
       <c r="AF213" t="s">
-        <v>1676</v>
+        <v>1678</v>
       </c>
       <c r="AG213" s="2" t="s">
-        <v>1922</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="214" spans="1:33">
@@ -23848,22 +23854,22 @@
         <v>0</v>
       </c>
       <c r="AB214" s="3" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="AC214" t="s">
         <v>108</v>
       </c>
       <c r="AD214" s="3" t="s">
-        <v>1528</v>
+        <v>1530</v>
       </c>
       <c r="AE214" t="s">
-        <v>1590</v>
+        <v>1592</v>
       </c>
       <c r="AF214" t="s">
-        <v>1676</v>
+        <v>1678</v>
       </c>
       <c r="AG214" s="2" t="s">
-        <v>1923</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="215" spans="1:33">
@@ -23925,22 +23931,22 @@
         <v>0</v>
       </c>
       <c r="AB215" s="3" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="AC215" t="s">
         <v>108</v>
       </c>
       <c r="AD215" s="3" t="s">
-        <v>1529</v>
+        <v>1531</v>
       </c>
       <c r="AE215" t="s">
-        <v>1590</v>
+        <v>1592</v>
       </c>
       <c r="AF215" t="s">
-        <v>1676</v>
+        <v>1678</v>
       </c>
       <c r="AG215" s="2" t="s">
-        <v>1924</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="216" spans="1:33">
@@ -24002,22 +24008,22 @@
         <v>0</v>
       </c>
       <c r="AB216" s="3" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="AC216" t="s">
         <v>108</v>
       </c>
       <c r="AD216" s="3" t="s">
-        <v>1530</v>
+        <v>1532</v>
       </c>
       <c r="AE216" t="s">
-        <v>1548</v>
+        <v>1550</v>
       </c>
       <c r="AF216" t="s">
-        <v>1634</v>
+        <v>1636</v>
       </c>
       <c r="AG216" s="2" t="s">
-        <v>1925</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="217" spans="1:33">
@@ -24079,22 +24085,22 @@
         <v>0</v>
       </c>
       <c r="AB217" s="3" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="AC217" t="s">
         <v>108</v>
       </c>
       <c r="AD217" s="3" t="s">
-        <v>1531</v>
+        <v>1533</v>
       </c>
       <c r="AE217" t="s">
-        <v>1548</v>
+        <v>1550</v>
       </c>
       <c r="AF217" t="s">
-        <v>1634</v>
+        <v>1636</v>
       </c>
       <c r="AG217" s="2" t="s">
-        <v>1926</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="218" spans="1:33">
@@ -24156,7 +24162,7 @@
         <v>0</v>
       </c>
       <c r="AB218" s="3" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="AC218" t="s">
         <v>108</v>
@@ -24165,13 +24171,13 @@
         <v>108</v>
       </c>
       <c r="AE218" t="s">
-        <v>1541</v>
+        <v>1543</v>
       </c>
       <c r="AF218" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="AG218" s="2" t="s">
-        <v>1927</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="219" spans="1:33">
@@ -24233,7 +24239,7 @@
         <v>0</v>
       </c>
       <c r="AB219" s="3" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="AC219" t="s">
         <v>108</v>
@@ -24242,13 +24248,13 @@
         <v>108</v>
       </c>
       <c r="AE219" t="s">
-        <v>1542</v>
+        <v>1544</v>
       </c>
       <c r="AF219" t="s">
-        <v>1628</v>
+        <v>1630</v>
       </c>
       <c r="AG219" s="2" t="s">
-        <v>1928</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="220" spans="1:33">
@@ -24310,7 +24316,7 @@
         <v>0</v>
       </c>
       <c r="AB220" s="3" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="AC220" t="s">
         <v>108</v>
@@ -24319,13 +24325,13 @@
         <v>108</v>
       </c>
       <c r="AE220" t="s">
-        <v>1591</v>
+        <v>1593</v>
       </c>
       <c r="AF220" t="s">
-        <v>1677</v>
+        <v>1679</v>
       </c>
       <c r="AG220" s="2" t="s">
-        <v>1929</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="221" spans="1:33">
@@ -24387,7 +24393,7 @@
         <v>0</v>
       </c>
       <c r="AB221" s="3" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="AC221" t="s">
         <v>108</v>
@@ -24396,13 +24402,13 @@
         <v>108</v>
       </c>
       <c r="AE221" t="s">
-        <v>1543</v>
+        <v>1545</v>
       </c>
       <c r="AF221" t="s">
-        <v>1629</v>
+        <v>1631</v>
       </c>
       <c r="AG221" s="2" t="s">
-        <v>1930</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="222" spans="1:33">
@@ -24464,7 +24470,7 @@
         <v>0</v>
       </c>
       <c r="AB222" s="3" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="AC222" t="s">
         <v>108</v>
@@ -24473,13 +24479,13 @@
         <v>108</v>
       </c>
       <c r="AE222" t="s">
-        <v>1591</v>
+        <v>1593</v>
       </c>
       <c r="AF222" t="s">
-        <v>1677</v>
+        <v>1679</v>
       </c>
       <c r="AG222" s="2" t="s">
-        <v>1931</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="223" spans="1:33">
@@ -24541,7 +24547,7 @@
         <v>0</v>
       </c>
       <c r="AB223" s="3" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="AC223" t="s">
         <v>108</v>
@@ -24550,13 +24556,13 @@
         <v>108</v>
       </c>
       <c r="AE223" t="s">
-        <v>1592</v>
+        <v>1594</v>
       </c>
       <c r="AF223" t="s">
-        <v>1678</v>
+        <v>1680</v>
       </c>
       <c r="AG223" s="2" t="s">
-        <v>1932</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="224" spans="1:33">
@@ -24618,7 +24624,7 @@
         <v>0</v>
       </c>
       <c r="AB224" s="3" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="AC224" t="s">
         <v>108</v>
@@ -24627,13 +24633,13 @@
         <v>108</v>
       </c>
       <c r="AE224" t="s">
-        <v>1542</v>
+        <v>1544</v>
       </c>
       <c r="AF224" t="s">
-        <v>1628</v>
+        <v>1630</v>
       </c>
       <c r="AG224" s="2" t="s">
-        <v>1933</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="225" spans="1:33">
@@ -24695,7 +24701,7 @@
         <v>0</v>
       </c>
       <c r="AB225" s="3" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="AC225" t="s">
         <v>108</v>
@@ -24704,13 +24710,13 @@
         <v>108</v>
       </c>
       <c r="AE225" t="s">
-        <v>1593</v>
+        <v>1595</v>
       </c>
       <c r="AF225" t="s">
-        <v>1679</v>
+        <v>1681</v>
       </c>
       <c r="AG225" s="2" t="s">
-        <v>1934</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="226" spans="1:33">
@@ -24772,7 +24778,7 @@
         <v>0</v>
       </c>
       <c r="AB226" s="3" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
       <c r="AC226" t="s">
         <v>108</v>
@@ -24781,13 +24787,13 @@
         <v>108</v>
       </c>
       <c r="AE226" t="s">
-        <v>1594</v>
+        <v>1596</v>
       </c>
       <c r="AF226" t="s">
-        <v>1680</v>
+        <v>1682</v>
       </c>
       <c r="AG226" s="2" t="s">
-        <v>1935</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="227" spans="1:33">
@@ -24849,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="AB227" s="3" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="AC227" t="s">
         <v>108</v>
@@ -24858,13 +24864,13 @@
         <v>108</v>
       </c>
       <c r="AE227" t="s">
-        <v>1595</v>
+        <v>1597</v>
       </c>
       <c r="AF227" t="s">
-        <v>1681</v>
+        <v>1683</v>
       </c>
       <c r="AG227" s="2" t="s">
-        <v>1936</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="228" spans="1:33">
@@ -24926,7 +24932,7 @@
         <v>0</v>
       </c>
       <c r="AB228" s="3" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="AC228" t="s">
         <v>108</v>
@@ -24935,13 +24941,13 @@
         <v>108</v>
       </c>
       <c r="AE228" t="s">
-        <v>1596</v>
+        <v>1598</v>
       </c>
       <c r="AF228" t="s">
-        <v>1682</v>
+        <v>1684</v>
       </c>
       <c r="AG228" s="2" t="s">
-        <v>1937</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="229" spans="1:33">
@@ -25006,7 +25012,7 @@
         <v>0</v>
       </c>
       <c r="AB229" s="3" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="AC229" t="s">
         <v>108</v>
@@ -25015,13 +25021,13 @@
         <v>108</v>
       </c>
       <c r="AE229" t="s">
-        <v>1586</v>
+        <v>1588</v>
       </c>
       <c r="AF229" t="s">
-        <v>1672</v>
+        <v>1674</v>
       </c>
       <c r="AG229" s="2" t="s">
-        <v>1938</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="230" spans="1:33">
@@ -25083,7 +25089,7 @@
         <v>0</v>
       </c>
       <c r="AB230" s="3" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="AC230" t="s">
         <v>108</v>
@@ -25092,13 +25098,13 @@
         <v>108</v>
       </c>
       <c r="AE230" t="s">
-        <v>1597</v>
+        <v>1599</v>
       </c>
       <c r="AF230" t="s">
-        <v>1683</v>
+        <v>1685</v>
       </c>
       <c r="AG230" s="2" t="s">
-        <v>1939</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="231" spans="1:33">
@@ -25160,7 +25166,7 @@
         <v>0</v>
       </c>
       <c r="AB231" s="3" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="AC231" t="s">
         <v>108</v>
@@ -25169,13 +25175,13 @@
         <v>108</v>
       </c>
       <c r="AE231" t="s">
-        <v>1598</v>
+        <v>1600</v>
       </c>
       <c r="AF231" t="s">
-        <v>1684</v>
+        <v>1686</v>
       </c>
       <c r="AG231" s="2" t="s">
-        <v>1940</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="232" spans="1:33">
@@ -25237,7 +25243,7 @@
         <v>0</v>
       </c>
       <c r="AB232" s="3" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="AC232" t="s">
         <v>108</v>
@@ -25246,13 +25252,13 @@
         <v>108</v>
       </c>
       <c r="AE232" t="s">
-        <v>1598</v>
+        <v>1600</v>
       </c>
       <c r="AF232" t="s">
-        <v>1684</v>
+        <v>1686</v>
       </c>
       <c r="AG232" s="2" t="s">
-        <v>1941</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="233" spans="1:33">
@@ -25314,7 +25320,7 @@
         <v>0</v>
       </c>
       <c r="AB233" s="3" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="AC233" t="s">
         <v>108</v>
@@ -25323,13 +25329,13 @@
         <v>108</v>
       </c>
       <c r="AE233" t="s">
-        <v>1598</v>
+        <v>1600</v>
       </c>
       <c r="AF233" t="s">
-        <v>1684</v>
+        <v>1686</v>
       </c>
       <c r="AG233" s="2" t="s">
-        <v>1942</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="234" spans="1:33">
@@ -25391,7 +25397,7 @@
         <v>0</v>
       </c>
       <c r="AB234" s="3" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
       <c r="AC234" t="s">
         <v>108</v>
@@ -25400,13 +25406,13 @@
         <v>108</v>
       </c>
       <c r="AE234" t="s">
-        <v>1598</v>
+        <v>1600</v>
       </c>
       <c r="AF234" t="s">
-        <v>1684</v>
+        <v>1686</v>
       </c>
       <c r="AG234" s="2" t="s">
-        <v>1943</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="235" spans="1:33">
@@ -25468,7 +25474,7 @@
         <v>0</v>
       </c>
       <c r="AB235" s="3" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="AC235" t="s">
         <v>108</v>
@@ -25477,13 +25483,13 @@
         <v>108</v>
       </c>
       <c r="AE235" t="s">
-        <v>1596</v>
+        <v>1598</v>
       </c>
       <c r="AF235" t="s">
-        <v>1682</v>
+        <v>1684</v>
       </c>
       <c r="AG235" s="2" t="s">
-        <v>1944</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="236" spans="1:33">
@@ -25545,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="AB236" s="3" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
       <c r="AC236" t="s">
         <v>108</v>
@@ -25554,13 +25560,13 @@
         <v>108</v>
       </c>
       <c r="AE236" t="s">
-        <v>1548</v>
+        <v>1550</v>
       </c>
       <c r="AF236" t="s">
-        <v>1634</v>
+        <v>1636</v>
       </c>
       <c r="AG236" s="2" t="s">
-        <v>1945</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="237" spans="1:33">
@@ -25622,7 +25628,7 @@
         <v>0</v>
       </c>
       <c r="AB237" s="3" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
       <c r="AC237" t="s">
         <v>108</v>
@@ -25631,13 +25637,13 @@
         <v>108</v>
       </c>
       <c r="AE237" t="s">
-        <v>1599</v>
+        <v>1601</v>
       </c>
       <c r="AF237" t="s">
-        <v>1685</v>
+        <v>1687</v>
       </c>
       <c r="AG237" s="2" t="s">
-        <v>1946</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="238" spans="1:33">
@@ -25699,7 +25705,7 @@
         <v>0</v>
       </c>
       <c r="AB238" s="3" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="AC238" t="s">
         <v>108</v>
@@ -25708,13 +25714,13 @@
         <v>108</v>
       </c>
       <c r="AE238" t="s">
-        <v>1599</v>
+        <v>1601</v>
       </c>
       <c r="AF238" t="s">
-        <v>1685</v>
+        <v>1687</v>
       </c>
       <c r="AG238" s="2" t="s">
-        <v>1947</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="239" spans="1:33">
@@ -25776,7 +25782,7 @@
         <v>0</v>
       </c>
       <c r="AB239" s="3" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="AC239" t="s">
         <v>108</v>
@@ -25785,13 +25791,13 @@
         <v>108</v>
       </c>
       <c r="AE239" t="s">
-        <v>1596</v>
+        <v>1598</v>
       </c>
       <c r="AF239" t="s">
-        <v>1682</v>
+        <v>1684</v>
       </c>
       <c r="AG239" s="2" t="s">
-        <v>1948</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="240" spans="1:33">
@@ -25853,7 +25859,7 @@
         <v>0</v>
       </c>
       <c r="AB240" s="3" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="AC240" t="s">
         <v>108</v>
@@ -25862,13 +25868,13 @@
         <v>108</v>
       </c>
       <c r="AE240" t="s">
-        <v>1596</v>
+        <v>1598</v>
       </c>
       <c r="AF240" t="s">
-        <v>1682</v>
+        <v>1684</v>
       </c>
       <c r="AG240" s="2" t="s">
-        <v>1949</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="241" spans="1:33">
@@ -25930,7 +25936,7 @@
         <v>0</v>
       </c>
       <c r="AB241" s="3" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
       <c r="AC241" t="s">
         <v>108</v>
@@ -25939,13 +25945,13 @@
         <v>108</v>
       </c>
       <c r="AE241" t="s">
-        <v>1600</v>
+        <v>1602</v>
       </c>
       <c r="AF241" t="s">
-        <v>1686</v>
+        <v>1688</v>
       </c>
       <c r="AG241" s="2" t="s">
-        <v>1950</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="242" spans="1:33">
@@ -26007,7 +26013,7 @@
         <v>0</v>
       </c>
       <c r="AB242" s="3" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
       <c r="AC242" t="s">
         <v>108</v>
@@ -26016,13 +26022,13 @@
         <v>108</v>
       </c>
       <c r="AE242" t="s">
-        <v>1601</v>
+        <v>1603</v>
       </c>
       <c r="AF242" t="s">
-        <v>1687</v>
+        <v>1689</v>
       </c>
       <c r="AG242" s="2" t="s">
-        <v>1951</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="243" spans="1:33">
@@ -26084,7 +26090,7 @@
         <v>0</v>
       </c>
       <c r="AB243" s="3" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="AC243" t="s">
         <v>108</v>
@@ -26093,13 +26099,13 @@
         <v>108</v>
       </c>
       <c r="AE243" t="s">
-        <v>1600</v>
+        <v>1602</v>
       </c>
       <c r="AF243" t="s">
-        <v>1686</v>
+        <v>1688</v>
       </c>
       <c r="AG243" s="2" t="s">
-        <v>1952</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="244" spans="1:33">
@@ -26161,7 +26167,7 @@
         <v>0</v>
       </c>
       <c r="AB244" s="3" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
       <c r="AC244" t="s">
         <v>108</v>
@@ -26170,13 +26176,13 @@
         <v>108</v>
       </c>
       <c r="AE244" t="s">
-        <v>1599</v>
+        <v>1601</v>
       </c>
       <c r="AF244" t="s">
-        <v>1685</v>
+        <v>1687</v>
       </c>
       <c r="AG244" s="2" t="s">
-        <v>1953</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="245" spans="1:33">
@@ -26238,7 +26244,7 @@
         <v>0</v>
       </c>
       <c r="AB245" s="3" t="s">
-        <v>1425</v>
+        <v>1426</v>
       </c>
       <c r="AC245" t="s">
         <v>108</v>
@@ -26247,13 +26253,13 @@
         <v>108</v>
       </c>
       <c r="AE245" t="s">
-        <v>1586</v>
+        <v>1588</v>
       </c>
       <c r="AF245" t="s">
-        <v>1672</v>
+        <v>1674</v>
       </c>
       <c r="AG245" s="2" t="s">
-        <v>1954</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="246" spans="1:33">
@@ -26315,7 +26321,7 @@
         <v>0</v>
       </c>
       <c r="AB246" s="3" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
       <c r="AC246" t="s">
         <v>108</v>
@@ -26324,13 +26330,13 @@
         <v>108</v>
       </c>
       <c r="AE246" t="s">
-        <v>1596</v>
+        <v>1598</v>
       </c>
       <c r="AF246" t="s">
-        <v>1682</v>
+        <v>1684</v>
       </c>
       <c r="AG246" s="2" t="s">
-        <v>1955</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="247" spans="1:33">
@@ -26392,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="AB247" s="3" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
       <c r="AC247" t="s">
         <v>108</v>
@@ -26401,13 +26407,13 @@
         <v>108</v>
       </c>
       <c r="AE247" t="s">
-        <v>1601</v>
+        <v>1603</v>
       </c>
       <c r="AF247" t="s">
-        <v>1687</v>
+        <v>1689</v>
       </c>
       <c r="AG247" s="2" t="s">
-        <v>1956</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="248" spans="1:33">
@@ -26469,7 +26475,7 @@
         <v>0</v>
       </c>
       <c r="AB248" s="3" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="AC248" t="s">
         <v>108</v>
@@ -26478,13 +26484,13 @@
         <v>108</v>
       </c>
       <c r="AE248" t="s">
-        <v>1602</v>
+        <v>1604</v>
       </c>
       <c r="AF248" t="s">
-        <v>1688</v>
+        <v>1690</v>
       </c>
       <c r="AG248" s="2" t="s">
-        <v>1957</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="249" spans="1:33">
@@ -26546,7 +26552,7 @@
         <v>0</v>
       </c>
       <c r="AB249" s="3" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
       <c r="AC249" t="s">
         <v>108</v>
@@ -26555,13 +26561,13 @@
         <v>108</v>
       </c>
       <c r="AE249" t="s">
-        <v>1602</v>
+        <v>1604</v>
       </c>
       <c r="AF249" t="s">
-        <v>1688</v>
+        <v>1690</v>
       </c>
       <c r="AG249" s="2" t="s">
-        <v>1958</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="250" spans="1:33">
@@ -26623,7 +26629,7 @@
         <v>0</v>
       </c>
       <c r="AB250" s="3" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="AC250" t="s">
         <v>108</v>
@@ -26632,13 +26638,13 @@
         <v>108</v>
       </c>
       <c r="AE250" t="s">
-        <v>1602</v>
+        <v>1604</v>
       </c>
       <c r="AF250" t="s">
-        <v>1688</v>
+        <v>1690</v>
       </c>
       <c r="AG250" s="2" t="s">
-        <v>1959</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="251" spans="1:33">
@@ -26700,7 +26706,7 @@
         <v>0</v>
       </c>
       <c r="AB251" s="3" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
       <c r="AC251" t="s">
         <v>108</v>
@@ -26709,13 +26715,13 @@
         <v>108</v>
       </c>
       <c r="AE251" t="s">
-        <v>1602</v>
+        <v>1604</v>
       </c>
       <c r="AF251" t="s">
-        <v>1688</v>
+        <v>1690</v>
       </c>
       <c r="AG251" s="2" t="s">
-        <v>1960</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="252" spans="1:33">
@@ -26777,7 +26783,7 @@
         <v>0</v>
       </c>
       <c r="AB252" s="3" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
       <c r="AC252" t="s">
         <v>108</v>
@@ -26786,13 +26792,13 @@
         <v>108</v>
       </c>
       <c r="AE252" t="s">
-        <v>1603</v>
+        <v>1605</v>
       </c>
       <c r="AF252" t="s">
-        <v>1689</v>
+        <v>1691</v>
       </c>
       <c r="AG252" s="2" t="s">
-        <v>1961</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="253" spans="1:33">
@@ -26854,7 +26860,7 @@
         <v>0</v>
       </c>
       <c r="AB253" s="3" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="AC253" t="s">
         <v>108</v>
@@ -26863,13 +26869,13 @@
         <v>108</v>
       </c>
       <c r="AE253" t="s">
-        <v>1604</v>
+        <v>1606</v>
       </c>
       <c r="AF253" t="s">
-        <v>1690</v>
+        <v>1692</v>
       </c>
       <c r="AG253" s="2" t="s">
-        <v>1962</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="254" spans="1:33">
@@ -26931,7 +26937,7 @@
         <v>0</v>
       </c>
       <c r="AB254" s="3" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
       <c r="AC254" t="s">
         <v>108</v>
@@ -26940,13 +26946,13 @@
         <v>108</v>
       </c>
       <c r="AE254" t="s">
-        <v>1604</v>
+        <v>1606</v>
       </c>
       <c r="AF254" t="s">
-        <v>1690</v>
+        <v>1692</v>
       </c>
       <c r="AG254" s="2" t="s">
-        <v>1963</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="255" spans="1:33">
@@ -27008,7 +27014,7 @@
         <v>0</v>
       </c>
       <c r="AB255" s="3" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="AC255" t="s">
         <v>108</v>
@@ -27017,13 +27023,13 @@
         <v>108</v>
       </c>
       <c r="AE255" t="s">
-        <v>1605</v>
+        <v>1607</v>
       </c>
       <c r="AF255" t="s">
-        <v>1691</v>
+        <v>1693</v>
       </c>
       <c r="AG255" s="2" t="s">
-        <v>1964</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="256" spans="1:33">
@@ -27085,7 +27091,7 @@
         <v>0</v>
       </c>
       <c r="AB256" s="3" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
       <c r="AC256" t="s">
         <v>108</v>
@@ -27094,13 +27100,13 @@
         <v>108</v>
       </c>
       <c r="AE256" t="s">
-        <v>1602</v>
+        <v>1604</v>
       </c>
       <c r="AF256" t="s">
-        <v>1688</v>
+        <v>1690</v>
       </c>
       <c r="AG256" s="2" t="s">
-        <v>1965</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="257" spans="1:33">
@@ -27162,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="AB257" s="3" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="AC257" t="s">
         <v>108</v>
@@ -27171,13 +27177,13 @@
         <v>108</v>
       </c>
       <c r="AE257" t="s">
-        <v>1596</v>
+        <v>1598</v>
       </c>
       <c r="AF257" t="s">
-        <v>1682</v>
+        <v>1684</v>
       </c>
       <c r="AG257" s="2" t="s">
-        <v>1966</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="258" spans="1:33">
@@ -27239,7 +27245,7 @@
         <v>0</v>
       </c>
       <c r="AB258" s="3" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
       <c r="AC258" t="s">
         <v>108</v>
@@ -27248,13 +27254,13 @@
         <v>108</v>
       </c>
       <c r="AE258" t="s">
-        <v>1544</v>
+        <v>1546</v>
       </c>
       <c r="AF258" t="s">
-        <v>1630</v>
+        <v>1632</v>
       </c>
       <c r="AG258" s="2" t="s">
-        <v>1967</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="259" spans="1:33">
@@ -27274,7 +27280,7 @@
         <v>202</v>
       </c>
       <c r="G259" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H259" t="s">
         <v>522</v>
@@ -27307,7 +27313,7 @@
         <v>4520</v>
       </c>
       <c r="U259" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="V259" s="3" t="s">
         <v>1212</v>
@@ -27316,7 +27322,7 @@
         <v>0</v>
       </c>
       <c r="AB259" s="3" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="AC259" t="s">
         <v>108</v>
@@ -27325,13 +27331,13 @@
         <v>108</v>
       </c>
       <c r="AE259" t="s">
-        <v>1577</v>
+        <v>1579</v>
       </c>
       <c r="AF259" t="s">
-        <v>1663</v>
+        <v>1665</v>
       </c>
       <c r="AG259" s="2" t="s">
-        <v>1968</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="260" spans="1:33">
@@ -27384,7 +27390,7 @@
         <v>4029</v>
       </c>
       <c r="U260" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="V260" s="3" t="s">
         <v>1213</v>
@@ -27393,7 +27399,7 @@
         <v>0</v>
       </c>
       <c r="AB260" s="3" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="AC260" t="s">
         <v>108</v>
@@ -27402,13 +27408,13 @@
         <v>108</v>
       </c>
       <c r="AE260" t="s">
-        <v>1606</v>
+        <v>1608</v>
       </c>
       <c r="AF260" t="s">
-        <v>1692</v>
+        <v>1694</v>
       </c>
       <c r="AG260" s="2" t="s">
-        <v>1969</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="261" spans="1:33">
@@ -27428,7 +27434,7 @@
         <v>202</v>
       </c>
       <c r="G261" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H261" t="s">
         <v>524</v>
@@ -27461,7 +27467,7 @@
         <v>4569</v>
       </c>
       <c r="U261" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="V261" s="3" t="s">
         <v>1214</v>
@@ -27470,22 +27476,22 @@
         <v>0</v>
       </c>
       <c r="AB261" s="3" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="AC261" t="s">
         <v>108</v>
       </c>
       <c r="AD261" s="3" t="s">
-        <v>1532</v>
+        <v>1534</v>
       </c>
       <c r="AE261" t="s">
-        <v>1607</v>
+        <v>1609</v>
       </c>
       <c r="AF261" t="s">
-        <v>1693</v>
+        <v>1695</v>
       </c>
       <c r="AG261" s="2" t="s">
-        <v>1970</v>
+        <v>1972</v>
       </c>
     </row>
     <row r="262" spans="1:33">
@@ -27538,7 +27544,7 @@
         <v>4569</v>
       </c>
       <c r="U262" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="V262" s="3" t="s">
         <v>1214</v>
@@ -27547,22 +27553,22 @@
         <v>0</v>
       </c>
       <c r="AB262" s="3" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="AC262" t="s">
         <v>108</v>
       </c>
       <c r="AD262" s="3" t="s">
-        <v>1533</v>
+        <v>1535</v>
       </c>
       <c r="AE262" t="s">
-        <v>1607</v>
+        <v>1609</v>
       </c>
       <c r="AF262" t="s">
-        <v>1693</v>
+        <v>1695</v>
       </c>
       <c r="AG262" s="2" t="s">
-        <v>1971</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="263" spans="1:33">
@@ -27582,7 +27588,7 @@
         <v>202</v>
       </c>
       <c r="G263" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H263" t="s">
         <v>526</v>
@@ -27615,7 +27621,7 @@
         <v>4569</v>
       </c>
       <c r="U263" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="V263" s="3" t="s">
         <v>1214</v>
@@ -27624,22 +27630,22 @@
         <v>0</v>
       </c>
       <c r="AB263" s="3" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="AC263" t="s">
         <v>108</v>
       </c>
       <c r="AD263" s="3" t="s">
-        <v>1534</v>
+        <v>1536</v>
       </c>
       <c r="AE263" t="s">
-        <v>1607</v>
+        <v>1609</v>
       </c>
       <c r="AF263" t="s">
-        <v>1693</v>
+        <v>1695</v>
       </c>
       <c r="AG263" s="2" t="s">
-        <v>1972</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="264" spans="1:33">
@@ -27659,7 +27665,7 @@
         <v>202</v>
       </c>
       <c r="G264" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H264" t="s">
         <v>527</v>
@@ -27692,7 +27698,7 @@
         <v>4569</v>
       </c>
       <c r="U264" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="V264" s="3" t="s">
         <v>1214</v>
@@ -27701,22 +27707,22 @@
         <v>0</v>
       </c>
       <c r="AB264" s="3" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="AC264" t="s">
         <v>108</v>
       </c>
       <c r="AD264" s="3" t="s">
-        <v>1535</v>
+        <v>1537</v>
       </c>
       <c r="AE264" t="s">
-        <v>1607</v>
+        <v>1609</v>
       </c>
       <c r="AF264" t="s">
-        <v>1693</v>
+        <v>1695</v>
       </c>
       <c r="AG264" s="2" t="s">
-        <v>1973</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="265" spans="1:33">
@@ -27736,7 +27742,7 @@
         <v>202</v>
       </c>
       <c r="G265" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H265" t="s">
         <v>528</v>
@@ -27769,7 +27775,7 @@
         <v>4569</v>
       </c>
       <c r="U265" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="V265" s="3" t="s">
         <v>1214</v>
@@ -27778,22 +27784,22 @@
         <v>0</v>
       </c>
       <c r="AB265" s="3" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="AC265" t="s">
         <v>108</v>
       </c>
       <c r="AD265" s="3" t="s">
-        <v>1536</v>
+        <v>1538</v>
       </c>
       <c r="AE265" t="s">
-        <v>1607</v>
+        <v>1609</v>
       </c>
       <c r="AF265" t="s">
-        <v>1693</v>
+        <v>1695</v>
       </c>
       <c r="AG265" s="2" t="s">
-        <v>1974</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="266" spans="1:33">
@@ -27855,7 +27861,7 @@
         <v>0</v>
       </c>
       <c r="AB266" s="3" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
       <c r="AC266" t="s">
         <v>108</v>
@@ -27864,13 +27870,13 @@
         <v>108</v>
       </c>
       <c r="AE266" t="s">
-        <v>1608</v>
+        <v>1610</v>
       </c>
       <c r="AF266" t="s">
-        <v>1694</v>
+        <v>1696</v>
       </c>
       <c r="AG266" s="2" t="s">
-        <v>1975</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="267" spans="1:33">
@@ -27932,7 +27938,7 @@
         <v>0</v>
       </c>
       <c r="AB267" s="3" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="AC267" t="s">
         <v>108</v>
@@ -27941,13 +27947,13 @@
         <v>108</v>
       </c>
       <c r="AE267" t="s">
-        <v>1544</v>
+        <v>1546</v>
       </c>
       <c r="AF267" t="s">
-        <v>1630</v>
+        <v>1632</v>
       </c>
       <c r="AG267" s="2" t="s">
-        <v>1976</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="268" spans="1:33">
@@ -28012,7 +28018,7 @@
         <v>0</v>
       </c>
       <c r="AB268" s="3" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
       <c r="AC268" t="s">
         <v>108</v>
@@ -28021,13 +28027,13 @@
         <v>108</v>
       </c>
       <c r="AE268" t="s">
-        <v>1544</v>
+        <v>1546</v>
       </c>
       <c r="AF268" t="s">
-        <v>1630</v>
+        <v>1632</v>
       </c>
       <c r="AG268" s="2" t="s">
-        <v>1977</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="269" spans="1:33">
@@ -28092,7 +28098,7 @@
         <v>0</v>
       </c>
       <c r="AB269" s="3" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="AC269" t="s">
         <v>108</v>
@@ -28101,13 +28107,13 @@
         <v>108</v>
       </c>
       <c r="AE269" t="s">
-        <v>1609</v>
+        <v>1611</v>
       </c>
       <c r="AF269" t="s">
-        <v>1695</v>
+        <v>1697</v>
       </c>
       <c r="AG269" s="2" t="s">
-        <v>1978</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="270" spans="1:33">
@@ -28169,7 +28175,7 @@
         <v>0</v>
       </c>
       <c r="AB270" s="3" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="AC270" t="s">
         <v>108</v>
@@ -28178,13 +28184,13 @@
         <v>108</v>
       </c>
       <c r="AE270" t="s">
-        <v>1609</v>
+        <v>1611</v>
       </c>
       <c r="AF270" t="s">
-        <v>1695</v>
+        <v>1697</v>
       </c>
       <c r="AG270" s="2" t="s">
-        <v>1979</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="271" spans="1:33">
@@ -28246,7 +28252,7 @@
         <v>0</v>
       </c>
       <c r="AB271" s="3" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
       <c r="AC271" t="s">
         <v>108</v>
@@ -28255,13 +28261,13 @@
         <v>108</v>
       </c>
       <c r="AE271" t="s">
-        <v>1544</v>
+        <v>1546</v>
       </c>
       <c r="AF271" t="s">
-        <v>1630</v>
+        <v>1632</v>
       </c>
       <c r="AG271" s="2" t="s">
-        <v>1980</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="272" spans="1:33">
@@ -28323,7 +28329,7 @@
         <v>0</v>
       </c>
       <c r="AB272" s="3" t="s">
-        <v>1447</v>
+        <v>1448</v>
       </c>
       <c r="AC272" t="s">
         <v>108</v>
@@ -28332,13 +28338,13 @@
         <v>108</v>
       </c>
       <c r="AE272" t="s">
-        <v>1544</v>
+        <v>1546</v>
       </c>
       <c r="AF272" t="s">
-        <v>1630</v>
+        <v>1632</v>
       </c>
       <c r="AG272" s="2" t="s">
-        <v>1981</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="273" spans="1:33">
@@ -28400,7 +28406,7 @@
         <v>0</v>
       </c>
       <c r="AB273" s="3" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
       <c r="AC273" t="s">
         <v>108</v>
@@ -28409,13 +28415,13 @@
         <v>108</v>
       </c>
       <c r="AE273" t="s">
-        <v>1544</v>
+        <v>1546</v>
       </c>
       <c r="AF273" t="s">
-        <v>1630</v>
+        <v>1632</v>
       </c>
       <c r="AG273" s="2" t="s">
-        <v>1982</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="274" spans="1:33">
@@ -28477,7 +28483,7 @@
         <v>0</v>
       </c>
       <c r="AB274" s="3" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="AC274" t="s">
         <v>108</v>
@@ -28486,13 +28492,13 @@
         <v>108</v>
       </c>
       <c r="AE274" t="s">
-        <v>1610</v>
+        <v>1612</v>
       </c>
       <c r="AF274" t="s">
-        <v>1696</v>
+        <v>1698</v>
       </c>
       <c r="AG274" s="2" t="s">
-        <v>1983</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="275" spans="1:33">
@@ -28554,7 +28560,7 @@
         <v>0</v>
       </c>
       <c r="AB275" s="3" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
       <c r="AC275" t="s">
         <v>108</v>
@@ -28563,13 +28569,13 @@
         <v>108</v>
       </c>
       <c r="AE275" t="s">
-        <v>1611</v>
+        <v>1613</v>
       </c>
       <c r="AF275" t="s">
-        <v>1697</v>
+        <v>1699</v>
       </c>
       <c r="AG275" s="2" t="s">
-        <v>1984</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="276" spans="1:33">
@@ -28631,7 +28637,7 @@
         <v>0</v>
       </c>
       <c r="AB276" s="3" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="AC276" t="s">
         <v>108</v>
@@ -28640,13 +28646,13 @@
         <v>108</v>
       </c>
       <c r="AE276" t="s">
-        <v>1544</v>
+        <v>1546</v>
       </c>
       <c r="AF276" t="s">
-        <v>1630</v>
+        <v>1632</v>
       </c>
       <c r="AG276" s="2" t="s">
-        <v>1985</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="277" spans="1:33">
@@ -28708,7 +28714,7 @@
         <v>0</v>
       </c>
       <c r="AB277" s="3" t="s">
-        <v>1451</v>
+        <v>1452</v>
       </c>
       <c r="AC277" t="s">
         <v>108</v>
@@ -28717,13 +28723,13 @@
         <v>108</v>
       </c>
       <c r="AE277" t="s">
-        <v>1612</v>
+        <v>1614</v>
       </c>
       <c r="AF277" t="s">
-        <v>1698</v>
+        <v>1700</v>
       </c>
       <c r="AG277" s="2" t="s">
-        <v>1986</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="278" spans="1:33">
@@ -28785,7 +28791,7 @@
         <v>0</v>
       </c>
       <c r="AB278" s="3" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
       <c r="AC278" t="s">
         <v>108</v>
@@ -28794,13 +28800,13 @@
         <v>108</v>
       </c>
       <c r="AE278" t="s">
-        <v>1577</v>
+        <v>1579</v>
       </c>
       <c r="AF278" t="s">
-        <v>1663</v>
+        <v>1665</v>
       </c>
       <c r="AG278" s="2" t="s">
-        <v>1987</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="279" spans="1:33">
@@ -28862,22 +28868,22 @@
         <v>0</v>
       </c>
       <c r="AB279" s="3" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
       <c r="AC279" t="s">
         <v>108</v>
       </c>
       <c r="AD279" s="3" t="s">
-        <v>1537</v>
+        <v>1539</v>
       </c>
       <c r="AE279" t="s">
-        <v>1577</v>
+        <v>1579</v>
       </c>
       <c r="AF279" t="s">
-        <v>1663</v>
+        <v>1665</v>
       </c>
       <c r="AG279" s="2" t="s">
-        <v>1988</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="280" spans="1:33">
@@ -28939,7 +28945,7 @@
         <v>0</v>
       </c>
       <c r="AB280" s="3" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
       <c r="AC280" t="s">
         <v>108</v>
@@ -28948,21 +28954,21 @@
         <v>108</v>
       </c>
       <c r="AE280" t="s">
-        <v>1596</v>
+        <v>1598</v>
       </c>
       <c r="AF280" t="s">
-        <v>1682</v>
+        <v>1684</v>
       </c>
       <c r="AG280" s="2" t="s">
-        <v>1989</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="281" spans="1:33">
       <c r="A281">
-        <v>1738253</v>
+        <v>1737535</v>
       </c>
       <c r="B281">
-        <v>4592</v>
+        <v>5229</v>
       </c>
       <c r="D281" t="s">
         <v>99</v>
@@ -28974,7 +28980,7 @@
         <v>207</v>
       </c>
       <c r="G281" t="s">
-        <v>260</v>
+        <v>208</v>
       </c>
       <c r="H281" t="s">
         <v>543</v>
@@ -28983,43 +28989,40 @@
         <v>847</v>
       </c>
       <c r="J281">
-        <v>17</v>
+        <v>216</v>
       </c>
       <c r="K281" s="3" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="L281" t="b">
         <v>0</v>
       </c>
       <c r="M281" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N281" t="s">
         <v>108</v>
       </c>
       <c r="O281" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P281" t="b">
         <v>0</v>
       </c>
       <c r="Q281">
-        <v>4444</v>
+        <v>4822</v>
       </c>
       <c r="U281" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="V281" s="3" t="s">
         <v>1230</v>
       </c>
-      <c r="Z281" t="s">
-        <v>260</v>
-      </c>
       <c r="AA281">
         <v>0</v>
       </c>
       <c r="AB281" s="3" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="AC281" t="s">
         <v>108</v>
@@ -29028,21 +29031,21 @@
         <v>108</v>
       </c>
       <c r="AE281" t="s">
-        <v>1544</v>
+        <v>1615</v>
       </c>
       <c r="AF281" t="s">
-        <v>1630</v>
+        <v>1701</v>
       </c>
       <c r="AG281" s="2" t="s">
-        <v>1990</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="282" spans="1:33">
       <c r="A282">
-        <v>1739105</v>
+        <v>1738253</v>
       </c>
       <c r="B282">
-        <v>5230</v>
+        <v>4592</v>
       </c>
       <c r="D282" t="s">
         <v>99</v>
@@ -29063,10 +29066,10 @@
         <v>848</v>
       </c>
       <c r="J282">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="K282" s="3" t="s">
-        <v>888</v>
+        <v>876</v>
       </c>
       <c r="L282" t="b">
         <v>0</v>
@@ -29078,13 +29081,13 @@
         <v>108</v>
       </c>
       <c r="O282" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P282" t="b">
         <v>0</v>
       </c>
       <c r="Q282">
-        <v>4046</v>
+        <v>4444</v>
       </c>
       <c r="U282" t="s">
         <v>260</v>
@@ -29092,11 +29095,14 @@
       <c r="V282" s="3" t="s">
         <v>1231</v>
       </c>
+      <c r="Z282" t="s">
+        <v>260</v>
+      </c>
       <c r="AA282">
         <v>0</v>
       </c>
       <c r="AB282" s="3" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
       <c r="AC282" t="s">
         <v>108</v>
@@ -29105,21 +29111,21 @@
         <v>108</v>
       </c>
       <c r="AE282" t="s">
-        <v>1613</v>
+        <v>1546</v>
       </c>
       <c r="AF282" t="s">
-        <v>1699</v>
+        <v>1632</v>
       </c>
       <c r="AG282" s="2" t="s">
-        <v>1991</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="283" spans="1:33">
       <c r="A283">
-        <v>1735685</v>
+        <v>1739105</v>
       </c>
       <c r="B283">
-        <v>1521</v>
+        <v>5230</v>
       </c>
       <c r="D283" t="s">
         <v>99</v>
@@ -29131,25 +29137,25 @@
         <v>209</v>
       </c>
       <c r="G283" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H283" t="s">
-        <v>103</v>
+        <v>545</v>
       </c>
       <c r="I283" s="3" t="s">
         <v>849</v>
       </c>
       <c r="J283">
-        <v>208</v>
+        <v>60</v>
       </c>
       <c r="K283" s="3" t="s">
-        <v>875</v>
+        <v>888</v>
       </c>
       <c r="L283" t="b">
         <v>0</v>
       </c>
       <c r="M283" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N283" t="s">
         <v>108</v>
@@ -29161,10 +29167,10 @@
         <v>0</v>
       </c>
       <c r="Q283">
-        <v>5148</v>
+        <v>4046</v>
       </c>
       <c r="U283" t="s">
-        <v>207</v>
+        <v>260</v>
       </c>
       <c r="V283" s="3" t="s">
         <v>1232</v>
@@ -29173,7 +29179,7 @@
         <v>0</v>
       </c>
       <c r="AB283" s="3" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="AC283" t="s">
         <v>108</v>
@@ -29182,18 +29188,18 @@
         <v>108</v>
       </c>
       <c r="AE283" t="s">
-        <v>1542</v>
+        <v>1616</v>
       </c>
       <c r="AF283" t="s">
-        <v>1628</v>
+        <v>1702</v>
       </c>
       <c r="AG283" s="2" t="s">
-        <v>1992</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="284" spans="1:33">
       <c r="A284">
-        <v>1735686</v>
+        <v>1735685</v>
       </c>
       <c r="B284">
         <v>1521</v>
@@ -29205,22 +29211,22 @@
         <v>1</v>
       </c>
       <c r="F284" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G284" t="s">
         <v>261</v>
       </c>
       <c r="H284" t="s">
-        <v>545</v>
+        <v>103</v>
       </c>
       <c r="I284" s="3" t="s">
         <v>850</v>
       </c>
       <c r="J284">
-        <v>1</v>
+        <v>208</v>
       </c>
       <c r="K284" s="3" t="s">
-        <v>882</v>
+        <v>875</v>
       </c>
       <c r="L284" t="b">
         <v>0</v>
@@ -29238,7 +29244,7 @@
         <v>0</v>
       </c>
       <c r="Q284">
-        <v>4243</v>
+        <v>5148</v>
       </c>
       <c r="U284" t="s">
         <v>208</v>
@@ -29250,7 +29256,7 @@
         <v>0</v>
       </c>
       <c r="AB284" s="3" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="AC284" t="s">
         <v>108</v>
@@ -29259,21 +29265,21 @@
         <v>108</v>
       </c>
       <c r="AE284" t="s">
-        <v>1542</v>
+        <v>1544</v>
       </c>
       <c r="AF284" t="s">
-        <v>1628</v>
+        <v>1630</v>
       </c>
       <c r="AG284" s="2" t="s">
-        <v>1993</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="285" spans="1:33">
       <c r="A285">
-        <v>1735844</v>
+        <v>1735686</v>
       </c>
       <c r="B285">
-        <v>5122</v>
+        <v>1521</v>
       </c>
       <c r="D285" t="s">
         <v>99</v>
@@ -29282,7 +29288,7 @@
         <v>1</v>
       </c>
       <c r="F285" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G285" t="s">
         <v>261</v>
@@ -29294,10 +29300,10 @@
         <v>851</v>
       </c>
       <c r="J285">
-        <v>217</v>
+        <v>1</v>
       </c>
       <c r="K285" s="3" t="s">
-        <v>877</v>
+        <v>882</v>
       </c>
       <c r="L285" t="b">
         <v>0</v>
@@ -29315,10 +29321,10 @@
         <v>0</v>
       </c>
       <c r="Q285">
-        <v>1446</v>
+        <v>4243</v>
       </c>
       <c r="U285" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="V285" s="3" t="s">
         <v>1234</v>
@@ -29327,7 +29333,7 @@
         <v>0</v>
       </c>
       <c r="AB285" s="3" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="AC285" t="s">
         <v>108</v>
@@ -29336,21 +29342,21 @@
         <v>108</v>
       </c>
       <c r="AE285" t="s">
-        <v>1614</v>
+        <v>1544</v>
       </c>
       <c r="AF285" t="s">
-        <v>1700</v>
+        <v>1630</v>
       </c>
       <c r="AG285" s="2" t="s">
-        <v>1994</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="286" spans="1:33">
       <c r="A286">
-        <v>1735264</v>
+        <v>1735844</v>
       </c>
       <c r="B286">
-        <v>5096</v>
+        <v>5122</v>
       </c>
       <c r="D286" t="s">
         <v>99</v>
@@ -29362,7 +29368,7 @@
         <v>210</v>
       </c>
       <c r="G286" t="s">
-        <v>209</v>
+        <v>261</v>
       </c>
       <c r="H286" t="s">
         <v>547</v>
@@ -29371,10 +29377,10 @@
         <v>852</v>
       </c>
       <c r="J286">
-        <v>60</v>
+        <v>217</v>
       </c>
       <c r="K286" s="3" t="s">
-        <v>888</v>
+        <v>877</v>
       </c>
       <c r="L286" t="b">
         <v>0</v>
@@ -29392,10 +29398,10 @@
         <v>0</v>
       </c>
       <c r="Q286">
-        <v>4698</v>
+        <v>1446</v>
       </c>
       <c r="U286" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="V286" s="3" t="s">
         <v>1235</v>
@@ -29404,7 +29410,7 @@
         <v>0</v>
       </c>
       <c r="AB286" s="3" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="AC286" t="s">
         <v>108</v>
@@ -29413,21 +29419,21 @@
         <v>108</v>
       </c>
       <c r="AE286" t="s">
-        <v>1615</v>
+        <v>1617</v>
       </c>
       <c r="AF286" t="s">
-        <v>1701</v>
+        <v>1703</v>
       </c>
       <c r="AG286" s="2" t="s">
-        <v>1995</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="287" spans="1:33">
       <c r="A287">
-        <v>1734768</v>
+        <v>1735264</v>
       </c>
       <c r="B287">
-        <v>5297</v>
+        <v>5096</v>
       </c>
       <c r="D287" t="s">
         <v>99</v>
@@ -29439,7 +29445,7 @@
         <v>211</v>
       </c>
       <c r="G287" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H287" t="s">
         <v>548</v>
@@ -29448,10 +29454,10 @@
         <v>853</v>
       </c>
       <c r="J287">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="K287" s="3" t="s">
-        <v>874</v>
+        <v>888</v>
       </c>
       <c r="L287" t="b">
         <v>0</v>
@@ -29469,10 +29475,10 @@
         <v>0</v>
       </c>
       <c r="Q287">
-        <v>4029</v>
+        <v>4698</v>
       </c>
       <c r="U287" t="s">
-        <v>989</v>
+        <v>207</v>
       </c>
       <c r="V287" s="3" t="s">
         <v>1236</v>
@@ -29481,7 +29487,7 @@
         <v>0</v>
       </c>
       <c r="AB287" s="3" t="s">
-        <v>1439</v>
+        <v>1462</v>
       </c>
       <c r="AC287" t="s">
         <v>108</v>
@@ -29490,21 +29496,21 @@
         <v>108</v>
       </c>
       <c r="AE287" t="s">
-        <v>1606</v>
+        <v>1618</v>
       </c>
       <c r="AF287" t="s">
-        <v>1692</v>
+        <v>1704</v>
       </c>
       <c r="AG287" s="2" t="s">
-        <v>1996</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="288" spans="1:33">
       <c r="A288">
-        <v>1735185</v>
+        <v>1734768</v>
       </c>
       <c r="B288">
-        <v>5036</v>
+        <v>5297</v>
       </c>
       <c r="D288" t="s">
         <v>99</v>
@@ -29513,10 +29519,10 @@
         <v>1</v>
       </c>
       <c r="F288" t="s">
+        <v>212</v>
+      </c>
+      <c r="G288" t="s">
         <v>210</v>
-      </c>
-      <c r="G288" t="s">
-        <v>209</v>
       </c>
       <c r="H288" t="s">
         <v>549</v>
@@ -29525,10 +29531,10 @@
         <v>854</v>
       </c>
       <c r="J288">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="K288" s="3" t="s">
-        <v>888</v>
+        <v>874</v>
       </c>
       <c r="L288" t="b">
         <v>0</v>
@@ -29546,7 +29552,7 @@
         <v>0</v>
       </c>
       <c r="Q288">
-        <v>4125</v>
+        <v>4029</v>
       </c>
       <c r="U288" t="s">
         <v>989</v>
@@ -29558,7 +29564,7 @@
         <v>0</v>
       </c>
       <c r="AB288" s="3" t="s">
-        <v>1461</v>
+        <v>1440</v>
       </c>
       <c r="AC288" t="s">
         <v>108</v>
@@ -29567,21 +29573,21 @@
         <v>108</v>
       </c>
       <c r="AE288" t="s">
-        <v>1616</v>
+        <v>1608</v>
       </c>
       <c r="AF288" t="s">
-        <v>1702</v>
+        <v>1694</v>
       </c>
       <c r="AG288" s="2" t="s">
-        <v>1997</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="289" spans="1:33">
       <c r="A289">
-        <v>1733767</v>
+        <v>1735185</v>
       </c>
       <c r="B289">
-        <v>5050</v>
+        <v>5036</v>
       </c>
       <c r="D289" t="s">
         <v>99</v>
@@ -29590,10 +29596,10 @@
         <v>1</v>
       </c>
       <c r="F289" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G289" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H289" t="s">
         <v>550</v>
@@ -29602,10 +29608,10 @@
         <v>855</v>
       </c>
       <c r="J289">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="K289" s="3" t="s">
-        <v>895</v>
+        <v>888</v>
       </c>
       <c r="L289" t="b">
         <v>0</v>
@@ -29623,10 +29629,10 @@
         <v>0</v>
       </c>
       <c r="Q289">
-        <v>4569</v>
+        <v>4125</v>
       </c>
       <c r="U289" t="s">
-        <v>262</v>
+        <v>989</v>
       </c>
       <c r="V289" s="3" t="s">
         <v>1238</v>
@@ -29635,7 +29641,7 @@
         <v>0</v>
       </c>
       <c r="AB289" s="3" t="s">
-        <v>1429</v>
+        <v>1463</v>
       </c>
       <c r="AC289" t="s">
         <v>108</v>
@@ -29644,21 +29650,21 @@
         <v>108</v>
       </c>
       <c r="AE289" t="s">
-        <v>1617</v>
+        <v>1619</v>
       </c>
       <c r="AF289" t="s">
-        <v>1703</v>
+        <v>1705</v>
       </c>
       <c r="AG289" s="2" t="s">
-        <v>1998</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="290" spans="1:33">
       <c r="A290">
-        <v>1735808</v>
+        <v>1733767</v>
       </c>
       <c r="B290">
-        <v>5319</v>
+        <v>5050</v>
       </c>
       <c r="D290" t="s">
         <v>99</v>
@@ -29667,10 +29673,10 @@
         <v>1</v>
       </c>
       <c r="F290" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="G290" t="s">
-        <v>262</v>
+        <v>212</v>
       </c>
       <c r="H290" t="s">
         <v>551</v>
@@ -29679,16 +29685,16 @@
         <v>856</v>
       </c>
       <c r="J290">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="K290" s="3" t="s">
-        <v>881</v>
+        <v>895</v>
       </c>
       <c r="L290" t="b">
         <v>0</v>
       </c>
       <c r="M290" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N290" t="s">
         <v>108</v>
@@ -29700,7 +29706,7 @@
         <v>0</v>
       </c>
       <c r="Q290">
-        <v>4797</v>
+        <v>4569</v>
       </c>
       <c r="U290" t="s">
         <v>262</v>
@@ -29712,7 +29718,7 @@
         <v>0</v>
       </c>
       <c r="AB290" s="3" t="s">
-        <v>1462</v>
+        <v>1430</v>
       </c>
       <c r="AC290" t="s">
         <v>108</v>
@@ -29721,21 +29727,21 @@
         <v>108</v>
       </c>
       <c r="AE290" t="s">
-        <v>1618</v>
+        <v>1620</v>
       </c>
       <c r="AF290" t="s">
-        <v>1704</v>
+        <v>1706</v>
       </c>
       <c r="AG290" s="2" t="s">
-        <v>1999</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="291" spans="1:33">
       <c r="A291">
-        <v>1734514</v>
+        <v>1735808</v>
       </c>
       <c r="B291">
-        <v>5297</v>
+        <v>5319</v>
       </c>
       <c r="D291" t="s">
         <v>99</v>
@@ -29744,10 +29750,10 @@
         <v>1</v>
       </c>
       <c r="F291" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="G291" t="s">
-        <v>210</v>
+        <v>262</v>
       </c>
       <c r="H291" t="s">
         <v>552</v>
@@ -29765,7 +29771,7 @@
         <v>0</v>
       </c>
       <c r="M291" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N291" t="s">
         <v>108</v>
@@ -29780,7 +29786,7 @@
         <v>4797</v>
       </c>
       <c r="U291" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="V291" s="3" t="s">
         <v>1240</v>
@@ -29789,7 +29795,7 @@
         <v>0</v>
       </c>
       <c r="AB291" s="3" t="s">
-        <v>1453</v>
+        <v>1464</v>
       </c>
       <c r="AC291" t="s">
         <v>108</v>
@@ -29798,18 +29804,18 @@
         <v>108</v>
       </c>
       <c r="AE291" t="s">
-        <v>1606</v>
+        <v>1621</v>
       </c>
       <c r="AF291" t="s">
-        <v>1692</v>
+        <v>1707</v>
       </c>
       <c r="AG291" s="2" t="s">
-        <v>2000</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="292" spans="1:33">
       <c r="A292">
-        <v>1734515</v>
+        <v>1734514</v>
       </c>
       <c r="B292">
         <v>5297</v>
@@ -29821,10 +29827,10 @@
         <v>1</v>
       </c>
       <c r="F292" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G292" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H292" t="s">
         <v>553</v>
@@ -29866,7 +29872,7 @@
         <v>0</v>
       </c>
       <c r="AB292" s="3" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
       <c r="AC292" t="s">
         <v>108</v>
@@ -29875,21 +29881,21 @@
         <v>108</v>
       </c>
       <c r="AE292" t="s">
-        <v>1606</v>
+        <v>1608</v>
       </c>
       <c r="AF292" t="s">
-        <v>1692</v>
+        <v>1694</v>
       </c>
       <c r="AG292" s="2" t="s">
-        <v>2001</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="293" spans="1:33">
       <c r="A293">
-        <v>1735418</v>
+        <v>1734515</v>
       </c>
       <c r="B293">
-        <v>5128</v>
+        <v>5297</v>
       </c>
       <c r="D293" t="s">
         <v>99</v>
@@ -29901,7 +29907,7 @@
         <v>214</v>
       </c>
       <c r="G293" t="s">
-        <v>263</v>
+        <v>211</v>
       </c>
       <c r="H293" t="s">
         <v>554</v>
@@ -29910,10 +29916,10 @@
         <v>859</v>
       </c>
       <c r="J293">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="K293" s="3" t="s">
-        <v>897</v>
+        <v>881</v>
       </c>
       <c r="L293" t="b">
         <v>0</v>
@@ -29931,10 +29937,10 @@
         <v>0</v>
       </c>
       <c r="Q293">
-        <v>3928</v>
+        <v>4797</v>
       </c>
       <c r="U293" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="V293" s="3" t="s">
         <v>1242</v>
@@ -29943,7 +29949,7 @@
         <v>0</v>
       </c>
       <c r="AB293" s="3" t="s">
-        <v>1463</v>
+        <v>1454</v>
       </c>
       <c r="AC293" t="s">
         <v>108</v>
@@ -29952,21 +29958,21 @@
         <v>108</v>
       </c>
       <c r="AE293" t="s">
-        <v>1619</v>
+        <v>1608</v>
       </c>
       <c r="AF293" t="s">
-        <v>1705</v>
+        <v>1694</v>
       </c>
       <c r="AG293" s="2" t="s">
-        <v>2002</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="294" spans="1:33">
       <c r="A294">
-        <v>1734534</v>
+        <v>1735418</v>
       </c>
       <c r="B294">
-        <v>5343</v>
+        <v>5128</v>
       </c>
       <c r="D294" t="s">
         <v>99</v>
@@ -29975,10 +29981,10 @@
         <v>1</v>
       </c>
       <c r="F294" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="G294" t="s">
-        <v>209</v>
+        <v>263</v>
       </c>
       <c r="H294" t="s">
         <v>555</v>
@@ -29987,16 +29993,16 @@
         <v>860</v>
       </c>
       <c r="J294">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="K294" s="3" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="L294" t="b">
         <v>0</v>
       </c>
       <c r="M294" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N294" t="s">
         <v>108</v>
@@ -30008,10 +30014,10 @@
         <v>0</v>
       </c>
       <c r="Q294">
-        <v>4569</v>
+        <v>3928</v>
       </c>
       <c r="U294" t="s">
-        <v>209</v>
+        <v>263</v>
       </c>
       <c r="V294" s="3" t="s">
         <v>1243</v>
@@ -30020,7 +30026,7 @@
         <v>0</v>
       </c>
       <c r="AB294" s="3" t="s">
-        <v>1430</v>
+        <v>1465</v>
       </c>
       <c r="AC294" t="s">
         <v>108</v>
@@ -30029,21 +30035,21 @@
         <v>108</v>
       </c>
       <c r="AE294" t="s">
-        <v>1620</v>
+        <v>1622</v>
       </c>
       <c r="AF294" t="s">
-        <v>1706</v>
+        <v>1708</v>
       </c>
       <c r="AG294" s="2" t="s">
-        <v>2003</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="295" spans="1:33">
       <c r="A295">
-        <v>1735011</v>
+        <v>1734534</v>
       </c>
       <c r="B295">
-        <v>5086</v>
+        <v>5343</v>
       </c>
       <c r="D295" t="s">
         <v>99</v>
@@ -30052,7 +30058,7 @@
         <v>1</v>
       </c>
       <c r="F295" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G295" t="s">
         <v>210</v>
@@ -30064,10 +30070,10 @@
         <v>861</v>
       </c>
       <c r="J295">
-        <v>217</v>
+        <v>7</v>
       </c>
       <c r="K295" s="3" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="L295" t="b">
         <v>0</v>
@@ -30085,7 +30091,7 @@
         <v>0</v>
       </c>
       <c r="Q295">
-        <v>1446</v>
+        <v>4569</v>
       </c>
       <c r="U295" t="s">
         <v>210</v>
@@ -30097,7 +30103,7 @@
         <v>0</v>
       </c>
       <c r="AB295" s="3" t="s">
-        <v>1464</v>
+        <v>1431</v>
       </c>
       <c r="AC295" t="s">
         <v>108</v>
@@ -30106,21 +30112,21 @@
         <v>108</v>
       </c>
       <c r="AE295" t="s">
-        <v>1621</v>
+        <v>1623</v>
       </c>
       <c r="AF295" t="s">
-        <v>1707</v>
+        <v>1709</v>
       </c>
       <c r="AG295" s="2" t="s">
-        <v>2004</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="296" spans="1:33">
       <c r="A296">
-        <v>1733598</v>
+        <v>1735011</v>
       </c>
       <c r="B296">
-        <v>5234</v>
+        <v>5086</v>
       </c>
       <c r="D296" t="s">
         <v>99</v>
@@ -30141,10 +30147,10 @@
         <v>862</v>
       </c>
       <c r="J296">
-        <v>17</v>
+        <v>217</v>
       </c>
       <c r="K296" s="3" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="L296" t="b">
         <v>0</v>
@@ -30162,22 +30168,19 @@
         <v>0</v>
       </c>
       <c r="Q296">
-        <v>4444</v>
+        <v>1446</v>
       </c>
       <c r="U296" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="V296" s="3" t="s">
         <v>1245</v>
       </c>
-      <c r="Z296" t="s">
-        <v>211</v>
-      </c>
       <c r="AA296">
         <v>0</v>
       </c>
       <c r="AB296" s="3" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
       <c r="AC296" t="s">
         <v>108</v>
@@ -30186,21 +30189,21 @@
         <v>108</v>
       </c>
       <c r="AE296" t="s">
-        <v>1596</v>
+        <v>1624</v>
       </c>
       <c r="AF296" t="s">
-        <v>1682</v>
+        <v>1710</v>
       </c>
       <c r="AG296" s="2" t="s">
-        <v>2005</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="297" spans="1:33">
       <c r="A297">
-        <v>1732512</v>
+        <v>1733598</v>
       </c>
       <c r="B297">
-        <v>5050</v>
+        <v>5234</v>
       </c>
       <c r="D297" t="s">
         <v>99</v>
@@ -30212,7 +30215,7 @@
         <v>217</v>
       </c>
       <c r="G297" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H297" t="s">
         <v>558</v>
@@ -30221,16 +30224,16 @@
         <v>863</v>
       </c>
       <c r="J297">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="K297" s="3" t="s">
-        <v>888</v>
+        <v>876</v>
       </c>
       <c r="L297" t="b">
         <v>0</v>
       </c>
       <c r="M297" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N297" t="s">
         <v>108</v>
@@ -30242,7 +30245,7 @@
         <v>0</v>
       </c>
       <c r="Q297">
-        <v>4125</v>
+        <v>4444</v>
       </c>
       <c r="U297" t="s">
         <v>211</v>
@@ -30250,11 +30253,14 @@
       <c r="V297" s="3" t="s">
         <v>1246</v>
       </c>
+      <c r="Z297" t="s">
+        <v>212</v>
+      </c>
       <c r="AA297">
         <v>0</v>
       </c>
       <c r="AB297" s="3" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="AC297" t="s">
         <v>108</v>
@@ -30263,21 +30269,21 @@
         <v>108</v>
       </c>
       <c r="AE297" t="s">
-        <v>1617</v>
+        <v>1598</v>
       </c>
       <c r="AF297" t="s">
-        <v>1703</v>
+        <v>1684</v>
       </c>
       <c r="AG297" s="2" t="s">
-        <v>2006</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="298" spans="1:33">
       <c r="A298">
-        <v>1732597</v>
+        <v>1732512</v>
       </c>
       <c r="B298">
-        <v>5297</v>
+        <v>5050</v>
       </c>
       <c r="D298" t="s">
         <v>99</v>
@@ -30286,10 +30292,10 @@
         <v>1</v>
       </c>
       <c r="F298" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G298" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H298" t="s">
         <v>559</v>
@@ -30298,10 +30304,10 @@
         <v>864</v>
       </c>
       <c r="J298">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="K298" s="3" t="s">
-        <v>874</v>
+        <v>888</v>
       </c>
       <c r="L298" t="b">
         <v>0</v>
@@ -30319,10 +30325,10 @@
         <v>0</v>
       </c>
       <c r="Q298">
-        <v>4029</v>
+        <v>4125</v>
       </c>
       <c r="U298" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="V298" s="3" t="s">
         <v>1247</v>
@@ -30331,7 +30337,7 @@
         <v>0</v>
       </c>
       <c r="AB298" s="3" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="AC298" t="s">
         <v>108</v>
@@ -30340,21 +30346,21 @@
         <v>108</v>
       </c>
       <c r="AE298" t="s">
-        <v>1606</v>
+        <v>1620</v>
       </c>
       <c r="AF298" t="s">
-        <v>1692</v>
+        <v>1706</v>
       </c>
       <c r="AG298" s="2" t="s">
-        <v>2007</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="299" spans="1:33">
       <c r="A299">
-        <v>1731037</v>
+        <v>1732597</v>
       </c>
       <c r="B299">
-        <v>5047</v>
+        <v>5297</v>
       </c>
       <c r="D299" t="s">
         <v>99</v>
@@ -30366,7 +30372,7 @@
         <v>218</v>
       </c>
       <c r="G299" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H299" t="s">
         <v>560</v>
@@ -30375,10 +30381,10 @@
         <v>865</v>
       </c>
       <c r="J299">
-        <v>217</v>
+        <v>27</v>
       </c>
       <c r="K299" s="3" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="L299" t="b">
         <v>0</v>
@@ -30396,7 +30402,7 @@
         <v>0</v>
       </c>
       <c r="Q299">
-        <v>1446</v>
+        <v>4029</v>
       </c>
       <c r="U299" t="s">
         <v>212</v>
@@ -30408,7 +30414,7 @@
         <v>0</v>
       </c>
       <c r="AB299" s="3" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
       <c r="AC299" t="s">
         <v>108</v>
@@ -30417,21 +30423,21 @@
         <v>108</v>
       </c>
       <c r="AE299" t="s">
-        <v>1622</v>
+        <v>1608</v>
       </c>
       <c r="AF299" t="s">
-        <v>1708</v>
+        <v>1694</v>
       </c>
       <c r="AG299" s="2" t="s">
-        <v>2008</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="300" spans="1:33">
       <c r="A300">
-        <v>1731191</v>
+        <v>1731037</v>
       </c>
       <c r="B300">
-        <v>5122</v>
+        <v>5047</v>
       </c>
       <c r="D300" t="s">
         <v>99</v>
@@ -30440,10 +30446,10 @@
         <v>1</v>
       </c>
       <c r="F300" t="s">
+        <v>219</v>
+      </c>
+      <c r="G300" t="s">
         <v>218</v>
-      </c>
-      <c r="G300" t="s">
-        <v>217</v>
       </c>
       <c r="H300" t="s">
         <v>561</v>
@@ -30452,10 +30458,10 @@
         <v>866</v>
       </c>
       <c r="J300">
-        <v>27</v>
+        <v>217</v>
       </c>
       <c r="K300" s="3" t="s">
-        <v>874</v>
+        <v>877</v>
       </c>
       <c r="L300" t="b">
         <v>0</v>
@@ -30473,10 +30479,10 @@
         <v>0</v>
       </c>
       <c r="Q300">
-        <v>4943</v>
+        <v>1446</v>
       </c>
       <c r="U300" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="V300" s="3" t="s">
         <v>1249</v>
@@ -30485,7 +30491,7 @@
         <v>0</v>
       </c>
       <c r="AB300" s="3" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="AC300" t="s">
         <v>108</v>
@@ -30494,21 +30500,21 @@
         <v>108</v>
       </c>
       <c r="AE300" t="s">
-        <v>1614</v>
+        <v>1625</v>
       </c>
       <c r="AF300" t="s">
-        <v>1700</v>
+        <v>1711</v>
       </c>
       <c r="AG300" s="2" t="s">
-        <v>2009</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="301" spans="1:33">
       <c r="A301">
-        <v>1732950</v>
+        <v>1731191</v>
       </c>
       <c r="B301">
-        <v>4864</v>
+        <v>5122</v>
       </c>
       <c r="D301" t="s">
         <v>99</v>
@@ -30520,7 +30526,7 @@
         <v>219</v>
       </c>
       <c r="G301" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="H301" t="s">
         <v>562</v>
@@ -30529,19 +30535,19 @@
         <v>867</v>
       </c>
       <c r="J301">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="K301" s="3" t="s">
-        <v>895</v>
+        <v>874</v>
       </c>
       <c r="L301" t="b">
         <v>0</v>
       </c>
       <c r="M301" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N301" t="s">
-        <v>962</v>
+        <v>108</v>
       </c>
       <c r="O301" t="b">
         <v>0</v>
@@ -30550,10 +30556,10 @@
         <v>0</v>
       </c>
       <c r="Q301">
-        <v>4138</v>
+        <v>4943</v>
       </c>
       <c r="U301" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="V301" s="3" t="s">
         <v>1250</v>
@@ -30562,27 +30568,27 @@
         <v>0</v>
       </c>
       <c r="AB301" s="3" t="s">
-        <v>1401</v>
+        <v>1471</v>
       </c>
       <c r="AC301" t="s">
         <v>108</v>
       </c>
       <c r="AD301" s="3" t="s">
-        <v>1538</v>
+        <v>108</v>
       </c>
       <c r="AE301" t="s">
-        <v>1548</v>
+        <v>1617</v>
       </c>
       <c r="AF301" t="s">
-        <v>1634</v>
+        <v>1703</v>
       </c>
       <c r="AG301" s="2" t="s">
-        <v>2010</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="302" spans="1:33">
       <c r="A302">
-        <v>1732949</v>
+        <v>1732950</v>
       </c>
       <c r="B302">
         <v>4864</v>
@@ -30594,10 +30600,10 @@
         <v>1</v>
       </c>
       <c r="F302" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G302" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H302" t="s">
         <v>563</v>
@@ -30618,7 +30624,7 @@
         <v>1</v>
       </c>
       <c r="N302" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="O302" t="b">
         <v>0</v>
@@ -30630,39 +30636,39 @@
         <v>4138</v>
       </c>
       <c r="U302" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="V302" s="3" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="AA302">
         <v>0</v>
       </c>
       <c r="AB302" s="3" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="AC302" t="s">
         <v>108</v>
       </c>
       <c r="AD302" s="3" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
       <c r="AE302" t="s">
-        <v>1548</v>
+        <v>1550</v>
       </c>
       <c r="AF302" t="s">
-        <v>1634</v>
+        <v>1636</v>
       </c>
       <c r="AG302" s="2" t="s">
-        <v>2011</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="303" spans="1:33">
       <c r="A303">
-        <v>1731027</v>
+        <v>1732949</v>
       </c>
       <c r="B303">
-        <v>5047</v>
+        <v>4864</v>
       </c>
       <c r="D303" t="s">
         <v>99</v>
@@ -30671,10 +30677,10 @@
         <v>1</v>
       </c>
       <c r="F303" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G303" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="H303" t="s">
         <v>564</v>
@@ -30683,19 +30689,19 @@
         <v>869</v>
       </c>
       <c r="J303">
-        <v>215</v>
+        <v>7</v>
       </c>
       <c r="K303" s="3" t="s">
-        <v>883</v>
+        <v>895</v>
       </c>
       <c r="L303" t="b">
         <v>0</v>
       </c>
       <c r="M303" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N303" t="s">
-        <v>108</v>
+        <v>963</v>
       </c>
       <c r="O303" t="b">
         <v>0</v>
@@ -30704,10 +30710,10 @@
         <v>0</v>
       </c>
       <c r="Q303">
-        <v>4631</v>
+        <v>4138</v>
       </c>
       <c r="U303" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="V303" s="3" t="s">
         <v>1251</v>
@@ -30716,30 +30722,30 @@
         <v>0</v>
       </c>
       <c r="AB303" s="3" t="s">
-        <v>1470</v>
+        <v>1402</v>
       </c>
       <c r="AC303" t="s">
         <v>108</v>
       </c>
       <c r="AD303" s="3" t="s">
-        <v>108</v>
+        <v>1541</v>
       </c>
       <c r="AE303" t="s">
-        <v>1622</v>
+        <v>1550</v>
       </c>
       <c r="AF303" t="s">
-        <v>1708</v>
+        <v>1636</v>
       </c>
       <c r="AG303" s="2" t="s">
-        <v>2012</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="304" spans="1:33">
       <c r="A304">
-        <v>1731466</v>
+        <v>1731027</v>
       </c>
       <c r="B304">
-        <v>5348</v>
+        <v>5047</v>
       </c>
       <c r="D304" t="s">
         <v>99</v>
@@ -30748,10 +30754,10 @@
         <v>1</v>
       </c>
       <c r="F304" t="s">
+        <v>219</v>
+      </c>
+      <c r="G304" t="s">
         <v>218</v>
-      </c>
-      <c r="G304" t="s">
-        <v>217</v>
       </c>
       <c r="H304" t="s">
         <v>565</v>
@@ -30760,10 +30766,10 @@
         <v>870</v>
       </c>
       <c r="J304">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="K304" s="3" t="s">
-        <v>875</v>
+        <v>883</v>
       </c>
       <c r="L304" t="b">
         <v>0</v>
@@ -30781,10 +30787,10 @@
         <v>0</v>
       </c>
       <c r="Q304">
-        <v>5148</v>
+        <v>4631</v>
       </c>
       <c r="U304" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="V304" s="3" t="s">
         <v>1252</v>
@@ -30793,7 +30799,7 @@
         <v>0</v>
       </c>
       <c r="AB304" s="3" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="AC304" t="s">
         <v>108</v>
@@ -30802,21 +30808,21 @@
         <v>108</v>
       </c>
       <c r="AE304" t="s">
-        <v>1623</v>
+        <v>1625</v>
       </c>
       <c r="AF304" t="s">
-        <v>1709</v>
+        <v>1711</v>
       </c>
       <c r="AG304" s="2" t="s">
-        <v>2013</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="305" spans="1:33">
       <c r="A305">
-        <v>1730083</v>
+        <v>1731466</v>
       </c>
       <c r="B305">
-        <v>1521</v>
+        <v>5348</v>
       </c>
       <c r="D305" t="s">
         <v>99</v>
@@ -30825,10 +30831,10 @@
         <v>1</v>
       </c>
       <c r="F305" t="s">
+        <v>219</v>
+      </c>
+      <c r="G305" t="s">
         <v>218</v>
-      </c>
-      <c r="G305" t="s">
-        <v>217</v>
       </c>
       <c r="H305" t="s">
         <v>566</v>
@@ -30837,10 +30843,10 @@
         <v>871</v>
       </c>
       <c r="J305">
-        <v>13</v>
+        <v>208</v>
       </c>
       <c r="K305" s="3" t="s">
-        <v>885</v>
+        <v>875</v>
       </c>
       <c r="L305" t="b">
         <v>0</v>
@@ -30858,10 +30864,10 @@
         <v>0</v>
       </c>
       <c r="Q305">
-        <v>4382</v>
+        <v>5148</v>
       </c>
       <c r="U305" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="V305" s="3" t="s">
         <v>1253</v>
@@ -30870,7 +30876,7 @@
         <v>0</v>
       </c>
       <c r="AB305" s="3" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
       <c r="AC305" t="s">
         <v>108</v>
@@ -30879,21 +30885,21 @@
         <v>108</v>
       </c>
       <c r="AE305" t="s">
-        <v>1542</v>
+        <v>1626</v>
       </c>
       <c r="AF305" t="s">
-        <v>1628</v>
+        <v>1712</v>
       </c>
       <c r="AG305" s="2" t="s">
-        <v>2014</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="306" spans="1:33">
       <c r="A306">
-        <v>1737535</v>
+        <v>1730083</v>
       </c>
       <c r="B306">
-        <v>5229</v>
+        <v>1521</v>
       </c>
       <c r="D306" t="s">
         <v>99</v>
@@ -30902,10 +30908,10 @@
         <v>1</v>
       </c>
       <c r="F306" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G306" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="H306" t="s">
         <v>567</v>
@@ -30914,10 +30920,10 @@
         <v>872</v>
       </c>
       <c r="J306">
-        <v>216</v>
+        <v>13</v>
       </c>
       <c r="K306" s="3" t="s">
-        <v>878</v>
+        <v>885</v>
       </c>
       <c r="L306" t="b">
         <v>0</v>
@@ -30928,11 +30934,26 @@
       <c r="N306" t="s">
         <v>108</v>
       </c>
+      <c r="O306" t="b">
+        <v>0</v>
+      </c>
+      <c r="P306" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q306">
+        <v>4382</v>
+      </c>
+      <c r="U306" t="s">
+        <v>217</v>
+      </c>
+      <c r="V306" s="3" t="s">
+        <v>1254</v>
+      </c>
       <c r="AA306">
         <v>0</v>
       </c>
       <c r="AB306" s="3" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
       <c r="AC306" t="s">
         <v>108</v>
@@ -30941,13 +30962,13 @@
         <v>108</v>
       </c>
       <c r="AE306" t="s">
-        <v>1624</v>
+        <v>1544</v>
       </c>
       <c r="AF306" t="s">
-        <v>1710</v>
+        <v>1630</v>
       </c>
       <c r="AG306" s="2" t="s">
-        <v>2015</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="307" spans="1:33">
@@ -30993,6 +31014,9 @@
       <c r="AA307">
         <v>0</v>
       </c>
+      <c r="AB307" s="3" t="s">
+        <v>1475</v>
+      </c>
       <c r="AC307" t="s">
         <v>108</v>
       </c>
@@ -31000,13 +31024,13 @@
         <v>108</v>
       </c>
       <c r="AE307" t="s">
-        <v>1625</v>
+        <v>1627</v>
       </c>
       <c r="AF307" t="s">
-        <v>1711</v>
+        <v>1713</v>
       </c>
       <c r="AG307" s="2" t="s">
-        <v>2016</v>
+        <v>2018</v>
       </c>
     </row>
   </sheetData>

--- a/docs/data/commons_written_questions_interests/latest/commons_written_questions_interests.xlsx
+++ b/docs/data/commons_written_questions_interests/latest/commons_written_questions_interests.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5108" uniqueCount="2107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5114" uniqueCount="2111">
   <si>
     <t>Dataset</t>
   </si>
@@ -682,6 +682,9 @@
     <t>2024-10-09T00:00:00</t>
   </si>
   <si>
+    <t>2024-11-11T00:00:00</t>
+  </si>
+  <si>
     <t>2024-11-06T00:00:00</t>
   </si>
   <si>
@@ -694,9 +697,6 @@
     <t>2024-11-12T00:00:00</t>
   </si>
   <si>
-    <t>2024-11-11T00:00:00</t>
-  </si>
-  <si>
     <t>2023-10-16T00:00:00</t>
   </si>
   <si>
@@ -823,6 +823,9 @@
     <t>2024-10-22T00:00:00</t>
   </si>
   <si>
+    <t>2024-11-14T00:00:00</t>
+  </si>
+  <si>
     <t>2024-11-05T00:00:00</t>
   </si>
   <si>
@@ -832,9 +835,6 @@
     <t>2024-11-25T00:00:00</t>
   </si>
   <si>
-    <t>2024-11-14T00:00:00</t>
-  </si>
-  <si>
     <t>200084</t>
   </si>
   <si>
@@ -1744,6 +1744,9 @@
     <t>5960</t>
   </si>
   <si>
+    <t>13657</t>
+  </si>
+  <si>
     <t>13157</t>
   </si>
   <si>
@@ -1789,9 +1792,6 @@
     <t>13658</t>
   </si>
   <si>
-    <t>13657</t>
-  </si>
-  <si>
     <t>13655</t>
   </si>
   <si>
@@ -2710,6 +2710,9 @@
     <t>To ask the Secretary of State for Environment, Food and Rural Affairs, whether his Department plans to develop a National Food Security Strategy.</t>
   </si>
   <si>
+    <t>To ask the Secretary of State for Defence, what steps he is taking to ensure that the technological capabilities of combat brigades are effectively improved.</t>
+  </si>
+  <si>
     <t>To ask the Secretary of State for Health and Social Care, if he will make an assessment of the potential risk to vulnerable people of the accidental ingestion of hearing aid batteries.</t>
   </si>
   <si>
@@ -2764,9 +2767,6 @@
     <t>To ask the Secretary of State for Defence, what steps he is taking to ensure that the Army has one fully deployable division; and if he will increase that capability to two divisions.</t>
   </si>
   <si>
-    <t>To ask the Secretary of State for Defence, what steps he is taking to ensure that the technological capabilities of combat brigades are effectively improved.</t>
-  </si>
-  <si>
     <t>To ask the Secretary of State for Defence, what steps he is taking to promote collaboration with the private sector to boost domestic production capabilities in critical defence technologies.</t>
   </si>
   <si>
@@ -3928,6 +3928,9 @@
     <t>Food Security is national security which is relevant to all five Government Missions and central to our primary Mission to grow the economy. Boosting Britain’s food security is one of the core priorities of this Government. We need a resilient and healthy...</t>
   </si>
   <si>
+    <t>The Army is currently undergoing a combined programme of work to ensure that our manoeuvre forces will have the lethality, protection and mobility to fight and win against any adversary. Whilst the Army’s modernisation will continue over the next decade w...</t>
+  </si>
+  <si>
     <t>In terms of the Department’s policy on rechargeable hearing aids on the National Health Service, audiology services are locally commissioned and as such the responsibility for meeting the needs of non-hearing adults lies with local NHS commissioners. In J...</t>
   </si>
   <si>
@@ -4594,16 +4597,25 @@
     <t>Food Supply</t>
   </si>
   <si>
+    <t>Army</t>
+  </si>
+  <si>
     <t>Hearing Aids: Batteries</t>
   </si>
   <si>
     <t>Charity Commission: Correspondence</t>
   </si>
   <si>
+    <t>Maternity Services: Safety</t>
+  </si>
+  <si>
+    <t>NHS: Safety</t>
+  </si>
+  <si>
+    <t>Maternity Services: Gloucestershire Hospitals NHS Foundation Trust</t>
+  </si>
+  <si>
     <t>F-35 Aircraft: Procurement</t>
-  </si>
-  <si>
-    <t>Army</t>
   </si>
   <si>
     <t>Defence: Technology</t>
@@ -5139,6 +5151,9 @@
     <t>26576</t>
   </si>
   <si>
+    <t>26628</t>
+  </si>
+  <si>
     <t>26458</t>
   </si>
   <si>
@@ -5154,9 +5169,6 @@
     <t>11859</t>
   </si>
   <si>
-    <t>26628</t>
-  </si>
-  <si>
     <t>Robert Courts</t>
   </si>
   <si>
@@ -5412,6 +5424,9 @@
     <t>David Taylor</t>
   </si>
   <si>
+    <t>David Reed</t>
+  </si>
+  <si>
     <t>Claire Young</t>
   </si>
   <si>
@@ -5427,9 +5442,6 @@
     <t>Jeremy Hunt</t>
   </si>
   <si>
-    <t>David Reed</t>
-  </si>
-  <si>
     <t>https://questions-statements.parliament.uk/written-questions/detail/2023-09-18/200084/</t>
   </si>
   <si>
@@ -6342,6 +6354,9 @@
     <t>https://questions-statements.parliament.uk/written-questions/detail/2024-10-04/5960/</t>
   </si>
   <si>
+    <t>https://questions-statements.parliament.uk/written-questions/detail/2024-11-11/13657/</t>
+  </si>
+  <si>
     <t>https://questions-statements.parliament.uk/written-questions/detail/2024-11-06/13157/</t>
   </si>
   <si>
@@ -6394,9 +6409,6 @@
   </si>
   <si>
     <t>https://questions-statements.parliament.uk/written-questions/detail/2024-11-11/13658/</t>
-  </si>
-  <si>
-    <t>https://questions-statements.parliament.uk/written-questions/detail/2024-11-11/13657/</t>
   </si>
   <si>
     <t>https://questions-statements.parliament.uk/written-questions/detail/2024-11-11/13655/</t>
@@ -7791,7 +7803,7 @@
         <v>0</v>
       </c>
       <c r="AB2" s="3" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="AC2" t="s">
         <v>108</v>
@@ -7800,13 +7812,13 @@
         <v>108</v>
       </c>
       <c r="AE2" t="s">
-        <v>1600</v>
+        <v>1604</v>
       </c>
       <c r="AF2" t="s">
-        <v>1691</v>
+        <v>1695</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>1782</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="3" spans="1:33">
@@ -7868,7 +7880,7 @@
         <v>0</v>
       </c>
       <c r="AB3" s="3" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="AC3" t="s">
         <v>108</v>
@@ -7877,13 +7889,13 @@
         <v>108</v>
       </c>
       <c r="AE3" t="s">
-        <v>1601</v>
+        <v>1605</v>
       </c>
       <c r="AF3" t="s">
-        <v>1692</v>
+        <v>1696</v>
       </c>
       <c r="AG3" s="2" t="s">
-        <v>1783</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="4" spans="1:33">
@@ -7945,7 +7957,7 @@
         <v>0</v>
       </c>
       <c r="AB4" s="3" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="AC4" t="s">
         <v>108</v>
@@ -7954,13 +7966,13 @@
         <v>108</v>
       </c>
       <c r="AE4" t="s">
-        <v>1602</v>
+        <v>1606</v>
       </c>
       <c r="AF4" t="s">
-        <v>1693</v>
+        <v>1697</v>
       </c>
       <c r="AG4" s="2" t="s">
-        <v>1784</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="5" spans="1:33">
@@ -8022,22 +8034,22 @@
         <v>0</v>
       </c>
       <c r="AB5" s="3" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="AC5" t="s">
         <v>108</v>
       </c>
       <c r="AD5" s="3" t="s">
-        <v>1531</v>
+        <v>1535</v>
       </c>
       <c r="AE5" t="s">
-        <v>1602</v>
+        <v>1606</v>
       </c>
       <c r="AF5" t="s">
-        <v>1693</v>
+        <v>1697</v>
       </c>
       <c r="AG5" s="2" t="s">
-        <v>1785</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="6" spans="1:33">
@@ -8099,22 +8111,22 @@
         <v>0</v>
       </c>
       <c r="AB6" s="3" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="AC6" t="s">
         <v>108</v>
       </c>
       <c r="AD6" s="3" t="s">
-        <v>1532</v>
+        <v>1536</v>
       </c>
       <c r="AE6" t="s">
-        <v>1602</v>
+        <v>1606</v>
       </c>
       <c r="AF6" t="s">
-        <v>1693</v>
+        <v>1697</v>
       </c>
       <c r="AG6" s="2" t="s">
-        <v>1786</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="7" spans="1:33">
@@ -8176,22 +8188,22 @@
         <v>0</v>
       </c>
       <c r="AB7" s="3" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="AC7" t="s">
         <v>108</v>
       </c>
       <c r="AD7" s="3" t="s">
-        <v>1533</v>
+        <v>1537</v>
       </c>
       <c r="AE7" t="s">
-        <v>1602</v>
+        <v>1606</v>
       </c>
       <c r="AF7" t="s">
-        <v>1693</v>
+        <v>1697</v>
       </c>
       <c r="AG7" s="2" t="s">
-        <v>1787</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="8" spans="1:33">
@@ -8253,7 +8265,7 @@
         <v>0</v>
       </c>
       <c r="AB8" s="3" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="AC8" t="s">
         <v>108</v>
@@ -8262,13 +8274,13 @@
         <v>108</v>
       </c>
       <c r="AE8" t="s">
-        <v>1603</v>
+        <v>1607</v>
       </c>
       <c r="AF8" t="s">
-        <v>1694</v>
+        <v>1698</v>
       </c>
       <c r="AG8" s="2" t="s">
-        <v>1788</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="9" spans="1:33">
@@ -8330,7 +8342,7 @@
         <v>0</v>
       </c>
       <c r="AB9" s="3" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="AC9" t="s">
         <v>108</v>
@@ -8339,13 +8351,13 @@
         <v>108</v>
       </c>
       <c r="AE9" t="s">
-        <v>1603</v>
+        <v>1607</v>
       </c>
       <c r="AF9" t="s">
-        <v>1694</v>
+        <v>1698</v>
       </c>
       <c r="AG9" s="2" t="s">
-        <v>1789</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="10" spans="1:33">
@@ -8410,7 +8422,7 @@
         <v>0</v>
       </c>
       <c r="AB10" s="3" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="AC10" t="s">
         <v>108</v>
@@ -8419,13 +8431,13 @@
         <v>108</v>
       </c>
       <c r="AE10" t="s">
-        <v>1604</v>
+        <v>1608</v>
       </c>
       <c r="AF10" t="s">
-        <v>1695</v>
+        <v>1699</v>
       </c>
       <c r="AG10" s="2" t="s">
-        <v>1790</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="11" spans="1:33">
@@ -8487,22 +8499,22 @@
         <v>0</v>
       </c>
       <c r="AB11" s="3" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="AC11" t="s">
         <v>108</v>
       </c>
       <c r="AD11" s="3" t="s">
-        <v>1534</v>
+        <v>1538</v>
       </c>
       <c r="AE11" t="s">
-        <v>1605</v>
+        <v>1609</v>
       </c>
       <c r="AF11" t="s">
-        <v>1696</v>
+        <v>1700</v>
       </c>
       <c r="AG11" s="2" t="s">
-        <v>1791</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="12" spans="1:33">
@@ -8564,22 +8576,22 @@
         <v>0</v>
       </c>
       <c r="AB12" s="3" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="AC12" t="s">
         <v>108</v>
       </c>
       <c r="AD12" s="3" t="s">
-        <v>1535</v>
+        <v>1539</v>
       </c>
       <c r="AE12" t="s">
-        <v>1605</v>
+        <v>1609</v>
       </c>
       <c r="AF12" t="s">
-        <v>1696</v>
+        <v>1700</v>
       </c>
       <c r="AG12" s="2" t="s">
-        <v>1792</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="13" spans="1:33">
@@ -8641,7 +8653,7 @@
         <v>0</v>
       </c>
       <c r="AB13" s="3" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
       <c r="AC13" t="s">
         <v>108</v>
@@ -8650,13 +8662,13 @@
         <v>108</v>
       </c>
       <c r="AE13" t="s">
-        <v>1606</v>
+        <v>1610</v>
       </c>
       <c r="AF13" t="s">
-        <v>1697</v>
+        <v>1701</v>
       </c>
       <c r="AG13" s="2" t="s">
-        <v>1793</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="14" spans="1:33">
@@ -8718,7 +8730,7 @@
         <v>0</v>
       </c>
       <c r="AB14" s="3" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="AC14" t="s">
         <v>108</v>
@@ -8727,13 +8739,13 @@
         <v>108</v>
       </c>
       <c r="AE14" t="s">
-        <v>1606</v>
+        <v>1610</v>
       </c>
       <c r="AF14" t="s">
-        <v>1697</v>
+        <v>1701</v>
       </c>
       <c r="AG14" s="2" t="s">
-        <v>1794</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="15" spans="1:33">
@@ -8795,7 +8807,7 @@
         <v>0</v>
       </c>
       <c r="AB15" s="3" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="AC15" t="s">
         <v>108</v>
@@ -8804,13 +8816,13 @@
         <v>108</v>
       </c>
       <c r="AE15" t="s">
-        <v>1607</v>
+        <v>1611</v>
       </c>
       <c r="AF15" t="s">
-        <v>1698</v>
+        <v>1702</v>
       </c>
       <c r="AG15" s="2" t="s">
-        <v>1795</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="16" spans="1:33">
@@ -8872,7 +8884,7 @@
         <v>0</v>
       </c>
       <c r="AB16" s="3" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="AC16" t="s">
         <v>108</v>
@@ -8881,13 +8893,13 @@
         <v>108</v>
       </c>
       <c r="AE16" t="s">
-        <v>1608</v>
+        <v>1612</v>
       </c>
       <c r="AF16" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="AG16" s="2" t="s">
-        <v>1796</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="17" spans="1:33">
@@ -8949,7 +8961,7 @@
         <v>0</v>
       </c>
       <c r="AB17" s="3" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="AC17" t="s">
         <v>108</v>
@@ -8958,13 +8970,13 @@
         <v>108</v>
       </c>
       <c r="AE17" t="s">
-        <v>1606</v>
+        <v>1610</v>
       </c>
       <c r="AF17" t="s">
-        <v>1697</v>
+        <v>1701</v>
       </c>
       <c r="AG17" s="2" t="s">
-        <v>1797</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="18" spans="1:33">
@@ -9026,22 +9038,22 @@
         <v>0</v>
       </c>
       <c r="AB18" s="3" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="AC18" t="s">
         <v>108</v>
       </c>
       <c r="AD18" s="3" t="s">
-        <v>1536</v>
+        <v>1540</v>
       </c>
       <c r="AE18" t="s">
-        <v>1603</v>
+        <v>1607</v>
       </c>
       <c r="AF18" t="s">
-        <v>1694</v>
+        <v>1698</v>
       </c>
       <c r="AG18" s="2" t="s">
-        <v>1798</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="19" spans="1:33">
@@ -9103,22 +9115,22 @@
         <v>0</v>
       </c>
       <c r="AB19" s="3" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="AC19" t="s">
         <v>108</v>
       </c>
       <c r="AD19" s="3" t="s">
-        <v>1537</v>
+        <v>1541</v>
       </c>
       <c r="AE19" t="s">
-        <v>1603</v>
+        <v>1607</v>
       </c>
       <c r="AF19" t="s">
-        <v>1694</v>
+        <v>1698</v>
       </c>
       <c r="AG19" s="2" t="s">
-        <v>1799</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="20" spans="1:33">
@@ -9180,22 +9192,22 @@
         <v>0</v>
       </c>
       <c r="AB20" s="3" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="AC20" t="s">
         <v>108</v>
       </c>
       <c r="AD20" s="3" t="s">
-        <v>1538</v>
+        <v>1542</v>
       </c>
       <c r="AE20" t="s">
-        <v>1603</v>
+        <v>1607</v>
       </c>
       <c r="AF20" t="s">
-        <v>1694</v>
+        <v>1698</v>
       </c>
       <c r="AG20" s="2" t="s">
-        <v>1800</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="21" spans="1:33">
@@ -9257,22 +9269,22 @@
         <v>0</v>
       </c>
       <c r="AB21" s="3" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="AC21" t="s">
         <v>108</v>
       </c>
       <c r="AD21" s="3" t="s">
-        <v>1539</v>
+        <v>1543</v>
       </c>
       <c r="AE21" t="s">
-        <v>1607</v>
+        <v>1611</v>
       </c>
       <c r="AF21" t="s">
-        <v>1698</v>
+        <v>1702</v>
       </c>
       <c r="AG21" s="2" t="s">
-        <v>1801</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="22" spans="1:33">
@@ -9334,7 +9346,7 @@
         <v>0</v>
       </c>
       <c r="AB22" s="3" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="AC22" t="s">
         <v>108</v>
@@ -9343,10 +9355,10 @@
         <v>108</v>
       </c>
       <c r="AE22" t="s">
-        <v>1609</v>
+        <v>1613</v>
       </c>
       <c r="AF22" t="s">
-        <v>1700</v>
+        <v>1704</v>
       </c>
       <c r="AG22" s="2" t="s">
         <v>117</v>
@@ -9420,13 +9432,13 @@
         <v>108</v>
       </c>
       <c r="AE23" t="s">
-        <v>1610</v>
+        <v>1614</v>
       </c>
       <c r="AF23" t="s">
-        <v>1701</v>
+        <v>1705</v>
       </c>
       <c r="AG23" s="2" t="s">
-        <v>1802</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="24" spans="1:33">
@@ -9488,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="AB24" s="3" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="AC24" t="s">
         <v>108</v>
@@ -9497,13 +9509,13 @@
         <v>108</v>
       </c>
       <c r="AE24" t="s">
-        <v>1603</v>
+        <v>1607</v>
       </c>
       <c r="AF24" t="s">
-        <v>1694</v>
+        <v>1698</v>
       </c>
       <c r="AG24" s="2" t="s">
-        <v>1803</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="25" spans="1:33">
@@ -9565,7 +9577,7 @@
         <v>0</v>
       </c>
       <c r="AB25" s="3" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="AC25" t="s">
         <v>108</v>
@@ -9574,13 +9586,13 @@
         <v>108</v>
       </c>
       <c r="AE25" t="s">
-        <v>1611</v>
+        <v>1615</v>
       </c>
       <c r="AF25" t="s">
-        <v>1702</v>
+        <v>1706</v>
       </c>
       <c r="AG25" s="2" t="s">
-        <v>1804</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="26" spans="1:33">
@@ -9642,7 +9654,7 @@
         <v>0</v>
       </c>
       <c r="AB26" s="3" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="AC26" t="s">
         <v>108</v>
@@ -9651,13 +9663,13 @@
         <v>108</v>
       </c>
       <c r="AE26" t="s">
-        <v>1610</v>
+        <v>1614</v>
       </c>
       <c r="AF26" t="s">
-        <v>1701</v>
+        <v>1705</v>
       </c>
       <c r="AG26" s="2" t="s">
-        <v>1805</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="27" spans="1:33">
@@ -9719,7 +9731,7 @@
         <v>0</v>
       </c>
       <c r="AB27" s="3" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="AC27" t="s">
         <v>108</v>
@@ -9728,13 +9740,13 @@
         <v>108</v>
       </c>
       <c r="AE27" t="s">
-        <v>1612</v>
+        <v>1616</v>
       </c>
       <c r="AF27" t="s">
-        <v>1703</v>
+        <v>1707</v>
       </c>
       <c r="AG27" s="2" t="s">
-        <v>1806</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="28" spans="1:33">
@@ -9796,7 +9808,7 @@
         <v>0</v>
       </c>
       <c r="AB28" s="3" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="AC28" t="s">
         <v>108</v>
@@ -9805,13 +9817,13 @@
         <v>108</v>
       </c>
       <c r="AE28" t="s">
-        <v>1603</v>
+        <v>1607</v>
       </c>
       <c r="AF28" t="s">
-        <v>1694</v>
+        <v>1698</v>
       </c>
       <c r="AG28" s="2" t="s">
-        <v>1807</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="29" spans="1:33">
@@ -9873,22 +9885,22 @@
         <v>0</v>
       </c>
       <c r="AB29" s="3" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="AC29" t="s">
         <v>108</v>
       </c>
       <c r="AD29" s="3" t="s">
-        <v>1540</v>
+        <v>1544</v>
       </c>
       <c r="AE29" t="s">
-        <v>1603</v>
+        <v>1607</v>
       </c>
       <c r="AF29" t="s">
-        <v>1694</v>
+        <v>1698</v>
       </c>
       <c r="AG29" s="2" t="s">
-        <v>1808</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="30" spans="1:33">
@@ -9950,22 +9962,22 @@
         <v>0</v>
       </c>
       <c r="AB30" s="3" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="AC30" t="s">
         <v>108</v>
       </c>
       <c r="AD30" s="3" t="s">
-        <v>1541</v>
+        <v>1545</v>
       </c>
       <c r="AE30" t="s">
-        <v>1603</v>
+        <v>1607</v>
       </c>
       <c r="AF30" t="s">
-        <v>1694</v>
+        <v>1698</v>
       </c>
       <c r="AG30" s="2" t="s">
-        <v>1809</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="31" spans="1:33">
@@ -10027,7 +10039,7 @@
         <v>0</v>
       </c>
       <c r="AB31" s="3" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="AC31" t="s">
         <v>108</v>
@@ -10036,13 +10048,13 @@
         <v>108</v>
       </c>
       <c r="AE31" t="s">
-        <v>1603</v>
+        <v>1607</v>
       </c>
       <c r="AF31" t="s">
-        <v>1694</v>
+        <v>1698</v>
       </c>
       <c r="AG31" s="2" t="s">
-        <v>1810</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="32" spans="1:33">
@@ -10104,7 +10116,7 @@
         <v>0</v>
       </c>
       <c r="AB32" s="3" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="AC32" t="s">
         <v>108</v>
@@ -10113,13 +10125,13 @@
         <v>108</v>
       </c>
       <c r="AE32" t="s">
-        <v>1603</v>
+        <v>1607</v>
       </c>
       <c r="AF32" t="s">
-        <v>1694</v>
+        <v>1698</v>
       </c>
       <c r="AG32" s="2" t="s">
-        <v>1811</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="33" spans="1:33">
@@ -10181,7 +10193,7 @@
         <v>0</v>
       </c>
       <c r="AB33" s="3" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="AC33" t="s">
         <v>108</v>
@@ -10190,13 +10202,13 @@
         <v>108</v>
       </c>
       <c r="AE33" t="s">
-        <v>1612</v>
+        <v>1616</v>
       </c>
       <c r="AF33" t="s">
-        <v>1703</v>
+        <v>1707</v>
       </c>
       <c r="AG33" s="2" t="s">
-        <v>1812</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="34" spans="1:33">
@@ -10258,7 +10270,7 @@
         <v>0</v>
       </c>
       <c r="AB34" s="3" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="AC34" t="s">
         <v>108</v>
@@ -10267,13 +10279,13 @@
         <v>108</v>
       </c>
       <c r="AE34" t="s">
-        <v>1613</v>
+        <v>1617</v>
       </c>
       <c r="AF34" t="s">
         <v>116</v>
       </c>
       <c r="AG34" s="2" t="s">
-        <v>1813</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="35" spans="1:33">
@@ -10335,7 +10347,7 @@
         <v>0</v>
       </c>
       <c r="AB35" s="3" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="AC35" t="s">
         <v>108</v>
@@ -10344,13 +10356,13 @@
         <v>108</v>
       </c>
       <c r="AE35" t="s">
-        <v>1606</v>
+        <v>1610</v>
       </c>
       <c r="AF35" t="s">
-        <v>1697</v>
+        <v>1701</v>
       </c>
       <c r="AG35" s="2" t="s">
-        <v>1814</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="36" spans="1:33">
@@ -10412,7 +10424,7 @@
         <v>0</v>
       </c>
       <c r="AB36" s="3" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="AC36" t="s">
         <v>108</v>
@@ -10421,13 +10433,13 @@
         <v>108</v>
       </c>
       <c r="AE36" t="s">
-        <v>1614</v>
+        <v>1618</v>
       </c>
       <c r="AF36" t="s">
-        <v>1704</v>
+        <v>1708</v>
       </c>
       <c r="AG36" s="2" t="s">
-        <v>1815</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="37" spans="1:33">
@@ -10489,7 +10501,7 @@
         <v>0</v>
       </c>
       <c r="AB37" s="3" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="AC37" t="s">
         <v>108</v>
@@ -10498,13 +10510,13 @@
         <v>108</v>
       </c>
       <c r="AE37" t="s">
-        <v>1606</v>
+        <v>1610</v>
       </c>
       <c r="AF37" t="s">
-        <v>1697</v>
+        <v>1701</v>
       </c>
       <c r="AG37" s="2" t="s">
-        <v>1816</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="38" spans="1:33">
@@ -10566,7 +10578,7 @@
         <v>0</v>
       </c>
       <c r="AB38" s="3" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="AC38" t="s">
         <v>108</v>
@@ -10575,13 +10587,13 @@
         <v>108</v>
       </c>
       <c r="AE38" t="s">
-        <v>1615</v>
+        <v>1619</v>
       </c>
       <c r="AF38" t="s">
-        <v>1705</v>
+        <v>1709</v>
       </c>
       <c r="AG38" s="2" t="s">
-        <v>1817</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="39" spans="1:33">
@@ -10643,22 +10655,22 @@
         <v>0</v>
       </c>
       <c r="AB39" s="3" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="AC39" t="s">
         <v>108</v>
       </c>
       <c r="AD39" s="3" t="s">
-        <v>1542</v>
+        <v>1546</v>
       </c>
       <c r="AE39" t="s">
-        <v>1615</v>
+        <v>1619</v>
       </c>
       <c r="AF39" t="s">
-        <v>1705</v>
+        <v>1709</v>
       </c>
       <c r="AG39" s="2" t="s">
-        <v>1818</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="40" spans="1:33">
@@ -10720,7 +10732,7 @@
         <v>0</v>
       </c>
       <c r="AB40" s="3" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="AC40" t="s">
         <v>108</v>
@@ -10729,13 +10741,13 @@
         <v>108</v>
       </c>
       <c r="AE40" t="s">
-        <v>1614</v>
+        <v>1618</v>
       </c>
       <c r="AF40" t="s">
-        <v>1704</v>
+        <v>1708</v>
       </c>
       <c r="AG40" s="2" t="s">
-        <v>1819</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="41" spans="1:33">
@@ -10797,7 +10809,7 @@
         <v>0</v>
       </c>
       <c r="AB41" s="3" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="AC41" t="s">
         <v>108</v>
@@ -10806,13 +10818,13 @@
         <v>108</v>
       </c>
       <c r="AE41" t="s">
-        <v>1616</v>
+        <v>1620</v>
       </c>
       <c r="AF41" t="s">
-        <v>1706</v>
+        <v>1710</v>
       </c>
       <c r="AG41" s="2" t="s">
-        <v>1820</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="42" spans="1:33">
@@ -10874,7 +10886,7 @@
         <v>0</v>
       </c>
       <c r="AB42" s="3" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="AC42" t="s">
         <v>108</v>
@@ -10883,13 +10895,13 @@
         <v>108</v>
       </c>
       <c r="AE42" t="s">
-        <v>1612</v>
+        <v>1616</v>
       </c>
       <c r="AF42" t="s">
-        <v>1703</v>
+        <v>1707</v>
       </c>
       <c r="AG42" s="2" t="s">
-        <v>1821</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="43" spans="1:33">
@@ -10951,7 +10963,7 @@
         <v>0</v>
       </c>
       <c r="AB43" s="3" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="AC43" t="s">
         <v>108</v>
@@ -10960,13 +10972,13 @@
         <v>108</v>
       </c>
       <c r="AE43" t="s">
-        <v>1612</v>
+        <v>1616</v>
       </c>
       <c r="AF43" t="s">
-        <v>1703</v>
+        <v>1707</v>
       </c>
       <c r="AG43" s="2" t="s">
-        <v>1822</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="44" spans="1:33">
@@ -11028,7 +11040,7 @@
         <v>0</v>
       </c>
       <c r="AB44" s="3" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="AC44" t="s">
         <v>108</v>
@@ -11037,13 +11049,13 @@
         <v>108</v>
       </c>
       <c r="AE44" t="s">
-        <v>1606</v>
+        <v>1610</v>
       </c>
       <c r="AF44" t="s">
-        <v>1697</v>
+        <v>1701</v>
       </c>
       <c r="AG44" s="2" t="s">
-        <v>1823</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="45" spans="1:33">
@@ -11105,7 +11117,7 @@
         <v>0</v>
       </c>
       <c r="AB45" s="3" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="AC45" t="s">
         <v>108</v>
@@ -11114,13 +11126,13 @@
         <v>108</v>
       </c>
       <c r="AE45" t="s">
-        <v>1614</v>
+        <v>1618</v>
       </c>
       <c r="AF45" t="s">
-        <v>1704</v>
+        <v>1708</v>
       </c>
       <c r="AG45" s="2" t="s">
-        <v>1824</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="46" spans="1:33">
@@ -11182,7 +11194,7 @@
         <v>0</v>
       </c>
       <c r="AB46" s="3" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="AC46" t="s">
         <v>108</v>
@@ -11191,13 +11203,13 @@
         <v>108</v>
       </c>
       <c r="AE46" t="s">
-        <v>1617</v>
+        <v>1621</v>
       </c>
       <c r="AF46" t="s">
-        <v>1707</v>
+        <v>1711</v>
       </c>
       <c r="AG46" s="2" t="s">
-        <v>1825</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="47" spans="1:33">
@@ -11259,7 +11271,7 @@
         <v>0</v>
       </c>
       <c r="AB47" s="3" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="AC47" t="s">
         <v>108</v>
@@ -11268,13 +11280,13 @@
         <v>108</v>
       </c>
       <c r="AE47" t="s">
-        <v>1617</v>
+        <v>1621</v>
       </c>
       <c r="AF47" t="s">
-        <v>1707</v>
+        <v>1711</v>
       </c>
       <c r="AG47" s="2" t="s">
-        <v>1826</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="48" spans="1:33">
@@ -11336,7 +11348,7 @@
         <v>0</v>
       </c>
       <c r="AB48" s="3" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="AC48" t="s">
         <v>108</v>
@@ -11345,13 +11357,13 @@
         <v>108</v>
       </c>
       <c r="AE48" t="s">
-        <v>1618</v>
+        <v>1622</v>
       </c>
       <c r="AF48" t="s">
-        <v>1708</v>
+        <v>1712</v>
       </c>
       <c r="AG48" s="2" t="s">
-        <v>1827</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="49" spans="1:33">
@@ -11413,7 +11425,7 @@
         <v>0</v>
       </c>
       <c r="AB49" s="3" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="AC49" t="s">
         <v>108</v>
@@ -11422,13 +11434,13 @@
         <v>108</v>
       </c>
       <c r="AE49" t="s">
-        <v>1618</v>
+        <v>1622</v>
       </c>
       <c r="AF49" t="s">
-        <v>1708</v>
+        <v>1712</v>
       </c>
       <c r="AG49" s="2" t="s">
-        <v>1828</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="50" spans="1:33">
@@ -11490,7 +11502,7 @@
         <v>0</v>
       </c>
       <c r="AB50" s="3" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="AC50" t="s">
         <v>108</v>
@@ -11499,13 +11511,13 @@
         <v>108</v>
       </c>
       <c r="AE50" t="s">
-        <v>1619</v>
+        <v>1623</v>
       </c>
       <c r="AF50" t="s">
-        <v>1709</v>
+        <v>1713</v>
       </c>
       <c r="AG50" s="2" t="s">
-        <v>1829</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="51" spans="1:33">
@@ -11567,7 +11579,7 @@
         <v>0</v>
       </c>
       <c r="AB51" s="3" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="AC51" t="s">
         <v>108</v>
@@ -11576,13 +11588,13 @@
         <v>108</v>
       </c>
       <c r="AE51" t="s">
-        <v>1620</v>
+        <v>1624</v>
       </c>
       <c r="AF51" t="s">
-        <v>1710</v>
+        <v>1714</v>
       </c>
       <c r="AG51" s="2" t="s">
-        <v>1830</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="52" spans="1:33">
@@ -11644,7 +11656,7 @@
         <v>0</v>
       </c>
       <c r="AB52" s="3" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="AC52" t="s">
         <v>108</v>
@@ -11653,13 +11665,13 @@
         <v>108</v>
       </c>
       <c r="AE52" t="s">
-        <v>1617</v>
+        <v>1621</v>
       </c>
       <c r="AF52" t="s">
-        <v>1707</v>
+        <v>1711</v>
       </c>
       <c r="AG52" s="2" t="s">
-        <v>1831</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="53" spans="1:33">
@@ -11721,22 +11733,22 @@
         <v>0</v>
       </c>
       <c r="AB53" s="3" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="AC53" t="s">
         <v>108</v>
       </c>
       <c r="AD53" s="3" t="s">
-        <v>1543</v>
+        <v>1547</v>
       </c>
       <c r="AE53" t="s">
-        <v>1617</v>
+        <v>1621</v>
       </c>
       <c r="AF53" t="s">
-        <v>1707</v>
+        <v>1711</v>
       </c>
       <c r="AG53" s="2" t="s">
-        <v>1832</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="54" spans="1:33">
@@ -11798,22 +11810,22 @@
         <v>0</v>
       </c>
       <c r="AB54" s="3" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="AC54" t="s">
         <v>108</v>
       </c>
       <c r="AD54" s="3" t="s">
-        <v>1544</v>
+        <v>1548</v>
       </c>
       <c r="AE54" t="s">
-        <v>1617</v>
+        <v>1621</v>
       </c>
       <c r="AF54" t="s">
-        <v>1707</v>
+        <v>1711</v>
       </c>
       <c r="AG54" s="2" t="s">
-        <v>1833</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="55" spans="1:33">
@@ -11875,22 +11887,22 @@
         <v>0</v>
       </c>
       <c r="AB55" s="3" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="AC55" t="s">
         <v>108</v>
       </c>
       <c r="AD55" s="3" t="s">
-        <v>1545</v>
+        <v>1549</v>
       </c>
       <c r="AE55" t="s">
-        <v>1617</v>
+        <v>1621</v>
       </c>
       <c r="AF55" t="s">
-        <v>1707</v>
+        <v>1711</v>
       </c>
       <c r="AG55" s="2" t="s">
-        <v>1834</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="56" spans="1:33">
@@ -11952,22 +11964,22 @@
         <v>0</v>
       </c>
       <c r="AB56" s="3" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="AC56" t="s">
         <v>108</v>
       </c>
       <c r="AD56" s="3" t="s">
-        <v>1546</v>
+        <v>1550</v>
       </c>
       <c r="AE56" t="s">
-        <v>1617</v>
+        <v>1621</v>
       </c>
       <c r="AF56" t="s">
-        <v>1707</v>
+        <v>1711</v>
       </c>
       <c r="AG56" s="2" t="s">
-        <v>1835</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="57" spans="1:33">
@@ -12029,22 +12041,22 @@
         <v>0</v>
       </c>
       <c r="AB57" s="3" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="AC57" t="s">
         <v>108</v>
       </c>
       <c r="AD57" s="3" t="s">
-        <v>1547</v>
+        <v>1551</v>
       </c>
       <c r="AE57" t="s">
-        <v>1621</v>
+        <v>1625</v>
       </c>
       <c r="AF57" t="s">
-        <v>1711</v>
+        <v>1715</v>
       </c>
       <c r="AG57" s="2" t="s">
-        <v>1836</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="58" spans="1:33">
@@ -12106,22 +12118,22 @@
         <v>0</v>
       </c>
       <c r="AB58" s="3" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="AC58" t="s">
         <v>108</v>
       </c>
       <c r="AD58" s="3" t="s">
-        <v>1548</v>
+        <v>1552</v>
       </c>
       <c r="AE58" t="s">
-        <v>1621</v>
+        <v>1625</v>
       </c>
       <c r="AF58" t="s">
-        <v>1711</v>
+        <v>1715</v>
       </c>
       <c r="AG58" s="2" t="s">
-        <v>1837</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="59" spans="1:33">
@@ -12183,7 +12195,7 @@
         <v>0</v>
       </c>
       <c r="AB59" s="3" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="AC59" t="s">
         <v>108</v>
@@ -12192,13 +12204,13 @@
         <v>108</v>
       </c>
       <c r="AE59" t="s">
-        <v>1622</v>
+        <v>1626</v>
       </c>
       <c r="AF59" t="s">
-        <v>1712</v>
+        <v>1716</v>
       </c>
       <c r="AG59" s="2" t="s">
-        <v>1838</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="60" spans="1:33">
@@ -12260,22 +12272,22 @@
         <v>0</v>
       </c>
       <c r="AB60" s="3" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="AC60" t="s">
         <v>108</v>
       </c>
       <c r="AD60" s="3" t="s">
-        <v>1549</v>
+        <v>1553</v>
       </c>
       <c r="AE60" t="s">
-        <v>1623</v>
+        <v>1627</v>
       </c>
       <c r="AF60" t="s">
-        <v>1713</v>
+        <v>1717</v>
       </c>
       <c r="AG60" s="2" t="s">
-        <v>1839</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="61" spans="1:33">
@@ -12337,22 +12349,22 @@
         <v>0</v>
       </c>
       <c r="AB61" s="3" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="AC61" t="s">
         <v>108</v>
       </c>
       <c r="AD61" s="3" t="s">
-        <v>1550</v>
+        <v>1554</v>
       </c>
       <c r="AE61" t="s">
-        <v>1623</v>
+        <v>1627</v>
       </c>
       <c r="AF61" t="s">
-        <v>1713</v>
+        <v>1717</v>
       </c>
       <c r="AG61" s="2" t="s">
-        <v>1840</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="62" spans="1:33">
@@ -12414,22 +12426,22 @@
         <v>0</v>
       </c>
       <c r="AB62" s="3" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="AC62" t="s">
         <v>108</v>
       </c>
       <c r="AD62" s="3" t="s">
-        <v>1551</v>
+        <v>1555</v>
       </c>
       <c r="AE62" t="s">
-        <v>1623</v>
+        <v>1627</v>
       </c>
       <c r="AF62" t="s">
-        <v>1713</v>
+        <v>1717</v>
       </c>
       <c r="AG62" s="2" t="s">
-        <v>1841</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="63" spans="1:33">
@@ -12491,7 +12503,7 @@
         <v>0</v>
       </c>
       <c r="AB63" s="3" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="AC63" t="s">
         <v>108</v>
@@ -12500,13 +12512,13 @@
         <v>108</v>
       </c>
       <c r="AE63" t="s">
-        <v>1624</v>
+        <v>1628</v>
       </c>
       <c r="AF63" t="s">
-        <v>1714</v>
+        <v>1718</v>
       </c>
       <c r="AG63" s="2" t="s">
-        <v>1842</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="64" spans="1:33">
@@ -12568,7 +12580,7 @@
         <v>0</v>
       </c>
       <c r="AB64" s="3" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="AC64" t="s">
         <v>108</v>
@@ -12577,13 +12589,13 @@
         <v>108</v>
       </c>
       <c r="AE64" t="s">
-        <v>1625</v>
+        <v>1629</v>
       </c>
       <c r="AF64" t="s">
-        <v>1715</v>
+        <v>1719</v>
       </c>
       <c r="AG64" s="2" t="s">
-        <v>1843</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="65" spans="1:33">
@@ -12645,7 +12657,7 @@
         <v>0</v>
       </c>
       <c r="AB65" s="3" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="AC65" t="s">
         <v>108</v>
@@ -12654,13 +12666,13 @@
         <v>108</v>
       </c>
       <c r="AE65" t="s">
-        <v>1625</v>
+        <v>1629</v>
       </c>
       <c r="AF65" t="s">
-        <v>1715</v>
+        <v>1719</v>
       </c>
       <c r="AG65" s="2" t="s">
-        <v>1844</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="66" spans="1:33">
@@ -12722,7 +12734,7 @@
         <v>0</v>
       </c>
       <c r="AB66" s="3" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="AC66" t="s">
         <v>108</v>
@@ -12731,13 +12743,13 @@
         <v>108</v>
       </c>
       <c r="AE66" t="s">
-        <v>1626</v>
+        <v>1630</v>
       </c>
       <c r="AF66" t="s">
-        <v>1716</v>
+        <v>1720</v>
       </c>
       <c r="AG66" s="2" t="s">
-        <v>1845</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="67" spans="1:33">
@@ -12799,7 +12811,7 @@
         <v>0</v>
       </c>
       <c r="AB67" s="3" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="AC67" t="s">
         <v>108</v>
@@ -12808,13 +12820,13 @@
         <v>108</v>
       </c>
       <c r="AE67" t="s">
-        <v>1613</v>
+        <v>1617</v>
       </c>
       <c r="AF67" t="s">
         <v>116</v>
       </c>
       <c r="AG67" s="2" t="s">
-        <v>1846</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="68" spans="1:33">
@@ -12876,7 +12888,7 @@
         <v>0</v>
       </c>
       <c r="AB68" s="3" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="AC68" t="s">
         <v>108</v>
@@ -12885,13 +12897,13 @@
         <v>108</v>
       </c>
       <c r="AE68" t="s">
-        <v>1625</v>
+        <v>1629</v>
       </c>
       <c r="AF68" t="s">
-        <v>1715</v>
+        <v>1719</v>
       </c>
       <c r="AG68" s="2" t="s">
-        <v>1847</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="69" spans="1:33">
@@ -12953,7 +12965,7 @@
         <v>0</v>
       </c>
       <c r="AB69" s="3" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="AC69" t="s">
         <v>108</v>
@@ -12962,13 +12974,13 @@
         <v>108</v>
       </c>
       <c r="AE69" t="s">
-        <v>1613</v>
+        <v>1617</v>
       </c>
       <c r="AF69" t="s">
         <v>116</v>
       </c>
       <c r="AG69" s="2" t="s">
-        <v>1848</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="70" spans="1:33">
@@ -13030,7 +13042,7 @@
         <v>0</v>
       </c>
       <c r="AB70" s="3" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="AC70" t="s">
         <v>108</v>
@@ -13039,13 +13051,13 @@
         <v>108</v>
       </c>
       <c r="AE70" t="s">
-        <v>1627</v>
+        <v>1631</v>
       </c>
       <c r="AF70" t="s">
-        <v>1717</v>
+        <v>1721</v>
       </c>
       <c r="AG70" s="2" t="s">
-        <v>1849</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="71" spans="1:33">
@@ -13107,7 +13119,7 @@
         <v>0</v>
       </c>
       <c r="AB71" s="3" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="AC71" t="s">
         <v>108</v>
@@ -13116,13 +13128,13 @@
         <v>108</v>
       </c>
       <c r="AE71" t="s">
-        <v>1615</v>
+        <v>1619</v>
       </c>
       <c r="AF71" t="s">
-        <v>1705</v>
+        <v>1709</v>
       </c>
       <c r="AG71" s="2" t="s">
-        <v>1850</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="72" spans="1:33">
@@ -13184,7 +13196,7 @@
         <v>0</v>
       </c>
       <c r="AB72" s="3" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="AC72" t="s">
         <v>108</v>
@@ -13193,13 +13205,13 @@
         <v>108</v>
       </c>
       <c r="AE72" t="s">
-        <v>1615</v>
+        <v>1619</v>
       </c>
       <c r="AF72" t="s">
-        <v>1705</v>
+        <v>1709</v>
       </c>
       <c r="AG72" s="2" t="s">
-        <v>1851</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="73" spans="1:33">
@@ -13261,7 +13273,7 @@
         <v>0</v>
       </c>
       <c r="AB73" s="3" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="AC73" t="s">
         <v>108</v>
@@ -13270,13 +13282,13 @@
         <v>108</v>
       </c>
       <c r="AE73" t="s">
-        <v>1615</v>
+        <v>1619</v>
       </c>
       <c r="AF73" t="s">
-        <v>1705</v>
+        <v>1709</v>
       </c>
       <c r="AG73" s="2" t="s">
-        <v>1852</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="74" spans="1:33">
@@ -13338,7 +13350,7 @@
         <v>0</v>
       </c>
       <c r="AB74" s="3" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="AC74" t="s">
         <v>108</v>
@@ -13347,13 +13359,13 @@
         <v>108</v>
       </c>
       <c r="AE74" t="s">
-        <v>1626</v>
+        <v>1630</v>
       </c>
       <c r="AF74" t="s">
-        <v>1716</v>
+        <v>1720</v>
       </c>
       <c r="AG74" s="2" t="s">
-        <v>1853</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="75" spans="1:33">
@@ -13415,7 +13427,7 @@
         <v>0</v>
       </c>
       <c r="AB75" s="3" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="AC75" t="s">
         <v>108</v>
@@ -13424,13 +13436,13 @@
         <v>108</v>
       </c>
       <c r="AE75" t="s">
-        <v>1613</v>
+        <v>1617</v>
       </c>
       <c r="AF75" t="s">
         <v>116</v>
       </c>
       <c r="AG75" s="2" t="s">
-        <v>1854</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="76" spans="1:33">
@@ -13492,7 +13504,7 @@
         <v>0</v>
       </c>
       <c r="AB76" s="3" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="AC76" t="s">
         <v>108</v>
@@ -13501,13 +13513,13 @@
         <v>108</v>
       </c>
       <c r="AE76" t="s">
-        <v>1613</v>
+        <v>1617</v>
       </c>
       <c r="AF76" t="s">
         <v>116</v>
       </c>
       <c r="AG76" s="2" t="s">
-        <v>1855</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="77" spans="1:33">
@@ -13569,7 +13581,7 @@
         <v>0</v>
       </c>
       <c r="AB77" s="3" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="AC77" t="s">
         <v>108</v>
@@ -13578,13 +13590,13 @@
         <v>108</v>
       </c>
       <c r="AE77" t="s">
-        <v>1628</v>
+        <v>1632</v>
       </c>
       <c r="AF77" t="s">
-        <v>1718</v>
+        <v>1722</v>
       </c>
       <c r="AG77" s="2" t="s">
-        <v>1856</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="78" spans="1:33">
@@ -13646,7 +13658,7 @@
         <v>0</v>
       </c>
       <c r="AB78" s="3" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="AC78" t="s">
         <v>108</v>
@@ -13655,13 +13667,13 @@
         <v>108</v>
       </c>
       <c r="AE78" t="s">
-        <v>1600</v>
+        <v>1604</v>
       </c>
       <c r="AF78" t="s">
-        <v>1691</v>
+        <v>1695</v>
       </c>
       <c r="AG78" s="2" t="s">
-        <v>1857</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="79" spans="1:33">
@@ -13723,7 +13735,7 @@
         <v>0</v>
       </c>
       <c r="AB79" s="3" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="AC79" t="s">
         <v>108</v>
@@ -13732,13 +13744,13 @@
         <v>108</v>
       </c>
       <c r="AE79" t="s">
-        <v>1625</v>
+        <v>1629</v>
       </c>
       <c r="AF79" t="s">
-        <v>1715</v>
+        <v>1719</v>
       </c>
       <c r="AG79" s="2" t="s">
-        <v>1858</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="80" spans="1:33">
@@ -13800,7 +13812,7 @@
         <v>0</v>
       </c>
       <c r="AB80" s="3" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="AC80" t="s">
         <v>108</v>
@@ -13809,13 +13821,13 @@
         <v>108</v>
       </c>
       <c r="AE80" t="s">
-        <v>1625</v>
+        <v>1629</v>
       </c>
       <c r="AF80" t="s">
-        <v>1715</v>
+        <v>1719</v>
       </c>
       <c r="AG80" s="2" t="s">
-        <v>1859</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="81" spans="1:33">
@@ -13877,7 +13889,7 @@
         <v>0</v>
       </c>
       <c r="AB81" s="3" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="AC81" t="s">
         <v>108</v>
@@ -13886,13 +13898,13 @@
         <v>108</v>
       </c>
       <c r="AE81" t="s">
-        <v>1625</v>
+        <v>1629</v>
       </c>
       <c r="AF81" t="s">
-        <v>1715</v>
+        <v>1719</v>
       </c>
       <c r="AG81" s="2" t="s">
-        <v>1860</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="82" spans="1:33">
@@ -13954,7 +13966,7 @@
         <v>0</v>
       </c>
       <c r="AB82" s="3" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="AC82" t="s">
         <v>108</v>
@@ -13963,13 +13975,13 @@
         <v>108</v>
       </c>
       <c r="AE82" t="s">
-        <v>1629</v>
+        <v>1633</v>
       </c>
       <c r="AF82" t="s">
-        <v>1719</v>
+        <v>1723</v>
       </c>
       <c r="AG82" s="2" t="s">
-        <v>1861</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="83" spans="1:33">
@@ -14031,7 +14043,7 @@
         <v>0</v>
       </c>
       <c r="AB83" s="3" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="AC83" t="s">
         <v>108</v>
@@ -14040,13 +14052,13 @@
         <v>108</v>
       </c>
       <c r="AE83" t="s">
-        <v>1624</v>
+        <v>1628</v>
       </c>
       <c r="AF83" t="s">
-        <v>1714</v>
+        <v>1718</v>
       </c>
       <c r="AG83" s="2" t="s">
-        <v>1862</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="84" spans="1:33">
@@ -14108,7 +14120,7 @@
         <v>0</v>
       </c>
       <c r="AB84" s="3" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="AC84" t="s">
         <v>108</v>
@@ -14117,13 +14129,13 @@
         <v>108</v>
       </c>
       <c r="AE84" t="s">
-        <v>1628</v>
+        <v>1632</v>
       </c>
       <c r="AF84" t="s">
-        <v>1718</v>
+        <v>1722</v>
       </c>
       <c r="AG84" s="2" t="s">
-        <v>1863</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="85" spans="1:33">
@@ -14185,7 +14197,7 @@
         <v>0</v>
       </c>
       <c r="AB85" s="3" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="AC85" t="s">
         <v>108</v>
@@ -14194,13 +14206,13 @@
         <v>108</v>
       </c>
       <c r="AE85" t="s">
-        <v>1629</v>
+        <v>1633</v>
       </c>
       <c r="AF85" t="s">
-        <v>1719</v>
+        <v>1723</v>
       </c>
       <c r="AG85" s="2" t="s">
-        <v>1864</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="86" spans="1:33">
@@ -14262,7 +14274,7 @@
         <v>0</v>
       </c>
       <c r="AB86" s="3" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="AC86" t="s">
         <v>108</v>
@@ -14271,13 +14283,13 @@
         <v>108</v>
       </c>
       <c r="AE86" t="s">
-        <v>1606</v>
+        <v>1610</v>
       </c>
       <c r="AF86" t="s">
-        <v>1697</v>
+        <v>1701</v>
       </c>
       <c r="AG86" s="2" t="s">
-        <v>1865</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="87" spans="1:33">
@@ -14339,7 +14351,7 @@
         <v>0</v>
       </c>
       <c r="AB87" s="3" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
       <c r="AC87" t="s">
         <v>108</v>
@@ -14348,13 +14360,13 @@
         <v>108</v>
       </c>
       <c r="AE87" t="s">
-        <v>1608</v>
+        <v>1612</v>
       </c>
       <c r="AF87" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="AG87" s="2" t="s">
-        <v>1866</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="88" spans="1:33">
@@ -14416,7 +14428,7 @@
         <v>0</v>
       </c>
       <c r="AB88" s="3" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="AC88" t="s">
         <v>108</v>
@@ -14425,13 +14437,13 @@
         <v>108</v>
       </c>
       <c r="AE88" t="s">
-        <v>1608</v>
+        <v>1612</v>
       </c>
       <c r="AF88" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="AG88" s="2" t="s">
-        <v>1867</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="89" spans="1:33">
@@ -14493,7 +14505,7 @@
         <v>0</v>
       </c>
       <c r="AB89" s="3" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="AC89" t="s">
         <v>108</v>
@@ -14502,13 +14514,13 @@
         <v>108</v>
       </c>
       <c r="AE89" t="s">
-        <v>1601</v>
+        <v>1605</v>
       </c>
       <c r="AF89" t="s">
-        <v>1692</v>
+        <v>1696</v>
       </c>
       <c r="AG89" s="2" t="s">
-        <v>1868</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="90" spans="1:33">
@@ -14570,7 +14582,7 @@
         <v>0</v>
       </c>
       <c r="AB90" s="3" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="AC90" t="s">
         <v>108</v>
@@ -14579,13 +14591,13 @@
         <v>108</v>
       </c>
       <c r="AE90" t="s">
-        <v>1630</v>
+        <v>1634</v>
       </c>
       <c r="AF90" t="s">
-        <v>1720</v>
+        <v>1724</v>
       </c>
       <c r="AG90" s="2" t="s">
-        <v>1869</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="91" spans="1:33">
@@ -14647,7 +14659,7 @@
         <v>0</v>
       </c>
       <c r="AB91" s="3" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="AC91" t="s">
         <v>108</v>
@@ -14656,13 +14668,13 @@
         <v>108</v>
       </c>
       <c r="AE91" t="s">
-        <v>1603</v>
+        <v>1607</v>
       </c>
       <c r="AF91" t="s">
-        <v>1694</v>
+        <v>1698</v>
       </c>
       <c r="AG91" s="2" t="s">
-        <v>1870</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="92" spans="1:33">
@@ -14724,7 +14736,7 @@
         <v>0</v>
       </c>
       <c r="AB92" s="3" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="AC92" t="s">
         <v>108</v>
@@ -14733,13 +14745,13 @@
         <v>108</v>
       </c>
       <c r="AE92" t="s">
-        <v>1624</v>
+        <v>1628</v>
       </c>
       <c r="AF92" t="s">
-        <v>1714</v>
+        <v>1718</v>
       </c>
       <c r="AG92" s="2" t="s">
-        <v>1871</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="93" spans="1:33">
@@ -14801,7 +14813,7 @@
         <v>0</v>
       </c>
       <c r="AB93" s="3" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="AC93" t="s">
         <v>108</v>
@@ -14810,13 +14822,13 @@
         <v>108</v>
       </c>
       <c r="AE93" t="s">
-        <v>1631</v>
+        <v>1635</v>
       </c>
       <c r="AF93" t="s">
-        <v>1721</v>
+        <v>1725</v>
       </c>
       <c r="AG93" s="2" t="s">
-        <v>1872</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="94" spans="1:33">
@@ -14878,7 +14890,7 @@
         <v>0</v>
       </c>
       <c r="AB94" s="3" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="AC94" t="s">
         <v>108</v>
@@ -14887,13 +14899,13 @@
         <v>108</v>
       </c>
       <c r="AE94" t="s">
-        <v>1632</v>
+        <v>1636</v>
       </c>
       <c r="AF94" t="s">
-        <v>1722</v>
+        <v>1726</v>
       </c>
       <c r="AG94" s="2" t="s">
-        <v>1873</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="95" spans="1:33">
@@ -14955,7 +14967,7 @@
         <v>0</v>
       </c>
       <c r="AB95" s="3" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="AC95" t="s">
         <v>108</v>
@@ -14964,13 +14976,13 @@
         <v>108</v>
       </c>
       <c r="AE95" t="s">
-        <v>1601</v>
+        <v>1605</v>
       </c>
       <c r="AF95" t="s">
-        <v>1692</v>
+        <v>1696</v>
       </c>
       <c r="AG95" s="2" t="s">
-        <v>1874</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="96" spans="1:33">
@@ -15032,7 +15044,7 @@
         <v>0</v>
       </c>
       <c r="AB96" s="3" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="AC96" t="s">
         <v>108</v>
@@ -15041,13 +15053,13 @@
         <v>108</v>
       </c>
       <c r="AE96" t="s">
-        <v>1628</v>
+        <v>1632</v>
       </c>
       <c r="AF96" t="s">
-        <v>1718</v>
+        <v>1722</v>
       </c>
       <c r="AG96" s="2" t="s">
-        <v>1875</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="97" spans="1:33">
@@ -15109,7 +15121,7 @@
         <v>0</v>
       </c>
       <c r="AB97" s="3" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="AC97" t="s">
         <v>108</v>
@@ -15118,13 +15130,13 @@
         <v>108</v>
       </c>
       <c r="AE97" t="s">
-        <v>1631</v>
+        <v>1635</v>
       </c>
       <c r="AF97" t="s">
-        <v>1721</v>
+        <v>1725</v>
       </c>
       <c r="AG97" s="2" t="s">
-        <v>1876</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="98" spans="1:33">
@@ -15186,22 +15198,22 @@
         <v>0</v>
       </c>
       <c r="AB98" s="3" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="AC98" t="s">
         <v>108</v>
       </c>
       <c r="AD98" s="3" t="s">
-        <v>1552</v>
+        <v>1556</v>
       </c>
       <c r="AE98" t="s">
-        <v>1631</v>
+        <v>1635</v>
       </c>
       <c r="AF98" t="s">
-        <v>1721</v>
+        <v>1725</v>
       </c>
       <c r="AG98" s="2" t="s">
-        <v>1877</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="99" spans="1:33">
@@ -15263,22 +15275,22 @@
         <v>0</v>
       </c>
       <c r="AB99" s="3" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="AC99" t="s">
         <v>108</v>
       </c>
       <c r="AD99" s="3" t="s">
-        <v>1553</v>
+        <v>1557</v>
       </c>
       <c r="AE99" t="s">
-        <v>1631</v>
+        <v>1635</v>
       </c>
       <c r="AF99" t="s">
-        <v>1721</v>
+        <v>1725</v>
       </c>
       <c r="AG99" s="2" t="s">
-        <v>1878</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="100" spans="1:33">
@@ -15340,22 +15352,22 @@
         <v>0</v>
       </c>
       <c r="AB100" s="3" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="AC100" t="s">
         <v>108</v>
       </c>
       <c r="AD100" s="3" t="s">
-        <v>1554</v>
+        <v>1558</v>
       </c>
       <c r="AE100" t="s">
-        <v>1633</v>
+        <v>1637</v>
       </c>
       <c r="AF100" t="s">
-        <v>1723</v>
+        <v>1727</v>
       </c>
       <c r="AG100" s="2" t="s">
-        <v>1879</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="101" spans="1:33">
@@ -15417,22 +15429,22 @@
         <v>0</v>
       </c>
       <c r="AB101" s="3" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="AC101" t="s">
         <v>108</v>
       </c>
       <c r="AD101" s="3" t="s">
-        <v>1555</v>
+        <v>1559</v>
       </c>
       <c r="AE101" t="s">
-        <v>1633</v>
+        <v>1637</v>
       </c>
       <c r="AF101" t="s">
-        <v>1723</v>
+        <v>1727</v>
       </c>
       <c r="AG101" s="2" t="s">
-        <v>1880</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="102" spans="1:33">
@@ -15494,7 +15506,7 @@
         <v>0</v>
       </c>
       <c r="AB102" s="3" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
       <c r="AC102" t="s">
         <v>108</v>
@@ -15503,13 +15515,13 @@
         <v>108</v>
       </c>
       <c r="AE102" t="s">
-        <v>1633</v>
+        <v>1637</v>
       </c>
       <c r="AF102" t="s">
-        <v>1723</v>
+        <v>1727</v>
       </c>
       <c r="AG102" s="2" t="s">
-        <v>1881</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="103" spans="1:33">
@@ -15571,7 +15583,7 @@
         <v>0</v>
       </c>
       <c r="AB103" s="3" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="AC103" t="s">
         <v>108</v>
@@ -15580,13 +15592,13 @@
         <v>108</v>
       </c>
       <c r="AE103" t="s">
-        <v>1632</v>
+        <v>1636</v>
       </c>
       <c r="AF103" t="s">
-        <v>1722</v>
+        <v>1726</v>
       </c>
       <c r="AG103" s="2" t="s">
-        <v>1882</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="104" spans="1:33">
@@ -15648,7 +15660,7 @@
         <v>0</v>
       </c>
       <c r="AB104" s="3" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="AC104" t="s">
         <v>108</v>
@@ -15657,13 +15669,13 @@
         <v>108</v>
       </c>
       <c r="AE104" t="s">
-        <v>1630</v>
+        <v>1634</v>
       </c>
       <c r="AF104" t="s">
-        <v>1720</v>
+        <v>1724</v>
       </c>
       <c r="AG104" s="2" t="s">
-        <v>1883</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="105" spans="1:33">
@@ -15725,7 +15737,7 @@
         <v>0</v>
       </c>
       <c r="AB105" s="3" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
       <c r="AC105" t="s">
         <v>108</v>
@@ -15737,10 +15749,10 @@
         <v>115</v>
       </c>
       <c r="AF105" t="s">
-        <v>1724</v>
+        <v>1728</v>
       </c>
       <c r="AG105" s="2" t="s">
-        <v>1884</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="106" spans="1:33">
@@ -15802,7 +15814,7 @@
         <v>0</v>
       </c>
       <c r="AB106" s="3" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="AC106" t="s">
         <v>108</v>
@@ -15811,13 +15823,13 @@
         <v>108</v>
       </c>
       <c r="AE106" t="s">
-        <v>1624</v>
+        <v>1628</v>
       </c>
       <c r="AF106" t="s">
-        <v>1714</v>
+        <v>1718</v>
       </c>
       <c r="AG106" s="2" t="s">
-        <v>1885</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="107" spans="1:33">
@@ -15879,7 +15891,7 @@
         <v>0</v>
       </c>
       <c r="AB107" s="3" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="AC107" t="s">
         <v>108</v>
@@ -15888,13 +15900,13 @@
         <v>108</v>
       </c>
       <c r="AE107" t="s">
-        <v>1634</v>
+        <v>1638</v>
       </c>
       <c r="AF107" t="s">
-        <v>1725</v>
+        <v>1729</v>
       </c>
       <c r="AG107" s="2" t="s">
-        <v>1886</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="108" spans="1:33">
@@ -15956,7 +15968,7 @@
         <v>0</v>
       </c>
       <c r="AB108" s="3" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="AC108" t="s">
         <v>108</v>
@@ -15965,13 +15977,13 @@
         <v>108</v>
       </c>
       <c r="AE108" t="s">
-        <v>1635</v>
+        <v>1639</v>
       </c>
       <c r="AF108" t="s">
-        <v>1726</v>
+        <v>1730</v>
       </c>
       <c r="AG108" s="2" t="s">
-        <v>1887</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="109" spans="1:33">
@@ -16036,7 +16048,7 @@
         <v>0</v>
       </c>
       <c r="AB109" s="3" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="AC109" t="s">
         <v>108</v>
@@ -16045,13 +16057,13 @@
         <v>108</v>
       </c>
       <c r="AE109" t="s">
-        <v>1629</v>
+        <v>1633</v>
       </c>
       <c r="AF109" t="s">
-        <v>1719</v>
+        <v>1723</v>
       </c>
       <c r="AG109" s="2" t="s">
-        <v>1888</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="110" spans="1:33">
@@ -16113,7 +16125,7 @@
         <v>0</v>
       </c>
       <c r="AB110" s="3" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="AC110" t="s">
         <v>108</v>
@@ -16122,13 +16134,13 @@
         <v>108</v>
       </c>
       <c r="AE110" t="s">
-        <v>1624</v>
+        <v>1628</v>
       </c>
       <c r="AF110" t="s">
-        <v>1714</v>
+        <v>1718</v>
       </c>
       <c r="AG110" s="2" t="s">
-        <v>1889</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="111" spans="1:33">
@@ -16190,7 +16202,7 @@
         <v>0</v>
       </c>
       <c r="AB111" s="3" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="AC111" t="s">
         <v>108</v>
@@ -16199,13 +16211,13 @@
         <v>108</v>
       </c>
       <c r="AE111" t="s">
-        <v>1636</v>
+        <v>1640</v>
       </c>
       <c r="AF111" t="s">
-        <v>1727</v>
+        <v>1731</v>
       </c>
       <c r="AG111" s="2" t="s">
-        <v>1890</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="112" spans="1:33">
@@ -16267,7 +16279,7 @@
         <v>0</v>
       </c>
       <c r="AB112" s="3" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="AC112" t="s">
         <v>108</v>
@@ -16276,13 +16288,13 @@
         <v>108</v>
       </c>
       <c r="AE112" t="s">
-        <v>1629</v>
+        <v>1633</v>
       </c>
       <c r="AF112" t="s">
-        <v>1719</v>
+        <v>1723</v>
       </c>
       <c r="AG112" s="2" t="s">
-        <v>1891</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="113" spans="1:33">
@@ -16344,7 +16356,7 @@
         <v>0</v>
       </c>
       <c r="AB113" s="3" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="AC113" t="s">
         <v>108</v>
@@ -16353,13 +16365,13 @@
         <v>108</v>
       </c>
       <c r="AE113" t="s">
-        <v>1608</v>
+        <v>1612</v>
       </c>
       <c r="AF113" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="AG113" s="2" t="s">
-        <v>1892</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="114" spans="1:33">
@@ -16421,7 +16433,7 @@
         <v>0</v>
       </c>
       <c r="AB114" s="3" t="s">
-        <v>1390</v>
+        <v>1391</v>
       </c>
       <c r="AC114" t="s">
         <v>108</v>
@@ -16430,13 +16442,13 @@
         <v>108</v>
       </c>
       <c r="AE114" t="s">
-        <v>1629</v>
+        <v>1633</v>
       </c>
       <c r="AF114" t="s">
-        <v>1719</v>
+        <v>1723</v>
       </c>
       <c r="AG114" s="2" t="s">
-        <v>1893</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="115" spans="1:33">
@@ -16498,7 +16510,7 @@
         <v>0</v>
       </c>
       <c r="AB115" s="3" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="AC115" t="s">
         <v>108</v>
@@ -16507,13 +16519,13 @@
         <v>108</v>
       </c>
       <c r="AE115" t="s">
-        <v>1602</v>
+        <v>1606</v>
       </c>
       <c r="AF115" t="s">
-        <v>1693</v>
+        <v>1697</v>
       </c>
       <c r="AG115" s="2" t="s">
-        <v>1894</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="116" spans="1:33">
@@ -16575,7 +16587,7 @@
         <v>0</v>
       </c>
       <c r="AB116" s="3" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="AC116" t="s">
         <v>108</v>
@@ -16584,13 +16596,13 @@
         <v>108</v>
       </c>
       <c r="AE116" t="s">
-        <v>1637</v>
+        <v>1641</v>
       </c>
       <c r="AF116" t="s">
-        <v>1728</v>
+        <v>1732</v>
       </c>
       <c r="AG116" s="2" t="s">
-        <v>1895</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="117" spans="1:33">
@@ -16652,22 +16664,22 @@
         <v>0</v>
       </c>
       <c r="AB117" s="3" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="AC117" t="s">
         <v>108</v>
       </c>
       <c r="AD117" s="3" t="s">
-        <v>1556</v>
+        <v>1560</v>
       </c>
       <c r="AE117" t="s">
-        <v>1602</v>
+        <v>1606</v>
       </c>
       <c r="AF117" t="s">
-        <v>1693</v>
+        <v>1697</v>
       </c>
       <c r="AG117" s="2" t="s">
-        <v>1896</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="118" spans="1:33">
@@ -16729,22 +16741,22 @@
         <v>0</v>
       </c>
       <c r="AB118" s="3" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="AC118" t="s">
         <v>108</v>
       </c>
       <c r="AD118" s="3" t="s">
-        <v>1557</v>
+        <v>1561</v>
       </c>
       <c r="AE118" t="s">
-        <v>1602</v>
+        <v>1606</v>
       </c>
       <c r="AF118" t="s">
-        <v>1693</v>
+        <v>1697</v>
       </c>
       <c r="AG118" s="2" t="s">
-        <v>1897</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="119" spans="1:33">
@@ -16806,7 +16818,7 @@
         <v>0</v>
       </c>
       <c r="AB119" s="3" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="AC119" t="s">
         <v>108</v>
@@ -16815,13 +16827,13 @@
         <v>108</v>
       </c>
       <c r="AE119" t="s">
-        <v>1621</v>
+        <v>1625</v>
       </c>
       <c r="AF119" t="s">
-        <v>1711</v>
+        <v>1715</v>
       </c>
       <c r="AG119" s="2" t="s">
-        <v>1898</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="120" spans="1:33">
@@ -16883,7 +16895,7 @@
         <v>0</v>
       </c>
       <c r="AB120" s="3" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
       <c r="AC120" t="s">
         <v>108</v>
@@ -16892,13 +16904,13 @@
         <v>108</v>
       </c>
       <c r="AE120" t="s">
-        <v>1638</v>
+        <v>1642</v>
       </c>
       <c r="AF120" t="s">
-        <v>1729</v>
+        <v>1733</v>
       </c>
       <c r="AG120" s="2" t="s">
-        <v>1899</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="121" spans="1:33">
@@ -16960,7 +16972,7 @@
         <v>0</v>
       </c>
       <c r="AB121" s="3" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="AC121" t="s">
         <v>108</v>
@@ -16969,13 +16981,13 @@
         <v>108</v>
       </c>
       <c r="AE121" t="s">
-        <v>1603</v>
+        <v>1607</v>
       </c>
       <c r="AF121" t="s">
-        <v>1694</v>
+        <v>1698</v>
       </c>
       <c r="AG121" s="2" t="s">
-        <v>1900</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="122" spans="1:33">
@@ -17037,22 +17049,22 @@
         <v>0</v>
       </c>
       <c r="AB122" s="3" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="AC122" t="s">
         <v>108</v>
       </c>
       <c r="AD122" s="3" t="s">
-        <v>1558</v>
+        <v>1562</v>
       </c>
       <c r="AE122" t="s">
-        <v>1603</v>
+        <v>1607</v>
       </c>
       <c r="AF122" t="s">
-        <v>1694</v>
+        <v>1698</v>
       </c>
       <c r="AG122" s="2" t="s">
-        <v>1901</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="123" spans="1:33">
@@ -17114,22 +17126,22 @@
         <v>0</v>
       </c>
       <c r="AB123" s="3" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="AC123" t="s">
         <v>108</v>
       </c>
       <c r="AD123" s="3" t="s">
-        <v>1559</v>
+        <v>1563</v>
       </c>
       <c r="AE123" t="s">
-        <v>1603</v>
+        <v>1607</v>
       </c>
       <c r="AF123" t="s">
-        <v>1694</v>
+        <v>1698</v>
       </c>
       <c r="AG123" s="2" t="s">
-        <v>1902</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="124" spans="1:33">
@@ -17191,7 +17203,7 @@
         <v>0</v>
       </c>
       <c r="AB124" s="3" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="AC124" t="s">
         <v>108</v>
@@ -17200,13 +17212,13 @@
         <v>108</v>
       </c>
       <c r="AE124" t="s">
-        <v>1626</v>
+        <v>1630</v>
       </c>
       <c r="AF124" t="s">
-        <v>1716</v>
+        <v>1720</v>
       </c>
       <c r="AG124" s="2" t="s">
-        <v>1903</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="125" spans="1:33">
@@ -17268,22 +17280,22 @@
         <v>0</v>
       </c>
       <c r="AB125" s="3" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
       <c r="AC125" t="s">
         <v>108</v>
       </c>
       <c r="AD125" s="3" t="s">
-        <v>1560</v>
+        <v>1564</v>
       </c>
       <c r="AE125" t="s">
-        <v>1608</v>
+        <v>1612</v>
       </c>
       <c r="AF125" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="AG125" s="2" t="s">
-        <v>1904</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="126" spans="1:33">
@@ -17345,22 +17357,22 @@
         <v>0</v>
       </c>
       <c r="AB126" s="3" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
       <c r="AC126" t="s">
         <v>108</v>
       </c>
       <c r="AD126" s="3" t="s">
-        <v>1561</v>
+        <v>1565</v>
       </c>
       <c r="AE126" t="s">
-        <v>1608</v>
+        <v>1612</v>
       </c>
       <c r="AF126" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="AG126" s="2" t="s">
-        <v>1905</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="127" spans="1:33">
@@ -17422,22 +17434,22 @@
         <v>0</v>
       </c>
       <c r="AB127" s="3" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
       <c r="AC127" t="s">
         <v>108</v>
       </c>
       <c r="AD127" s="3" t="s">
-        <v>1562</v>
+        <v>1566</v>
       </c>
       <c r="AE127" t="s">
-        <v>1608</v>
+        <v>1612</v>
       </c>
       <c r="AF127" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="AG127" s="2" t="s">
-        <v>1906</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="128" spans="1:33">
@@ -17499,22 +17511,22 @@
         <v>0</v>
       </c>
       <c r="AB128" s="3" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
       <c r="AC128" t="s">
         <v>108</v>
       </c>
       <c r="AD128" s="3" t="s">
-        <v>1563</v>
+        <v>1567</v>
       </c>
       <c r="AE128" t="s">
-        <v>1608</v>
+        <v>1612</v>
       </c>
       <c r="AF128" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="AG128" s="2" t="s">
-        <v>1907</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="129" spans="1:33">
@@ -17576,22 +17588,22 @@
         <v>0</v>
       </c>
       <c r="AB129" s="3" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="AC129" t="s">
         <v>108</v>
       </c>
       <c r="AD129" s="3" t="s">
-        <v>1564</v>
+        <v>1568</v>
       </c>
       <c r="AE129" t="s">
-        <v>1608</v>
+        <v>1612</v>
       </c>
       <c r="AF129" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="AG129" s="2" t="s">
-        <v>1908</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="130" spans="1:33">
@@ -17653,22 +17665,22 @@
         <v>0</v>
       </c>
       <c r="AB130" s="3" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="AC130" t="s">
         <v>108</v>
       </c>
       <c r="AD130" s="3" t="s">
-        <v>1565</v>
+        <v>1569</v>
       </c>
       <c r="AE130" t="s">
-        <v>1608</v>
+        <v>1612</v>
       </c>
       <c r="AF130" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="AG130" s="2" t="s">
-        <v>1909</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="131" spans="1:33">
@@ -17730,7 +17742,7 @@
         <v>0</v>
       </c>
       <c r="AB131" s="3" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="AC131" t="s">
         <v>108</v>
@@ -17739,13 +17751,13 @@
         <v>108</v>
       </c>
       <c r="AE131" t="s">
-        <v>1621</v>
+        <v>1625</v>
       </c>
       <c r="AF131" t="s">
-        <v>1711</v>
+        <v>1715</v>
       </c>
       <c r="AG131" s="2" t="s">
-        <v>1910</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="132" spans="1:33">
@@ -17807,7 +17819,7 @@
         <v>0</v>
       </c>
       <c r="AB132" s="3" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="AC132" t="s">
         <v>108</v>
@@ -17816,13 +17828,13 @@
         <v>108</v>
       </c>
       <c r="AE132" t="s">
-        <v>1621</v>
+        <v>1625</v>
       </c>
       <c r="AF132" t="s">
-        <v>1711</v>
+        <v>1715</v>
       </c>
       <c r="AG132" s="2" t="s">
-        <v>1911</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="133" spans="1:33">
@@ -17884,7 +17896,7 @@
         <v>0</v>
       </c>
       <c r="AB133" s="3" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="AC133" t="s">
         <v>108</v>
@@ -17893,13 +17905,13 @@
         <v>108</v>
       </c>
       <c r="AE133" t="s">
-        <v>1621</v>
+        <v>1625</v>
       </c>
       <c r="AF133" t="s">
-        <v>1711</v>
+        <v>1715</v>
       </c>
       <c r="AG133" s="2" t="s">
-        <v>1912</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="134" spans="1:33">
@@ -17961,7 +17973,7 @@
         <v>0</v>
       </c>
       <c r="AB134" s="3" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="AC134" t="s">
         <v>108</v>
@@ -17970,13 +17982,13 @@
         <v>108</v>
       </c>
       <c r="AE134" t="s">
-        <v>1621</v>
+        <v>1625</v>
       </c>
       <c r="AF134" t="s">
-        <v>1711</v>
+        <v>1715</v>
       </c>
       <c r="AG134" s="2" t="s">
-        <v>1913</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="135" spans="1:33">
@@ -18038,7 +18050,7 @@
         <v>0</v>
       </c>
       <c r="AB135" s="3" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="AC135" t="s">
         <v>108</v>
@@ -18047,13 +18059,13 @@
         <v>108</v>
       </c>
       <c r="AE135" t="s">
-        <v>1621</v>
+        <v>1625</v>
       </c>
       <c r="AF135" t="s">
-        <v>1711</v>
+        <v>1715</v>
       </c>
       <c r="AG135" s="2" t="s">
-        <v>1914</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="136" spans="1:33">
@@ -18115,7 +18127,7 @@
         <v>0</v>
       </c>
       <c r="AB136" s="3" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="AC136" t="s">
         <v>108</v>
@@ -18124,13 +18136,13 @@
         <v>108</v>
       </c>
       <c r="AE136" t="s">
-        <v>1621</v>
+        <v>1625</v>
       </c>
       <c r="AF136" t="s">
-        <v>1711</v>
+        <v>1715</v>
       </c>
       <c r="AG136" s="2" t="s">
-        <v>1915</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="137" spans="1:33">
@@ -18192,7 +18204,7 @@
         <v>0</v>
       </c>
       <c r="AB137" s="3" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="AC137" t="s">
         <v>108</v>
@@ -18201,13 +18213,13 @@
         <v>108</v>
       </c>
       <c r="AE137" t="s">
-        <v>1615</v>
+        <v>1619</v>
       </c>
       <c r="AF137" t="s">
-        <v>1705</v>
+        <v>1709</v>
       </c>
       <c r="AG137" s="2" t="s">
-        <v>1916</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="138" spans="1:33">
@@ -18269,7 +18281,7 @@
         <v>0</v>
       </c>
       <c r="AB138" s="3" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
       <c r="AC138" t="s">
         <v>108</v>
@@ -18278,13 +18290,13 @@
         <v>108</v>
       </c>
       <c r="AE138" t="s">
-        <v>1621</v>
+        <v>1625</v>
       </c>
       <c r="AF138" t="s">
-        <v>1711</v>
+        <v>1715</v>
       </c>
       <c r="AG138" s="2" t="s">
-        <v>1917</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="139" spans="1:33">
@@ -18346,7 +18358,7 @@
         <v>0</v>
       </c>
       <c r="AB139" s="3" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="AC139" t="s">
         <v>108</v>
@@ -18355,13 +18367,13 @@
         <v>108</v>
       </c>
       <c r="AE139" t="s">
-        <v>1621</v>
+        <v>1625</v>
       </c>
       <c r="AF139" t="s">
-        <v>1711</v>
+        <v>1715</v>
       </c>
       <c r="AG139" s="2" t="s">
-        <v>1918</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="140" spans="1:33">
@@ -18423,7 +18435,7 @@
         <v>0</v>
       </c>
       <c r="AB140" s="3" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="AC140" t="s">
         <v>108</v>
@@ -18432,13 +18444,13 @@
         <v>108</v>
       </c>
       <c r="AE140" t="s">
-        <v>1623</v>
+        <v>1627</v>
       </c>
       <c r="AF140" t="s">
-        <v>1713</v>
+        <v>1717</v>
       </c>
       <c r="AG140" s="2" t="s">
-        <v>1919</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="141" spans="1:33">
@@ -18500,7 +18512,7 @@
         <v>0</v>
       </c>
       <c r="AB141" s="3" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="AC141" t="s">
         <v>108</v>
@@ -18509,13 +18521,13 @@
         <v>108</v>
       </c>
       <c r="AE141" t="s">
-        <v>1621</v>
+        <v>1625</v>
       </c>
       <c r="AF141" t="s">
-        <v>1711</v>
+        <v>1715</v>
       </c>
       <c r="AG141" s="2" t="s">
-        <v>1920</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="142" spans="1:33">
@@ -18577,7 +18589,7 @@
         <v>0</v>
       </c>
       <c r="AB142" s="3" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="AC142" t="s">
         <v>108</v>
@@ -18586,13 +18598,13 @@
         <v>108</v>
       </c>
       <c r="AE142" t="s">
-        <v>1621</v>
+        <v>1625</v>
       </c>
       <c r="AF142" t="s">
-        <v>1711</v>
+        <v>1715</v>
       </c>
       <c r="AG142" s="2" t="s">
-        <v>1921</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="143" spans="1:33">
@@ -18654,7 +18666,7 @@
         <v>0</v>
       </c>
       <c r="AB143" s="3" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="AC143" t="s">
         <v>108</v>
@@ -18663,13 +18675,13 @@
         <v>108</v>
       </c>
       <c r="AE143" t="s">
-        <v>1621</v>
+        <v>1625</v>
       </c>
       <c r="AF143" t="s">
-        <v>1711</v>
+        <v>1715</v>
       </c>
       <c r="AG143" s="2" t="s">
-        <v>1922</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="144" spans="1:33">
@@ -18731,7 +18743,7 @@
         <v>0</v>
       </c>
       <c r="AB144" s="3" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="AC144" t="s">
         <v>108</v>
@@ -18740,13 +18752,13 @@
         <v>108</v>
       </c>
       <c r="AE144" t="s">
-        <v>1621</v>
+        <v>1625</v>
       </c>
       <c r="AF144" t="s">
-        <v>1711</v>
+        <v>1715</v>
       </c>
       <c r="AG144" s="2" t="s">
-        <v>1923</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="145" spans="1:33">
@@ -18808,7 +18820,7 @@
         <v>0</v>
       </c>
       <c r="AB145" s="3" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="AC145" t="s">
         <v>108</v>
@@ -18817,13 +18829,13 @@
         <v>108</v>
       </c>
       <c r="AE145" t="s">
-        <v>1621</v>
+        <v>1625</v>
       </c>
       <c r="AF145" t="s">
-        <v>1711</v>
+        <v>1715</v>
       </c>
       <c r="AG145" s="2" t="s">
-        <v>1924</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="146" spans="1:33">
@@ -18885,7 +18897,7 @@
         <v>0</v>
       </c>
       <c r="AB146" s="3" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
       <c r="AC146" t="s">
         <v>108</v>
@@ -18894,13 +18906,13 @@
         <v>108</v>
       </c>
       <c r="AE146" t="s">
-        <v>1621</v>
+        <v>1625</v>
       </c>
       <c r="AF146" t="s">
-        <v>1711</v>
+        <v>1715</v>
       </c>
       <c r="AG146" s="2" t="s">
-        <v>1925</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="147" spans="1:33">
@@ -18962,7 +18974,7 @@
         <v>0</v>
       </c>
       <c r="AB147" s="3" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="AC147" t="s">
         <v>108</v>
@@ -18971,13 +18983,13 @@
         <v>108</v>
       </c>
       <c r="AE147" t="s">
-        <v>1621</v>
+        <v>1625</v>
       </c>
       <c r="AF147" t="s">
-        <v>1711</v>
+        <v>1715</v>
       </c>
       <c r="AG147" s="2" t="s">
-        <v>1926</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="148" spans="1:33">
@@ -19039,7 +19051,7 @@
         <v>0</v>
       </c>
       <c r="AB148" s="3" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="AC148" t="s">
         <v>108</v>
@@ -19048,13 +19060,13 @@
         <v>108</v>
       </c>
       <c r="AE148" t="s">
-        <v>1621</v>
+        <v>1625</v>
       </c>
       <c r="AF148" t="s">
-        <v>1711</v>
+        <v>1715</v>
       </c>
       <c r="AG148" s="2" t="s">
-        <v>1927</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="149" spans="1:33">
@@ -19116,7 +19128,7 @@
         <v>0</v>
       </c>
       <c r="AB149" s="3" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="AC149" t="s">
         <v>108</v>
@@ -19125,13 +19137,13 @@
         <v>108</v>
       </c>
       <c r="AE149" t="s">
-        <v>1621</v>
+        <v>1625</v>
       </c>
       <c r="AF149" t="s">
-        <v>1711</v>
+        <v>1715</v>
       </c>
       <c r="AG149" s="2" t="s">
-        <v>1928</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="150" spans="1:33">
@@ -19193,7 +19205,7 @@
         <v>0</v>
       </c>
       <c r="AB150" s="3" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="AC150" t="s">
         <v>108</v>
@@ -19202,13 +19214,13 @@
         <v>108</v>
       </c>
       <c r="AE150" t="s">
-        <v>1621</v>
+        <v>1625</v>
       </c>
       <c r="AF150" t="s">
-        <v>1711</v>
+        <v>1715</v>
       </c>
       <c r="AG150" s="2" t="s">
-        <v>1929</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="151" spans="1:33">
@@ -19270,7 +19282,7 @@
         <v>0</v>
       </c>
       <c r="AB151" s="3" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="AC151" t="s">
         <v>108</v>
@@ -19279,13 +19291,13 @@
         <v>108</v>
       </c>
       <c r="AE151" t="s">
-        <v>1621</v>
+        <v>1625</v>
       </c>
       <c r="AF151" t="s">
-        <v>1711</v>
+        <v>1715</v>
       </c>
       <c r="AG151" s="2" t="s">
-        <v>1930</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="152" spans="1:33">
@@ -19347,7 +19359,7 @@
         <v>0</v>
       </c>
       <c r="AB152" s="3" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
       <c r="AC152" t="s">
         <v>108</v>
@@ -19356,13 +19368,13 @@
         <v>108</v>
       </c>
       <c r="AE152" t="s">
-        <v>1621</v>
+        <v>1625</v>
       </c>
       <c r="AF152" t="s">
-        <v>1711</v>
+        <v>1715</v>
       </c>
       <c r="AG152" s="2" t="s">
-        <v>1931</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="153" spans="1:33">
@@ -19424,7 +19436,7 @@
         <v>0</v>
       </c>
       <c r="AB153" s="3" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="AC153" t="s">
         <v>108</v>
@@ -19433,13 +19445,13 @@
         <v>108</v>
       </c>
       <c r="AE153" t="s">
-        <v>1621</v>
+        <v>1625</v>
       </c>
       <c r="AF153" t="s">
-        <v>1711</v>
+        <v>1715</v>
       </c>
       <c r="AG153" s="2" t="s">
-        <v>1932</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="154" spans="1:33">
@@ -19501,7 +19513,7 @@
         <v>0</v>
       </c>
       <c r="AB154" s="3" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
       <c r="AC154" t="s">
         <v>108</v>
@@ -19510,13 +19522,13 @@
         <v>108</v>
       </c>
       <c r="AE154" t="s">
-        <v>1629</v>
+        <v>1633</v>
       </c>
       <c r="AF154" t="s">
-        <v>1719</v>
+        <v>1723</v>
       </c>
       <c r="AG154" s="2" t="s">
-        <v>1933</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="155" spans="1:33">
@@ -19578,7 +19590,7 @@
         <v>0</v>
       </c>
       <c r="AB155" s="3" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="AC155" t="s">
         <v>108</v>
@@ -19587,13 +19599,13 @@
         <v>108</v>
       </c>
       <c r="AE155" t="s">
-        <v>1621</v>
+        <v>1625</v>
       </c>
       <c r="AF155" t="s">
-        <v>1711</v>
+        <v>1715</v>
       </c>
       <c r="AG155" s="2" t="s">
-        <v>1934</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="156" spans="1:33">
@@ -19655,22 +19667,22 @@
         <v>0</v>
       </c>
       <c r="AB156" s="3" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="AC156" t="s">
         <v>108</v>
       </c>
       <c r="AD156" s="3" t="s">
-        <v>1566</v>
+        <v>1570</v>
       </c>
       <c r="AE156" t="s">
-        <v>1606</v>
+        <v>1610</v>
       </c>
       <c r="AF156" t="s">
-        <v>1697</v>
+        <v>1701</v>
       </c>
       <c r="AG156" s="2" t="s">
-        <v>1935</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="157" spans="1:33">
@@ -19732,22 +19744,22 @@
         <v>0</v>
       </c>
       <c r="AB157" s="3" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="AC157" t="s">
         <v>108</v>
       </c>
       <c r="AD157" s="3" t="s">
-        <v>1567</v>
+        <v>1571</v>
       </c>
       <c r="AE157" t="s">
-        <v>1606</v>
+        <v>1610</v>
       </c>
       <c r="AF157" t="s">
-        <v>1697</v>
+        <v>1701</v>
       </c>
       <c r="AG157" s="2" t="s">
-        <v>1936</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="158" spans="1:33">
@@ -19809,22 +19821,22 @@
         <v>0</v>
       </c>
       <c r="AB158" s="3" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
       <c r="AC158" t="s">
         <v>108</v>
       </c>
       <c r="AD158" s="3" t="s">
-        <v>1568</v>
+        <v>1572</v>
       </c>
       <c r="AE158" t="s">
-        <v>1606</v>
+        <v>1610</v>
       </c>
       <c r="AF158" t="s">
-        <v>1697</v>
+        <v>1701</v>
       </c>
       <c r="AG158" s="2" t="s">
-        <v>1937</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="159" spans="1:33">
@@ -19886,22 +19898,22 @@
         <v>0</v>
       </c>
       <c r="AB159" s="3" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
       <c r="AC159" t="s">
         <v>108</v>
       </c>
       <c r="AD159" s="3" t="s">
-        <v>1569</v>
+        <v>1573</v>
       </c>
       <c r="AE159" t="s">
-        <v>1606</v>
+        <v>1610</v>
       </c>
       <c r="AF159" t="s">
-        <v>1697</v>
+        <v>1701</v>
       </c>
       <c r="AG159" s="2" t="s">
-        <v>1938</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="160" spans="1:33">
@@ -19963,22 +19975,22 @@
         <v>0</v>
       </c>
       <c r="AB160" s="3" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
       <c r="AC160" t="s">
         <v>108</v>
       </c>
       <c r="AD160" s="3" t="s">
-        <v>1570</v>
+        <v>1574</v>
       </c>
       <c r="AE160" t="s">
-        <v>1606</v>
+        <v>1610</v>
       </c>
       <c r="AF160" t="s">
-        <v>1697</v>
+        <v>1701</v>
       </c>
       <c r="AG160" s="2" t="s">
-        <v>1939</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="161" spans="1:33">
@@ -20040,7 +20052,7 @@
         <v>0</v>
       </c>
       <c r="AB161" s="3" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="AC161" t="s">
         <v>108</v>
@@ -20049,13 +20061,13 @@
         <v>108</v>
       </c>
       <c r="AE161" t="s">
-        <v>1621</v>
+        <v>1625</v>
       </c>
       <c r="AF161" t="s">
-        <v>1711</v>
+        <v>1715</v>
       </c>
       <c r="AG161" s="2" t="s">
-        <v>1940</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="162" spans="1:33">
@@ -20117,7 +20129,7 @@
         <v>0</v>
       </c>
       <c r="AB162" s="3" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="AC162" t="s">
         <v>108</v>
@@ -20126,13 +20138,13 @@
         <v>108</v>
       </c>
       <c r="AE162" t="s">
-        <v>1621</v>
+        <v>1625</v>
       </c>
       <c r="AF162" t="s">
-        <v>1711</v>
+        <v>1715</v>
       </c>
       <c r="AG162" s="2" t="s">
-        <v>1941</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="163" spans="1:33">
@@ -20194,7 +20206,7 @@
         <v>0</v>
       </c>
       <c r="AB163" s="3" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
       <c r="AC163" t="s">
         <v>108</v>
@@ -20203,13 +20215,13 @@
         <v>108</v>
       </c>
       <c r="AE163" t="s">
-        <v>1629</v>
+        <v>1633</v>
       </c>
       <c r="AF163" t="s">
-        <v>1719</v>
+        <v>1723</v>
       </c>
       <c r="AG163" s="2" t="s">
-        <v>1942</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="164" spans="1:33">
@@ -20271,7 +20283,7 @@
         <v>0</v>
       </c>
       <c r="AB164" s="3" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
       <c r="AC164" t="s">
         <v>108</v>
@@ -20280,13 +20292,13 @@
         <v>108</v>
       </c>
       <c r="AE164" t="s">
-        <v>1621</v>
+        <v>1625</v>
       </c>
       <c r="AF164" t="s">
-        <v>1711</v>
+        <v>1715</v>
       </c>
       <c r="AG164" s="2" t="s">
-        <v>1943</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="165" spans="1:33">
@@ -20348,7 +20360,7 @@
         <v>0</v>
       </c>
       <c r="AB165" s="3" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="AC165" t="s">
         <v>108</v>
@@ -20357,13 +20369,13 @@
         <v>108</v>
       </c>
       <c r="AE165" t="s">
-        <v>1621</v>
+        <v>1625</v>
       </c>
       <c r="AF165" t="s">
-        <v>1711</v>
+        <v>1715</v>
       </c>
       <c r="AG165" s="2" t="s">
-        <v>1944</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="166" spans="1:33">
@@ -20425,7 +20437,7 @@
         <v>0</v>
       </c>
       <c r="AB166" s="3" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
       <c r="AC166" t="s">
         <v>108</v>
@@ -20434,13 +20446,13 @@
         <v>108</v>
       </c>
       <c r="AE166" t="s">
-        <v>1621</v>
+        <v>1625</v>
       </c>
       <c r="AF166" t="s">
-        <v>1711</v>
+        <v>1715</v>
       </c>
       <c r="AG166" s="2" t="s">
-        <v>1945</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="167" spans="1:33">
@@ -20502,7 +20514,7 @@
         <v>0</v>
       </c>
       <c r="AB167" s="3" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
       <c r="AC167" t="s">
         <v>108</v>
@@ -20511,13 +20523,13 @@
         <v>108</v>
       </c>
       <c r="AE167" t="s">
-        <v>1621</v>
+        <v>1625</v>
       </c>
       <c r="AF167" t="s">
-        <v>1711</v>
+        <v>1715</v>
       </c>
       <c r="AG167" s="2" t="s">
-        <v>1946</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="168" spans="1:33">
@@ -20579,7 +20591,7 @@
         <v>0</v>
       </c>
       <c r="AB168" s="3" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="AC168" t="s">
         <v>108</v>
@@ -20588,13 +20600,13 @@
         <v>108</v>
       </c>
       <c r="AE168" t="s">
-        <v>1621</v>
+        <v>1625</v>
       </c>
       <c r="AF168" t="s">
-        <v>1711</v>
+        <v>1715</v>
       </c>
       <c r="AG168" s="2" t="s">
-        <v>1947</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="169" spans="1:33">
@@ -20656,7 +20668,7 @@
         <v>0</v>
       </c>
       <c r="AB169" s="3" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="AC169" t="s">
         <v>108</v>
@@ -20665,13 +20677,13 @@
         <v>108</v>
       </c>
       <c r="AE169" t="s">
-        <v>1621</v>
+        <v>1625</v>
       </c>
       <c r="AF169" t="s">
-        <v>1711</v>
+        <v>1715</v>
       </c>
       <c r="AG169" s="2" t="s">
-        <v>1948</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="170" spans="1:33">
@@ -20733,7 +20745,7 @@
         <v>0</v>
       </c>
       <c r="AB170" s="3" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="AC170" t="s">
         <v>108</v>
@@ -20742,13 +20754,13 @@
         <v>108</v>
       </c>
       <c r="AE170" t="s">
-        <v>1621</v>
+        <v>1625</v>
       </c>
       <c r="AF170" t="s">
-        <v>1711</v>
+        <v>1715</v>
       </c>
       <c r="AG170" s="2" t="s">
-        <v>1949</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="171" spans="1:33">
@@ -20810,22 +20822,22 @@
         <v>0</v>
       </c>
       <c r="AB171" s="3" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
       <c r="AC171" t="s">
         <v>108</v>
       </c>
       <c r="AD171" s="3" t="s">
-        <v>1571</v>
+        <v>1575</v>
       </c>
       <c r="AE171" t="s">
-        <v>1608</v>
+        <v>1612</v>
       </c>
       <c r="AF171" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="AG171" s="2" t="s">
-        <v>1950</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="172" spans="1:33">
@@ -20887,22 +20899,22 @@
         <v>0</v>
       </c>
       <c r="AB172" s="3" t="s">
-        <v>1425</v>
+        <v>1426</v>
       </c>
       <c r="AC172" t="s">
         <v>108</v>
       </c>
       <c r="AD172" s="3" t="s">
-        <v>1572</v>
+        <v>1576</v>
       </c>
       <c r="AE172" t="s">
-        <v>1608</v>
+        <v>1612</v>
       </c>
       <c r="AF172" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="AG172" s="2" t="s">
-        <v>1951</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="173" spans="1:33">
@@ -20964,7 +20976,7 @@
         <v>0</v>
       </c>
       <c r="AB173" s="3" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
       <c r="AC173" t="s">
         <v>108</v>
@@ -20973,13 +20985,13 @@
         <v>108</v>
       </c>
       <c r="AE173" t="s">
-        <v>1608</v>
+        <v>1612</v>
       </c>
       <c r="AF173" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="AG173" s="2" t="s">
-        <v>1952</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="174" spans="1:33">
@@ -21041,7 +21053,7 @@
         <v>0</v>
       </c>
       <c r="AB174" s="3" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="AC174" t="s">
         <v>108</v>
@@ -21050,13 +21062,13 @@
         <v>108</v>
       </c>
       <c r="AE174" t="s">
-        <v>1629</v>
+        <v>1633</v>
       </c>
       <c r="AF174" t="s">
-        <v>1719</v>
+        <v>1723</v>
       </c>
       <c r="AG174" s="2" t="s">
-        <v>1953</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="175" spans="1:33">
@@ -21118,7 +21130,7 @@
         <v>0</v>
       </c>
       <c r="AB175" s="3" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
       <c r="AC175" t="s">
         <v>108</v>
@@ -21127,13 +21139,13 @@
         <v>108</v>
       </c>
       <c r="AE175" t="s">
-        <v>1621</v>
+        <v>1625</v>
       </c>
       <c r="AF175" t="s">
-        <v>1711</v>
+        <v>1715</v>
       </c>
       <c r="AG175" s="2" t="s">
-        <v>1954</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="176" spans="1:33">
@@ -21195,7 +21207,7 @@
         <v>0</v>
       </c>
       <c r="AB176" s="3" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="AC176" t="s">
         <v>108</v>
@@ -21204,13 +21216,13 @@
         <v>108</v>
       </c>
       <c r="AE176" t="s">
-        <v>1621</v>
+        <v>1625</v>
       </c>
       <c r="AF176" t="s">
-        <v>1711</v>
+        <v>1715</v>
       </c>
       <c r="AG176" s="2" t="s">
-        <v>1955</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="177" spans="1:33">
@@ -21272,7 +21284,7 @@
         <v>0</v>
       </c>
       <c r="AB177" s="3" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
       <c r="AC177" t="s">
         <v>108</v>
@@ -21281,13 +21293,13 @@
         <v>108</v>
       </c>
       <c r="AE177" t="s">
-        <v>1629</v>
+        <v>1633</v>
       </c>
       <c r="AF177" t="s">
-        <v>1719</v>
+        <v>1723</v>
       </c>
       <c r="AG177" s="2" t="s">
-        <v>1956</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="178" spans="1:33">
@@ -21349,7 +21361,7 @@
         <v>0</v>
       </c>
       <c r="AB178" s="3" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="AC178" t="s">
         <v>108</v>
@@ -21358,13 +21370,13 @@
         <v>108</v>
       </c>
       <c r="AE178" t="s">
-        <v>1621</v>
+        <v>1625</v>
       </c>
       <c r="AF178" t="s">
-        <v>1711</v>
+        <v>1715</v>
       </c>
       <c r="AG178" s="2" t="s">
-        <v>1957</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="179" spans="1:33">
@@ -21426,7 +21438,7 @@
         <v>0</v>
       </c>
       <c r="AB179" s="3" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="AC179" t="s">
         <v>108</v>
@@ -21435,13 +21447,13 @@
         <v>108</v>
       </c>
       <c r="AE179" t="s">
-        <v>1621</v>
+        <v>1625</v>
       </c>
       <c r="AF179" t="s">
-        <v>1711</v>
+        <v>1715</v>
       </c>
       <c r="AG179" s="2" t="s">
-        <v>1958</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="180" spans="1:33">
@@ -21503,22 +21515,22 @@
         <v>0</v>
       </c>
       <c r="AB180" s="3" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
       <c r="AC180" t="s">
         <v>108</v>
       </c>
       <c r="AD180" s="3" t="s">
-        <v>1573</v>
+        <v>1577</v>
       </c>
       <c r="AE180" t="s">
-        <v>1639</v>
+        <v>1643</v>
       </c>
       <c r="AF180" t="s">
-        <v>1730</v>
+        <v>1734</v>
       </c>
       <c r="AG180" s="2" t="s">
-        <v>1959</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="181" spans="1:33">
@@ -21580,22 +21592,22 @@
         <v>0</v>
       </c>
       <c r="AB181" s="3" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="AC181" t="s">
         <v>108</v>
       </c>
       <c r="AD181" s="3" t="s">
-        <v>1574</v>
+        <v>1578</v>
       </c>
       <c r="AE181" t="s">
-        <v>1639</v>
+        <v>1643</v>
       </c>
       <c r="AF181" t="s">
-        <v>1730</v>
+        <v>1734</v>
       </c>
       <c r="AG181" s="2" t="s">
-        <v>1960</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="182" spans="1:33">
@@ -21657,7 +21669,7 @@
         <v>0</v>
       </c>
       <c r="AB182" s="3" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
       <c r="AC182" t="s">
         <v>108</v>
@@ -21666,13 +21678,13 @@
         <v>108</v>
       </c>
       <c r="AE182" t="s">
-        <v>1640</v>
+        <v>1644</v>
       </c>
       <c r="AF182" t="s">
-        <v>1731</v>
+        <v>1735</v>
       </c>
       <c r="AG182" s="2" t="s">
-        <v>1961</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="183" spans="1:33">
@@ -21734,7 +21746,7 @@
         <v>0</v>
       </c>
       <c r="AB183" s="3" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="AC183" t="s">
         <v>108</v>
@@ -21743,13 +21755,13 @@
         <v>108</v>
       </c>
       <c r="AE183" t="s">
-        <v>1641</v>
+        <v>1645</v>
       </c>
       <c r="AF183" t="s">
-        <v>1732</v>
+        <v>1736</v>
       </c>
       <c r="AG183" s="2" t="s">
-        <v>1962</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="184" spans="1:33">
@@ -21811,7 +21823,7 @@
         <v>0</v>
       </c>
       <c r="AB184" s="3" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
       <c r="AC184" t="s">
         <v>108</v>
@@ -21820,13 +21832,13 @@
         <v>108</v>
       </c>
       <c r="AE184" t="s">
-        <v>1640</v>
+        <v>1644</v>
       </c>
       <c r="AF184" t="s">
-        <v>1731</v>
+        <v>1735</v>
       </c>
       <c r="AG184" s="2" t="s">
-        <v>1963</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="185" spans="1:33">
@@ -21888,7 +21900,7 @@
         <v>0</v>
       </c>
       <c r="AB185" s="3" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
       <c r="AC185" t="s">
         <v>108</v>
@@ -21897,13 +21909,13 @@
         <v>108</v>
       </c>
       <c r="AE185" t="s">
-        <v>1640</v>
+        <v>1644</v>
       </c>
       <c r="AF185" t="s">
-        <v>1731</v>
+        <v>1735</v>
       </c>
       <c r="AG185" s="2" t="s">
-        <v>1964</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="186" spans="1:33">
@@ -21965,7 +21977,7 @@
         <v>0</v>
       </c>
       <c r="AB186" s="3" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
       <c r="AC186" t="s">
         <v>108</v>
@@ -21974,13 +21986,13 @@
         <v>108</v>
       </c>
       <c r="AE186" t="s">
-        <v>1640</v>
+        <v>1644</v>
       </c>
       <c r="AF186" t="s">
-        <v>1731</v>
+        <v>1735</v>
       </c>
       <c r="AG186" s="2" t="s">
-        <v>1965</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="187" spans="1:33">
@@ -22042,7 +22054,7 @@
         <v>0</v>
       </c>
       <c r="AB187" s="3" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="AC187" t="s">
         <v>108</v>
@@ -22051,13 +22063,13 @@
         <v>108</v>
       </c>
       <c r="AE187" t="s">
-        <v>1601</v>
+        <v>1605</v>
       </c>
       <c r="AF187" t="s">
-        <v>1692</v>
+        <v>1696</v>
       </c>
       <c r="AG187" s="2" t="s">
-        <v>1966</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="188" spans="1:33">
@@ -22119,7 +22131,7 @@
         <v>0</v>
       </c>
       <c r="AB188" s="3" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
       <c r="AC188" t="s">
         <v>108</v>
@@ -22128,13 +22140,13 @@
         <v>108</v>
       </c>
       <c r="AE188" t="s">
-        <v>1601</v>
+        <v>1605</v>
       </c>
       <c r="AF188" t="s">
-        <v>1692</v>
+        <v>1696</v>
       </c>
       <c r="AG188" s="2" t="s">
-        <v>1967</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="189" spans="1:33">
@@ -22196,22 +22208,22 @@
         <v>0</v>
       </c>
       <c r="AB189" s="3" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="AC189" t="s">
         <v>108</v>
       </c>
       <c r="AD189" s="3" t="s">
-        <v>1575</v>
+        <v>1579</v>
       </c>
       <c r="AE189" t="s">
-        <v>1608</v>
+        <v>1612</v>
       </c>
       <c r="AF189" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="AG189" s="2" t="s">
-        <v>1968</v>
+        <v>1972</v>
       </c>
     </row>
     <row r="190" spans="1:33">
@@ -22273,22 +22285,22 @@
         <v>0</v>
       </c>
       <c r="AB190" s="3" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="AC190" t="s">
         <v>108</v>
       </c>
       <c r="AD190" s="3" t="s">
-        <v>1576</v>
+        <v>1580</v>
       </c>
       <c r="AE190" t="s">
-        <v>1608</v>
+        <v>1612</v>
       </c>
       <c r="AF190" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="AG190" s="2" t="s">
-        <v>1969</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="191" spans="1:33">
@@ -22350,22 +22362,22 @@
         <v>0</v>
       </c>
       <c r="AB191" s="3" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="AC191" t="s">
         <v>108</v>
       </c>
       <c r="AD191" s="3" t="s">
-        <v>1577</v>
+        <v>1581</v>
       </c>
       <c r="AE191" t="s">
-        <v>1608</v>
+        <v>1612</v>
       </c>
       <c r="AF191" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="AG191" s="2" t="s">
-        <v>1970</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="192" spans="1:33">
@@ -22427,7 +22439,7 @@
         <v>0</v>
       </c>
       <c r="AB192" s="3" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="AC192" t="s">
         <v>108</v>
@@ -22436,13 +22448,13 @@
         <v>108</v>
       </c>
       <c r="AE192" t="s">
-        <v>1642</v>
+        <v>1646</v>
       </c>
       <c r="AF192" t="s">
-        <v>1733</v>
+        <v>1737</v>
       </c>
       <c r="AG192" s="2" t="s">
-        <v>1971</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="193" spans="1:33">
@@ -22504,7 +22516,7 @@
         <v>0</v>
       </c>
       <c r="AB193" s="3" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
       <c r="AC193" t="s">
         <v>108</v>
@@ -22513,13 +22525,13 @@
         <v>108</v>
       </c>
       <c r="AE193" t="s">
-        <v>1642</v>
+        <v>1646</v>
       </c>
       <c r="AF193" t="s">
-        <v>1733</v>
+        <v>1737</v>
       </c>
       <c r="AG193" s="2" t="s">
-        <v>1972</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="194" spans="1:33">
@@ -22581,7 +22593,7 @@
         <v>0</v>
       </c>
       <c r="AB194" s="3" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
       <c r="AC194" t="s">
         <v>108</v>
@@ -22590,13 +22602,13 @@
         <v>108</v>
       </c>
       <c r="AE194" t="s">
-        <v>1601</v>
+        <v>1605</v>
       </c>
       <c r="AF194" t="s">
-        <v>1692</v>
+        <v>1696</v>
       </c>
       <c r="AG194" s="2" t="s">
-        <v>1973</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="195" spans="1:33">
@@ -22658,7 +22670,7 @@
         <v>0</v>
       </c>
       <c r="AB195" s="3" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="AC195" t="s">
         <v>108</v>
@@ -22667,13 +22679,13 @@
         <v>108</v>
       </c>
       <c r="AE195" t="s">
-        <v>1643</v>
+        <v>1647</v>
       </c>
       <c r="AF195" t="s">
-        <v>1734</v>
+        <v>1738</v>
       </c>
       <c r="AG195" s="2" t="s">
-        <v>1974</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="196" spans="1:33">
@@ -22735,7 +22747,7 @@
         <v>0</v>
       </c>
       <c r="AB196" s="3" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
       <c r="AC196" t="s">
         <v>108</v>
@@ -22744,13 +22756,13 @@
         <v>108</v>
       </c>
       <c r="AE196" t="s">
-        <v>1632</v>
+        <v>1636</v>
       </c>
       <c r="AF196" t="s">
-        <v>1722</v>
+        <v>1726</v>
       </c>
       <c r="AG196" s="2" t="s">
-        <v>1975</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="197" spans="1:33">
@@ -22812,7 +22824,7 @@
         <v>0</v>
       </c>
       <c r="AB197" s="3" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="AC197" t="s">
         <v>108</v>
@@ -22821,13 +22833,13 @@
         <v>108</v>
       </c>
       <c r="AE197" t="s">
-        <v>1601</v>
+        <v>1605</v>
       </c>
       <c r="AF197" t="s">
-        <v>1692</v>
+        <v>1696</v>
       </c>
       <c r="AG197" s="2" t="s">
-        <v>1976</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="198" spans="1:33">
@@ -22889,7 +22901,7 @@
         <v>0</v>
       </c>
       <c r="AB198" s="3" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="AC198" t="s">
         <v>108</v>
@@ -22898,13 +22910,13 @@
         <v>108</v>
       </c>
       <c r="AE198" t="s">
-        <v>1644</v>
+        <v>1648</v>
       </c>
       <c r="AF198" t="s">
-        <v>1735</v>
+        <v>1739</v>
       </c>
       <c r="AG198" s="2" t="s">
-        <v>1977</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="199" spans="1:33">
@@ -22966,7 +22978,7 @@
         <v>0</v>
       </c>
       <c r="AB199" s="3" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
       <c r="AC199" t="s">
         <v>108</v>
@@ -22975,13 +22987,13 @@
         <v>108</v>
       </c>
       <c r="AE199" t="s">
-        <v>1634</v>
+        <v>1638</v>
       </c>
       <c r="AF199" t="s">
-        <v>1725</v>
+        <v>1729</v>
       </c>
       <c r="AG199" s="2" t="s">
-        <v>1978</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="200" spans="1:33">
@@ -23043,7 +23055,7 @@
         <v>0</v>
       </c>
       <c r="AB200" s="3" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="AC200" t="s">
         <v>108</v>
@@ -23052,13 +23064,13 @@
         <v>108</v>
       </c>
       <c r="AE200" t="s">
-        <v>1645</v>
+        <v>1649</v>
       </c>
       <c r="AF200" t="s">
-        <v>1736</v>
+        <v>1740</v>
       </c>
       <c r="AG200" s="2" t="s">
-        <v>1979</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="201" spans="1:33">
@@ -23120,22 +23132,22 @@
         <v>0</v>
       </c>
       <c r="AB201" s="3" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
       <c r="AC201" t="s">
         <v>108</v>
       </c>
       <c r="AD201" s="3" t="s">
-        <v>1578</v>
+        <v>1582</v>
       </c>
       <c r="AE201" t="s">
-        <v>1608</v>
+        <v>1612</v>
       </c>
       <c r="AF201" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="AG201" s="2" t="s">
-        <v>1980</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="202" spans="1:33">
@@ -23197,22 +23209,22 @@
         <v>0</v>
       </c>
       <c r="AB202" s="3" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
       <c r="AC202" t="s">
         <v>108</v>
       </c>
       <c r="AD202" s="3" t="s">
-        <v>1579</v>
+        <v>1583</v>
       </c>
       <c r="AE202" t="s">
-        <v>1608</v>
+        <v>1612</v>
       </c>
       <c r="AF202" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="AG202" s="2" t="s">
-        <v>1981</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="203" spans="1:33">
@@ -23274,7 +23286,7 @@
         <v>0</v>
       </c>
       <c r="AB203" s="3" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="AC203" t="s">
         <v>108</v>
@@ -23283,13 +23295,13 @@
         <v>108</v>
       </c>
       <c r="AE203" t="s">
-        <v>1646</v>
+        <v>1650</v>
       </c>
       <c r="AF203" t="s">
-        <v>1737</v>
+        <v>1741</v>
       </c>
       <c r="AG203" s="2" t="s">
-        <v>1982</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="204" spans="1:33">
@@ -23351,7 +23363,7 @@
         <v>0</v>
       </c>
       <c r="AB204" s="3" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="AC204" t="s">
         <v>108</v>
@@ -23360,13 +23372,13 @@
         <v>108</v>
       </c>
       <c r="AE204" t="s">
-        <v>1642</v>
+        <v>1646</v>
       </c>
       <c r="AF204" t="s">
-        <v>1733</v>
+        <v>1737</v>
       </c>
       <c r="AG204" s="2" t="s">
-        <v>1983</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="205" spans="1:33">
@@ -23428,7 +23440,7 @@
         <v>0</v>
       </c>
       <c r="AB205" s="3" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="AC205" t="s">
         <v>108</v>
@@ -23437,13 +23449,13 @@
         <v>108</v>
       </c>
       <c r="AE205" t="s">
-        <v>1647</v>
+        <v>1651</v>
       </c>
       <c r="AF205" t="s">
-        <v>1738</v>
+        <v>1742</v>
       </c>
       <c r="AG205" s="2" t="s">
-        <v>1984</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="206" spans="1:33">
@@ -23505,22 +23517,22 @@
         <v>0</v>
       </c>
       <c r="AB206" s="3" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="AC206" t="s">
         <v>108</v>
       </c>
       <c r="AD206" s="3" t="s">
-        <v>1580</v>
+        <v>1584</v>
       </c>
       <c r="AE206" t="s">
-        <v>1634</v>
+        <v>1638</v>
       </c>
       <c r="AF206" t="s">
-        <v>1725</v>
+        <v>1729</v>
       </c>
       <c r="AG206" s="2" t="s">
-        <v>1985</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="207" spans="1:33">
@@ -23582,7 +23594,7 @@
         <v>0</v>
       </c>
       <c r="AB207" s="3" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
       <c r="AC207" t="s">
         <v>108</v>
@@ -23591,13 +23603,13 @@
         <v>108</v>
       </c>
       <c r="AE207" t="s">
-        <v>1646</v>
+        <v>1650</v>
       </c>
       <c r="AF207" t="s">
-        <v>1737</v>
+        <v>1741</v>
       </c>
       <c r="AG207" s="2" t="s">
-        <v>1986</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="208" spans="1:33">
@@ -23659,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="AB208" s="3" t="s">
-        <v>1447</v>
+        <v>1448</v>
       </c>
       <c r="AC208" t="s">
         <v>108</v>
@@ -23668,13 +23680,13 @@
         <v>108</v>
       </c>
       <c r="AE208" t="s">
-        <v>1643</v>
+        <v>1647</v>
       </c>
       <c r="AF208" t="s">
-        <v>1734</v>
+        <v>1738</v>
       </c>
       <c r="AG208" s="2" t="s">
-        <v>1987</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="209" spans="1:33">
@@ -23736,7 +23748,7 @@
         <v>0</v>
       </c>
       <c r="AB209" s="3" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
       <c r="AC209" t="s">
         <v>108</v>
@@ -23745,13 +23757,13 @@
         <v>108</v>
       </c>
       <c r="AE209" t="s">
-        <v>1642</v>
+        <v>1646</v>
       </c>
       <c r="AF209" t="s">
-        <v>1733</v>
+        <v>1737</v>
       </c>
       <c r="AG209" s="2" t="s">
-        <v>1988</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="210" spans="1:33">
@@ -23813,22 +23825,22 @@
         <v>0</v>
       </c>
       <c r="AB210" s="3" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
       <c r="AC210" t="s">
         <v>108</v>
       </c>
       <c r="AD210" s="3" t="s">
-        <v>1581</v>
+        <v>1585</v>
       </c>
       <c r="AE210" t="s">
-        <v>1648</v>
+        <v>1652</v>
       </c>
       <c r="AF210" t="s">
-        <v>1739</v>
+        <v>1743</v>
       </c>
       <c r="AG210" s="2" t="s">
-        <v>1989</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="211" spans="1:33">
@@ -23890,22 +23902,22 @@
         <v>0</v>
       </c>
       <c r="AB211" s="3" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="AC211" t="s">
         <v>108</v>
       </c>
       <c r="AD211" s="3" t="s">
-        <v>1582</v>
+        <v>1586</v>
       </c>
       <c r="AE211" t="s">
-        <v>1649</v>
+        <v>1653</v>
       </c>
       <c r="AF211" t="s">
-        <v>1740</v>
+        <v>1744</v>
       </c>
       <c r="AG211" s="2" t="s">
-        <v>1990</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="212" spans="1:33">
@@ -23967,22 +23979,22 @@
         <v>0</v>
       </c>
       <c r="AB212" s="3" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="AC212" t="s">
         <v>108</v>
       </c>
       <c r="AD212" s="3" t="s">
-        <v>1583</v>
+        <v>1587</v>
       </c>
       <c r="AE212" t="s">
-        <v>1649</v>
+        <v>1653</v>
       </c>
       <c r="AF212" t="s">
-        <v>1740</v>
+        <v>1744</v>
       </c>
       <c r="AG212" s="2" t="s">
-        <v>1991</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="213" spans="1:33">
@@ -24044,22 +24056,22 @@
         <v>0</v>
       </c>
       <c r="AB213" s="3" t="s">
-        <v>1451</v>
+        <v>1452</v>
       </c>
       <c r="AC213" t="s">
         <v>108</v>
       </c>
       <c r="AD213" s="3" t="s">
-        <v>1584</v>
+        <v>1588</v>
       </c>
       <c r="AE213" t="s">
-        <v>1650</v>
+        <v>1654</v>
       </c>
       <c r="AF213" t="s">
-        <v>1741</v>
+        <v>1745</v>
       </c>
       <c r="AG213" s="2" t="s">
-        <v>1992</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="214" spans="1:33">
@@ -24121,22 +24133,22 @@
         <v>0</v>
       </c>
       <c r="AB214" s="3" t="s">
-        <v>1451</v>
+        <v>1452</v>
       </c>
       <c r="AC214" t="s">
         <v>108</v>
       </c>
       <c r="AD214" s="3" t="s">
-        <v>1585</v>
+        <v>1589</v>
       </c>
       <c r="AE214" t="s">
-        <v>1650</v>
+        <v>1654</v>
       </c>
       <c r="AF214" t="s">
-        <v>1741</v>
+        <v>1745</v>
       </c>
       <c r="AG214" s="2" t="s">
-        <v>1993</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="215" spans="1:33">
@@ -24198,22 +24210,22 @@
         <v>0</v>
       </c>
       <c r="AB215" s="3" t="s">
-        <v>1451</v>
+        <v>1452</v>
       </c>
       <c r="AC215" t="s">
         <v>108</v>
       </c>
       <c r="AD215" s="3" t="s">
-        <v>1586</v>
+        <v>1590</v>
       </c>
       <c r="AE215" t="s">
-        <v>1650</v>
+        <v>1654</v>
       </c>
       <c r="AF215" t="s">
-        <v>1741</v>
+        <v>1745</v>
       </c>
       <c r="AG215" s="2" t="s">
-        <v>1994</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="216" spans="1:33">
@@ -24275,22 +24287,22 @@
         <v>0</v>
       </c>
       <c r="AB216" s="3" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
       <c r="AC216" t="s">
         <v>108</v>
       </c>
       <c r="AD216" s="3" t="s">
-        <v>1587</v>
+        <v>1591</v>
       </c>
       <c r="AE216" t="s">
-        <v>1608</v>
+        <v>1612</v>
       </c>
       <c r="AF216" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="AG216" s="2" t="s">
-        <v>1995</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="217" spans="1:33">
@@ -24352,22 +24364,22 @@
         <v>0</v>
       </c>
       <c r="AB217" s="3" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
       <c r="AC217" t="s">
         <v>108</v>
       </c>
       <c r="AD217" s="3" t="s">
-        <v>1588</v>
+        <v>1592</v>
       </c>
       <c r="AE217" t="s">
-        <v>1608</v>
+        <v>1612</v>
       </c>
       <c r="AF217" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="AG217" s="2" t="s">
-        <v>1996</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="218" spans="1:33">
@@ -24429,7 +24441,7 @@
         <v>0</v>
       </c>
       <c r="AB218" s="3" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="AC218" t="s">
         <v>108</v>
@@ -24438,13 +24450,13 @@
         <v>108</v>
       </c>
       <c r="AE218" t="s">
-        <v>1601</v>
+        <v>1605</v>
       </c>
       <c r="AF218" t="s">
-        <v>1692</v>
+        <v>1696</v>
       </c>
       <c r="AG218" s="2" t="s">
-        <v>1997</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="219" spans="1:33">
@@ -24506,7 +24518,7 @@
         <v>0</v>
       </c>
       <c r="AB219" s="3" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
       <c r="AC219" t="s">
         <v>108</v>
@@ -24515,13 +24527,13 @@
         <v>108</v>
       </c>
       <c r="AE219" t="s">
-        <v>1602</v>
+        <v>1606</v>
       </c>
       <c r="AF219" t="s">
-        <v>1693</v>
+        <v>1697</v>
       </c>
       <c r="AG219" s="2" t="s">
-        <v>1998</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="220" spans="1:33">
@@ -24583,7 +24595,7 @@
         <v>0</v>
       </c>
       <c r="AB220" s="3" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
       <c r="AC220" t="s">
         <v>108</v>
@@ -24592,13 +24604,13 @@
         <v>108</v>
       </c>
       <c r="AE220" t="s">
-        <v>1651</v>
+        <v>1655</v>
       </c>
       <c r="AF220" t="s">
-        <v>1742</v>
+        <v>1746</v>
       </c>
       <c r="AG220" s="2" t="s">
-        <v>1999</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="221" spans="1:33">
@@ -24660,7 +24672,7 @@
         <v>0</v>
       </c>
       <c r="AB221" s="3" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="AC221" t="s">
         <v>108</v>
@@ -24669,13 +24681,13 @@
         <v>108</v>
       </c>
       <c r="AE221" t="s">
-        <v>1603</v>
+        <v>1607</v>
       </c>
       <c r="AF221" t="s">
-        <v>1694</v>
+        <v>1698</v>
       </c>
       <c r="AG221" s="2" t="s">
-        <v>2000</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="222" spans="1:33">
@@ -24737,7 +24749,7 @@
         <v>0</v>
       </c>
       <c r="AB222" s="3" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
       <c r="AC222" t="s">
         <v>108</v>
@@ -24746,13 +24758,13 @@
         <v>108</v>
       </c>
       <c r="AE222" t="s">
-        <v>1651</v>
+        <v>1655</v>
       </c>
       <c r="AF222" t="s">
-        <v>1742</v>
+        <v>1746</v>
       </c>
       <c r="AG222" s="2" t="s">
-        <v>2001</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="223" spans="1:33">
@@ -24814,7 +24826,7 @@
         <v>0</v>
       </c>
       <c r="AB223" s="3" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="AC223" t="s">
         <v>108</v>
@@ -24823,13 +24835,13 @@
         <v>108</v>
       </c>
       <c r="AE223" t="s">
-        <v>1652</v>
+        <v>1656</v>
       </c>
       <c r="AF223" t="s">
-        <v>1743</v>
+        <v>1747</v>
       </c>
       <c r="AG223" s="2" t="s">
-        <v>2002</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="224" spans="1:33">
@@ -24891,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="AB224" s="3" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
       <c r="AC224" t="s">
         <v>108</v>
@@ -24900,13 +24912,13 @@
         <v>108</v>
       </c>
       <c r="AE224" t="s">
-        <v>1602</v>
+        <v>1606</v>
       </c>
       <c r="AF224" t="s">
-        <v>1693</v>
+        <v>1697</v>
       </c>
       <c r="AG224" s="2" t="s">
-        <v>2003</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="225" spans="1:33">
@@ -24968,7 +24980,7 @@
         <v>0</v>
       </c>
       <c r="AB225" s="3" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="AC225" t="s">
         <v>108</v>
@@ -24977,13 +24989,13 @@
         <v>108</v>
       </c>
       <c r="AE225" t="s">
-        <v>1653</v>
+        <v>1657</v>
       </c>
       <c r="AF225" t="s">
-        <v>1744</v>
+        <v>1748</v>
       </c>
       <c r="AG225" s="2" t="s">
-        <v>2004</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="226" spans="1:33">
@@ -25045,7 +25057,7 @@
         <v>0</v>
       </c>
       <c r="AB226" s="3" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="AC226" t="s">
         <v>108</v>
@@ -25054,13 +25066,13 @@
         <v>108</v>
       </c>
       <c r="AE226" t="s">
-        <v>1654</v>
+        <v>1658</v>
       </c>
       <c r="AF226" t="s">
-        <v>1745</v>
+        <v>1749</v>
       </c>
       <c r="AG226" s="2" t="s">
-        <v>2005</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="227" spans="1:33">
@@ -25122,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="AB227" s="3" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="AC227" t="s">
         <v>108</v>
@@ -25131,13 +25143,13 @@
         <v>108</v>
       </c>
       <c r="AE227" t="s">
-        <v>1655</v>
+        <v>1659</v>
       </c>
       <c r="AF227" t="s">
-        <v>1746</v>
+        <v>1750</v>
       </c>
       <c r="AG227" s="2" t="s">
-        <v>2006</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="228" spans="1:33">
@@ -25199,7 +25211,7 @@
         <v>0</v>
       </c>
       <c r="AB228" s="3" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="AC228" t="s">
         <v>108</v>
@@ -25208,13 +25220,13 @@
         <v>108</v>
       </c>
       <c r="AE228" t="s">
-        <v>1656</v>
+        <v>1660</v>
       </c>
       <c r="AF228" t="s">
-        <v>1747</v>
+        <v>1751</v>
       </c>
       <c r="AG228" s="2" t="s">
-        <v>2007</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="229" spans="1:33">
@@ -25279,7 +25291,7 @@
         <v>0</v>
       </c>
       <c r="AB229" s="3" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="AC229" t="s">
         <v>108</v>
@@ -25288,13 +25300,13 @@
         <v>108</v>
       </c>
       <c r="AE229" t="s">
-        <v>1646</v>
+        <v>1650</v>
       </c>
       <c r="AF229" t="s">
-        <v>1737</v>
+        <v>1741</v>
       </c>
       <c r="AG229" s="2" t="s">
-        <v>2008</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="230" spans="1:33">
@@ -25356,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="AB230" s="3" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="AC230" t="s">
         <v>108</v>
@@ -25365,13 +25377,13 @@
         <v>108</v>
       </c>
       <c r="AE230" t="s">
-        <v>1657</v>
+        <v>1661</v>
       </c>
       <c r="AF230" t="s">
-        <v>1748</v>
+        <v>1752</v>
       </c>
       <c r="AG230" s="2" t="s">
-        <v>2009</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="231" spans="1:33">
@@ -25433,7 +25445,7 @@
         <v>0</v>
       </c>
       <c r="AB231" s="3" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="AC231" t="s">
         <v>108</v>
@@ -25442,13 +25454,13 @@
         <v>108</v>
       </c>
       <c r="AE231" t="s">
-        <v>1658</v>
+        <v>1662</v>
       </c>
       <c r="AF231" t="s">
-        <v>1749</v>
+        <v>1753</v>
       </c>
       <c r="AG231" s="2" t="s">
-        <v>2010</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="232" spans="1:33">
@@ -25510,7 +25522,7 @@
         <v>0</v>
       </c>
       <c r="AB232" s="3" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="AC232" t="s">
         <v>108</v>
@@ -25519,13 +25531,13 @@
         <v>108</v>
       </c>
       <c r="AE232" t="s">
-        <v>1658</v>
+        <v>1662</v>
       </c>
       <c r="AF232" t="s">
-        <v>1749</v>
+        <v>1753</v>
       </c>
       <c r="AG232" s="2" t="s">
-        <v>2011</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="233" spans="1:33">
@@ -25587,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="AB233" s="3" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
       <c r="AC233" t="s">
         <v>108</v>
@@ -25596,13 +25608,13 @@
         <v>108</v>
       </c>
       <c r="AE233" t="s">
-        <v>1658</v>
+        <v>1662</v>
       </c>
       <c r="AF233" t="s">
-        <v>1749</v>
+        <v>1753</v>
       </c>
       <c r="AG233" s="2" t="s">
-        <v>2012</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="234" spans="1:33">
@@ -25664,7 +25676,7 @@
         <v>0</v>
       </c>
       <c r="AB234" s="3" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="AC234" t="s">
         <v>108</v>
@@ -25673,13 +25685,13 @@
         <v>108</v>
       </c>
       <c r="AE234" t="s">
-        <v>1658</v>
+        <v>1662</v>
       </c>
       <c r="AF234" t="s">
-        <v>1749</v>
+        <v>1753</v>
       </c>
       <c r="AG234" s="2" t="s">
-        <v>2013</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="235" spans="1:33">
@@ -25741,7 +25753,7 @@
         <v>0</v>
       </c>
       <c r="AB235" s="3" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="AC235" t="s">
         <v>108</v>
@@ -25750,13 +25762,13 @@
         <v>108</v>
       </c>
       <c r="AE235" t="s">
-        <v>1656</v>
+        <v>1660</v>
       </c>
       <c r="AF235" t="s">
-        <v>1747</v>
+        <v>1751</v>
       </c>
       <c r="AG235" s="2" t="s">
-        <v>2014</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="236" spans="1:33">
@@ -25818,7 +25830,7 @@
         <v>0</v>
       </c>
       <c r="AB236" s="3" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
       <c r="AC236" t="s">
         <v>108</v>
@@ -25827,13 +25839,13 @@
         <v>108</v>
       </c>
       <c r="AE236" t="s">
-        <v>1608</v>
+        <v>1612</v>
       </c>
       <c r="AF236" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="AG236" s="2" t="s">
-        <v>2015</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="237" spans="1:33">
@@ -25895,7 +25907,7 @@
         <v>0</v>
       </c>
       <c r="AB237" s="3" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="AC237" t="s">
         <v>108</v>
@@ -25904,13 +25916,13 @@
         <v>108</v>
       </c>
       <c r="AE237" t="s">
-        <v>1659</v>
+        <v>1663</v>
       </c>
       <c r="AF237" t="s">
-        <v>1750</v>
+        <v>1754</v>
       </c>
       <c r="AG237" s="2" t="s">
-        <v>2016</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="238" spans="1:33">
@@ -25972,7 +25984,7 @@
         <v>0</v>
       </c>
       <c r="AB238" s="3" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
       <c r="AC238" t="s">
         <v>108</v>
@@ -25981,13 +25993,13 @@
         <v>108</v>
       </c>
       <c r="AE238" t="s">
-        <v>1659</v>
+        <v>1663</v>
       </c>
       <c r="AF238" t="s">
-        <v>1750</v>
+        <v>1754</v>
       </c>
       <c r="AG238" s="2" t="s">
-        <v>2017</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="239" spans="1:33">
@@ -26049,7 +26061,7 @@
         <v>0</v>
       </c>
       <c r="AB239" s="3" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="AC239" t="s">
         <v>108</v>
@@ -26058,13 +26070,13 @@
         <v>108</v>
       </c>
       <c r="AE239" t="s">
-        <v>1656</v>
+        <v>1660</v>
       </c>
       <c r="AF239" t="s">
-        <v>1747</v>
+        <v>1751</v>
       </c>
       <c r="AG239" s="2" t="s">
-        <v>2018</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="240" spans="1:33">
@@ -26126,7 +26138,7 @@
         <v>0</v>
       </c>
       <c r="AB240" s="3" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="AC240" t="s">
         <v>108</v>
@@ -26135,13 +26147,13 @@
         <v>108</v>
       </c>
       <c r="AE240" t="s">
-        <v>1656</v>
+        <v>1660</v>
       </c>
       <c r="AF240" t="s">
-        <v>1747</v>
+        <v>1751</v>
       </c>
       <c r="AG240" s="2" t="s">
-        <v>2019</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="241" spans="1:33">
@@ -26203,7 +26215,7 @@
         <v>0</v>
       </c>
       <c r="AB241" s="3" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
       <c r="AC241" t="s">
         <v>108</v>
@@ -26212,13 +26224,13 @@
         <v>108</v>
       </c>
       <c r="AE241" t="s">
-        <v>1660</v>
+        <v>1664</v>
       </c>
       <c r="AF241" t="s">
-        <v>1751</v>
+        <v>1755</v>
       </c>
       <c r="AG241" s="2" t="s">
-        <v>2020</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="242" spans="1:33">
@@ -26280,7 +26292,7 @@
         <v>0</v>
       </c>
       <c r="AB242" s="3" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
       <c r="AC242" t="s">
         <v>108</v>
@@ -26289,13 +26301,13 @@
         <v>108</v>
       </c>
       <c r="AE242" t="s">
-        <v>1661</v>
+        <v>1665</v>
       </c>
       <c r="AF242" t="s">
-        <v>1752</v>
+        <v>1756</v>
       </c>
       <c r="AG242" s="2" t="s">
-        <v>2021</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="243" spans="1:33">
@@ -26357,7 +26369,7 @@
         <v>0</v>
       </c>
       <c r="AB243" s="3" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
       <c r="AC243" t="s">
         <v>108</v>
@@ -26366,13 +26378,13 @@
         <v>108</v>
       </c>
       <c r="AE243" t="s">
-        <v>1660</v>
+        <v>1664</v>
       </c>
       <c r="AF243" t="s">
-        <v>1751</v>
+        <v>1755</v>
       </c>
       <c r="AG243" s="2" t="s">
-        <v>2022</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="244" spans="1:33">
@@ -26434,7 +26446,7 @@
         <v>0</v>
       </c>
       <c r="AB244" s="3" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="AC244" t="s">
         <v>108</v>
@@ -26443,13 +26455,13 @@
         <v>108</v>
       </c>
       <c r="AE244" t="s">
-        <v>1659</v>
+        <v>1663</v>
       </c>
       <c r="AF244" t="s">
-        <v>1750</v>
+        <v>1754</v>
       </c>
       <c r="AG244" s="2" t="s">
-        <v>2023</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="245" spans="1:33">
@@ -26511,7 +26523,7 @@
         <v>0</v>
       </c>
       <c r="AB245" s="3" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
       <c r="AC245" t="s">
         <v>108</v>
@@ -26520,13 +26532,13 @@
         <v>108</v>
       </c>
       <c r="AE245" t="s">
-        <v>1646</v>
+        <v>1650</v>
       </c>
       <c r="AF245" t="s">
-        <v>1737</v>
+        <v>1741</v>
       </c>
       <c r="AG245" s="2" t="s">
-        <v>2024</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="246" spans="1:33">
@@ -26588,7 +26600,7 @@
         <v>0</v>
       </c>
       <c r="AB246" s="3" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
       <c r="AC246" t="s">
         <v>108</v>
@@ -26597,13 +26609,13 @@
         <v>108</v>
       </c>
       <c r="AE246" t="s">
-        <v>1656</v>
+        <v>1660</v>
       </c>
       <c r="AF246" t="s">
-        <v>1747</v>
+        <v>1751</v>
       </c>
       <c r="AG246" s="2" t="s">
-        <v>2025</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="247" spans="1:33">
@@ -26665,7 +26677,7 @@
         <v>0</v>
       </c>
       <c r="AB247" s="3" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
       <c r="AC247" t="s">
         <v>108</v>
@@ -26674,13 +26686,13 @@
         <v>108</v>
       </c>
       <c r="AE247" t="s">
-        <v>1661</v>
+        <v>1665</v>
       </c>
       <c r="AF247" t="s">
-        <v>1752</v>
+        <v>1756</v>
       </c>
       <c r="AG247" s="2" t="s">
-        <v>2026</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="248" spans="1:33">
@@ -26742,7 +26754,7 @@
         <v>0</v>
       </c>
       <c r="AB248" s="3" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
       <c r="AC248" t="s">
         <v>108</v>
@@ -26751,13 +26763,13 @@
         <v>108</v>
       </c>
       <c r="AE248" t="s">
-        <v>1662</v>
+        <v>1666</v>
       </c>
       <c r="AF248" t="s">
-        <v>1753</v>
+        <v>1757</v>
       </c>
       <c r="AG248" s="2" t="s">
-        <v>2027</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="249" spans="1:33">
@@ -26819,7 +26831,7 @@
         <v>0</v>
       </c>
       <c r="AB249" s="3" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
       <c r="AC249" t="s">
         <v>108</v>
@@ -26828,13 +26840,13 @@
         <v>108</v>
       </c>
       <c r="AE249" t="s">
-        <v>1662</v>
+        <v>1666</v>
       </c>
       <c r="AF249" t="s">
-        <v>1753</v>
+        <v>1757</v>
       </c>
       <c r="AG249" s="2" t="s">
-        <v>2028</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="250" spans="1:33">
@@ -26896,7 +26908,7 @@
         <v>0</v>
       </c>
       <c r="AB250" s="3" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="AC250" t="s">
         <v>108</v>
@@ -26905,13 +26917,13 @@
         <v>108</v>
       </c>
       <c r="AE250" t="s">
-        <v>1662</v>
+        <v>1666</v>
       </c>
       <c r="AF250" t="s">
-        <v>1753</v>
+        <v>1757</v>
       </c>
       <c r="AG250" s="2" t="s">
-        <v>2029</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="251" spans="1:33">
@@ -26973,7 +26985,7 @@
         <v>0</v>
       </c>
       <c r="AB251" s="3" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="AC251" t="s">
         <v>108</v>
@@ -26982,13 +26994,13 @@
         <v>108</v>
       </c>
       <c r="AE251" t="s">
-        <v>1662</v>
+        <v>1666</v>
       </c>
       <c r="AF251" t="s">
-        <v>1753</v>
+        <v>1757</v>
       </c>
       <c r="AG251" s="2" t="s">
-        <v>2030</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="252" spans="1:33">
@@ -27050,7 +27062,7 @@
         <v>0</v>
       </c>
       <c r="AB252" s="3" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
       <c r="AC252" t="s">
         <v>108</v>
@@ -27059,13 +27071,13 @@
         <v>108</v>
       </c>
       <c r="AE252" t="s">
-        <v>1663</v>
+        <v>1667</v>
       </c>
       <c r="AF252" t="s">
-        <v>1754</v>
+        <v>1758</v>
       </c>
       <c r="AG252" s="2" t="s">
-        <v>2031</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="253" spans="1:33">
@@ -27127,7 +27139,7 @@
         <v>0</v>
       </c>
       <c r="AB253" s="3" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
       <c r="AC253" t="s">
         <v>108</v>
@@ -27136,13 +27148,13 @@
         <v>108</v>
       </c>
       <c r="AE253" t="s">
-        <v>1664</v>
+        <v>1668</v>
       </c>
       <c r="AF253" t="s">
-        <v>1755</v>
+        <v>1759</v>
       </c>
       <c r="AG253" s="2" t="s">
-        <v>2032</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="254" spans="1:33">
@@ -27204,7 +27216,7 @@
         <v>0</v>
       </c>
       <c r="AB254" s="3" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
       <c r="AC254" t="s">
         <v>108</v>
@@ -27213,13 +27225,13 @@
         <v>108</v>
       </c>
       <c r="AE254" t="s">
-        <v>1664</v>
+        <v>1668</v>
       </c>
       <c r="AF254" t="s">
-        <v>1755</v>
+        <v>1759</v>
       </c>
       <c r="AG254" s="2" t="s">
-        <v>2033</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="255" spans="1:33">
@@ -27281,7 +27293,7 @@
         <v>0</v>
       </c>
       <c r="AB255" s="3" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
       <c r="AC255" t="s">
         <v>108</v>
@@ -27290,13 +27302,13 @@
         <v>108</v>
       </c>
       <c r="AE255" t="s">
-        <v>1665</v>
+        <v>1669</v>
       </c>
       <c r="AF255" t="s">
-        <v>1756</v>
+        <v>1760</v>
       </c>
       <c r="AG255" s="2" t="s">
-        <v>2034</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="256" spans="1:33">
@@ -27358,7 +27370,7 @@
         <v>0</v>
       </c>
       <c r="AB256" s="3" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
       <c r="AC256" t="s">
         <v>108</v>
@@ -27367,13 +27379,13 @@
         <v>108</v>
       </c>
       <c r="AE256" t="s">
-        <v>1662</v>
+        <v>1666</v>
       </c>
       <c r="AF256" t="s">
-        <v>1753</v>
+        <v>1757</v>
       </c>
       <c r="AG256" s="2" t="s">
-        <v>2035</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="257" spans="1:33">
@@ -27435,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="AB257" s="3" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="AC257" t="s">
         <v>108</v>
@@ -27444,13 +27456,13 @@
         <v>108</v>
       </c>
       <c r="AE257" t="s">
-        <v>1656</v>
+        <v>1660</v>
       </c>
       <c r="AF257" t="s">
-        <v>1747</v>
+        <v>1751</v>
       </c>
       <c r="AG257" s="2" t="s">
-        <v>2036</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="258" spans="1:33">
@@ -27512,7 +27524,7 @@
         <v>0</v>
       </c>
       <c r="AB258" s="3" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
       <c r="AC258" t="s">
         <v>108</v>
@@ -27521,13 +27533,13 @@
         <v>108</v>
       </c>
       <c r="AE258" t="s">
-        <v>1604</v>
+        <v>1608</v>
       </c>
       <c r="AF258" t="s">
-        <v>1695</v>
+        <v>1699</v>
       </c>
       <c r="AG258" s="2" t="s">
-        <v>2037</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="259" spans="1:33">
@@ -27589,7 +27601,7 @@
         <v>0</v>
       </c>
       <c r="AB259" s="3" t="s">
-        <v>1489</v>
+        <v>1490</v>
       </c>
       <c r="AC259" t="s">
         <v>108</v>
@@ -27598,13 +27610,13 @@
         <v>108</v>
       </c>
       <c r="AE259" t="s">
-        <v>1637</v>
+        <v>1641</v>
       </c>
       <c r="AF259" t="s">
-        <v>1728</v>
+        <v>1732</v>
       </c>
       <c r="AG259" s="2" t="s">
-        <v>2038</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="260" spans="1:33">
@@ -27666,7 +27678,7 @@
         <v>0</v>
       </c>
       <c r="AB260" s="3" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="AC260" t="s">
         <v>108</v>
@@ -27675,13 +27687,13 @@
         <v>108</v>
       </c>
       <c r="AE260" t="s">
-        <v>1666</v>
+        <v>1670</v>
       </c>
       <c r="AF260" t="s">
-        <v>1757</v>
+        <v>1761</v>
       </c>
       <c r="AG260" s="2" t="s">
-        <v>2039</v>
+        <v>2043</v>
       </c>
     </row>
     <row r="261" spans="1:33">
@@ -27743,22 +27755,22 @@
         <v>0</v>
       </c>
       <c r="AB261" s="3" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
       <c r="AC261" t="s">
         <v>108</v>
       </c>
       <c r="AD261" s="3" t="s">
-        <v>1589</v>
+        <v>1593</v>
       </c>
       <c r="AE261" t="s">
-        <v>1667</v>
+        <v>1671</v>
       </c>
       <c r="AF261" t="s">
-        <v>1758</v>
+        <v>1762</v>
       </c>
       <c r="AG261" s="2" t="s">
-        <v>2040</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="262" spans="1:33">
@@ -27820,22 +27832,22 @@
         <v>0</v>
       </c>
       <c r="AB262" s="3" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
       <c r="AC262" t="s">
         <v>108</v>
       </c>
       <c r="AD262" s="3" t="s">
-        <v>1590</v>
+        <v>1594</v>
       </c>
       <c r="AE262" t="s">
-        <v>1667</v>
+        <v>1671</v>
       </c>
       <c r="AF262" t="s">
-        <v>1758</v>
+        <v>1762</v>
       </c>
       <c r="AG262" s="2" t="s">
-        <v>2041</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="263" spans="1:33">
@@ -27897,22 +27909,22 @@
         <v>0</v>
       </c>
       <c r="AB263" s="3" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
       <c r="AC263" t="s">
         <v>108</v>
       </c>
       <c r="AD263" s="3" t="s">
-        <v>1591</v>
+        <v>1595</v>
       </c>
       <c r="AE263" t="s">
-        <v>1667</v>
+        <v>1671</v>
       </c>
       <c r="AF263" t="s">
-        <v>1758</v>
+        <v>1762</v>
       </c>
       <c r="AG263" s="2" t="s">
-        <v>2042</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="264" spans="1:33">
@@ -27974,22 +27986,22 @@
         <v>0</v>
       </c>
       <c r="AB264" s="3" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
       <c r="AC264" t="s">
         <v>108</v>
       </c>
       <c r="AD264" s="3" t="s">
-        <v>1592</v>
+        <v>1596</v>
       </c>
       <c r="AE264" t="s">
-        <v>1667</v>
+        <v>1671</v>
       </c>
       <c r="AF264" t="s">
-        <v>1758</v>
+        <v>1762</v>
       </c>
       <c r="AG264" s="2" t="s">
-        <v>2043</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="265" spans="1:33">
@@ -28051,22 +28063,22 @@
         <v>0</v>
       </c>
       <c r="AB265" s="3" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
       <c r="AC265" t="s">
         <v>108</v>
       </c>
       <c r="AD265" s="3" t="s">
-        <v>1593</v>
+        <v>1597</v>
       </c>
       <c r="AE265" t="s">
-        <v>1667</v>
+        <v>1671</v>
       </c>
       <c r="AF265" t="s">
-        <v>1758</v>
+        <v>1762</v>
       </c>
       <c r="AG265" s="2" t="s">
-        <v>2044</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="266" spans="1:33">
@@ -28128,7 +28140,7 @@
         <v>0</v>
       </c>
       <c r="AB266" s="3" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
       <c r="AC266" t="s">
         <v>108</v>
@@ -28137,13 +28149,13 @@
         <v>108</v>
       </c>
       <c r="AE266" t="s">
-        <v>1668</v>
+        <v>1672</v>
       </c>
       <c r="AF266" t="s">
-        <v>1759</v>
+        <v>1763</v>
       </c>
       <c r="AG266" s="2" t="s">
-        <v>2045</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="267" spans="1:33">
@@ -28205,7 +28217,7 @@
         <v>0</v>
       </c>
       <c r="AB267" s="3" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
       <c r="AC267" t="s">
         <v>108</v>
@@ -28214,13 +28226,13 @@
         <v>108</v>
       </c>
       <c r="AE267" t="s">
-        <v>1604</v>
+        <v>1608</v>
       </c>
       <c r="AF267" t="s">
-        <v>1695</v>
+        <v>1699</v>
       </c>
       <c r="AG267" s="2" t="s">
-        <v>2046</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="268" spans="1:33">
@@ -28285,7 +28297,7 @@
         <v>0</v>
       </c>
       <c r="AB268" s="3" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
       <c r="AC268" t="s">
         <v>108</v>
@@ -28294,13 +28306,13 @@
         <v>108</v>
       </c>
       <c r="AE268" t="s">
-        <v>1604</v>
+        <v>1608</v>
       </c>
       <c r="AF268" t="s">
-        <v>1695</v>
+        <v>1699</v>
       </c>
       <c r="AG268" s="2" t="s">
-        <v>2047</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="269" spans="1:33">
@@ -28365,7 +28377,7 @@
         <v>0</v>
       </c>
       <c r="AB269" s="3" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
       <c r="AC269" t="s">
         <v>108</v>
@@ -28374,13 +28386,13 @@
         <v>108</v>
       </c>
       <c r="AE269" t="s">
-        <v>1669</v>
+        <v>1673</v>
       </c>
       <c r="AF269" t="s">
-        <v>1760</v>
+        <v>1764</v>
       </c>
       <c r="AG269" s="2" t="s">
-        <v>2048</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="270" spans="1:33">
@@ -28442,7 +28454,7 @@
         <v>0</v>
       </c>
       <c r="AB270" s="3" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
       <c r="AC270" t="s">
         <v>108</v>
@@ -28451,13 +28463,13 @@
         <v>108</v>
       </c>
       <c r="AE270" t="s">
-        <v>1669</v>
+        <v>1673</v>
       </c>
       <c r="AF270" t="s">
-        <v>1760</v>
+        <v>1764</v>
       </c>
       <c r="AG270" s="2" t="s">
-        <v>2049</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="271" spans="1:33">
@@ -28519,7 +28531,7 @@
         <v>0</v>
       </c>
       <c r="AB271" s="3" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="AC271" t="s">
         <v>108</v>
@@ -28528,13 +28540,13 @@
         <v>108</v>
       </c>
       <c r="AE271" t="s">
-        <v>1604</v>
+        <v>1608</v>
       </c>
       <c r="AF271" t="s">
-        <v>1695</v>
+        <v>1699</v>
       </c>
       <c r="AG271" s="2" t="s">
-        <v>2050</v>
+        <v>2054</v>
       </c>
     </row>
     <row r="272" spans="1:33">
@@ -28596,7 +28608,7 @@
         <v>0</v>
       </c>
       <c r="AB272" s="3" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
       <c r="AC272" t="s">
         <v>108</v>
@@ -28605,13 +28617,13 @@
         <v>108</v>
       </c>
       <c r="AE272" t="s">
-        <v>1604</v>
+        <v>1608</v>
       </c>
       <c r="AF272" t="s">
-        <v>1695</v>
+        <v>1699</v>
       </c>
       <c r="AG272" s="2" t="s">
-        <v>2051</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="273" spans="1:33">
@@ -28673,7 +28685,7 @@
         <v>0</v>
       </c>
       <c r="AB273" s="3" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
       <c r="AC273" t="s">
         <v>108</v>
@@ -28682,13 +28694,13 @@
         <v>108</v>
       </c>
       <c r="AE273" t="s">
-        <v>1604</v>
+        <v>1608</v>
       </c>
       <c r="AF273" t="s">
-        <v>1695</v>
+        <v>1699</v>
       </c>
       <c r="AG273" s="2" t="s">
-        <v>2052</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="274" spans="1:33">
@@ -28750,7 +28762,7 @@
         <v>0</v>
       </c>
       <c r="AB274" s="3" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="AC274" t="s">
         <v>108</v>
@@ -28759,13 +28771,13 @@
         <v>108</v>
       </c>
       <c r="AE274" t="s">
-        <v>1670</v>
+        <v>1674</v>
       </c>
       <c r="AF274" t="s">
-        <v>1761</v>
+        <v>1765</v>
       </c>
       <c r="AG274" s="2" t="s">
-        <v>2053</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="275" spans="1:33">
@@ -28827,7 +28839,7 @@
         <v>0</v>
       </c>
       <c r="AB275" s="3" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="AC275" t="s">
         <v>108</v>
@@ -28836,13 +28848,13 @@
         <v>108</v>
       </c>
       <c r="AE275" t="s">
-        <v>1671</v>
+        <v>1675</v>
       </c>
       <c r="AF275" t="s">
-        <v>1762</v>
+        <v>1766</v>
       </c>
       <c r="AG275" s="2" t="s">
-        <v>2054</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="276" spans="1:33">
@@ -28904,7 +28916,7 @@
         <v>0</v>
       </c>
       <c r="AB276" s="3" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="AC276" t="s">
         <v>108</v>
@@ -28913,13 +28925,13 @@
         <v>108</v>
       </c>
       <c r="AE276" t="s">
-        <v>1604</v>
+        <v>1608</v>
       </c>
       <c r="AF276" t="s">
-        <v>1695</v>
+        <v>1699</v>
       </c>
       <c r="AG276" s="2" t="s">
-        <v>2055</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="277" spans="1:33">
@@ -28981,7 +28993,7 @@
         <v>0</v>
       </c>
       <c r="AB277" s="3" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="AC277" t="s">
         <v>108</v>
@@ -28990,13 +29002,13 @@
         <v>108</v>
       </c>
       <c r="AE277" t="s">
-        <v>1672</v>
+        <v>1676</v>
       </c>
       <c r="AF277" t="s">
-        <v>1763</v>
+        <v>1767</v>
       </c>
       <c r="AG277" s="2" t="s">
-        <v>2056</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="278" spans="1:33">
@@ -29058,7 +29070,7 @@
         <v>0</v>
       </c>
       <c r="AB278" s="3" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="AC278" t="s">
         <v>108</v>
@@ -29067,13 +29079,13 @@
         <v>108</v>
       </c>
       <c r="AE278" t="s">
-        <v>1637</v>
+        <v>1641</v>
       </c>
       <c r="AF278" t="s">
-        <v>1728</v>
+        <v>1732</v>
       </c>
       <c r="AG278" s="2" t="s">
-        <v>2057</v>
+        <v>2061</v>
       </c>
     </row>
     <row r="279" spans="1:33">
@@ -29135,22 +29147,22 @@
         <v>0</v>
       </c>
       <c r="AB279" s="3" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="AC279" t="s">
         <v>108</v>
       </c>
       <c r="AD279" s="3" t="s">
-        <v>1594</v>
+        <v>1598</v>
       </c>
       <c r="AE279" t="s">
-        <v>1637</v>
+        <v>1641</v>
       </c>
       <c r="AF279" t="s">
-        <v>1728</v>
+        <v>1732</v>
       </c>
       <c r="AG279" s="2" t="s">
-        <v>2058</v>
+        <v>2062</v>
       </c>
     </row>
     <row r="280" spans="1:33">
@@ -29212,7 +29224,7 @@
         <v>0</v>
       </c>
       <c r="AB280" s="3" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
       <c r="AC280" t="s">
         <v>108</v>
@@ -29221,13 +29233,13 @@
         <v>108</v>
       </c>
       <c r="AE280" t="s">
-        <v>1656</v>
+        <v>1660</v>
       </c>
       <c r="AF280" t="s">
-        <v>1747</v>
+        <v>1751</v>
       </c>
       <c r="AG280" s="2" t="s">
-        <v>2059</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="281" spans="1:33">
@@ -29280,7 +29292,7 @@
         <v>4444</v>
       </c>
       <c r="U281" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="V281" s="3" t="s">
         <v>1278</v>
@@ -29292,7 +29304,7 @@
         <v>0</v>
       </c>
       <c r="AB281" s="3" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="AC281" t="s">
         <v>108</v>
@@ -29301,13 +29313,13 @@
         <v>108</v>
       </c>
       <c r="AE281" t="s">
-        <v>1604</v>
+        <v>1608</v>
       </c>
       <c r="AF281" t="s">
-        <v>1695</v>
+        <v>1699</v>
       </c>
       <c r="AG281" s="2" t="s">
-        <v>2060</v>
+        <v>2064</v>
       </c>
     </row>
     <row r="282" spans="1:33">
@@ -29360,7 +29372,7 @@
         <v>4822</v>
       </c>
       <c r="U282" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="V282" s="3" t="s">
         <v>1279</v>
@@ -29369,7 +29381,7 @@
         <v>0</v>
       </c>
       <c r="AB282" s="3" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="AC282" t="s">
         <v>108</v>
@@ -29378,13 +29390,13 @@
         <v>108</v>
       </c>
       <c r="AE282" t="s">
-        <v>1673</v>
+        <v>1677</v>
       </c>
       <c r="AF282" t="s">
-        <v>1764</v>
+        <v>1768</v>
       </c>
       <c r="AG282" s="2" t="s">
-        <v>2061</v>
+        <v>2065</v>
       </c>
     </row>
     <row r="283" spans="1:33">
@@ -29446,7 +29458,7 @@
         <v>0</v>
       </c>
       <c r="AB283" s="3" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="AC283" t="s">
         <v>108</v>
@@ -29455,13 +29467,13 @@
         <v>108</v>
       </c>
       <c r="AE283" t="s">
-        <v>1674</v>
+        <v>1678</v>
       </c>
       <c r="AF283" t="s">
-        <v>1765</v>
+        <v>1769</v>
       </c>
       <c r="AG283" s="2" t="s">
-        <v>2062</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="284" spans="1:33">
@@ -29523,7 +29535,7 @@
         <v>0</v>
       </c>
       <c r="AB284" s="3" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="AC284" t="s">
         <v>108</v>
@@ -29532,13 +29544,13 @@
         <v>108</v>
       </c>
       <c r="AE284" t="s">
-        <v>1602</v>
+        <v>1606</v>
       </c>
       <c r="AF284" t="s">
-        <v>1693</v>
+        <v>1697</v>
       </c>
       <c r="AG284" s="2" t="s">
-        <v>2063</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="285" spans="1:33">
@@ -29600,7 +29612,7 @@
         <v>0</v>
       </c>
       <c r="AB285" s="3" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="AC285" t="s">
         <v>108</v>
@@ -29609,13 +29621,13 @@
         <v>108</v>
       </c>
       <c r="AE285" t="s">
-        <v>1602</v>
+        <v>1606</v>
       </c>
       <c r="AF285" t="s">
-        <v>1693</v>
+        <v>1697</v>
       </c>
       <c r="AG285" s="2" t="s">
-        <v>2064</v>
+        <v>2068</v>
       </c>
     </row>
     <row r="286" spans="1:33">
@@ -29677,7 +29689,7 @@
         <v>0</v>
       </c>
       <c r="AB286" s="3" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="AC286" t="s">
         <v>108</v>
@@ -29686,13 +29698,13 @@
         <v>108</v>
       </c>
       <c r="AE286" t="s">
-        <v>1675</v>
+        <v>1679</v>
       </c>
       <c r="AF286" t="s">
-        <v>1766</v>
+        <v>1770</v>
       </c>
       <c r="AG286" s="2" t="s">
-        <v>2065</v>
+        <v>2069</v>
       </c>
     </row>
     <row r="287" spans="1:33">
@@ -29754,7 +29766,7 @@
         <v>0</v>
       </c>
       <c r="AB287" s="3" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="AC287" t="s">
         <v>108</v>
@@ -29763,13 +29775,13 @@
         <v>108</v>
       </c>
       <c r="AE287" t="s">
-        <v>1676</v>
+        <v>1680</v>
       </c>
       <c r="AF287" t="s">
-        <v>1767</v>
+        <v>1771</v>
       </c>
       <c r="AG287" s="2" t="s">
-        <v>2066</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="288" spans="1:33">
@@ -29831,7 +29843,7 @@
         <v>0</v>
       </c>
       <c r="AB288" s="3" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="AC288" t="s">
         <v>108</v>
@@ -29840,13 +29852,13 @@
         <v>108</v>
       </c>
       <c r="AE288" t="s">
-        <v>1666</v>
+        <v>1670</v>
       </c>
       <c r="AF288" t="s">
-        <v>1757</v>
+        <v>1761</v>
       </c>
       <c r="AG288" s="2" t="s">
-        <v>2067</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="289" spans="1:33">
@@ -29908,7 +29920,7 @@
         <v>0</v>
       </c>
       <c r="AB289" s="3" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="AC289" t="s">
         <v>108</v>
@@ -29917,13 +29929,13 @@
         <v>108</v>
       </c>
       <c r="AE289" t="s">
-        <v>1677</v>
+        <v>1681</v>
       </c>
       <c r="AF289" t="s">
-        <v>1768</v>
+        <v>1772</v>
       </c>
       <c r="AG289" s="2" t="s">
-        <v>2068</v>
+        <v>2072</v>
       </c>
     </row>
     <row r="290" spans="1:33">
@@ -29985,7 +29997,7 @@
         <v>0</v>
       </c>
       <c r="AB290" s="3" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
       <c r="AC290" t="s">
         <v>108</v>
@@ -29994,13 +30006,13 @@
         <v>108</v>
       </c>
       <c r="AE290" t="s">
-        <v>1678</v>
+        <v>1682</v>
       </c>
       <c r="AF290" t="s">
-        <v>1769</v>
+        <v>1773</v>
       </c>
       <c r="AG290" s="2" t="s">
-        <v>2069</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="291" spans="1:33">
@@ -30062,7 +30074,7 @@
         <v>0</v>
       </c>
       <c r="AB291" s="3" t="s">
-        <v>1514</v>
+        <v>1515</v>
       </c>
       <c r="AC291" t="s">
         <v>108</v>
@@ -30071,13 +30083,13 @@
         <v>108</v>
       </c>
       <c r="AE291" t="s">
-        <v>1679</v>
+        <v>1683</v>
       </c>
       <c r="AF291" t="s">
-        <v>1770</v>
+        <v>1774</v>
       </c>
       <c r="AG291" s="2" t="s">
-        <v>2070</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="292" spans="1:33">
@@ -30139,7 +30151,7 @@
         <v>0</v>
       </c>
       <c r="AB292" s="3" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="AC292" t="s">
         <v>108</v>
@@ -30148,13 +30160,13 @@
         <v>108</v>
       </c>
       <c r="AE292" t="s">
-        <v>1666</v>
+        <v>1670</v>
       </c>
       <c r="AF292" t="s">
-        <v>1757</v>
+        <v>1761</v>
       </c>
       <c r="AG292" s="2" t="s">
-        <v>2071</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="293" spans="1:33">
@@ -30216,7 +30228,7 @@
         <v>0</v>
       </c>
       <c r="AB293" s="3" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="AC293" t="s">
         <v>108</v>
@@ -30225,13 +30237,13 @@
         <v>108</v>
       </c>
       <c r="AE293" t="s">
-        <v>1666</v>
+        <v>1670</v>
       </c>
       <c r="AF293" t="s">
-        <v>1757</v>
+        <v>1761</v>
       </c>
       <c r="AG293" s="2" t="s">
-        <v>2072</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="294" spans="1:33">
@@ -30293,7 +30305,7 @@
         <v>0</v>
       </c>
       <c r="AB294" s="3" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="AC294" t="s">
         <v>108</v>
@@ -30302,13 +30314,13 @@
         <v>108</v>
       </c>
       <c r="AE294" t="s">
-        <v>1680</v>
+        <v>1684</v>
       </c>
       <c r="AF294" t="s">
-        <v>1771</v>
+        <v>1775</v>
       </c>
       <c r="AG294" s="2" t="s">
-        <v>2073</v>
+        <v>2077</v>
       </c>
     </row>
     <row r="295" spans="1:33">
@@ -30370,7 +30382,7 @@
         <v>0</v>
       </c>
       <c r="AB295" s="3" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="AC295" t="s">
         <v>108</v>
@@ -30379,13 +30391,13 @@
         <v>108</v>
       </c>
       <c r="AE295" t="s">
-        <v>1681</v>
+        <v>1685</v>
       </c>
       <c r="AF295" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="AG295" s="2" t="s">
-        <v>2074</v>
+        <v>2078</v>
       </c>
     </row>
     <row r="296" spans="1:33">
@@ -30447,7 +30459,7 @@
         <v>0</v>
       </c>
       <c r="AB296" s="3" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
       <c r="AC296" t="s">
         <v>108</v>
@@ -30456,13 +30468,13 @@
         <v>108</v>
       </c>
       <c r="AE296" t="s">
-        <v>1682</v>
+        <v>1686</v>
       </c>
       <c r="AF296" t="s">
-        <v>1773</v>
+        <v>1777</v>
       </c>
       <c r="AG296" s="2" t="s">
-        <v>2075</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="297" spans="1:33">
@@ -30527,7 +30539,7 @@
         <v>0</v>
       </c>
       <c r="AB297" s="3" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
       <c r="AC297" t="s">
         <v>108</v>
@@ -30536,13 +30548,13 @@
         <v>108</v>
       </c>
       <c r="AE297" t="s">
-        <v>1656</v>
+        <v>1660</v>
       </c>
       <c r="AF297" t="s">
-        <v>1747</v>
+        <v>1751</v>
       </c>
       <c r="AG297" s="2" t="s">
-        <v>2076</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="298" spans="1:33">
@@ -30604,7 +30616,7 @@
         <v>0</v>
       </c>
       <c r="AB298" s="3" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="AC298" t="s">
         <v>108</v>
@@ -30613,13 +30625,13 @@
         <v>108</v>
       </c>
       <c r="AE298" t="s">
-        <v>1678</v>
+        <v>1682</v>
       </c>
       <c r="AF298" t="s">
-        <v>1769</v>
+        <v>1773</v>
       </c>
       <c r="AG298" s="2" t="s">
-        <v>2077</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="299" spans="1:33">
@@ -30681,7 +30693,7 @@
         <v>0</v>
       </c>
       <c r="AB299" s="3" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
       <c r="AC299" t="s">
         <v>108</v>
@@ -30690,13 +30702,13 @@
         <v>108</v>
       </c>
       <c r="AE299" t="s">
-        <v>1666</v>
+        <v>1670</v>
       </c>
       <c r="AF299" t="s">
-        <v>1757</v>
+        <v>1761</v>
       </c>
       <c r="AG299" s="2" t="s">
-        <v>2078</v>
+        <v>2082</v>
       </c>
     </row>
     <row r="300" spans="1:33">
@@ -30758,7 +30770,7 @@
         <v>0</v>
       </c>
       <c r="AB300" s="3" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
       <c r="AC300" t="s">
         <v>108</v>
@@ -30767,13 +30779,13 @@
         <v>108</v>
       </c>
       <c r="AE300" t="s">
-        <v>1683</v>
+        <v>1687</v>
       </c>
       <c r="AF300" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="AG300" s="2" t="s">
-        <v>2079</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="301" spans="1:33">
@@ -30835,7 +30847,7 @@
         <v>0</v>
       </c>
       <c r="AB301" s="3" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="AC301" t="s">
         <v>108</v>
@@ -30844,13 +30856,13 @@
         <v>108</v>
       </c>
       <c r="AE301" t="s">
-        <v>1675</v>
+        <v>1679</v>
       </c>
       <c r="AF301" t="s">
-        <v>1766</v>
+        <v>1770</v>
       </c>
       <c r="AG301" s="2" t="s">
-        <v>2080</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="302" spans="1:33">
@@ -30912,22 +30924,22 @@
         <v>0</v>
       </c>
       <c r="AB302" s="3" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
       <c r="AC302" t="s">
         <v>108</v>
       </c>
       <c r="AD302" s="3" t="s">
-        <v>1595</v>
+        <v>1599</v>
       </c>
       <c r="AE302" t="s">
-        <v>1608</v>
+        <v>1612</v>
       </c>
       <c r="AF302" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="AG302" s="2" t="s">
-        <v>2081</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="303" spans="1:33">
@@ -30989,22 +31001,22 @@
         <v>0</v>
       </c>
       <c r="AB303" s="3" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
       <c r="AC303" t="s">
         <v>108</v>
       </c>
       <c r="AD303" s="3" t="s">
-        <v>1596</v>
+        <v>1600</v>
       </c>
       <c r="AE303" t="s">
-        <v>1608</v>
+        <v>1612</v>
       </c>
       <c r="AF303" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="AG303" s="2" t="s">
-        <v>2082</v>
+        <v>2086</v>
       </c>
     </row>
     <row r="304" spans="1:33">
@@ -31066,7 +31078,7 @@
         <v>0</v>
       </c>
       <c r="AB304" s="3" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="AC304" t="s">
         <v>108</v>
@@ -31075,13 +31087,13 @@
         <v>108</v>
       </c>
       <c r="AE304" t="s">
-        <v>1683</v>
+        <v>1687</v>
       </c>
       <c r="AF304" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="AG304" s="2" t="s">
-        <v>2083</v>
+        <v>2087</v>
       </c>
     </row>
     <row r="305" spans="1:33">
@@ -31143,7 +31155,7 @@
         <v>0</v>
       </c>
       <c r="AB305" s="3" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="AC305" t="s">
         <v>108</v>
@@ -31152,13 +31164,13 @@
         <v>108</v>
       </c>
       <c r="AE305" t="s">
-        <v>1684</v>
+        <v>1688</v>
       </c>
       <c r="AF305" t="s">
-        <v>1775</v>
+        <v>1779</v>
       </c>
       <c r="AG305" s="2" t="s">
-        <v>2084</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="306" spans="1:33">
@@ -31220,7 +31232,7 @@
         <v>0</v>
       </c>
       <c r="AB306" s="3" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="AC306" t="s">
         <v>108</v>
@@ -31229,21 +31241,21 @@
         <v>108</v>
       </c>
       <c r="AE306" t="s">
-        <v>1602</v>
+        <v>1606</v>
       </c>
       <c r="AF306" t="s">
-        <v>1693</v>
+        <v>1697</v>
       </c>
       <c r="AG306" s="2" t="s">
-        <v>2085</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="307" spans="1:33">
       <c r="A307">
-        <v>1740275</v>
+        <v>1740822</v>
       </c>
       <c r="B307">
-        <v>5140</v>
+        <v>5347</v>
       </c>
       <c r="D307" t="s">
         <v>99</v>
@@ -31255,7 +31267,7 @@
         <v>221</v>
       </c>
       <c r="G307" t="s">
-        <v>224</v>
+        <v>268</v>
       </c>
       <c r="H307" t="s">
         <v>575</v>
@@ -31264,10 +31276,10 @@
         <v>897</v>
       </c>
       <c r="J307">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="K307" s="3" t="s">
-        <v>920</v>
+        <v>928</v>
       </c>
       <c r="L307" t="b">
         <v>0</v>
@@ -31276,7 +31288,7 @@
         <v>1</v>
       </c>
       <c r="N307" t="s">
-        <v>1008</v>
+        <v>108</v>
       </c>
       <c r="O307" t="b">
         <v>0</v>
@@ -31285,10 +31297,10 @@
         <v>0</v>
       </c>
       <c r="Q307">
-        <v>1506</v>
+        <v>4682</v>
       </c>
       <c r="U307" t="s">
-        <v>224</v>
+        <v>268</v>
       </c>
       <c r="V307" s="3" t="s">
         <v>1303</v>
@@ -31297,27 +31309,27 @@
         <v>0</v>
       </c>
       <c r="AB307" s="3" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="AC307" t="s">
         <v>108</v>
       </c>
       <c r="AD307" s="3" t="s">
-        <v>1597</v>
+        <v>108</v>
       </c>
       <c r="AE307" t="s">
-        <v>1685</v>
+        <v>1689</v>
       </c>
       <c r="AF307" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="AG307" s="2" t="s">
-        <v>2086</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="308" spans="1:33">
       <c r="A308">
-        <v>1740273</v>
+        <v>1740275</v>
       </c>
       <c r="B308">
         <v>5140</v>
@@ -31329,10 +31341,10 @@
         <v>1</v>
       </c>
       <c r="F308" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G308" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H308" t="s">
         <v>576</v>
@@ -31353,7 +31365,7 @@
         <v>1</v>
       </c>
       <c r="N308" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="O308" t="b">
         <v>0</v>
@@ -31365,36 +31377,36 @@
         <v>1506</v>
       </c>
       <c r="U308" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="V308" s="3" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="AA308">
         <v>0</v>
       </c>
       <c r="AB308" s="3" t="s">
-        <v>1525</v>
+        <v>1527</v>
       </c>
       <c r="AC308" t="s">
         <v>108</v>
       </c>
       <c r="AD308" s="3" t="s">
-        <v>1598</v>
+        <v>1601</v>
       </c>
       <c r="AE308" t="s">
-        <v>1685</v>
+        <v>1690</v>
       </c>
       <c r="AF308" t="s">
-        <v>1776</v>
+        <v>1781</v>
       </c>
       <c r="AG308" s="2" t="s">
-        <v>2087</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="309" spans="1:33">
       <c r="A309">
-        <v>1740272</v>
+        <v>1740273</v>
       </c>
       <c r="B309">
         <v>5140</v>
@@ -31406,10 +31418,10 @@
         <v>1</v>
       </c>
       <c r="F309" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G309" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H309" t="s">
         <v>577</v>
@@ -31430,7 +31442,7 @@
         <v>1</v>
       </c>
       <c r="N309" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="O309" t="b">
         <v>0</v>
@@ -31442,39 +31454,39 @@
         <v>1506</v>
       </c>
       <c r="U309" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="V309" s="3" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="AA309">
         <v>0</v>
       </c>
       <c r="AB309" s="3" t="s">
-        <v>1525</v>
+        <v>1527</v>
       </c>
       <c r="AC309" t="s">
         <v>108</v>
       </c>
       <c r="AD309" s="3" t="s">
-        <v>1599</v>
+        <v>1602</v>
       </c>
       <c r="AE309" t="s">
-        <v>1685</v>
+        <v>1690</v>
       </c>
       <c r="AF309" t="s">
-        <v>1776</v>
+        <v>1781</v>
       </c>
       <c r="AG309" s="2" t="s">
-        <v>2088</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="310" spans="1:33">
       <c r="A310">
-        <v>1738689</v>
+        <v>1740272</v>
       </c>
       <c r="B310">
-        <v>3912</v>
+        <v>5140</v>
       </c>
       <c r="D310" t="s">
         <v>99</v>
@@ -31486,7 +31498,7 @@
         <v>222</v>
       </c>
       <c r="G310" t="s">
-        <v>268</v>
+        <v>225</v>
       </c>
       <c r="H310" t="s">
         <v>578</v>
@@ -31495,19 +31507,19 @@
         <v>900</v>
       </c>
       <c r="J310">
-        <v>217</v>
+        <v>17</v>
       </c>
       <c r="K310" s="3" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="L310" t="b">
         <v>0</v>
       </c>
       <c r="M310" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N310" t="s">
-        <v>108</v>
+        <v>1010</v>
       </c>
       <c r="O310" t="b">
         <v>0</v>
@@ -31516,10 +31528,10 @@
         <v>0</v>
       </c>
       <c r="Q310">
-        <v>4607</v>
+        <v>1506</v>
       </c>
       <c r="U310" t="s">
-        <v>1037</v>
+        <v>225</v>
       </c>
       <c r="V310" s="3" t="s">
         <v>1304</v>
@@ -31528,30 +31540,30 @@
         <v>0</v>
       </c>
       <c r="AB310" s="3" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
       <c r="AC310" t="s">
         <v>108</v>
       </c>
       <c r="AD310" s="3" t="s">
-        <v>108</v>
+        <v>1603</v>
       </c>
       <c r="AE310" t="s">
-        <v>1686</v>
+        <v>1690</v>
       </c>
       <c r="AF310" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="AG310" s="2" t="s">
-        <v>2089</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="311" spans="1:33">
       <c r="A311">
-        <v>1741590</v>
+        <v>1738689</v>
       </c>
       <c r="B311">
-        <v>5329</v>
+        <v>3912</v>
       </c>
       <c r="D311" t="s">
         <v>99</v>
@@ -31572,23 +31584,41 @@
         <v>901</v>
       </c>
       <c r="J311">
-        <v>7</v>
+        <v>217</v>
       </c>
       <c r="K311" s="3" t="s">
-        <v>939</v>
+        <v>921</v>
       </c>
       <c r="L311" t="b">
         <v>0</v>
       </c>
       <c r="M311" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N311" t="s">
         <v>108</v>
       </c>
+      <c r="O311" t="b">
+        <v>0</v>
+      </c>
+      <c r="P311" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q311">
+        <v>4607</v>
+      </c>
+      <c r="U311" t="s">
+        <v>1037</v>
+      </c>
+      <c r="V311" s="3" t="s">
+        <v>1305</v>
+      </c>
       <c r="AA311">
         <v>0</v>
       </c>
+      <c r="AB311" s="3" t="s">
+        <v>1528</v>
+      </c>
       <c r="AC311" t="s">
         <v>108</v>
       </c>
@@ -31596,21 +31626,21 @@
         <v>108</v>
       </c>
       <c r="AE311" t="s">
-        <v>1653</v>
+        <v>1691</v>
       </c>
       <c r="AF311" t="s">
-        <v>1744</v>
+        <v>1782</v>
       </c>
       <c r="AG311" s="2" t="s">
-        <v>2090</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="312" spans="1:33">
       <c r="A312">
-        <v>1741652</v>
+        <v>1741590</v>
       </c>
       <c r="B312">
-        <v>5164</v>
+        <v>5329</v>
       </c>
       <c r="D312" t="s">
         <v>99</v>
@@ -31619,10 +31649,10 @@
         <v>1</v>
       </c>
       <c r="F312" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G312" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H312" t="s">
         <v>580</v>
@@ -31655,21 +31685,21 @@
         <v>108</v>
       </c>
       <c r="AE312" t="s">
-        <v>1667</v>
+        <v>1657</v>
       </c>
       <c r="AF312" t="s">
-        <v>1758</v>
+        <v>1748</v>
       </c>
       <c r="AG312" s="2" t="s">
-        <v>2091</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="313" spans="1:33">
       <c r="A313">
-        <v>1741475</v>
+        <v>1741652</v>
       </c>
       <c r="B313">
-        <v>4864</v>
+        <v>5164</v>
       </c>
       <c r="D313" t="s">
         <v>99</v>
@@ -31678,10 +31708,10 @@
         <v>1</v>
       </c>
       <c r="F313" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G313" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H313" t="s">
         <v>581</v>
@@ -31690,16 +31720,16 @@
         <v>903</v>
       </c>
       <c r="J313">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="K313" s="3" t="s">
-        <v>926</v>
+        <v>939</v>
       </c>
       <c r="L313" t="b">
         <v>0</v>
       </c>
       <c r="M313" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N313" t="s">
         <v>108</v>
@@ -31714,21 +31744,21 @@
         <v>108</v>
       </c>
       <c r="AE313" t="s">
-        <v>1608</v>
+        <v>1671</v>
       </c>
       <c r="AF313" t="s">
-        <v>1699</v>
+        <v>1762</v>
       </c>
       <c r="AG313" s="2" t="s">
-        <v>2092</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="314" spans="1:33">
       <c r="A314">
-        <v>1741467</v>
+        <v>1741475</v>
       </c>
       <c r="B314">
-        <v>5096</v>
+        <v>4864</v>
       </c>
       <c r="D314" t="s">
         <v>99</v>
@@ -31737,10 +31767,10 @@
         <v>1</v>
       </c>
       <c r="F314" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G314" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H314" t="s">
         <v>582</v>
@@ -31773,18 +31803,18 @@
         <v>108</v>
       </c>
       <c r="AE314" t="s">
-        <v>1676</v>
+        <v>1612</v>
       </c>
       <c r="AF314" t="s">
-        <v>1767</v>
+        <v>1703</v>
       </c>
       <c r="AG314" s="2" t="s">
-        <v>2093</v>
+        <v>2097</v>
       </c>
     </row>
     <row r="315" spans="1:33">
       <c r="A315">
-        <v>1741465</v>
+        <v>1741467</v>
       </c>
       <c r="B315">
         <v>5096</v>
@@ -31796,10 +31826,10 @@
         <v>1</v>
       </c>
       <c r="F315" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G315" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H315" t="s">
         <v>583</v>
@@ -31808,10 +31838,10 @@
         <v>905</v>
       </c>
       <c r="J315">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="K315" s="3" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="L315" t="b">
         <v>0</v>
@@ -31832,21 +31862,21 @@
         <v>108</v>
       </c>
       <c r="AE315" t="s">
-        <v>1676</v>
+        <v>1680</v>
       </c>
       <c r="AF315" t="s">
-        <v>1767</v>
+        <v>1771</v>
       </c>
       <c r="AG315" s="2" t="s">
-        <v>2094</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="316" spans="1:33">
       <c r="A316">
-        <v>1741271</v>
+        <v>1741465</v>
       </c>
       <c r="B316">
-        <v>5298</v>
+        <v>5096</v>
       </c>
       <c r="D316" t="s">
         <v>99</v>
@@ -31876,7 +31906,7 @@
         <v>0</v>
       </c>
       <c r="M316" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N316" t="s">
         <v>108</v>
@@ -31891,21 +31921,21 @@
         <v>108</v>
       </c>
       <c r="AE316" t="s">
-        <v>1687</v>
+        <v>1680</v>
       </c>
       <c r="AF316" t="s">
-        <v>1778</v>
+        <v>1771</v>
       </c>
       <c r="AG316" s="2" t="s">
-        <v>2095</v>
+        <v>2099</v>
       </c>
     </row>
     <row r="317" spans="1:33">
       <c r="A317">
-        <v>1741059</v>
+        <v>1741271</v>
       </c>
       <c r="B317">
-        <v>4592</v>
+        <v>5298</v>
       </c>
       <c r="D317" t="s">
         <v>99</v>
@@ -31914,10 +31944,10 @@
         <v>1</v>
       </c>
       <c r="F317" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G317" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="H317" t="s">
         <v>585</v>
@@ -31926,10 +31956,10 @@
         <v>907</v>
       </c>
       <c r="J317">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K317" s="3" t="s">
-        <v>920</v>
+        <v>925</v>
       </c>
       <c r="L317" t="b">
         <v>0</v>
@@ -31950,21 +31980,21 @@
         <v>108</v>
       </c>
       <c r="AE317" t="s">
-        <v>1604</v>
+        <v>1692</v>
       </c>
       <c r="AF317" t="s">
-        <v>1695</v>
+        <v>1783</v>
       </c>
       <c r="AG317" s="2" t="s">
-        <v>2096</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="318" spans="1:33">
       <c r="A318">
-        <v>1741036</v>
+        <v>1741059</v>
       </c>
       <c r="B318">
-        <v>4076</v>
+        <v>4592</v>
       </c>
       <c r="D318" t="s">
         <v>99</v>
@@ -31973,10 +32003,10 @@
         <v>1</v>
       </c>
       <c r="F318" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G318" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H318" t="s">
         <v>586</v>
@@ -31985,10 +32015,10 @@
         <v>908</v>
       </c>
       <c r="J318">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="K318" s="3" t="s">
-        <v>929</v>
+        <v>920</v>
       </c>
       <c r="L318" t="b">
         <v>0</v>
@@ -32009,21 +32039,21 @@
         <v>108</v>
       </c>
       <c r="AE318" t="s">
-        <v>1688</v>
+        <v>1608</v>
       </c>
       <c r="AF318" t="s">
-        <v>1779</v>
+        <v>1699</v>
       </c>
       <c r="AG318" s="2" t="s">
-        <v>2097</v>
+        <v>2101</v>
       </c>
     </row>
     <row r="319" spans="1:33">
       <c r="A319">
-        <v>1741211</v>
+        <v>1741036</v>
       </c>
       <c r="B319">
-        <v>1572</v>
+        <v>4076</v>
       </c>
       <c r="D319" t="s">
         <v>99</v>
@@ -32032,28 +32062,28 @@
         <v>1</v>
       </c>
       <c r="F319" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G319" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H319" t="s">
-        <v>439</v>
+        <v>587</v>
       </c>
       <c r="I319" s="3" t="s">
         <v>909</v>
       </c>
       <c r="J319">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="K319" s="3" t="s">
-        <v>920</v>
+        <v>929</v>
       </c>
       <c r="L319" t="b">
         <v>0</v>
       </c>
       <c r="M319" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N319" t="s">
         <v>108</v>
@@ -32068,18 +32098,18 @@
         <v>108</v>
       </c>
       <c r="AE319" t="s">
-        <v>1689</v>
+        <v>1693</v>
       </c>
       <c r="AF319" t="s">
-        <v>1780</v>
+        <v>1784</v>
       </c>
       <c r="AG319" s="2" t="s">
-        <v>2098</v>
+        <v>2102</v>
       </c>
     </row>
     <row r="320" spans="1:33">
       <c r="A320">
-        <v>1741187</v>
+        <v>1741211</v>
       </c>
       <c r="B320">
         <v>1572</v>
@@ -32091,13 +32121,13 @@
         <v>1</v>
       </c>
       <c r="F320" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G320" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="H320" t="s">
-        <v>420</v>
+        <v>439</v>
       </c>
       <c r="I320" s="3" t="s">
         <v>910</v>
@@ -32120,6 +32150,9 @@
       <c r="AA320">
         <v>0</v>
       </c>
+      <c r="AB320" s="3" t="s">
+        <v>1529</v>
+      </c>
       <c r="AC320" t="s">
         <v>108</v>
       </c>
@@ -32127,18 +32160,18 @@
         <v>108</v>
       </c>
       <c r="AE320" t="s">
-        <v>1689</v>
+        <v>1694</v>
       </c>
       <c r="AF320" t="s">
-        <v>1780</v>
+        <v>1785</v>
       </c>
       <c r="AG320" s="2" t="s">
-        <v>2099</v>
+        <v>2103</v>
       </c>
     </row>
     <row r="321" spans="1:33">
       <c r="A321">
-        <v>1741163</v>
+        <v>1741187</v>
       </c>
       <c r="B321">
         <v>1572</v>
@@ -32150,13 +32183,13 @@
         <v>1</v>
       </c>
       <c r="F321" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G321" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="H321" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="I321" s="3" t="s">
         <v>911</v>
@@ -32179,6 +32212,9 @@
       <c r="AA321">
         <v>0</v>
       </c>
+      <c r="AB321" s="3" t="s">
+        <v>1530</v>
+      </c>
       <c r="AC321" t="s">
         <v>108</v>
       </c>
@@ -32186,21 +32222,21 @@
         <v>108</v>
       </c>
       <c r="AE321" t="s">
-        <v>1689</v>
+        <v>1694</v>
       </c>
       <c r="AF321" t="s">
-        <v>1780</v>
+        <v>1785</v>
       </c>
       <c r="AG321" s="2" t="s">
-        <v>2100</v>
+        <v>2104</v>
       </c>
     </row>
     <row r="322" spans="1:33">
       <c r="A322">
-        <v>1740825</v>
+        <v>1741163</v>
       </c>
       <c r="B322">
-        <v>5347</v>
+        <v>1572</v>
       </c>
       <c r="D322" t="s">
         <v>99</v>
@@ -32212,19 +32248,19 @@
         <v>225</v>
       </c>
       <c r="G322" t="s">
-        <v>223</v>
+        <v>268</v>
       </c>
       <c r="H322" t="s">
-        <v>587</v>
+        <v>421</v>
       </c>
       <c r="I322" s="3" t="s">
         <v>912</v>
       </c>
       <c r="J322">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="K322" s="3" t="s">
-        <v>928</v>
+        <v>920</v>
       </c>
       <c r="L322" t="b">
         <v>0</v>
@@ -32239,7 +32275,7 @@
         <v>0</v>
       </c>
       <c r="AB322" s="3" t="s">
-        <v>1527</v>
+        <v>1531</v>
       </c>
       <c r="AC322" t="s">
         <v>108</v>
@@ -32248,18 +32284,18 @@
         <v>108</v>
       </c>
       <c r="AE322" t="s">
-        <v>1690</v>
+        <v>1694</v>
       </c>
       <c r="AF322" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="AG322" s="2" t="s">
-        <v>2101</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="323" spans="1:33">
       <c r="A323">
-        <v>1740824</v>
+        <v>1740825</v>
       </c>
       <c r="B323">
         <v>5347</v>
@@ -32271,10 +32307,10 @@
         <v>1</v>
       </c>
       <c r="F323" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G323" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H323" t="s">
         <v>588</v>
@@ -32301,7 +32337,7 @@
         <v>0</v>
       </c>
       <c r="AB323" s="3" t="s">
-        <v>1527</v>
+        <v>1532</v>
       </c>
       <c r="AC323" t="s">
         <v>108</v>
@@ -32310,18 +32346,18 @@
         <v>108</v>
       </c>
       <c r="AE323" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="AF323" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="AG323" s="2" t="s">
-        <v>2102</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="324" spans="1:33">
       <c r="A324">
-        <v>1740823</v>
+        <v>1740824</v>
       </c>
       <c r="B324">
         <v>5347</v>
@@ -32333,10 +32369,10 @@
         <v>1</v>
       </c>
       <c r="F324" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G324" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H324" t="s">
         <v>589</v>
@@ -32363,7 +32399,7 @@
         <v>0</v>
       </c>
       <c r="AB324" s="3" t="s">
-        <v>1528</v>
+        <v>1532</v>
       </c>
       <c r="AC324" t="s">
         <v>108</v>
@@ -32372,18 +32408,18 @@
         <v>108</v>
       </c>
       <c r="AE324" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="AF324" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="AG324" s="2" t="s">
-        <v>2103</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="325" spans="1:33">
       <c r="A325">
-        <v>1740822</v>
+        <v>1740823</v>
       </c>
       <c r="B325">
         <v>5347</v>
@@ -32395,10 +32431,10 @@
         <v>1</v>
       </c>
       <c r="F325" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G325" t="s">
-        <v>271</v>
+        <v>224</v>
       </c>
       <c r="H325" t="s">
         <v>590</v>
@@ -32416,7 +32452,7 @@
         <v>0</v>
       </c>
       <c r="M325" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N325" t="s">
         <v>108</v>
@@ -32424,6 +32460,9 @@
       <c r="AA325">
         <v>0</v>
       </c>
+      <c r="AB325" s="3" t="s">
+        <v>1526</v>
+      </c>
       <c r="AC325" t="s">
         <v>108</v>
       </c>
@@ -32431,13 +32470,13 @@
         <v>108</v>
       </c>
       <c r="AE325" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="AF325" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="AG325" s="2" t="s">
-        <v>2104</v>
+        <v>2108</v>
       </c>
     </row>
     <row r="326" spans="1:33">
@@ -32454,10 +32493,10 @@
         <v>1</v>
       </c>
       <c r="F326" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G326" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H326" t="s">
         <v>591</v>
@@ -32484,7 +32523,7 @@
         <v>0</v>
       </c>
       <c r="AB326" s="3" t="s">
-        <v>1529</v>
+        <v>1533</v>
       </c>
       <c r="AC326" t="s">
         <v>108</v>
@@ -32493,13 +32532,13 @@
         <v>108</v>
       </c>
       <c r="AE326" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="AF326" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="AG326" s="2" t="s">
-        <v>2105</v>
+        <v>2109</v>
       </c>
     </row>
     <row r="327" spans="1:33">
@@ -32516,10 +32555,10 @@
         <v>1</v>
       </c>
       <c r="F327" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G327" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H327" t="s">
         <v>592</v>
@@ -32546,7 +32585,7 @@
         <v>0</v>
       </c>
       <c r="AB327" s="3" t="s">
-        <v>1530</v>
+        <v>1534</v>
       </c>
       <c r="AC327" t="s">
         <v>108</v>
@@ -32555,13 +32594,13 @@
         <v>108</v>
       </c>
       <c r="AE327" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="AF327" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="AG327" s="2" t="s">
-        <v>2106</v>
+        <v>2110</v>
       </c>
     </row>
   </sheetData>

--- a/docs/data/commons_written_questions_interests/latest/commons_written_questions_interests.xlsx
+++ b/docs/data/commons_written_questions_interests/latest/commons_written_questions_interests.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5212" uniqueCount="2153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5215" uniqueCount="2155">
   <si>
     <t>Dataset</t>
   </si>
@@ -2782,7 +2782,7 @@
     <t>To ask the Secretary of State for Work and Pensions, if she will make an assessment of the potential merits of enabling people over 65 who are not eligible for the mobility component of Disability Living Allowance to access mobility vehicle support.</t>
   </si>
   <si>
-    <t>To ask the Chancellor of the Exchequer, whether the amalgamation of local government pension funds will be compulsory; whether pension funds will be able to choose which new fund to join; and whether she has had recent discussions with (a) the Local Gover</t>
+    <t>To ask the Secretary of State for Housing, Communities and Local Government, whether the amalgamation of local government pension funds will be compulsory; whether pension funds will be able to choose which new fund to join; and whether she has had recent</t>
   </si>
   <si>
     <t>To ask the Secretary of State for Education, what assessment she has made of the potential impact of changes in the level of international student visa applications to UK universities in 2024 on the sector.</t>
@@ -4694,6 +4694,12 @@
   </si>
   <si>
     <t>Charity Commission: Correspondence</t>
+  </si>
+  <si>
+    <t>Overseas Students: Visas</t>
+  </si>
+  <si>
+    <t>Dementia: Training</t>
   </si>
   <si>
     <t>Office of the Immigration Services Commissioner: Fees and Charges</t>
@@ -7938,13 +7944,13 @@
         <v>108</v>
       </c>
       <c r="AE2" t="s">
-        <v>1636</v>
+        <v>1638</v>
       </c>
       <c r="AF2" t="s">
-        <v>1729</v>
+        <v>1731</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>1822</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="3" spans="1:33">
@@ -8015,13 +8021,13 @@
         <v>108</v>
       </c>
       <c r="AE3" t="s">
-        <v>1637</v>
+        <v>1639</v>
       </c>
       <c r="AF3" t="s">
-        <v>1730</v>
+        <v>1732</v>
       </c>
       <c r="AG3" s="2" t="s">
-        <v>1823</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="4" spans="1:33">
@@ -8092,13 +8098,13 @@
         <v>108</v>
       </c>
       <c r="AE4" t="s">
-        <v>1638</v>
+        <v>1640</v>
       </c>
       <c r="AF4" t="s">
-        <v>1731</v>
+        <v>1733</v>
       </c>
       <c r="AG4" s="2" t="s">
-        <v>1824</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="5" spans="1:33">
@@ -8166,16 +8172,16 @@
         <v>108</v>
       </c>
       <c r="AD5" s="3" t="s">
-        <v>1565</v>
+        <v>1567</v>
       </c>
       <c r="AE5" t="s">
-        <v>1638</v>
+        <v>1640</v>
       </c>
       <c r="AF5" t="s">
-        <v>1731</v>
+        <v>1733</v>
       </c>
       <c r="AG5" s="2" t="s">
-        <v>1825</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="6" spans="1:33">
@@ -8243,16 +8249,16 @@
         <v>108</v>
       </c>
       <c r="AD6" s="3" t="s">
-        <v>1566</v>
+        <v>1568</v>
       </c>
       <c r="AE6" t="s">
-        <v>1638</v>
+        <v>1640</v>
       </c>
       <c r="AF6" t="s">
-        <v>1731</v>
+        <v>1733</v>
       </c>
       <c r="AG6" s="2" t="s">
-        <v>1826</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="7" spans="1:33">
@@ -8320,16 +8326,16 @@
         <v>108</v>
       </c>
       <c r="AD7" s="3" t="s">
-        <v>1567</v>
+        <v>1569</v>
       </c>
       <c r="AE7" t="s">
-        <v>1638</v>
+        <v>1640</v>
       </c>
       <c r="AF7" t="s">
-        <v>1731</v>
+        <v>1733</v>
       </c>
       <c r="AG7" s="2" t="s">
-        <v>1827</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="8" spans="1:33">
@@ -8400,13 +8406,13 @@
         <v>108</v>
       </c>
       <c r="AE8" t="s">
-        <v>1639</v>
+        <v>1641</v>
       </c>
       <c r="AF8" t="s">
-        <v>1732</v>
+        <v>1734</v>
       </c>
       <c r="AG8" s="2" t="s">
-        <v>1828</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="9" spans="1:33">
@@ -8477,13 +8483,13 @@
         <v>108</v>
       </c>
       <c r="AE9" t="s">
-        <v>1639</v>
+        <v>1641</v>
       </c>
       <c r="AF9" t="s">
-        <v>1732</v>
+        <v>1734</v>
       </c>
       <c r="AG9" s="2" t="s">
-        <v>1829</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="10" spans="1:33">
@@ -8557,13 +8563,13 @@
         <v>108</v>
       </c>
       <c r="AE10" t="s">
-        <v>1640</v>
+        <v>1642</v>
       </c>
       <c r="AF10" t="s">
-        <v>1733</v>
+        <v>1735</v>
       </c>
       <c r="AG10" s="2" t="s">
-        <v>1830</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="11" spans="1:33">
@@ -8631,16 +8637,16 @@
         <v>108</v>
       </c>
       <c r="AD11" s="3" t="s">
-        <v>1568</v>
+        <v>1570</v>
       </c>
       <c r="AE11" t="s">
-        <v>1641</v>
+        <v>1643</v>
       </c>
       <c r="AF11" t="s">
-        <v>1734</v>
+        <v>1736</v>
       </c>
       <c r="AG11" s="2" t="s">
-        <v>1831</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="12" spans="1:33">
@@ -8708,16 +8714,16 @@
         <v>108</v>
       </c>
       <c r="AD12" s="3" t="s">
-        <v>1569</v>
+        <v>1571</v>
       </c>
       <c r="AE12" t="s">
-        <v>1641</v>
+        <v>1643</v>
       </c>
       <c r="AF12" t="s">
-        <v>1734</v>
+        <v>1736</v>
       </c>
       <c r="AG12" s="2" t="s">
-        <v>1832</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="13" spans="1:33">
@@ -8788,13 +8794,13 @@
         <v>108</v>
       </c>
       <c r="AE13" t="s">
-        <v>1642</v>
+        <v>1644</v>
       </c>
       <c r="AF13" t="s">
-        <v>1735</v>
+        <v>1737</v>
       </c>
       <c r="AG13" s="2" t="s">
-        <v>1833</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="14" spans="1:33">
@@ -8865,13 +8871,13 @@
         <v>108</v>
       </c>
       <c r="AE14" t="s">
-        <v>1642</v>
+        <v>1644</v>
       </c>
       <c r="AF14" t="s">
-        <v>1735</v>
+        <v>1737</v>
       </c>
       <c r="AG14" s="2" t="s">
-        <v>1834</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="15" spans="1:33">
@@ -8942,13 +8948,13 @@
         <v>108</v>
       </c>
       <c r="AE15" t="s">
-        <v>1643</v>
+        <v>1645</v>
       </c>
       <c r="AF15" t="s">
-        <v>1736</v>
+        <v>1738</v>
       </c>
       <c r="AG15" s="2" t="s">
-        <v>1835</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="16" spans="1:33">
@@ -9019,13 +9025,13 @@
         <v>108</v>
       </c>
       <c r="AE16" t="s">
-        <v>1644</v>
+        <v>1646</v>
       </c>
       <c r="AF16" t="s">
-        <v>1737</v>
+        <v>1739</v>
       </c>
       <c r="AG16" s="2" t="s">
-        <v>1836</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="17" spans="1:33">
@@ -9096,13 +9102,13 @@
         <v>108</v>
       </c>
       <c r="AE17" t="s">
-        <v>1642</v>
+        <v>1644</v>
       </c>
       <c r="AF17" t="s">
-        <v>1735</v>
+        <v>1737</v>
       </c>
       <c r="AG17" s="2" t="s">
-        <v>1837</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="18" spans="1:33">
@@ -9170,16 +9176,16 @@
         <v>108</v>
       </c>
       <c r="AD18" s="3" t="s">
-        <v>1570</v>
+        <v>1572</v>
       </c>
       <c r="AE18" t="s">
-        <v>1639</v>
+        <v>1641</v>
       </c>
       <c r="AF18" t="s">
-        <v>1732</v>
+        <v>1734</v>
       </c>
       <c r="AG18" s="2" t="s">
-        <v>1838</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="19" spans="1:33">
@@ -9247,16 +9253,16 @@
         <v>108</v>
       </c>
       <c r="AD19" s="3" t="s">
-        <v>1571</v>
+        <v>1573</v>
       </c>
       <c r="AE19" t="s">
-        <v>1639</v>
+        <v>1641</v>
       </c>
       <c r="AF19" t="s">
-        <v>1732</v>
+        <v>1734</v>
       </c>
       <c r="AG19" s="2" t="s">
-        <v>1839</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="20" spans="1:33">
@@ -9324,16 +9330,16 @@
         <v>108</v>
       </c>
       <c r="AD20" s="3" t="s">
-        <v>1572</v>
+        <v>1574</v>
       </c>
       <c r="AE20" t="s">
-        <v>1639</v>
+        <v>1641</v>
       </c>
       <c r="AF20" t="s">
-        <v>1732</v>
+        <v>1734</v>
       </c>
       <c r="AG20" s="2" t="s">
-        <v>1840</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="21" spans="1:33">
@@ -9401,16 +9407,16 @@
         <v>108</v>
       </c>
       <c r="AD21" s="3" t="s">
-        <v>1573</v>
+        <v>1575</v>
       </c>
       <c r="AE21" t="s">
-        <v>1643</v>
+        <v>1645</v>
       </c>
       <c r="AF21" t="s">
-        <v>1736</v>
+        <v>1738</v>
       </c>
       <c r="AG21" s="2" t="s">
-        <v>1841</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="22" spans="1:33">
@@ -9481,10 +9487,10 @@
         <v>108</v>
       </c>
       <c r="AE22" t="s">
-        <v>1645</v>
+        <v>1647</v>
       </c>
       <c r="AF22" t="s">
-        <v>1738</v>
+        <v>1740</v>
       </c>
       <c r="AG22" s="2" t="s">
         <v>117</v>
@@ -9558,13 +9564,13 @@
         <v>108</v>
       </c>
       <c r="AE23" t="s">
-        <v>1646</v>
+        <v>1648</v>
       </c>
       <c r="AF23" t="s">
-        <v>1739</v>
+        <v>1741</v>
       </c>
       <c r="AG23" s="2" t="s">
-        <v>1842</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="24" spans="1:33">
@@ -9635,13 +9641,13 @@
         <v>108</v>
       </c>
       <c r="AE24" t="s">
-        <v>1639</v>
+        <v>1641</v>
       </c>
       <c r="AF24" t="s">
-        <v>1732</v>
+        <v>1734</v>
       </c>
       <c r="AG24" s="2" t="s">
-        <v>1843</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="25" spans="1:33">
@@ -9712,13 +9718,13 @@
         <v>108</v>
       </c>
       <c r="AE25" t="s">
-        <v>1647</v>
+        <v>1649</v>
       </c>
       <c r="AF25" t="s">
-        <v>1740</v>
+        <v>1742</v>
       </c>
       <c r="AG25" s="2" t="s">
-        <v>1844</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="26" spans="1:33">
@@ -9789,13 +9795,13 @@
         <v>108</v>
       </c>
       <c r="AE26" t="s">
-        <v>1646</v>
+        <v>1648</v>
       </c>
       <c r="AF26" t="s">
-        <v>1739</v>
+        <v>1741</v>
       </c>
       <c r="AG26" s="2" t="s">
-        <v>1845</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="27" spans="1:33">
@@ -9866,13 +9872,13 @@
         <v>108</v>
       </c>
       <c r="AE27" t="s">
-        <v>1648</v>
+        <v>1650</v>
       </c>
       <c r="AF27" t="s">
-        <v>1741</v>
+        <v>1743</v>
       </c>
       <c r="AG27" s="2" t="s">
-        <v>1846</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="28" spans="1:33">
@@ -9943,13 +9949,13 @@
         <v>108</v>
       </c>
       <c r="AE28" t="s">
-        <v>1639</v>
+        <v>1641</v>
       </c>
       <c r="AF28" t="s">
-        <v>1732</v>
+        <v>1734</v>
       </c>
       <c r="AG28" s="2" t="s">
-        <v>1847</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="29" spans="1:33">
@@ -10017,16 +10023,16 @@
         <v>108</v>
       </c>
       <c r="AD29" s="3" t="s">
-        <v>1574</v>
+        <v>1576</v>
       </c>
       <c r="AE29" t="s">
-        <v>1639</v>
+        <v>1641</v>
       </c>
       <c r="AF29" t="s">
-        <v>1732</v>
+        <v>1734</v>
       </c>
       <c r="AG29" s="2" t="s">
-        <v>1848</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="30" spans="1:33">
@@ -10094,16 +10100,16 @@
         <v>108</v>
       </c>
       <c r="AD30" s="3" t="s">
-        <v>1575</v>
+        <v>1577</v>
       </c>
       <c r="AE30" t="s">
-        <v>1639</v>
+        <v>1641</v>
       </c>
       <c r="AF30" t="s">
-        <v>1732</v>
+        <v>1734</v>
       </c>
       <c r="AG30" s="2" t="s">
-        <v>1849</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="31" spans="1:33">
@@ -10174,13 +10180,13 @@
         <v>108</v>
       </c>
       <c r="AE31" t="s">
-        <v>1639</v>
+        <v>1641</v>
       </c>
       <c r="AF31" t="s">
-        <v>1732</v>
+        <v>1734</v>
       </c>
       <c r="AG31" s="2" t="s">
-        <v>1850</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="32" spans="1:33">
@@ -10251,13 +10257,13 @@
         <v>108</v>
       </c>
       <c r="AE32" t="s">
-        <v>1639</v>
+        <v>1641</v>
       </c>
       <c r="AF32" t="s">
-        <v>1732</v>
+        <v>1734</v>
       </c>
       <c r="AG32" s="2" t="s">
-        <v>1851</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="33" spans="1:33">
@@ -10328,13 +10334,13 @@
         <v>108</v>
       </c>
       <c r="AE33" t="s">
-        <v>1648</v>
+        <v>1650</v>
       </c>
       <c r="AF33" t="s">
-        <v>1741</v>
+        <v>1743</v>
       </c>
       <c r="AG33" s="2" t="s">
-        <v>1852</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="34" spans="1:33">
@@ -10405,13 +10411,13 @@
         <v>108</v>
       </c>
       <c r="AE34" t="s">
-        <v>1649</v>
+        <v>1651</v>
       </c>
       <c r="AF34" t="s">
         <v>116</v>
       </c>
       <c r="AG34" s="2" t="s">
-        <v>1853</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="35" spans="1:33">
@@ -10482,13 +10488,13 @@
         <v>108</v>
       </c>
       <c r="AE35" t="s">
-        <v>1642</v>
+        <v>1644</v>
       </c>
       <c r="AF35" t="s">
-        <v>1735</v>
+        <v>1737</v>
       </c>
       <c r="AG35" s="2" t="s">
-        <v>1854</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="36" spans="1:33">
@@ -10559,13 +10565,13 @@
         <v>108</v>
       </c>
       <c r="AE36" t="s">
-        <v>1650</v>
+        <v>1652</v>
       </c>
       <c r="AF36" t="s">
-        <v>1742</v>
+        <v>1744</v>
       </c>
       <c r="AG36" s="2" t="s">
-        <v>1855</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="37" spans="1:33">
@@ -10636,13 +10642,13 @@
         <v>108</v>
       </c>
       <c r="AE37" t="s">
-        <v>1642</v>
+        <v>1644</v>
       </c>
       <c r="AF37" t="s">
-        <v>1735</v>
+        <v>1737</v>
       </c>
       <c r="AG37" s="2" t="s">
-        <v>1856</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="38" spans="1:33">
@@ -10713,13 +10719,13 @@
         <v>108</v>
       </c>
       <c r="AE38" t="s">
-        <v>1651</v>
+        <v>1653</v>
       </c>
       <c r="AF38" t="s">
-        <v>1743</v>
+        <v>1745</v>
       </c>
       <c r="AG38" s="2" t="s">
-        <v>1857</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="39" spans="1:33">
@@ -10787,16 +10793,16 @@
         <v>108</v>
       </c>
       <c r="AD39" s="3" t="s">
-        <v>1576</v>
+        <v>1578</v>
       </c>
       <c r="AE39" t="s">
-        <v>1651</v>
+        <v>1653</v>
       </c>
       <c r="AF39" t="s">
-        <v>1743</v>
+        <v>1745</v>
       </c>
       <c r="AG39" s="2" t="s">
-        <v>1858</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="40" spans="1:33">
@@ -10867,13 +10873,13 @@
         <v>108</v>
       </c>
       <c r="AE40" t="s">
-        <v>1650</v>
+        <v>1652</v>
       </c>
       <c r="AF40" t="s">
-        <v>1742</v>
+        <v>1744</v>
       </c>
       <c r="AG40" s="2" t="s">
-        <v>1859</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="41" spans="1:33">
@@ -10944,13 +10950,13 @@
         <v>108</v>
       </c>
       <c r="AE41" t="s">
-        <v>1652</v>
+        <v>1654</v>
       </c>
       <c r="AF41" t="s">
-        <v>1744</v>
+        <v>1746</v>
       </c>
       <c r="AG41" s="2" t="s">
-        <v>1860</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="42" spans="1:33">
@@ -11021,13 +11027,13 @@
         <v>108</v>
       </c>
       <c r="AE42" t="s">
-        <v>1648</v>
+        <v>1650</v>
       </c>
       <c r="AF42" t="s">
-        <v>1741</v>
+        <v>1743</v>
       </c>
       <c r="AG42" s="2" t="s">
-        <v>1861</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="43" spans="1:33">
@@ -11098,13 +11104,13 @@
         <v>108</v>
       </c>
       <c r="AE43" t="s">
-        <v>1648</v>
+        <v>1650</v>
       </c>
       <c r="AF43" t="s">
-        <v>1741</v>
+        <v>1743</v>
       </c>
       <c r="AG43" s="2" t="s">
-        <v>1862</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="44" spans="1:33">
@@ -11175,13 +11181,13 @@
         <v>108</v>
       </c>
       <c r="AE44" t="s">
-        <v>1642</v>
+        <v>1644</v>
       </c>
       <c r="AF44" t="s">
-        <v>1735</v>
+        <v>1737</v>
       </c>
       <c r="AG44" s="2" t="s">
-        <v>1863</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="45" spans="1:33">
@@ -11252,13 +11258,13 @@
         <v>108</v>
       </c>
       <c r="AE45" t="s">
-        <v>1650</v>
+        <v>1652</v>
       </c>
       <c r="AF45" t="s">
-        <v>1742</v>
+        <v>1744</v>
       </c>
       <c r="AG45" s="2" t="s">
-        <v>1864</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="46" spans="1:33">
@@ -11329,13 +11335,13 @@
         <v>108</v>
       </c>
       <c r="AE46" t="s">
-        <v>1653</v>
+        <v>1655</v>
       </c>
       <c r="AF46" t="s">
-        <v>1745</v>
+        <v>1747</v>
       </c>
       <c r="AG46" s="2" t="s">
-        <v>1865</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="47" spans="1:33">
@@ -11406,13 +11412,13 @@
         <v>108</v>
       </c>
       <c r="AE47" t="s">
-        <v>1653</v>
+        <v>1655</v>
       </c>
       <c r="AF47" t="s">
-        <v>1745</v>
+        <v>1747</v>
       </c>
       <c r="AG47" s="2" t="s">
-        <v>1866</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="48" spans="1:33">
@@ -11483,13 +11489,13 @@
         <v>108</v>
       </c>
       <c r="AE48" t="s">
-        <v>1654</v>
+        <v>1656</v>
       </c>
       <c r="AF48" t="s">
-        <v>1746</v>
+        <v>1748</v>
       </c>
       <c r="AG48" s="2" t="s">
-        <v>1867</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="49" spans="1:33">
@@ -11560,13 +11566,13 @@
         <v>108</v>
       </c>
       <c r="AE49" t="s">
-        <v>1654</v>
+        <v>1656</v>
       </c>
       <c r="AF49" t="s">
-        <v>1746</v>
+        <v>1748</v>
       </c>
       <c r="AG49" s="2" t="s">
-        <v>1868</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="50" spans="1:33">
@@ -11637,13 +11643,13 @@
         <v>108</v>
       </c>
       <c r="AE50" t="s">
-        <v>1655</v>
+        <v>1657</v>
       </c>
       <c r="AF50" t="s">
-        <v>1747</v>
+        <v>1749</v>
       </c>
       <c r="AG50" s="2" t="s">
-        <v>1869</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="51" spans="1:33">
@@ -11714,13 +11720,13 @@
         <v>108</v>
       </c>
       <c r="AE51" t="s">
-        <v>1656</v>
+        <v>1658</v>
       </c>
       <c r="AF51" t="s">
-        <v>1748</v>
+        <v>1750</v>
       </c>
       <c r="AG51" s="2" t="s">
-        <v>1870</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="52" spans="1:33">
@@ -11791,13 +11797,13 @@
         <v>108</v>
       </c>
       <c r="AE52" t="s">
-        <v>1653</v>
+        <v>1655</v>
       </c>
       <c r="AF52" t="s">
-        <v>1745</v>
+        <v>1747</v>
       </c>
       <c r="AG52" s="2" t="s">
-        <v>1871</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="53" spans="1:33">
@@ -11865,16 +11871,16 @@
         <v>108</v>
       </c>
       <c r="AD53" s="3" t="s">
-        <v>1577</v>
+        <v>1579</v>
       </c>
       <c r="AE53" t="s">
-        <v>1653</v>
+        <v>1655</v>
       </c>
       <c r="AF53" t="s">
-        <v>1745</v>
+        <v>1747</v>
       </c>
       <c r="AG53" s="2" t="s">
-        <v>1872</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="54" spans="1:33">
@@ -11942,16 +11948,16 @@
         <v>108</v>
       </c>
       <c r="AD54" s="3" t="s">
-        <v>1578</v>
+        <v>1580</v>
       </c>
       <c r="AE54" t="s">
-        <v>1653</v>
+        <v>1655</v>
       </c>
       <c r="AF54" t="s">
-        <v>1745</v>
+        <v>1747</v>
       </c>
       <c r="AG54" s="2" t="s">
-        <v>1873</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="55" spans="1:33">
@@ -12019,16 +12025,16 @@
         <v>108</v>
       </c>
       <c r="AD55" s="3" t="s">
-        <v>1579</v>
+        <v>1581</v>
       </c>
       <c r="AE55" t="s">
-        <v>1653</v>
+        <v>1655</v>
       </c>
       <c r="AF55" t="s">
-        <v>1745</v>
+        <v>1747</v>
       </c>
       <c r="AG55" s="2" t="s">
-        <v>1874</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="56" spans="1:33">
@@ -12096,16 +12102,16 @@
         <v>108</v>
       </c>
       <c r="AD56" s="3" t="s">
-        <v>1580</v>
+        <v>1582</v>
       </c>
       <c r="AE56" t="s">
-        <v>1653</v>
+        <v>1655</v>
       </c>
       <c r="AF56" t="s">
-        <v>1745</v>
+        <v>1747</v>
       </c>
       <c r="AG56" s="2" t="s">
-        <v>1875</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="57" spans="1:33">
@@ -12173,16 +12179,16 @@
         <v>108</v>
       </c>
       <c r="AD57" s="3" t="s">
-        <v>1581</v>
+        <v>1583</v>
       </c>
       <c r="AE57" t="s">
-        <v>1657</v>
+        <v>1659</v>
       </c>
       <c r="AF57" t="s">
-        <v>1749</v>
+        <v>1751</v>
       </c>
       <c r="AG57" s="2" t="s">
-        <v>1876</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="58" spans="1:33">
@@ -12250,16 +12256,16 @@
         <v>108</v>
       </c>
       <c r="AD58" s="3" t="s">
-        <v>1582</v>
+        <v>1584</v>
       </c>
       <c r="AE58" t="s">
-        <v>1657</v>
+        <v>1659</v>
       </c>
       <c r="AF58" t="s">
-        <v>1749</v>
+        <v>1751</v>
       </c>
       <c r="AG58" s="2" t="s">
-        <v>1877</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="59" spans="1:33">
@@ -12330,13 +12336,13 @@
         <v>108</v>
       </c>
       <c r="AE59" t="s">
-        <v>1658</v>
+        <v>1660</v>
       </c>
       <c r="AF59" t="s">
-        <v>1750</v>
+        <v>1752</v>
       </c>
       <c r="AG59" s="2" t="s">
-        <v>1878</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="60" spans="1:33">
@@ -12404,16 +12410,16 @@
         <v>108</v>
       </c>
       <c r="AD60" s="3" t="s">
-        <v>1583</v>
+        <v>1585</v>
       </c>
       <c r="AE60" t="s">
-        <v>1659</v>
+        <v>1661</v>
       </c>
       <c r="AF60" t="s">
-        <v>1751</v>
+        <v>1753</v>
       </c>
       <c r="AG60" s="2" t="s">
-        <v>1879</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="61" spans="1:33">
@@ -12481,16 +12487,16 @@
         <v>108</v>
       </c>
       <c r="AD61" s="3" t="s">
-        <v>1584</v>
+        <v>1586</v>
       </c>
       <c r="AE61" t="s">
-        <v>1659</v>
+        <v>1661</v>
       </c>
       <c r="AF61" t="s">
-        <v>1751</v>
+        <v>1753</v>
       </c>
       <c r="AG61" s="2" t="s">
-        <v>1880</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="62" spans="1:33">
@@ -12558,16 +12564,16 @@
         <v>108</v>
       </c>
       <c r="AD62" s="3" t="s">
-        <v>1585</v>
+        <v>1587</v>
       </c>
       <c r="AE62" t="s">
-        <v>1659</v>
+        <v>1661</v>
       </c>
       <c r="AF62" t="s">
-        <v>1751</v>
+        <v>1753</v>
       </c>
       <c r="AG62" s="2" t="s">
-        <v>1881</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="63" spans="1:33">
@@ -12638,13 +12644,13 @@
         <v>108</v>
       </c>
       <c r="AE63" t="s">
-        <v>1660</v>
+        <v>1662</v>
       </c>
       <c r="AF63" t="s">
-        <v>1752</v>
+        <v>1754</v>
       </c>
       <c r="AG63" s="2" t="s">
-        <v>1882</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="64" spans="1:33">
@@ -12715,13 +12721,13 @@
         <v>108</v>
       </c>
       <c r="AE64" t="s">
-        <v>1661</v>
+        <v>1663</v>
       </c>
       <c r="AF64" t="s">
-        <v>1753</v>
+        <v>1755</v>
       </c>
       <c r="AG64" s="2" t="s">
-        <v>1883</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="65" spans="1:33">
@@ -12792,13 +12798,13 @@
         <v>108</v>
       </c>
       <c r="AE65" t="s">
-        <v>1661</v>
+        <v>1663</v>
       </c>
       <c r="AF65" t="s">
-        <v>1753</v>
+        <v>1755</v>
       </c>
       <c r="AG65" s="2" t="s">
-        <v>1884</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="66" spans="1:33">
@@ -12869,13 +12875,13 @@
         <v>108</v>
       </c>
       <c r="AE66" t="s">
-        <v>1662</v>
+        <v>1664</v>
       </c>
       <c r="AF66" t="s">
-        <v>1754</v>
+        <v>1756</v>
       </c>
       <c r="AG66" s="2" t="s">
-        <v>1885</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="67" spans="1:33">
@@ -12946,13 +12952,13 @@
         <v>108</v>
       </c>
       <c r="AE67" t="s">
-        <v>1649</v>
+        <v>1651</v>
       </c>
       <c r="AF67" t="s">
         <v>116</v>
       </c>
       <c r="AG67" s="2" t="s">
-        <v>1886</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="68" spans="1:33">
@@ -13023,13 +13029,13 @@
         <v>108</v>
       </c>
       <c r="AE68" t="s">
-        <v>1661</v>
+        <v>1663</v>
       </c>
       <c r="AF68" t="s">
-        <v>1753</v>
+        <v>1755</v>
       </c>
       <c r="AG68" s="2" t="s">
-        <v>1887</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="69" spans="1:33">
@@ -13100,13 +13106,13 @@
         <v>108</v>
       </c>
       <c r="AE69" t="s">
-        <v>1649</v>
+        <v>1651</v>
       </c>
       <c r="AF69" t="s">
         <v>116</v>
       </c>
       <c r="AG69" s="2" t="s">
-        <v>1888</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="70" spans="1:33">
@@ -13177,13 +13183,13 @@
         <v>108</v>
       </c>
       <c r="AE70" t="s">
-        <v>1663</v>
+        <v>1665</v>
       </c>
       <c r="AF70" t="s">
-        <v>1755</v>
+        <v>1757</v>
       </c>
       <c r="AG70" s="2" t="s">
-        <v>1889</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="71" spans="1:33">
@@ -13254,13 +13260,13 @@
         <v>108</v>
       </c>
       <c r="AE71" t="s">
-        <v>1651</v>
+        <v>1653</v>
       </c>
       <c r="AF71" t="s">
-        <v>1743</v>
+        <v>1745</v>
       </c>
       <c r="AG71" s="2" t="s">
-        <v>1890</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="72" spans="1:33">
@@ -13331,13 +13337,13 @@
         <v>108</v>
       </c>
       <c r="AE72" t="s">
-        <v>1651</v>
+        <v>1653</v>
       </c>
       <c r="AF72" t="s">
-        <v>1743</v>
+        <v>1745</v>
       </c>
       <c r="AG72" s="2" t="s">
-        <v>1891</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="73" spans="1:33">
@@ -13408,13 +13414,13 @@
         <v>108</v>
       </c>
       <c r="AE73" t="s">
-        <v>1651</v>
+        <v>1653</v>
       </c>
       <c r="AF73" t="s">
-        <v>1743</v>
+        <v>1745</v>
       </c>
       <c r="AG73" s="2" t="s">
-        <v>1892</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="74" spans="1:33">
@@ -13485,13 +13491,13 @@
         <v>108</v>
       </c>
       <c r="AE74" t="s">
-        <v>1662</v>
+        <v>1664</v>
       </c>
       <c r="AF74" t="s">
-        <v>1754</v>
+        <v>1756</v>
       </c>
       <c r="AG74" s="2" t="s">
-        <v>1893</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="75" spans="1:33">
@@ -13562,13 +13568,13 @@
         <v>108</v>
       </c>
       <c r="AE75" t="s">
-        <v>1649</v>
+        <v>1651</v>
       </c>
       <c r="AF75" t="s">
         <v>116</v>
       </c>
       <c r="AG75" s="2" t="s">
-        <v>1894</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="76" spans="1:33">
@@ -13639,13 +13645,13 @@
         <v>108</v>
       </c>
       <c r="AE76" t="s">
-        <v>1649</v>
+        <v>1651</v>
       </c>
       <c r="AF76" t="s">
         <v>116</v>
       </c>
       <c r="AG76" s="2" t="s">
-        <v>1895</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="77" spans="1:33">
@@ -13716,13 +13722,13 @@
         <v>108</v>
       </c>
       <c r="AE77" t="s">
-        <v>1664</v>
+        <v>1666</v>
       </c>
       <c r="AF77" t="s">
-        <v>1756</v>
+        <v>1758</v>
       </c>
       <c r="AG77" s="2" t="s">
-        <v>1896</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="78" spans="1:33">
@@ -13793,13 +13799,13 @@
         <v>108</v>
       </c>
       <c r="AE78" t="s">
-        <v>1636</v>
+        <v>1638</v>
       </c>
       <c r="AF78" t="s">
-        <v>1729</v>
+        <v>1731</v>
       </c>
       <c r="AG78" s="2" t="s">
-        <v>1897</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="79" spans="1:33">
@@ -13870,13 +13876,13 @@
         <v>108</v>
       </c>
       <c r="AE79" t="s">
-        <v>1661</v>
+        <v>1663</v>
       </c>
       <c r="AF79" t="s">
-        <v>1753</v>
+        <v>1755</v>
       </c>
       <c r="AG79" s="2" t="s">
-        <v>1898</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="80" spans="1:33">
@@ -13947,13 +13953,13 @@
         <v>108</v>
       </c>
       <c r="AE80" t="s">
-        <v>1661</v>
+        <v>1663</v>
       </c>
       <c r="AF80" t="s">
-        <v>1753</v>
+        <v>1755</v>
       </c>
       <c r="AG80" s="2" t="s">
-        <v>1899</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="81" spans="1:33">
@@ -14024,13 +14030,13 @@
         <v>108</v>
       </c>
       <c r="AE81" t="s">
-        <v>1661</v>
+        <v>1663</v>
       </c>
       <c r="AF81" t="s">
-        <v>1753</v>
+        <v>1755</v>
       </c>
       <c r="AG81" s="2" t="s">
-        <v>1900</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="82" spans="1:33">
@@ -14101,13 +14107,13 @@
         <v>108</v>
       </c>
       <c r="AE82" t="s">
-        <v>1665</v>
+        <v>1667</v>
       </c>
       <c r="AF82" t="s">
-        <v>1757</v>
+        <v>1759</v>
       </c>
       <c r="AG82" s="2" t="s">
-        <v>1901</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="83" spans="1:33">
@@ -14178,13 +14184,13 @@
         <v>108</v>
       </c>
       <c r="AE83" t="s">
-        <v>1660</v>
+        <v>1662</v>
       </c>
       <c r="AF83" t="s">
-        <v>1752</v>
+        <v>1754</v>
       </c>
       <c r="AG83" s="2" t="s">
-        <v>1902</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="84" spans="1:33">
@@ -14255,13 +14261,13 @@
         <v>108</v>
       </c>
       <c r="AE84" t="s">
-        <v>1664</v>
+        <v>1666</v>
       </c>
       <c r="AF84" t="s">
-        <v>1756</v>
+        <v>1758</v>
       </c>
       <c r="AG84" s="2" t="s">
-        <v>1903</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="85" spans="1:33">
@@ -14332,13 +14338,13 @@
         <v>108</v>
       </c>
       <c r="AE85" t="s">
-        <v>1665</v>
+        <v>1667</v>
       </c>
       <c r="AF85" t="s">
-        <v>1757</v>
+        <v>1759</v>
       </c>
       <c r="AG85" s="2" t="s">
-        <v>1904</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="86" spans="1:33">
@@ -14409,13 +14415,13 @@
         <v>108</v>
       </c>
       <c r="AE86" t="s">
-        <v>1642</v>
+        <v>1644</v>
       </c>
       <c r="AF86" t="s">
-        <v>1735</v>
+        <v>1737</v>
       </c>
       <c r="AG86" s="2" t="s">
-        <v>1905</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="87" spans="1:33">
@@ -14486,13 +14492,13 @@
         <v>108</v>
       </c>
       <c r="AE87" t="s">
-        <v>1644</v>
+        <v>1646</v>
       </c>
       <c r="AF87" t="s">
-        <v>1737</v>
+        <v>1739</v>
       </c>
       <c r="AG87" s="2" t="s">
-        <v>1906</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="88" spans="1:33">
@@ -14563,13 +14569,13 @@
         <v>108</v>
       </c>
       <c r="AE88" t="s">
-        <v>1644</v>
+        <v>1646</v>
       </c>
       <c r="AF88" t="s">
-        <v>1737</v>
+        <v>1739</v>
       </c>
       <c r="AG88" s="2" t="s">
-        <v>1907</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="89" spans="1:33">
@@ -14640,13 +14646,13 @@
         <v>108</v>
       </c>
       <c r="AE89" t="s">
-        <v>1637</v>
+        <v>1639</v>
       </c>
       <c r="AF89" t="s">
-        <v>1730</v>
+        <v>1732</v>
       </c>
       <c r="AG89" s="2" t="s">
-        <v>1908</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="90" spans="1:33">
@@ -14717,13 +14723,13 @@
         <v>108</v>
       </c>
       <c r="AE90" t="s">
-        <v>1666</v>
+        <v>1668</v>
       </c>
       <c r="AF90" t="s">
-        <v>1758</v>
+        <v>1760</v>
       </c>
       <c r="AG90" s="2" t="s">
-        <v>1909</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="91" spans="1:33">
@@ -14794,13 +14800,13 @@
         <v>108</v>
       </c>
       <c r="AE91" t="s">
-        <v>1639</v>
+        <v>1641</v>
       </c>
       <c r="AF91" t="s">
-        <v>1732</v>
+        <v>1734</v>
       </c>
       <c r="AG91" s="2" t="s">
-        <v>1910</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="92" spans="1:33">
@@ -14871,13 +14877,13 @@
         <v>108</v>
       </c>
       <c r="AE92" t="s">
-        <v>1660</v>
+        <v>1662</v>
       </c>
       <c r="AF92" t="s">
-        <v>1752</v>
+        <v>1754</v>
       </c>
       <c r="AG92" s="2" t="s">
-        <v>1911</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="93" spans="1:33">
@@ -14948,13 +14954,13 @@
         <v>108</v>
       </c>
       <c r="AE93" t="s">
-        <v>1667</v>
+        <v>1669</v>
       </c>
       <c r="AF93" t="s">
-        <v>1759</v>
+        <v>1761</v>
       </c>
       <c r="AG93" s="2" t="s">
-        <v>1912</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="94" spans="1:33">
@@ -15025,13 +15031,13 @@
         <v>108</v>
       </c>
       <c r="AE94" t="s">
-        <v>1668</v>
+        <v>1670</v>
       </c>
       <c r="AF94" t="s">
-        <v>1760</v>
+        <v>1762</v>
       </c>
       <c r="AG94" s="2" t="s">
-        <v>1913</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="95" spans="1:33">
@@ -15102,13 +15108,13 @@
         <v>108</v>
       </c>
       <c r="AE95" t="s">
-        <v>1637</v>
+        <v>1639</v>
       </c>
       <c r="AF95" t="s">
-        <v>1730</v>
+        <v>1732</v>
       </c>
       <c r="AG95" s="2" t="s">
-        <v>1914</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="96" spans="1:33">
@@ -15179,13 +15185,13 @@
         <v>108</v>
       </c>
       <c r="AE96" t="s">
-        <v>1664</v>
+        <v>1666</v>
       </c>
       <c r="AF96" t="s">
-        <v>1756</v>
+        <v>1758</v>
       </c>
       <c r="AG96" s="2" t="s">
-        <v>1915</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="97" spans="1:33">
@@ -15256,13 +15262,13 @@
         <v>108</v>
       </c>
       <c r="AE97" t="s">
-        <v>1667</v>
+        <v>1669</v>
       </c>
       <c r="AF97" t="s">
-        <v>1759</v>
+        <v>1761</v>
       </c>
       <c r="AG97" s="2" t="s">
-        <v>1916</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="98" spans="1:33">
@@ -15330,16 +15336,16 @@
         <v>108</v>
       </c>
       <c r="AD98" s="3" t="s">
-        <v>1586</v>
+        <v>1588</v>
       </c>
       <c r="AE98" t="s">
-        <v>1667</v>
+        <v>1669</v>
       </c>
       <c r="AF98" t="s">
-        <v>1759</v>
+        <v>1761</v>
       </c>
       <c r="AG98" s="2" t="s">
-        <v>1917</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="99" spans="1:33">
@@ -15407,16 +15413,16 @@
         <v>108</v>
       </c>
       <c r="AD99" s="3" t="s">
-        <v>1587</v>
+        <v>1589</v>
       </c>
       <c r="AE99" t="s">
-        <v>1667</v>
+        <v>1669</v>
       </c>
       <c r="AF99" t="s">
-        <v>1759</v>
+        <v>1761</v>
       </c>
       <c r="AG99" s="2" t="s">
-        <v>1918</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="100" spans="1:33">
@@ -15484,16 +15490,16 @@
         <v>108</v>
       </c>
       <c r="AD100" s="3" t="s">
-        <v>1588</v>
+        <v>1590</v>
       </c>
       <c r="AE100" t="s">
-        <v>1669</v>
+        <v>1671</v>
       </c>
       <c r="AF100" t="s">
-        <v>1761</v>
+        <v>1763</v>
       </c>
       <c r="AG100" s="2" t="s">
-        <v>1919</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="101" spans="1:33">
@@ -15561,16 +15567,16 @@
         <v>108</v>
       </c>
       <c r="AD101" s="3" t="s">
-        <v>1589</v>
+        <v>1591</v>
       </c>
       <c r="AE101" t="s">
-        <v>1669</v>
+        <v>1671</v>
       </c>
       <c r="AF101" t="s">
-        <v>1761</v>
+        <v>1763</v>
       </c>
       <c r="AG101" s="2" t="s">
-        <v>1920</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="102" spans="1:33">
@@ -15641,13 +15647,13 @@
         <v>108</v>
       </c>
       <c r="AE102" t="s">
-        <v>1669</v>
+        <v>1671</v>
       </c>
       <c r="AF102" t="s">
-        <v>1761</v>
+        <v>1763</v>
       </c>
       <c r="AG102" s="2" t="s">
-        <v>1921</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="103" spans="1:33">
@@ -15718,13 +15724,13 @@
         <v>108</v>
       </c>
       <c r="AE103" t="s">
-        <v>1668</v>
+        <v>1670</v>
       </c>
       <c r="AF103" t="s">
-        <v>1760</v>
+        <v>1762</v>
       </c>
       <c r="AG103" s="2" t="s">
-        <v>1922</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="104" spans="1:33">
@@ -15795,13 +15801,13 @@
         <v>108</v>
       </c>
       <c r="AE104" t="s">
-        <v>1666</v>
+        <v>1668</v>
       </c>
       <c r="AF104" t="s">
-        <v>1758</v>
+        <v>1760</v>
       </c>
       <c r="AG104" s="2" t="s">
-        <v>1923</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="105" spans="1:33">
@@ -15875,10 +15881,10 @@
         <v>115</v>
       </c>
       <c r="AF105" t="s">
-        <v>1762</v>
+        <v>1764</v>
       </c>
       <c r="AG105" s="2" t="s">
-        <v>1924</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="106" spans="1:33">
@@ -15949,13 +15955,13 @@
         <v>108</v>
       </c>
       <c r="AE106" t="s">
-        <v>1660</v>
+        <v>1662</v>
       </c>
       <c r="AF106" t="s">
-        <v>1752</v>
+        <v>1754</v>
       </c>
       <c r="AG106" s="2" t="s">
-        <v>1925</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="107" spans="1:33">
@@ -16026,13 +16032,13 @@
         <v>108</v>
       </c>
       <c r="AE107" t="s">
-        <v>1670</v>
+        <v>1672</v>
       </c>
       <c r="AF107" t="s">
-        <v>1763</v>
+        <v>1765</v>
       </c>
       <c r="AG107" s="2" t="s">
-        <v>1926</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="108" spans="1:33">
@@ -16103,13 +16109,13 @@
         <v>108</v>
       </c>
       <c r="AE108" t="s">
-        <v>1671</v>
+        <v>1673</v>
       </c>
       <c r="AF108" t="s">
-        <v>1764</v>
+        <v>1766</v>
       </c>
       <c r="AG108" s="2" t="s">
-        <v>1927</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="109" spans="1:33">
@@ -16183,13 +16189,13 @@
         <v>108</v>
       </c>
       <c r="AE109" t="s">
-        <v>1665</v>
+        <v>1667</v>
       </c>
       <c r="AF109" t="s">
-        <v>1757</v>
+        <v>1759</v>
       </c>
       <c r="AG109" s="2" t="s">
-        <v>1928</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="110" spans="1:33">
@@ -16260,13 +16266,13 @@
         <v>108</v>
       </c>
       <c r="AE110" t="s">
-        <v>1660</v>
+        <v>1662</v>
       </c>
       <c r="AF110" t="s">
-        <v>1752</v>
+        <v>1754</v>
       </c>
       <c r="AG110" s="2" t="s">
-        <v>1929</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="111" spans="1:33">
@@ -16337,13 +16343,13 @@
         <v>108</v>
       </c>
       <c r="AE111" t="s">
-        <v>1672</v>
+        <v>1674</v>
       </c>
       <c r="AF111" t="s">
-        <v>1765</v>
+        <v>1767</v>
       </c>
       <c r="AG111" s="2" t="s">
-        <v>1930</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="112" spans="1:33">
@@ -16414,13 +16420,13 @@
         <v>108</v>
       </c>
       <c r="AE112" t="s">
-        <v>1665</v>
+        <v>1667</v>
       </c>
       <c r="AF112" t="s">
-        <v>1757</v>
+        <v>1759</v>
       </c>
       <c r="AG112" s="2" t="s">
-        <v>1931</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="113" spans="1:33">
@@ -16491,13 +16497,13 @@
         <v>108</v>
       </c>
       <c r="AE113" t="s">
-        <v>1644</v>
+        <v>1646</v>
       </c>
       <c r="AF113" t="s">
-        <v>1737</v>
+        <v>1739</v>
       </c>
       <c r="AG113" s="2" t="s">
-        <v>1932</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="114" spans="1:33">
@@ -16568,13 +16574,13 @@
         <v>108</v>
       </c>
       <c r="AE114" t="s">
-        <v>1665</v>
+        <v>1667</v>
       </c>
       <c r="AF114" t="s">
-        <v>1757</v>
+        <v>1759</v>
       </c>
       <c r="AG114" s="2" t="s">
-        <v>1933</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="115" spans="1:33">
@@ -16645,13 +16651,13 @@
         <v>108</v>
       </c>
       <c r="AE115" t="s">
-        <v>1638</v>
+        <v>1640</v>
       </c>
       <c r="AF115" t="s">
-        <v>1731</v>
+        <v>1733</v>
       </c>
       <c r="AG115" s="2" t="s">
-        <v>1934</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="116" spans="1:33">
@@ -16722,13 +16728,13 @@
         <v>108</v>
       </c>
       <c r="AE116" t="s">
-        <v>1673</v>
+        <v>1675</v>
       </c>
       <c r="AF116" t="s">
-        <v>1766</v>
+        <v>1768</v>
       </c>
       <c r="AG116" s="2" t="s">
-        <v>1935</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="117" spans="1:33">
@@ -16796,16 +16802,16 @@
         <v>108</v>
       </c>
       <c r="AD117" s="3" t="s">
-        <v>1590</v>
+        <v>1592</v>
       </c>
       <c r="AE117" t="s">
-        <v>1638</v>
+        <v>1640</v>
       </c>
       <c r="AF117" t="s">
-        <v>1731</v>
+        <v>1733</v>
       </c>
       <c r="AG117" s="2" t="s">
-        <v>1936</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="118" spans="1:33">
@@ -16873,16 +16879,16 @@
         <v>108</v>
       </c>
       <c r="AD118" s="3" t="s">
-        <v>1591</v>
+        <v>1593</v>
       </c>
       <c r="AE118" t="s">
-        <v>1638</v>
+        <v>1640</v>
       </c>
       <c r="AF118" t="s">
-        <v>1731</v>
+        <v>1733</v>
       </c>
       <c r="AG118" s="2" t="s">
-        <v>1937</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="119" spans="1:33">
@@ -16953,13 +16959,13 @@
         <v>108</v>
       </c>
       <c r="AE119" t="s">
-        <v>1657</v>
+        <v>1659</v>
       </c>
       <c r="AF119" t="s">
-        <v>1749</v>
+        <v>1751</v>
       </c>
       <c r="AG119" s="2" t="s">
-        <v>1938</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="120" spans="1:33">
@@ -17030,13 +17036,13 @@
         <v>108</v>
       </c>
       <c r="AE120" t="s">
-        <v>1674</v>
+        <v>1676</v>
       </c>
       <c r="AF120" t="s">
-        <v>1767</v>
+        <v>1769</v>
       </c>
       <c r="AG120" s="2" t="s">
-        <v>1939</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="121" spans="1:33">
@@ -17107,13 +17113,13 @@
         <v>108</v>
       </c>
       <c r="AE121" t="s">
-        <v>1639</v>
+        <v>1641</v>
       </c>
       <c r="AF121" t="s">
-        <v>1732</v>
+        <v>1734</v>
       </c>
       <c r="AG121" s="2" t="s">
-        <v>1940</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="122" spans="1:33">
@@ -17181,16 +17187,16 @@
         <v>108</v>
       </c>
       <c r="AD122" s="3" t="s">
-        <v>1592</v>
+        <v>1594</v>
       </c>
       <c r="AE122" t="s">
-        <v>1639</v>
+        <v>1641</v>
       </c>
       <c r="AF122" t="s">
-        <v>1732</v>
+        <v>1734</v>
       </c>
       <c r="AG122" s="2" t="s">
-        <v>1941</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="123" spans="1:33">
@@ -17258,16 +17264,16 @@
         <v>108</v>
       </c>
       <c r="AD123" s="3" t="s">
-        <v>1593</v>
+        <v>1595</v>
       </c>
       <c r="AE123" t="s">
-        <v>1639</v>
+        <v>1641</v>
       </c>
       <c r="AF123" t="s">
-        <v>1732</v>
+        <v>1734</v>
       </c>
       <c r="AG123" s="2" t="s">
-        <v>1942</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="124" spans="1:33">
@@ -17338,13 +17344,13 @@
         <v>108</v>
       </c>
       <c r="AE124" t="s">
-        <v>1662</v>
+        <v>1664</v>
       </c>
       <c r="AF124" t="s">
-        <v>1754</v>
+        <v>1756</v>
       </c>
       <c r="AG124" s="2" t="s">
-        <v>1943</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="125" spans="1:33">
@@ -17412,16 +17418,16 @@
         <v>108</v>
       </c>
       <c r="AD125" s="3" t="s">
-        <v>1594</v>
+        <v>1596</v>
       </c>
       <c r="AE125" t="s">
-        <v>1644</v>
+        <v>1646</v>
       </c>
       <c r="AF125" t="s">
-        <v>1737</v>
+        <v>1739</v>
       </c>
       <c r="AG125" s="2" t="s">
-        <v>1944</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="126" spans="1:33">
@@ -17489,16 +17495,16 @@
         <v>108</v>
       </c>
       <c r="AD126" s="3" t="s">
-        <v>1595</v>
+        <v>1597</v>
       </c>
       <c r="AE126" t="s">
-        <v>1644</v>
+        <v>1646</v>
       </c>
       <c r="AF126" t="s">
-        <v>1737</v>
+        <v>1739</v>
       </c>
       <c r="AG126" s="2" t="s">
-        <v>1945</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="127" spans="1:33">
@@ -17566,16 +17572,16 @@
         <v>108</v>
       </c>
       <c r="AD127" s="3" t="s">
-        <v>1596</v>
+        <v>1598</v>
       </c>
       <c r="AE127" t="s">
-        <v>1644</v>
+        <v>1646</v>
       </c>
       <c r="AF127" t="s">
-        <v>1737</v>
+        <v>1739</v>
       </c>
       <c r="AG127" s="2" t="s">
-        <v>1946</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="128" spans="1:33">
@@ -17643,16 +17649,16 @@
         <v>108</v>
       </c>
       <c r="AD128" s="3" t="s">
-        <v>1597</v>
+        <v>1599</v>
       </c>
       <c r="AE128" t="s">
-        <v>1644</v>
+        <v>1646</v>
       </c>
       <c r="AF128" t="s">
-        <v>1737</v>
+        <v>1739</v>
       </c>
       <c r="AG128" s="2" t="s">
-        <v>1947</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="129" spans="1:33">
@@ -17720,16 +17726,16 @@
         <v>108</v>
       </c>
       <c r="AD129" s="3" t="s">
-        <v>1598</v>
+        <v>1600</v>
       </c>
       <c r="AE129" t="s">
-        <v>1644</v>
+        <v>1646</v>
       </c>
       <c r="AF129" t="s">
-        <v>1737</v>
+        <v>1739</v>
       </c>
       <c r="AG129" s="2" t="s">
-        <v>1948</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="130" spans="1:33">
@@ -17797,16 +17803,16 @@
         <v>108</v>
       </c>
       <c r="AD130" s="3" t="s">
-        <v>1599</v>
+        <v>1601</v>
       </c>
       <c r="AE130" t="s">
-        <v>1644</v>
+        <v>1646</v>
       </c>
       <c r="AF130" t="s">
-        <v>1737</v>
+        <v>1739</v>
       </c>
       <c r="AG130" s="2" t="s">
-        <v>1949</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="131" spans="1:33">
@@ -17877,13 +17883,13 @@
         <v>108</v>
       </c>
       <c r="AE131" t="s">
-        <v>1657</v>
+        <v>1659</v>
       </c>
       <c r="AF131" t="s">
-        <v>1749</v>
+        <v>1751</v>
       </c>
       <c r="AG131" s="2" t="s">
-        <v>1950</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="132" spans="1:33">
@@ -17954,13 +17960,13 @@
         <v>108</v>
       </c>
       <c r="AE132" t="s">
-        <v>1657</v>
+        <v>1659</v>
       </c>
       <c r="AF132" t="s">
-        <v>1749</v>
+        <v>1751</v>
       </c>
       <c r="AG132" s="2" t="s">
-        <v>1951</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="133" spans="1:33">
@@ -18031,13 +18037,13 @@
         <v>108</v>
       </c>
       <c r="AE133" t="s">
-        <v>1657</v>
+        <v>1659</v>
       </c>
       <c r="AF133" t="s">
-        <v>1749</v>
+        <v>1751</v>
       </c>
       <c r="AG133" s="2" t="s">
-        <v>1952</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="134" spans="1:33">
@@ -18108,13 +18114,13 @@
         <v>108</v>
       </c>
       <c r="AE134" t="s">
-        <v>1657</v>
+        <v>1659</v>
       </c>
       <c r="AF134" t="s">
-        <v>1749</v>
+        <v>1751</v>
       </c>
       <c r="AG134" s="2" t="s">
-        <v>1953</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="135" spans="1:33">
@@ -18185,13 +18191,13 @@
         <v>108</v>
       </c>
       <c r="AE135" t="s">
-        <v>1657</v>
+        <v>1659</v>
       </c>
       <c r="AF135" t="s">
-        <v>1749</v>
+        <v>1751</v>
       </c>
       <c r="AG135" s="2" t="s">
-        <v>1954</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="136" spans="1:33">
@@ -18262,13 +18268,13 @@
         <v>108</v>
       </c>
       <c r="AE136" t="s">
-        <v>1657</v>
+        <v>1659</v>
       </c>
       <c r="AF136" t="s">
-        <v>1749</v>
+        <v>1751</v>
       </c>
       <c r="AG136" s="2" t="s">
-        <v>1955</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="137" spans="1:33">
@@ -18339,13 +18345,13 @@
         <v>108</v>
       </c>
       <c r="AE137" t="s">
-        <v>1651</v>
+        <v>1653</v>
       </c>
       <c r="AF137" t="s">
-        <v>1743</v>
+        <v>1745</v>
       </c>
       <c r="AG137" s="2" t="s">
-        <v>1956</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="138" spans="1:33">
@@ -18416,13 +18422,13 @@
         <v>108</v>
       </c>
       <c r="AE138" t="s">
-        <v>1657</v>
+        <v>1659</v>
       </c>
       <c r="AF138" t="s">
-        <v>1749</v>
+        <v>1751</v>
       </c>
       <c r="AG138" s="2" t="s">
-        <v>1957</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="139" spans="1:33">
@@ -18493,13 +18499,13 @@
         <v>108</v>
       </c>
       <c r="AE139" t="s">
-        <v>1657</v>
+        <v>1659</v>
       </c>
       <c r="AF139" t="s">
-        <v>1749</v>
+        <v>1751</v>
       </c>
       <c r="AG139" s="2" t="s">
-        <v>1958</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="140" spans="1:33">
@@ -18570,13 +18576,13 @@
         <v>108</v>
       </c>
       <c r="AE140" t="s">
-        <v>1659</v>
+        <v>1661</v>
       </c>
       <c r="AF140" t="s">
-        <v>1751</v>
+        <v>1753</v>
       </c>
       <c r="AG140" s="2" t="s">
-        <v>1959</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="141" spans="1:33">
@@ -18647,13 +18653,13 @@
         <v>108</v>
       </c>
       <c r="AE141" t="s">
-        <v>1657</v>
+        <v>1659</v>
       </c>
       <c r="AF141" t="s">
-        <v>1749</v>
+        <v>1751</v>
       </c>
       <c r="AG141" s="2" t="s">
-        <v>1960</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="142" spans="1:33">
@@ -18724,13 +18730,13 @@
         <v>108</v>
       </c>
       <c r="AE142" t="s">
-        <v>1657</v>
+        <v>1659</v>
       </c>
       <c r="AF142" t="s">
-        <v>1749</v>
+        <v>1751</v>
       </c>
       <c r="AG142" s="2" t="s">
-        <v>1961</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="143" spans="1:33">
@@ -18801,13 +18807,13 @@
         <v>108</v>
       </c>
       <c r="AE143" t="s">
-        <v>1657</v>
+        <v>1659</v>
       </c>
       <c r="AF143" t="s">
-        <v>1749</v>
+        <v>1751</v>
       </c>
       <c r="AG143" s="2" t="s">
-        <v>1962</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="144" spans="1:33">
@@ -18878,13 +18884,13 @@
         <v>108</v>
       </c>
       <c r="AE144" t="s">
-        <v>1657</v>
+        <v>1659</v>
       </c>
       <c r="AF144" t="s">
-        <v>1749</v>
+        <v>1751</v>
       </c>
       <c r="AG144" s="2" t="s">
-        <v>1963</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="145" spans="1:33">
@@ -18955,13 +18961,13 @@
         <v>108</v>
       </c>
       <c r="AE145" t="s">
-        <v>1657</v>
+        <v>1659</v>
       </c>
       <c r="AF145" t="s">
-        <v>1749</v>
+        <v>1751</v>
       </c>
       <c r="AG145" s="2" t="s">
-        <v>1964</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="146" spans="1:33">
@@ -19032,13 +19038,13 @@
         <v>108</v>
       </c>
       <c r="AE146" t="s">
-        <v>1657</v>
+        <v>1659</v>
       </c>
       <c r="AF146" t="s">
-        <v>1749</v>
+        <v>1751</v>
       </c>
       <c r="AG146" s="2" t="s">
-        <v>1965</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="147" spans="1:33">
@@ -19109,13 +19115,13 @@
         <v>108</v>
       </c>
       <c r="AE147" t="s">
-        <v>1657</v>
+        <v>1659</v>
       </c>
       <c r="AF147" t="s">
-        <v>1749</v>
+        <v>1751</v>
       </c>
       <c r="AG147" s="2" t="s">
-        <v>1966</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="148" spans="1:33">
@@ -19186,13 +19192,13 @@
         <v>108</v>
       </c>
       <c r="AE148" t="s">
-        <v>1657</v>
+        <v>1659</v>
       </c>
       <c r="AF148" t="s">
-        <v>1749</v>
+        <v>1751</v>
       </c>
       <c r="AG148" s="2" t="s">
-        <v>1967</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="149" spans="1:33">
@@ -19263,13 +19269,13 @@
         <v>108</v>
       </c>
       <c r="AE149" t="s">
-        <v>1657</v>
+        <v>1659</v>
       </c>
       <c r="AF149" t="s">
-        <v>1749</v>
+        <v>1751</v>
       </c>
       <c r="AG149" s="2" t="s">
-        <v>1968</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="150" spans="1:33">
@@ -19340,13 +19346,13 @@
         <v>108</v>
       </c>
       <c r="AE150" t="s">
-        <v>1657</v>
+        <v>1659</v>
       </c>
       <c r="AF150" t="s">
-        <v>1749</v>
+        <v>1751</v>
       </c>
       <c r="AG150" s="2" t="s">
-        <v>1969</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="151" spans="1:33">
@@ -19417,13 +19423,13 @@
         <v>108</v>
       </c>
       <c r="AE151" t="s">
-        <v>1657</v>
+        <v>1659</v>
       </c>
       <c r="AF151" t="s">
-        <v>1749</v>
+        <v>1751</v>
       </c>
       <c r="AG151" s="2" t="s">
-        <v>1970</v>
+        <v>1972</v>
       </c>
     </row>
     <row r="152" spans="1:33">
@@ -19494,13 +19500,13 @@
         <v>108</v>
       </c>
       <c r="AE152" t="s">
-        <v>1657</v>
+        <v>1659</v>
       </c>
       <c r="AF152" t="s">
-        <v>1749</v>
+        <v>1751</v>
       </c>
       <c r="AG152" s="2" t="s">
-        <v>1971</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="153" spans="1:33">
@@ -19571,13 +19577,13 @@
         <v>108</v>
       </c>
       <c r="AE153" t="s">
-        <v>1657</v>
+        <v>1659</v>
       </c>
       <c r="AF153" t="s">
-        <v>1749</v>
+        <v>1751</v>
       </c>
       <c r="AG153" s="2" t="s">
-        <v>1972</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="154" spans="1:33">
@@ -19648,13 +19654,13 @@
         <v>108</v>
       </c>
       <c r="AE154" t="s">
-        <v>1665</v>
+        <v>1667</v>
       </c>
       <c r="AF154" t="s">
-        <v>1757</v>
+        <v>1759</v>
       </c>
       <c r="AG154" s="2" t="s">
-        <v>1973</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="155" spans="1:33">
@@ -19725,13 +19731,13 @@
         <v>108</v>
       </c>
       <c r="AE155" t="s">
-        <v>1657</v>
+        <v>1659</v>
       </c>
       <c r="AF155" t="s">
-        <v>1749</v>
+        <v>1751</v>
       </c>
       <c r="AG155" s="2" t="s">
-        <v>1974</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="156" spans="1:33">
@@ -19799,16 +19805,16 @@
         <v>108</v>
       </c>
       <c r="AD156" s="3" t="s">
-        <v>1600</v>
+        <v>1602</v>
       </c>
       <c r="AE156" t="s">
-        <v>1642</v>
+        <v>1644</v>
       </c>
       <c r="AF156" t="s">
-        <v>1735</v>
+        <v>1737</v>
       </c>
       <c r="AG156" s="2" t="s">
-        <v>1975</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="157" spans="1:33">
@@ -19876,16 +19882,16 @@
         <v>108</v>
       </c>
       <c r="AD157" s="3" t="s">
-        <v>1601</v>
+        <v>1603</v>
       </c>
       <c r="AE157" t="s">
-        <v>1642</v>
+        <v>1644</v>
       </c>
       <c r="AF157" t="s">
-        <v>1735</v>
+        <v>1737</v>
       </c>
       <c r="AG157" s="2" t="s">
-        <v>1976</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="158" spans="1:33">
@@ -19953,16 +19959,16 @@
         <v>108</v>
       </c>
       <c r="AD158" s="3" t="s">
-        <v>1602</v>
+        <v>1604</v>
       </c>
       <c r="AE158" t="s">
-        <v>1642</v>
+        <v>1644</v>
       </c>
       <c r="AF158" t="s">
-        <v>1735</v>
+        <v>1737</v>
       </c>
       <c r="AG158" s="2" t="s">
-        <v>1977</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="159" spans="1:33">
@@ -20030,16 +20036,16 @@
         <v>108</v>
       </c>
       <c r="AD159" s="3" t="s">
-        <v>1603</v>
+        <v>1605</v>
       </c>
       <c r="AE159" t="s">
-        <v>1642</v>
+        <v>1644</v>
       </c>
       <c r="AF159" t="s">
-        <v>1735</v>
+        <v>1737</v>
       </c>
       <c r="AG159" s="2" t="s">
-        <v>1978</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="160" spans="1:33">
@@ -20107,16 +20113,16 @@
         <v>108</v>
       </c>
       <c r="AD160" s="3" t="s">
-        <v>1604</v>
+        <v>1606</v>
       </c>
       <c r="AE160" t="s">
-        <v>1642</v>
+        <v>1644</v>
       </c>
       <c r="AF160" t="s">
-        <v>1735</v>
+        <v>1737</v>
       </c>
       <c r="AG160" s="2" t="s">
-        <v>1979</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="161" spans="1:33">
@@ -20187,13 +20193,13 @@
         <v>108</v>
       </c>
       <c r="AE161" t="s">
-        <v>1657</v>
+        <v>1659</v>
       </c>
       <c r="AF161" t="s">
-        <v>1749</v>
+        <v>1751</v>
       </c>
       <c r="AG161" s="2" t="s">
-        <v>1980</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="162" spans="1:33">
@@ -20264,13 +20270,13 @@
         <v>108</v>
       </c>
       <c r="AE162" t="s">
-        <v>1657</v>
+        <v>1659</v>
       </c>
       <c r="AF162" t="s">
-        <v>1749</v>
+        <v>1751</v>
       </c>
       <c r="AG162" s="2" t="s">
-        <v>1981</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="163" spans="1:33">
@@ -20341,13 +20347,13 @@
         <v>108</v>
       </c>
       <c r="AE163" t="s">
-        <v>1665</v>
+        <v>1667</v>
       </c>
       <c r="AF163" t="s">
-        <v>1757</v>
+        <v>1759</v>
       </c>
       <c r="AG163" s="2" t="s">
-        <v>1982</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="164" spans="1:33">
@@ -20418,13 +20424,13 @@
         <v>108</v>
       </c>
       <c r="AE164" t="s">
-        <v>1657</v>
+        <v>1659</v>
       </c>
       <c r="AF164" t="s">
-        <v>1749</v>
+        <v>1751</v>
       </c>
       <c r="AG164" s="2" t="s">
-        <v>1983</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="165" spans="1:33">
@@ -20495,13 +20501,13 @@
         <v>108</v>
       </c>
       <c r="AE165" t="s">
-        <v>1657</v>
+        <v>1659</v>
       </c>
       <c r="AF165" t="s">
-        <v>1749</v>
+        <v>1751</v>
       </c>
       <c r="AG165" s="2" t="s">
-        <v>1984</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="166" spans="1:33">
@@ -20572,13 +20578,13 @@
         <v>108</v>
       </c>
       <c r="AE166" t="s">
-        <v>1657</v>
+        <v>1659</v>
       </c>
       <c r="AF166" t="s">
-        <v>1749</v>
+        <v>1751</v>
       </c>
       <c r="AG166" s="2" t="s">
-        <v>1985</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="167" spans="1:33">
@@ -20649,13 +20655,13 @@
         <v>108</v>
       </c>
       <c r="AE167" t="s">
-        <v>1657</v>
+        <v>1659</v>
       </c>
       <c r="AF167" t="s">
-        <v>1749</v>
+        <v>1751</v>
       </c>
       <c r="AG167" s="2" t="s">
-        <v>1986</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="168" spans="1:33">
@@ -20726,13 +20732,13 @@
         <v>108</v>
       </c>
       <c r="AE168" t="s">
-        <v>1657</v>
+        <v>1659</v>
       </c>
       <c r="AF168" t="s">
-        <v>1749</v>
+        <v>1751</v>
       </c>
       <c r="AG168" s="2" t="s">
-        <v>1987</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="169" spans="1:33">
@@ -20803,13 +20809,13 @@
         <v>108</v>
       </c>
       <c r="AE169" t="s">
-        <v>1657</v>
+        <v>1659</v>
       </c>
       <c r="AF169" t="s">
-        <v>1749</v>
+        <v>1751</v>
       </c>
       <c r="AG169" s="2" t="s">
-        <v>1988</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="170" spans="1:33">
@@ -20880,13 +20886,13 @@
         <v>108</v>
       </c>
       <c r="AE170" t="s">
-        <v>1657</v>
+        <v>1659</v>
       </c>
       <c r="AF170" t="s">
-        <v>1749</v>
+        <v>1751</v>
       </c>
       <c r="AG170" s="2" t="s">
-        <v>1989</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="171" spans="1:33">
@@ -20954,16 +20960,16 @@
         <v>108</v>
       </c>
       <c r="AD171" s="3" t="s">
-        <v>1605</v>
+        <v>1607</v>
       </c>
       <c r="AE171" t="s">
-        <v>1644</v>
+        <v>1646</v>
       </c>
       <c r="AF171" t="s">
-        <v>1737</v>
+        <v>1739</v>
       </c>
       <c r="AG171" s="2" t="s">
-        <v>1990</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="172" spans="1:33">
@@ -21031,16 +21037,16 @@
         <v>108</v>
       </c>
       <c r="AD172" s="3" t="s">
-        <v>1606</v>
+        <v>1608</v>
       </c>
       <c r="AE172" t="s">
-        <v>1644</v>
+        <v>1646</v>
       </c>
       <c r="AF172" t="s">
-        <v>1737</v>
+        <v>1739</v>
       </c>
       <c r="AG172" s="2" t="s">
-        <v>1991</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="173" spans="1:33">
@@ -21111,13 +21117,13 @@
         <v>108</v>
       </c>
       <c r="AE173" t="s">
-        <v>1644</v>
+        <v>1646</v>
       </c>
       <c r="AF173" t="s">
-        <v>1737</v>
+        <v>1739</v>
       </c>
       <c r="AG173" s="2" t="s">
-        <v>1992</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="174" spans="1:33">
@@ -21188,13 +21194,13 @@
         <v>108</v>
       </c>
       <c r="AE174" t="s">
-        <v>1665</v>
+        <v>1667</v>
       </c>
       <c r="AF174" t="s">
-        <v>1757</v>
+        <v>1759</v>
       </c>
       <c r="AG174" s="2" t="s">
-        <v>1993</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="175" spans="1:33">
@@ -21265,13 +21271,13 @@
         <v>108</v>
       </c>
       <c r="AE175" t="s">
-        <v>1657</v>
+        <v>1659</v>
       </c>
       <c r="AF175" t="s">
-        <v>1749</v>
+        <v>1751</v>
       </c>
       <c r="AG175" s="2" t="s">
-        <v>1994</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="176" spans="1:33">
@@ -21342,13 +21348,13 @@
         <v>108</v>
       </c>
       <c r="AE176" t="s">
-        <v>1657</v>
+        <v>1659</v>
       </c>
       <c r="AF176" t="s">
-        <v>1749</v>
+        <v>1751</v>
       </c>
       <c r="AG176" s="2" t="s">
-        <v>1995</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="177" spans="1:33">
@@ -21419,13 +21425,13 @@
         <v>108</v>
       </c>
       <c r="AE177" t="s">
-        <v>1665</v>
+        <v>1667</v>
       </c>
       <c r="AF177" t="s">
-        <v>1757</v>
+        <v>1759</v>
       </c>
       <c r="AG177" s="2" t="s">
-        <v>1996</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="178" spans="1:33">
@@ -21496,13 +21502,13 @@
         <v>108</v>
       </c>
       <c r="AE178" t="s">
-        <v>1657</v>
+        <v>1659</v>
       </c>
       <c r="AF178" t="s">
-        <v>1749</v>
+        <v>1751</v>
       </c>
       <c r="AG178" s="2" t="s">
-        <v>1997</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="179" spans="1:33">
@@ -21573,13 +21579,13 @@
         <v>108</v>
       </c>
       <c r="AE179" t="s">
-        <v>1657</v>
+        <v>1659</v>
       </c>
       <c r="AF179" t="s">
-        <v>1749</v>
+        <v>1751</v>
       </c>
       <c r="AG179" s="2" t="s">
-        <v>1998</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="180" spans="1:33">
@@ -21647,16 +21653,16 @@
         <v>108</v>
       </c>
       <c r="AD180" s="3" t="s">
-        <v>1607</v>
+        <v>1609</v>
       </c>
       <c r="AE180" t="s">
-        <v>1675</v>
+        <v>1677</v>
       </c>
       <c r="AF180" t="s">
-        <v>1768</v>
+        <v>1770</v>
       </c>
       <c r="AG180" s="2" t="s">
-        <v>1999</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="181" spans="1:33">
@@ -21724,16 +21730,16 @@
         <v>108</v>
       </c>
       <c r="AD181" s="3" t="s">
-        <v>1608</v>
+        <v>1610</v>
       </c>
       <c r="AE181" t="s">
-        <v>1675</v>
+        <v>1677</v>
       </c>
       <c r="AF181" t="s">
-        <v>1768</v>
+        <v>1770</v>
       </c>
       <c r="AG181" s="2" t="s">
-        <v>2000</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="182" spans="1:33">
@@ -21804,13 +21810,13 @@
         <v>108</v>
       </c>
       <c r="AE182" t="s">
-        <v>1676</v>
+        <v>1678</v>
       </c>
       <c r="AF182" t="s">
-        <v>1769</v>
+        <v>1771</v>
       </c>
       <c r="AG182" s="2" t="s">
-        <v>2001</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="183" spans="1:33">
@@ -21881,13 +21887,13 @@
         <v>108</v>
       </c>
       <c r="AE183" t="s">
-        <v>1677</v>
+        <v>1679</v>
       </c>
       <c r="AF183" t="s">
-        <v>1770</v>
+        <v>1772</v>
       </c>
       <c r="AG183" s="2" t="s">
-        <v>2002</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="184" spans="1:33">
@@ -21958,13 +21964,13 @@
         <v>108</v>
       </c>
       <c r="AE184" t="s">
-        <v>1676</v>
+        <v>1678</v>
       </c>
       <c r="AF184" t="s">
-        <v>1769</v>
+        <v>1771</v>
       </c>
       <c r="AG184" s="2" t="s">
-        <v>2003</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="185" spans="1:33">
@@ -22035,13 +22041,13 @@
         <v>108</v>
       </c>
       <c r="AE185" t="s">
-        <v>1676</v>
+        <v>1678</v>
       </c>
       <c r="AF185" t="s">
-        <v>1769</v>
+        <v>1771</v>
       </c>
       <c r="AG185" s="2" t="s">
-        <v>2004</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="186" spans="1:33">
@@ -22112,13 +22118,13 @@
         <v>108</v>
       </c>
       <c r="AE186" t="s">
-        <v>1676</v>
+        <v>1678</v>
       </c>
       <c r="AF186" t="s">
-        <v>1769</v>
+        <v>1771</v>
       </c>
       <c r="AG186" s="2" t="s">
-        <v>2005</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="187" spans="1:33">
@@ -22189,13 +22195,13 @@
         <v>108</v>
       </c>
       <c r="AE187" t="s">
-        <v>1637</v>
+        <v>1639</v>
       </c>
       <c r="AF187" t="s">
-        <v>1730</v>
+        <v>1732</v>
       </c>
       <c r="AG187" s="2" t="s">
-        <v>2006</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="188" spans="1:33">
@@ -22266,13 +22272,13 @@
         <v>108</v>
       </c>
       <c r="AE188" t="s">
-        <v>1637</v>
+        <v>1639</v>
       </c>
       <c r="AF188" t="s">
-        <v>1730</v>
+        <v>1732</v>
       </c>
       <c r="AG188" s="2" t="s">
-        <v>2007</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="189" spans="1:33">
@@ -22340,16 +22346,16 @@
         <v>108</v>
       </c>
       <c r="AD189" s="3" t="s">
-        <v>1609</v>
+        <v>1611</v>
       </c>
       <c r="AE189" t="s">
-        <v>1644</v>
+        <v>1646</v>
       </c>
       <c r="AF189" t="s">
-        <v>1737</v>
+        <v>1739</v>
       </c>
       <c r="AG189" s="2" t="s">
-        <v>2008</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="190" spans="1:33">
@@ -22417,16 +22423,16 @@
         <v>108</v>
       </c>
       <c r="AD190" s="3" t="s">
-        <v>1610</v>
+        <v>1612</v>
       </c>
       <c r="AE190" t="s">
-        <v>1644</v>
+        <v>1646</v>
       </c>
       <c r="AF190" t="s">
-        <v>1737</v>
+        <v>1739</v>
       </c>
       <c r="AG190" s="2" t="s">
-        <v>2009</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="191" spans="1:33">
@@ -22494,16 +22500,16 @@
         <v>108</v>
       </c>
       <c r="AD191" s="3" t="s">
-        <v>1611</v>
+        <v>1613</v>
       </c>
       <c r="AE191" t="s">
-        <v>1644</v>
+        <v>1646</v>
       </c>
       <c r="AF191" t="s">
-        <v>1737</v>
+        <v>1739</v>
       </c>
       <c r="AG191" s="2" t="s">
-        <v>2010</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="192" spans="1:33">
@@ -22574,13 +22580,13 @@
         <v>108</v>
       </c>
       <c r="AE192" t="s">
-        <v>1678</v>
+        <v>1680</v>
       </c>
       <c r="AF192" t="s">
-        <v>1771</v>
+        <v>1773</v>
       </c>
       <c r="AG192" s="2" t="s">
-        <v>2011</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="193" spans="1:33">
@@ -22651,13 +22657,13 @@
         <v>108</v>
       </c>
       <c r="AE193" t="s">
-        <v>1678</v>
+        <v>1680</v>
       </c>
       <c r="AF193" t="s">
-        <v>1771</v>
+        <v>1773</v>
       </c>
       <c r="AG193" s="2" t="s">
-        <v>2012</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="194" spans="1:33">
@@ -22728,13 +22734,13 @@
         <v>108</v>
       </c>
       <c r="AE194" t="s">
-        <v>1637</v>
+        <v>1639</v>
       </c>
       <c r="AF194" t="s">
-        <v>1730</v>
+        <v>1732</v>
       </c>
       <c r="AG194" s="2" t="s">
-        <v>2013</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="195" spans="1:33">
@@ -22805,13 +22811,13 @@
         <v>108</v>
       </c>
       <c r="AE195" t="s">
-        <v>1679</v>
+        <v>1681</v>
       </c>
       <c r="AF195" t="s">
-        <v>1772</v>
+        <v>1774</v>
       </c>
       <c r="AG195" s="2" t="s">
-        <v>2014</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="196" spans="1:33">
@@ -22882,13 +22888,13 @@
         <v>108</v>
       </c>
       <c r="AE196" t="s">
-        <v>1668</v>
+        <v>1670</v>
       </c>
       <c r="AF196" t="s">
-        <v>1760</v>
+        <v>1762</v>
       </c>
       <c r="AG196" s="2" t="s">
-        <v>2015</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="197" spans="1:33">
@@ -22959,13 +22965,13 @@
         <v>108</v>
       </c>
       <c r="AE197" t="s">
-        <v>1637</v>
+        <v>1639</v>
       </c>
       <c r="AF197" t="s">
-        <v>1730</v>
+        <v>1732</v>
       </c>
       <c r="AG197" s="2" t="s">
-        <v>2016</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="198" spans="1:33">
@@ -23036,13 +23042,13 @@
         <v>108</v>
       </c>
       <c r="AE198" t="s">
-        <v>1680</v>
+        <v>1682</v>
       </c>
       <c r="AF198" t="s">
-        <v>1773</v>
+        <v>1775</v>
       </c>
       <c r="AG198" s="2" t="s">
-        <v>2017</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="199" spans="1:33">
@@ -23113,13 +23119,13 @@
         <v>108</v>
       </c>
       <c r="AE199" t="s">
-        <v>1670</v>
+        <v>1672</v>
       </c>
       <c r="AF199" t="s">
-        <v>1763</v>
+        <v>1765</v>
       </c>
       <c r="AG199" s="2" t="s">
-        <v>2018</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="200" spans="1:33">
@@ -23190,13 +23196,13 @@
         <v>108</v>
       </c>
       <c r="AE200" t="s">
-        <v>1681</v>
+        <v>1683</v>
       </c>
       <c r="AF200" t="s">
-        <v>1774</v>
+        <v>1776</v>
       </c>
       <c r="AG200" s="2" t="s">
-        <v>2019</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="201" spans="1:33">
@@ -23264,16 +23270,16 @@
         <v>108</v>
       </c>
       <c r="AD201" s="3" t="s">
-        <v>1612</v>
+        <v>1614</v>
       </c>
       <c r="AE201" t="s">
-        <v>1644</v>
+        <v>1646</v>
       </c>
       <c r="AF201" t="s">
-        <v>1737</v>
+        <v>1739</v>
       </c>
       <c r="AG201" s="2" t="s">
-        <v>2020</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="202" spans="1:33">
@@ -23341,16 +23347,16 @@
         <v>108</v>
       </c>
       <c r="AD202" s="3" t="s">
-        <v>1613</v>
+        <v>1615</v>
       </c>
       <c r="AE202" t="s">
-        <v>1644</v>
+        <v>1646</v>
       </c>
       <c r="AF202" t="s">
-        <v>1737</v>
+        <v>1739</v>
       </c>
       <c r="AG202" s="2" t="s">
-        <v>2021</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="203" spans="1:33">
@@ -23421,13 +23427,13 @@
         <v>108</v>
       </c>
       <c r="AE203" t="s">
-        <v>1682</v>
+        <v>1684</v>
       </c>
       <c r="AF203" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
       <c r="AG203" s="2" t="s">
-        <v>2022</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="204" spans="1:33">
@@ -23498,13 +23504,13 @@
         <v>108</v>
       </c>
       <c r="AE204" t="s">
-        <v>1678</v>
+        <v>1680</v>
       </c>
       <c r="AF204" t="s">
-        <v>1771</v>
+        <v>1773</v>
       </c>
       <c r="AG204" s="2" t="s">
-        <v>2023</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="205" spans="1:33">
@@ -23575,13 +23581,13 @@
         <v>108</v>
       </c>
       <c r="AE205" t="s">
-        <v>1683</v>
+        <v>1685</v>
       </c>
       <c r="AF205" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
       <c r="AG205" s="2" t="s">
-        <v>2024</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="206" spans="1:33">
@@ -23649,16 +23655,16 @@
         <v>108</v>
       </c>
       <c r="AD206" s="3" t="s">
-        <v>1614</v>
+        <v>1616</v>
       </c>
       <c r="AE206" t="s">
-        <v>1670</v>
+        <v>1672</v>
       </c>
       <c r="AF206" t="s">
-        <v>1763</v>
+        <v>1765</v>
       </c>
       <c r="AG206" s="2" t="s">
-        <v>2025</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="207" spans="1:33">
@@ -23729,13 +23735,13 @@
         <v>108</v>
       </c>
       <c r="AE207" t="s">
-        <v>1682</v>
+        <v>1684</v>
       </c>
       <c r="AF207" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
       <c r="AG207" s="2" t="s">
-        <v>2026</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="208" spans="1:33">
@@ -23806,13 +23812,13 @@
         <v>108</v>
       </c>
       <c r="AE208" t="s">
-        <v>1679</v>
+        <v>1681</v>
       </c>
       <c r="AF208" t="s">
-        <v>1772</v>
+        <v>1774</v>
       </c>
       <c r="AG208" s="2" t="s">
-        <v>2027</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="209" spans="1:33">
@@ -23883,13 +23889,13 @@
         <v>108</v>
       </c>
       <c r="AE209" t="s">
-        <v>1678</v>
+        <v>1680</v>
       </c>
       <c r="AF209" t="s">
-        <v>1771</v>
+        <v>1773</v>
       </c>
       <c r="AG209" s="2" t="s">
-        <v>2028</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="210" spans="1:33">
@@ -23957,16 +23963,16 @@
         <v>108</v>
       </c>
       <c r="AD210" s="3" t="s">
-        <v>1615</v>
+        <v>1617</v>
       </c>
       <c r="AE210" t="s">
-        <v>1684</v>
+        <v>1686</v>
       </c>
       <c r="AF210" t="s">
-        <v>1777</v>
+        <v>1779</v>
       </c>
       <c r="AG210" s="2" t="s">
-        <v>2029</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="211" spans="1:33">
@@ -24034,16 +24040,16 @@
         <v>108</v>
       </c>
       <c r="AD211" s="3" t="s">
-        <v>1616</v>
+        <v>1618</v>
       </c>
       <c r="AE211" t="s">
-        <v>1685</v>
+        <v>1687</v>
       </c>
       <c r="AF211" t="s">
-        <v>1778</v>
+        <v>1780</v>
       </c>
       <c r="AG211" s="2" t="s">
-        <v>2030</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="212" spans="1:33">
@@ -24111,16 +24117,16 @@
         <v>108</v>
       </c>
       <c r="AD212" s="3" t="s">
-        <v>1617</v>
+        <v>1619</v>
       </c>
       <c r="AE212" t="s">
-        <v>1685</v>
+        <v>1687</v>
       </c>
       <c r="AF212" t="s">
-        <v>1778</v>
+        <v>1780</v>
       </c>
       <c r="AG212" s="2" t="s">
-        <v>2031</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="213" spans="1:33">
@@ -24188,16 +24194,16 @@
         <v>108</v>
       </c>
       <c r="AD213" s="3" t="s">
-        <v>1618</v>
+        <v>1620</v>
       </c>
       <c r="AE213" t="s">
-        <v>1686</v>
+        <v>1688</v>
       </c>
       <c r="AF213" t="s">
-        <v>1779</v>
+        <v>1781</v>
       </c>
       <c r="AG213" s="2" t="s">
-        <v>2032</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="214" spans="1:33">
@@ -24265,16 +24271,16 @@
         <v>108</v>
       </c>
       <c r="AD214" s="3" t="s">
-        <v>1619</v>
+        <v>1621</v>
       </c>
       <c r="AE214" t="s">
-        <v>1686</v>
+        <v>1688</v>
       </c>
       <c r="AF214" t="s">
-        <v>1779</v>
+        <v>1781</v>
       </c>
       <c r="AG214" s="2" t="s">
-        <v>2033</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="215" spans="1:33">
@@ -24342,16 +24348,16 @@
         <v>108</v>
       </c>
       <c r="AD215" s="3" t="s">
-        <v>1620</v>
+        <v>1622</v>
       </c>
       <c r="AE215" t="s">
-        <v>1686</v>
+        <v>1688</v>
       </c>
       <c r="AF215" t="s">
-        <v>1779</v>
+        <v>1781</v>
       </c>
       <c r="AG215" s="2" t="s">
-        <v>2034</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="216" spans="1:33">
@@ -24419,16 +24425,16 @@
         <v>108</v>
       </c>
       <c r="AD216" s="3" t="s">
-        <v>1621</v>
+        <v>1623</v>
       </c>
       <c r="AE216" t="s">
-        <v>1644</v>
+        <v>1646</v>
       </c>
       <c r="AF216" t="s">
-        <v>1737</v>
+        <v>1739</v>
       </c>
       <c r="AG216" s="2" t="s">
-        <v>2035</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="217" spans="1:33">
@@ -24496,16 +24502,16 @@
         <v>108</v>
       </c>
       <c r="AD217" s="3" t="s">
-        <v>1622</v>
+        <v>1624</v>
       </c>
       <c r="AE217" t="s">
-        <v>1644</v>
+        <v>1646</v>
       </c>
       <c r="AF217" t="s">
-        <v>1737</v>
+        <v>1739</v>
       </c>
       <c r="AG217" s="2" t="s">
-        <v>2036</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="218" spans="1:33">
@@ -24576,13 +24582,13 @@
         <v>108</v>
       </c>
       <c r="AE218" t="s">
-        <v>1637</v>
+        <v>1639</v>
       </c>
       <c r="AF218" t="s">
-        <v>1730</v>
+        <v>1732</v>
       </c>
       <c r="AG218" s="2" t="s">
-        <v>2037</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="219" spans="1:33">
@@ -24653,13 +24659,13 @@
         <v>108</v>
       </c>
       <c r="AE219" t="s">
-        <v>1638</v>
+        <v>1640</v>
       </c>
       <c r="AF219" t="s">
-        <v>1731</v>
+        <v>1733</v>
       </c>
       <c r="AG219" s="2" t="s">
-        <v>2038</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="220" spans="1:33">
@@ -24730,13 +24736,13 @@
         <v>108</v>
       </c>
       <c r="AE220" t="s">
-        <v>1687</v>
+        <v>1689</v>
       </c>
       <c r="AF220" t="s">
-        <v>1780</v>
+        <v>1782</v>
       </c>
       <c r="AG220" s="2" t="s">
-        <v>2039</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="221" spans="1:33">
@@ -24807,13 +24813,13 @@
         <v>108</v>
       </c>
       <c r="AE221" t="s">
-        <v>1639</v>
+        <v>1641</v>
       </c>
       <c r="AF221" t="s">
-        <v>1732</v>
+        <v>1734</v>
       </c>
       <c r="AG221" s="2" t="s">
-        <v>2040</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="222" spans="1:33">
@@ -24884,13 +24890,13 @@
         <v>108</v>
       </c>
       <c r="AE222" t="s">
-        <v>1687</v>
+        <v>1689</v>
       </c>
       <c r="AF222" t="s">
-        <v>1780</v>
+        <v>1782</v>
       </c>
       <c r="AG222" s="2" t="s">
-        <v>2041</v>
+        <v>2043</v>
       </c>
     </row>
     <row r="223" spans="1:33">
@@ -24961,13 +24967,13 @@
         <v>108</v>
       </c>
       <c r="AE223" t="s">
-        <v>1688</v>
+        <v>1690</v>
       </c>
       <c r="AF223" t="s">
-        <v>1781</v>
+        <v>1783</v>
       </c>
       <c r="AG223" s="2" t="s">
-        <v>2042</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="224" spans="1:33">
@@ -25038,13 +25044,13 @@
         <v>108</v>
       </c>
       <c r="AE224" t="s">
-        <v>1638</v>
+        <v>1640</v>
       </c>
       <c r="AF224" t="s">
-        <v>1731</v>
+        <v>1733</v>
       </c>
       <c r="AG224" s="2" t="s">
-        <v>2043</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="225" spans="1:33">
@@ -25115,13 +25121,13 @@
         <v>108</v>
       </c>
       <c r="AE225" t="s">
-        <v>1689</v>
+        <v>1691</v>
       </c>
       <c r="AF225" t="s">
-        <v>1782</v>
+        <v>1784</v>
       </c>
       <c r="AG225" s="2" t="s">
-        <v>2044</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="226" spans="1:33">
@@ -25192,13 +25198,13 @@
         <v>108</v>
       </c>
       <c r="AE226" t="s">
-        <v>1690</v>
+        <v>1692</v>
       </c>
       <c r="AF226" t="s">
-        <v>1783</v>
+        <v>1785</v>
       </c>
       <c r="AG226" s="2" t="s">
-        <v>2045</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="227" spans="1:33">
@@ -25269,13 +25275,13 @@
         <v>108</v>
       </c>
       <c r="AE227" t="s">
-        <v>1691</v>
+        <v>1693</v>
       </c>
       <c r="AF227" t="s">
-        <v>1784</v>
+        <v>1786</v>
       </c>
       <c r="AG227" s="2" t="s">
-        <v>2046</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="228" spans="1:33">
@@ -25346,13 +25352,13 @@
         <v>108</v>
       </c>
       <c r="AE228" t="s">
-        <v>1692</v>
+        <v>1694</v>
       </c>
       <c r="AF228" t="s">
-        <v>1785</v>
+        <v>1787</v>
       </c>
       <c r="AG228" s="2" t="s">
-        <v>2047</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="229" spans="1:33">
@@ -25426,13 +25432,13 @@
         <v>108</v>
       </c>
       <c r="AE229" t="s">
-        <v>1682</v>
+        <v>1684</v>
       </c>
       <c r="AF229" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
       <c r="AG229" s="2" t="s">
-        <v>2048</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="230" spans="1:33">
@@ -25503,13 +25509,13 @@
         <v>108</v>
       </c>
       <c r="AE230" t="s">
-        <v>1693</v>
+        <v>1695</v>
       </c>
       <c r="AF230" t="s">
-        <v>1786</v>
+        <v>1788</v>
       </c>
       <c r="AG230" s="2" t="s">
-        <v>2049</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="231" spans="1:33">
@@ -25580,13 +25586,13 @@
         <v>108</v>
       </c>
       <c r="AE231" t="s">
-        <v>1694</v>
+        <v>1696</v>
       </c>
       <c r="AF231" t="s">
-        <v>1787</v>
+        <v>1789</v>
       </c>
       <c r="AG231" s="2" t="s">
-        <v>2050</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="232" spans="1:33">
@@ -25657,13 +25663,13 @@
         <v>108</v>
       </c>
       <c r="AE232" t="s">
-        <v>1694</v>
+        <v>1696</v>
       </c>
       <c r="AF232" t="s">
-        <v>1787</v>
+        <v>1789</v>
       </c>
       <c r="AG232" s="2" t="s">
-        <v>2051</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="233" spans="1:33">
@@ -25734,13 +25740,13 @@
         <v>108</v>
       </c>
       <c r="AE233" t="s">
-        <v>1694</v>
+        <v>1696</v>
       </c>
       <c r="AF233" t="s">
-        <v>1787</v>
+        <v>1789</v>
       </c>
       <c r="AG233" s="2" t="s">
-        <v>2052</v>
+        <v>2054</v>
       </c>
     </row>
     <row r="234" spans="1:33">
@@ -25811,13 +25817,13 @@
         <v>108</v>
       </c>
       <c r="AE234" t="s">
-        <v>1694</v>
+        <v>1696</v>
       </c>
       <c r="AF234" t="s">
-        <v>1787</v>
+        <v>1789</v>
       </c>
       <c r="AG234" s="2" t="s">
-        <v>2053</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="235" spans="1:33">
@@ -25888,13 +25894,13 @@
         <v>108</v>
       </c>
       <c r="AE235" t="s">
-        <v>1692</v>
+        <v>1694</v>
       </c>
       <c r="AF235" t="s">
-        <v>1785</v>
+        <v>1787</v>
       </c>
       <c r="AG235" s="2" t="s">
-        <v>2054</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="236" spans="1:33">
@@ -25965,13 +25971,13 @@
         <v>108</v>
       </c>
       <c r="AE236" t="s">
-        <v>1644</v>
+        <v>1646</v>
       </c>
       <c r="AF236" t="s">
-        <v>1737</v>
+        <v>1739</v>
       </c>
       <c r="AG236" s="2" t="s">
-        <v>2055</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="237" spans="1:33">
@@ -26042,13 +26048,13 @@
         <v>108</v>
       </c>
       <c r="AE237" t="s">
-        <v>1695</v>
+        <v>1697</v>
       </c>
       <c r="AF237" t="s">
-        <v>1788</v>
+        <v>1790</v>
       </c>
       <c r="AG237" s="2" t="s">
-        <v>2056</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="238" spans="1:33">
@@ -26119,13 +26125,13 @@
         <v>108</v>
       </c>
       <c r="AE238" t="s">
-        <v>1695</v>
+        <v>1697</v>
       </c>
       <c r="AF238" t="s">
-        <v>1788</v>
+        <v>1790</v>
       </c>
       <c r="AG238" s="2" t="s">
-        <v>2057</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="239" spans="1:33">
@@ -26196,13 +26202,13 @@
         <v>108</v>
       </c>
       <c r="AE239" t="s">
-        <v>1692</v>
+        <v>1694</v>
       </c>
       <c r="AF239" t="s">
-        <v>1785</v>
+        <v>1787</v>
       </c>
       <c r="AG239" s="2" t="s">
-        <v>2058</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="240" spans="1:33">
@@ -26273,13 +26279,13 @@
         <v>108</v>
       </c>
       <c r="AE240" t="s">
-        <v>1692</v>
+        <v>1694</v>
       </c>
       <c r="AF240" t="s">
-        <v>1785</v>
+        <v>1787</v>
       </c>
       <c r="AG240" s="2" t="s">
-        <v>2059</v>
+        <v>2061</v>
       </c>
     </row>
     <row r="241" spans="1:33">
@@ -26350,13 +26356,13 @@
         <v>108</v>
       </c>
       <c r="AE241" t="s">
-        <v>1696</v>
+        <v>1698</v>
       </c>
       <c r="AF241" t="s">
-        <v>1789</v>
+        <v>1791</v>
       </c>
       <c r="AG241" s="2" t="s">
-        <v>2060</v>
+        <v>2062</v>
       </c>
     </row>
     <row r="242" spans="1:33">
@@ -26427,13 +26433,13 @@
         <v>108</v>
       </c>
       <c r="AE242" t="s">
-        <v>1697</v>
+        <v>1699</v>
       </c>
       <c r="AF242" t="s">
-        <v>1790</v>
+        <v>1792</v>
       </c>
       <c r="AG242" s="2" t="s">
-        <v>2061</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="243" spans="1:33">
@@ -26504,13 +26510,13 @@
         <v>108</v>
       </c>
       <c r="AE243" t="s">
-        <v>1696</v>
+        <v>1698</v>
       </c>
       <c r="AF243" t="s">
-        <v>1789</v>
+        <v>1791</v>
       </c>
       <c r="AG243" s="2" t="s">
-        <v>2062</v>
+        <v>2064</v>
       </c>
     </row>
     <row r="244" spans="1:33">
@@ -26581,13 +26587,13 @@
         <v>108</v>
       </c>
       <c r="AE244" t="s">
-        <v>1695</v>
+        <v>1697</v>
       </c>
       <c r="AF244" t="s">
-        <v>1788</v>
+        <v>1790</v>
       </c>
       <c r="AG244" s="2" t="s">
-        <v>2063</v>
+        <v>2065</v>
       </c>
     </row>
     <row r="245" spans="1:33">
@@ -26658,13 +26664,13 @@
         <v>108</v>
       </c>
       <c r="AE245" t="s">
-        <v>1682</v>
+        <v>1684</v>
       </c>
       <c r="AF245" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
       <c r="AG245" s="2" t="s">
-        <v>2064</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="246" spans="1:33">
@@ -26735,13 +26741,13 @@
         <v>108</v>
       </c>
       <c r="AE246" t="s">
-        <v>1692</v>
+        <v>1694</v>
       </c>
       <c r="AF246" t="s">
-        <v>1785</v>
+        <v>1787</v>
       </c>
       <c r="AG246" s="2" t="s">
-        <v>2065</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="247" spans="1:33">
@@ -26812,13 +26818,13 @@
         <v>108</v>
       </c>
       <c r="AE247" t="s">
-        <v>1697</v>
+        <v>1699</v>
       </c>
       <c r="AF247" t="s">
-        <v>1790</v>
+        <v>1792</v>
       </c>
       <c r="AG247" s="2" t="s">
-        <v>2066</v>
+        <v>2068</v>
       </c>
     </row>
     <row r="248" spans="1:33">
@@ -26889,13 +26895,13 @@
         <v>108</v>
       </c>
       <c r="AE248" t="s">
-        <v>1698</v>
+        <v>1700</v>
       </c>
       <c r="AF248" t="s">
-        <v>1791</v>
+        <v>1793</v>
       </c>
       <c r="AG248" s="2" t="s">
-        <v>2067</v>
+        <v>2069</v>
       </c>
     </row>
     <row r="249" spans="1:33">
@@ -26966,13 +26972,13 @@
         <v>108</v>
       </c>
       <c r="AE249" t="s">
-        <v>1698</v>
+        <v>1700</v>
       </c>
       <c r="AF249" t="s">
-        <v>1791</v>
+        <v>1793</v>
       </c>
       <c r="AG249" s="2" t="s">
-        <v>2068</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="250" spans="1:33">
@@ -27043,13 +27049,13 @@
         <v>108</v>
       </c>
       <c r="AE250" t="s">
-        <v>1698</v>
+        <v>1700</v>
       </c>
       <c r="AF250" t="s">
-        <v>1791</v>
+        <v>1793</v>
       </c>
       <c r="AG250" s="2" t="s">
-        <v>2069</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="251" spans="1:33">
@@ -27120,13 +27126,13 @@
         <v>108</v>
       </c>
       <c r="AE251" t="s">
-        <v>1698</v>
+        <v>1700</v>
       </c>
       <c r="AF251" t="s">
-        <v>1791</v>
+        <v>1793</v>
       </c>
       <c r="AG251" s="2" t="s">
-        <v>2070</v>
+        <v>2072</v>
       </c>
     </row>
     <row r="252" spans="1:33">
@@ -27197,13 +27203,13 @@
         <v>108</v>
       </c>
       <c r="AE252" t="s">
-        <v>1699</v>
+        <v>1701</v>
       </c>
       <c r="AF252" t="s">
-        <v>1792</v>
+        <v>1794</v>
       </c>
       <c r="AG252" s="2" t="s">
-        <v>2071</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="253" spans="1:33">
@@ -27274,13 +27280,13 @@
         <v>108</v>
       </c>
       <c r="AE253" t="s">
-        <v>1700</v>
+        <v>1702</v>
       </c>
       <c r="AF253" t="s">
-        <v>1793</v>
+        <v>1795</v>
       </c>
       <c r="AG253" s="2" t="s">
-        <v>2072</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="254" spans="1:33">
@@ -27351,13 +27357,13 @@
         <v>108</v>
       </c>
       <c r="AE254" t="s">
-        <v>1700</v>
+        <v>1702</v>
       </c>
       <c r="AF254" t="s">
-        <v>1793</v>
+        <v>1795</v>
       </c>
       <c r="AG254" s="2" t="s">
-        <v>2073</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="255" spans="1:33">
@@ -27428,13 +27434,13 @@
         <v>108</v>
       </c>
       <c r="AE255" t="s">
-        <v>1701</v>
+        <v>1703</v>
       </c>
       <c r="AF255" t="s">
-        <v>1794</v>
+        <v>1796</v>
       </c>
       <c r="AG255" s="2" t="s">
-        <v>2074</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="256" spans="1:33">
@@ -27505,13 +27511,13 @@
         <v>108</v>
       </c>
       <c r="AE256" t="s">
-        <v>1698</v>
+        <v>1700</v>
       </c>
       <c r="AF256" t="s">
-        <v>1791</v>
+        <v>1793</v>
       </c>
       <c r="AG256" s="2" t="s">
-        <v>2075</v>
+        <v>2077</v>
       </c>
     </row>
     <row r="257" spans="1:33">
@@ -27582,13 +27588,13 @@
         <v>108</v>
       </c>
       <c r="AE257" t="s">
-        <v>1692</v>
+        <v>1694</v>
       </c>
       <c r="AF257" t="s">
-        <v>1785</v>
+        <v>1787</v>
       </c>
       <c r="AG257" s="2" t="s">
-        <v>2076</v>
+        <v>2078</v>
       </c>
     </row>
     <row r="258" spans="1:33">
@@ -27659,13 +27665,13 @@
         <v>108</v>
       </c>
       <c r="AE258" t="s">
-        <v>1640</v>
+        <v>1642</v>
       </c>
       <c r="AF258" t="s">
-        <v>1733</v>
+        <v>1735</v>
       </c>
       <c r="AG258" s="2" t="s">
-        <v>2077</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="259" spans="1:33">
@@ -27736,13 +27742,13 @@
         <v>108</v>
       </c>
       <c r="AE259" t="s">
-        <v>1673</v>
+        <v>1675</v>
       </c>
       <c r="AF259" t="s">
-        <v>1766</v>
+        <v>1768</v>
       </c>
       <c r="AG259" s="2" t="s">
-        <v>2078</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="260" spans="1:33">
@@ -27813,13 +27819,13 @@
         <v>108</v>
       </c>
       <c r="AE260" t="s">
-        <v>1702</v>
+        <v>1704</v>
       </c>
       <c r="AF260" t="s">
-        <v>1795</v>
+        <v>1797</v>
       </c>
       <c r="AG260" s="2" t="s">
-        <v>2079</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="261" spans="1:33">
@@ -27887,16 +27893,16 @@
         <v>108</v>
       </c>
       <c r="AD261" s="3" t="s">
-        <v>1623</v>
+        <v>1625</v>
       </c>
       <c r="AE261" t="s">
-        <v>1703</v>
+        <v>1705</v>
       </c>
       <c r="AF261" t="s">
-        <v>1796</v>
+        <v>1798</v>
       </c>
       <c r="AG261" s="2" t="s">
-        <v>2080</v>
+        <v>2082</v>
       </c>
     </row>
     <row r="262" spans="1:33">
@@ -27964,16 +27970,16 @@
         <v>108</v>
       </c>
       <c r="AD262" s="3" t="s">
-        <v>1624</v>
+        <v>1626</v>
       </c>
       <c r="AE262" t="s">
-        <v>1703</v>
+        <v>1705</v>
       </c>
       <c r="AF262" t="s">
-        <v>1796</v>
+        <v>1798</v>
       </c>
       <c r="AG262" s="2" t="s">
-        <v>2081</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="263" spans="1:33">
@@ -28041,16 +28047,16 @@
         <v>108</v>
       </c>
       <c r="AD263" s="3" t="s">
-        <v>1625</v>
+        <v>1627</v>
       </c>
       <c r="AE263" t="s">
-        <v>1703</v>
+        <v>1705</v>
       </c>
       <c r="AF263" t="s">
-        <v>1796</v>
+        <v>1798</v>
       </c>
       <c r="AG263" s="2" t="s">
-        <v>2082</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="264" spans="1:33">
@@ -28118,16 +28124,16 @@
         <v>108</v>
       </c>
       <c r="AD264" s="3" t="s">
-        <v>1626</v>
+        <v>1628</v>
       </c>
       <c r="AE264" t="s">
-        <v>1703</v>
+        <v>1705</v>
       </c>
       <c r="AF264" t="s">
-        <v>1796</v>
+        <v>1798</v>
       </c>
       <c r="AG264" s="2" t="s">
-        <v>2083</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="265" spans="1:33">
@@ -28195,16 +28201,16 @@
         <v>108</v>
       </c>
       <c r="AD265" s="3" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="AE265" t="s">
-        <v>1703</v>
+        <v>1705</v>
       </c>
       <c r="AF265" t="s">
-        <v>1796</v>
+        <v>1798</v>
       </c>
       <c r="AG265" s="2" t="s">
-        <v>2084</v>
+        <v>2086</v>
       </c>
     </row>
     <row r="266" spans="1:33">
@@ -28275,13 +28281,13 @@
         <v>108</v>
       </c>
       <c r="AE266" t="s">
-        <v>1704</v>
+        <v>1706</v>
       </c>
       <c r="AF266" t="s">
-        <v>1797</v>
+        <v>1799</v>
       </c>
       <c r="AG266" s="2" t="s">
-        <v>2085</v>
+        <v>2087</v>
       </c>
     </row>
     <row r="267" spans="1:33">
@@ -28352,13 +28358,13 @@
         <v>108</v>
       </c>
       <c r="AE267" t="s">
-        <v>1640</v>
+        <v>1642</v>
       </c>
       <c r="AF267" t="s">
-        <v>1733</v>
+        <v>1735</v>
       </c>
       <c r="AG267" s="2" t="s">
-        <v>2086</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="268" spans="1:33">
@@ -28432,13 +28438,13 @@
         <v>108</v>
       </c>
       <c r="AE268" t="s">
-        <v>1640</v>
+        <v>1642</v>
       </c>
       <c r="AF268" t="s">
-        <v>1733</v>
+        <v>1735</v>
       </c>
       <c r="AG268" s="2" t="s">
-        <v>2087</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="269" spans="1:33">
@@ -28512,13 +28518,13 @@
         <v>108</v>
       </c>
       <c r="AE269" t="s">
-        <v>1705</v>
+        <v>1707</v>
       </c>
       <c r="AF269" t="s">
-        <v>1798</v>
+        <v>1800</v>
       </c>
       <c r="AG269" s="2" t="s">
-        <v>2088</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="270" spans="1:33">
@@ -28589,13 +28595,13 @@
         <v>108</v>
       </c>
       <c r="AE270" t="s">
-        <v>1705</v>
+        <v>1707</v>
       </c>
       <c r="AF270" t="s">
-        <v>1798</v>
+        <v>1800</v>
       </c>
       <c r="AG270" s="2" t="s">
-        <v>2089</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="271" spans="1:33">
@@ -28666,13 +28672,13 @@
         <v>108</v>
       </c>
       <c r="AE271" t="s">
-        <v>1640</v>
+        <v>1642</v>
       </c>
       <c r="AF271" t="s">
-        <v>1733</v>
+        <v>1735</v>
       </c>
       <c r="AG271" s="2" t="s">
-        <v>2090</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="272" spans="1:33">
@@ -28743,13 +28749,13 @@
         <v>108</v>
       </c>
       <c r="AE272" t="s">
-        <v>1640</v>
+        <v>1642</v>
       </c>
       <c r="AF272" t="s">
-        <v>1733</v>
+        <v>1735</v>
       </c>
       <c r="AG272" s="2" t="s">
-        <v>2091</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="273" spans="1:33">
@@ -28820,13 +28826,13 @@
         <v>108</v>
       </c>
       <c r="AE273" t="s">
-        <v>1640</v>
+        <v>1642</v>
       </c>
       <c r="AF273" t="s">
-        <v>1733</v>
+        <v>1735</v>
       </c>
       <c r="AG273" s="2" t="s">
-        <v>2092</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="274" spans="1:33">
@@ -28897,13 +28903,13 @@
         <v>108</v>
       </c>
       <c r="AE274" t="s">
-        <v>1706</v>
+        <v>1708</v>
       </c>
       <c r="AF274" t="s">
-        <v>1799</v>
+        <v>1801</v>
       </c>
       <c r="AG274" s="2" t="s">
-        <v>2093</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="275" spans="1:33">
@@ -28974,13 +28980,13 @@
         <v>108</v>
       </c>
       <c r="AE275" t="s">
-        <v>1707</v>
+        <v>1709</v>
       </c>
       <c r="AF275" t="s">
-        <v>1800</v>
+        <v>1802</v>
       </c>
       <c r="AG275" s="2" t="s">
-        <v>2094</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="276" spans="1:33">
@@ -29051,13 +29057,13 @@
         <v>108</v>
       </c>
       <c r="AE276" t="s">
-        <v>1640</v>
+        <v>1642</v>
       </c>
       <c r="AF276" t="s">
-        <v>1733</v>
+        <v>1735</v>
       </c>
       <c r="AG276" s="2" t="s">
-        <v>2095</v>
+        <v>2097</v>
       </c>
     </row>
     <row r="277" spans="1:33">
@@ -29128,13 +29134,13 @@
         <v>108</v>
       </c>
       <c r="AE277" t="s">
-        <v>1708</v>
+        <v>1710</v>
       </c>
       <c r="AF277" t="s">
-        <v>1801</v>
+        <v>1803</v>
       </c>
       <c r="AG277" s="2" t="s">
-        <v>2096</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="278" spans="1:33">
@@ -29205,13 +29211,13 @@
         <v>108</v>
       </c>
       <c r="AE278" t="s">
-        <v>1673</v>
+        <v>1675</v>
       </c>
       <c r="AF278" t="s">
-        <v>1766</v>
+        <v>1768</v>
       </c>
       <c r="AG278" s="2" t="s">
-        <v>2097</v>
+        <v>2099</v>
       </c>
     </row>
     <row r="279" spans="1:33">
@@ -29279,16 +29285,16 @@
         <v>108</v>
       </c>
       <c r="AD279" s="3" t="s">
-        <v>1628</v>
+        <v>1630</v>
       </c>
       <c r="AE279" t="s">
-        <v>1673</v>
+        <v>1675</v>
       </c>
       <c r="AF279" t="s">
-        <v>1766</v>
+        <v>1768</v>
       </c>
       <c r="AG279" s="2" t="s">
-        <v>2098</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="280" spans="1:33">
@@ -29359,13 +29365,13 @@
         <v>108</v>
       </c>
       <c r="AE280" t="s">
-        <v>1692</v>
+        <v>1694</v>
       </c>
       <c r="AF280" t="s">
-        <v>1785</v>
+        <v>1787</v>
       </c>
       <c r="AG280" s="2" t="s">
-        <v>2099</v>
+        <v>2101</v>
       </c>
     </row>
     <row r="281" spans="1:33">
@@ -29439,13 +29445,13 @@
         <v>108</v>
       </c>
       <c r="AE281" t="s">
-        <v>1640</v>
+        <v>1642</v>
       </c>
       <c r="AF281" t="s">
-        <v>1733</v>
+        <v>1735</v>
       </c>
       <c r="AG281" s="2" t="s">
-        <v>2100</v>
+        <v>2102</v>
       </c>
     </row>
     <row r="282" spans="1:33">
@@ -29516,13 +29522,13 @@
         <v>108</v>
       </c>
       <c r="AE282" t="s">
-        <v>1709</v>
+        <v>1711</v>
       </c>
       <c r="AF282" t="s">
-        <v>1802</v>
+        <v>1804</v>
       </c>
       <c r="AG282" s="2" t="s">
-        <v>2101</v>
+        <v>2103</v>
       </c>
     </row>
     <row r="283" spans="1:33">
@@ -29593,13 +29599,13 @@
         <v>108</v>
       </c>
       <c r="AE283" t="s">
-        <v>1710</v>
+        <v>1712</v>
       </c>
       <c r="AF283" t="s">
-        <v>1803</v>
+        <v>1805</v>
       </c>
       <c r="AG283" s="2" t="s">
-        <v>2102</v>
+        <v>2104</v>
       </c>
     </row>
     <row r="284" spans="1:33">
@@ -29670,13 +29676,13 @@
         <v>108</v>
       </c>
       <c r="AE284" t="s">
-        <v>1638</v>
+        <v>1640</v>
       </c>
       <c r="AF284" t="s">
-        <v>1731</v>
+        <v>1733</v>
       </c>
       <c r="AG284" s="2" t="s">
-        <v>2103</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="285" spans="1:33">
@@ -29747,13 +29753,13 @@
         <v>108</v>
       </c>
       <c r="AE285" t="s">
-        <v>1638</v>
+        <v>1640</v>
       </c>
       <c r="AF285" t="s">
-        <v>1731</v>
+        <v>1733</v>
       </c>
       <c r="AG285" s="2" t="s">
-        <v>2104</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="286" spans="1:33">
@@ -29824,13 +29830,13 @@
         <v>108</v>
       </c>
       <c r="AE286" t="s">
-        <v>1711</v>
+        <v>1713</v>
       </c>
       <c r="AF286" t="s">
-        <v>1804</v>
+        <v>1806</v>
       </c>
       <c r="AG286" s="2" t="s">
-        <v>2105</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="287" spans="1:33">
@@ -29901,13 +29907,13 @@
         <v>108</v>
       </c>
       <c r="AE287" t="s">
-        <v>1712</v>
+        <v>1714</v>
       </c>
       <c r="AF287" t="s">
-        <v>1805</v>
+        <v>1807</v>
       </c>
       <c r="AG287" s="2" t="s">
-        <v>2106</v>
+        <v>2108</v>
       </c>
     </row>
     <row r="288" spans="1:33">
@@ -29978,13 +29984,13 @@
         <v>108</v>
       </c>
       <c r="AE288" t="s">
-        <v>1702</v>
+        <v>1704</v>
       </c>
       <c r="AF288" t="s">
-        <v>1795</v>
+        <v>1797</v>
       </c>
       <c r="AG288" s="2" t="s">
-        <v>2107</v>
+        <v>2109</v>
       </c>
     </row>
     <row r="289" spans="1:33">
@@ -30055,13 +30061,13 @@
         <v>108</v>
       </c>
       <c r="AE289" t="s">
-        <v>1713</v>
+        <v>1715</v>
       </c>
       <c r="AF289" t="s">
-        <v>1806</v>
+        <v>1808</v>
       </c>
       <c r="AG289" s="2" t="s">
-        <v>2108</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="290" spans="1:33">
@@ -30132,13 +30138,13 @@
         <v>108</v>
       </c>
       <c r="AE290" t="s">
-        <v>1714</v>
+        <v>1716</v>
       </c>
       <c r="AF290" t="s">
-        <v>1807</v>
+        <v>1809</v>
       </c>
       <c r="AG290" s="2" t="s">
-        <v>2109</v>
+        <v>2111</v>
       </c>
     </row>
     <row r="291" spans="1:33">
@@ -30209,13 +30215,13 @@
         <v>108</v>
       </c>
       <c r="AE291" t="s">
-        <v>1715</v>
+        <v>1717</v>
       </c>
       <c r="AF291" t="s">
-        <v>1808</v>
+        <v>1810</v>
       </c>
       <c r="AG291" s="2" t="s">
-        <v>2110</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="292" spans="1:33">
@@ -30286,13 +30292,13 @@
         <v>108</v>
       </c>
       <c r="AE292" t="s">
-        <v>1702</v>
+        <v>1704</v>
       </c>
       <c r="AF292" t="s">
-        <v>1795</v>
+        <v>1797</v>
       </c>
       <c r="AG292" s="2" t="s">
-        <v>2111</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="293" spans="1:33">
@@ -30363,13 +30369,13 @@
         <v>108</v>
       </c>
       <c r="AE293" t="s">
-        <v>1702</v>
+        <v>1704</v>
       </c>
       <c r="AF293" t="s">
-        <v>1795</v>
+        <v>1797</v>
       </c>
       <c r="AG293" s="2" t="s">
-        <v>2112</v>
+        <v>2114</v>
       </c>
     </row>
     <row r="294" spans="1:33">
@@ -30440,13 +30446,13 @@
         <v>108</v>
       </c>
       <c r="AE294" t="s">
-        <v>1716</v>
+        <v>1718</v>
       </c>
       <c r="AF294" t="s">
-        <v>1809</v>
+        <v>1811</v>
       </c>
       <c r="AG294" s="2" t="s">
-        <v>2113</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="295" spans="1:33">
@@ -30517,13 +30523,13 @@
         <v>108</v>
       </c>
       <c r="AE295" t="s">
-        <v>1717</v>
+        <v>1719</v>
       </c>
       <c r="AF295" t="s">
-        <v>1810</v>
+        <v>1812</v>
       </c>
       <c r="AG295" s="2" t="s">
-        <v>2114</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="296" spans="1:33">
@@ -30594,13 +30600,13 @@
         <v>108</v>
       </c>
       <c r="AE296" t="s">
-        <v>1718</v>
+        <v>1720</v>
       </c>
       <c r="AF296" t="s">
-        <v>1811</v>
+        <v>1813</v>
       </c>
       <c r="AG296" s="2" t="s">
-        <v>2115</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="297" spans="1:33">
@@ -30674,13 +30680,13 @@
         <v>108</v>
       </c>
       <c r="AE297" t="s">
-        <v>1692</v>
+        <v>1694</v>
       </c>
       <c r="AF297" t="s">
-        <v>1785</v>
+        <v>1787</v>
       </c>
       <c r="AG297" s="2" t="s">
-        <v>2116</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="298" spans="1:33">
@@ -30751,13 +30757,13 @@
         <v>108</v>
       </c>
       <c r="AE298" t="s">
-        <v>1714</v>
+        <v>1716</v>
       </c>
       <c r="AF298" t="s">
-        <v>1807</v>
+        <v>1809</v>
       </c>
       <c r="AG298" s="2" t="s">
-        <v>2117</v>
+        <v>2119</v>
       </c>
     </row>
     <row r="299" spans="1:33">
@@ -30828,13 +30834,13 @@
         <v>108</v>
       </c>
       <c r="AE299" t="s">
-        <v>1702</v>
+        <v>1704</v>
       </c>
       <c r="AF299" t="s">
-        <v>1795</v>
+        <v>1797</v>
       </c>
       <c r="AG299" s="2" t="s">
-        <v>2118</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="300" spans="1:33">
@@ -30905,13 +30911,13 @@
         <v>108</v>
       </c>
       <c r="AE300" t="s">
-        <v>1719</v>
+        <v>1721</v>
       </c>
       <c r="AF300" t="s">
-        <v>1812</v>
+        <v>1814</v>
       </c>
       <c r="AG300" s="2" t="s">
-        <v>2119</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="301" spans="1:33">
@@ -30982,13 +30988,13 @@
         <v>108</v>
       </c>
       <c r="AE301" t="s">
-        <v>1711</v>
+        <v>1713</v>
       </c>
       <c r="AF301" t="s">
-        <v>1804</v>
+        <v>1806</v>
       </c>
       <c r="AG301" s="2" t="s">
-        <v>2120</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="302" spans="1:33">
@@ -31056,16 +31062,16 @@
         <v>108</v>
       </c>
       <c r="AD302" s="3" t="s">
-        <v>1629</v>
+        <v>1631</v>
       </c>
       <c r="AE302" t="s">
-        <v>1644</v>
+        <v>1646</v>
       </c>
       <c r="AF302" t="s">
-        <v>1737</v>
+        <v>1739</v>
       </c>
       <c r="AG302" s="2" t="s">
-        <v>2121</v>
+        <v>2123</v>
       </c>
     </row>
     <row r="303" spans="1:33">
@@ -31133,16 +31139,16 @@
         <v>108</v>
       </c>
       <c r="AD303" s="3" t="s">
-        <v>1630</v>
+        <v>1632</v>
       </c>
       <c r="AE303" t="s">
-        <v>1644</v>
+        <v>1646</v>
       </c>
       <c r="AF303" t="s">
-        <v>1737</v>
+        <v>1739</v>
       </c>
       <c r="AG303" s="2" t="s">
-        <v>2122</v>
+        <v>2124</v>
       </c>
     </row>
     <row r="304" spans="1:33">
@@ -31213,13 +31219,13 @@
         <v>108</v>
       </c>
       <c r="AE304" t="s">
-        <v>1719</v>
+        <v>1721</v>
       </c>
       <c r="AF304" t="s">
-        <v>1812</v>
+        <v>1814</v>
       </c>
       <c r="AG304" s="2" t="s">
-        <v>2123</v>
+        <v>2125</v>
       </c>
     </row>
     <row r="305" spans="1:33">
@@ -31290,13 +31296,13 @@
         <v>108</v>
       </c>
       <c r="AE305" t="s">
-        <v>1720</v>
+        <v>1722</v>
       </c>
       <c r="AF305" t="s">
-        <v>1813</v>
+        <v>1815</v>
       </c>
       <c r="AG305" s="2" t="s">
-        <v>2124</v>
+        <v>2126</v>
       </c>
     </row>
     <row r="306" spans="1:33">
@@ -31367,13 +31373,13 @@
         <v>108</v>
       </c>
       <c r="AE306" t="s">
-        <v>1638</v>
+        <v>1640</v>
       </c>
       <c r="AF306" t="s">
-        <v>1731</v>
+        <v>1733</v>
       </c>
       <c r="AG306" s="2" t="s">
-        <v>2125</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="307" spans="1:33">
@@ -31441,16 +31447,16 @@
         <v>108</v>
       </c>
       <c r="AD307" s="3" t="s">
-        <v>1631</v>
+        <v>1633</v>
       </c>
       <c r="AE307" t="s">
-        <v>1721</v>
+        <v>1723</v>
       </c>
       <c r="AF307" t="s">
-        <v>1814</v>
+        <v>1816</v>
       </c>
       <c r="AG307" s="2" t="s">
-        <v>2126</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="308" spans="1:33">
@@ -31518,16 +31524,16 @@
         <v>108</v>
       </c>
       <c r="AD308" s="3" t="s">
-        <v>1632</v>
+        <v>1634</v>
       </c>
       <c r="AE308" t="s">
-        <v>1721</v>
+        <v>1723</v>
       </c>
       <c r="AF308" t="s">
-        <v>1814</v>
+        <v>1816</v>
       </c>
       <c r="AG308" s="2" t="s">
-        <v>2127</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="309" spans="1:33">
@@ -31598,13 +31604,13 @@
         <v>108</v>
       </c>
       <c r="AE309" t="s">
-        <v>1721</v>
+        <v>1723</v>
       </c>
       <c r="AF309" t="s">
-        <v>1814</v>
+        <v>1816</v>
       </c>
       <c r="AG309" s="2" t="s">
-        <v>2128</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="310" spans="1:33">
@@ -31675,13 +31681,13 @@
         <v>108</v>
       </c>
       <c r="AE310" t="s">
-        <v>1721</v>
+        <v>1723</v>
       </c>
       <c r="AF310" t="s">
-        <v>1814</v>
+        <v>1816</v>
       </c>
       <c r="AG310" s="2" t="s">
-        <v>2129</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="311" spans="1:33">
@@ -31755,13 +31761,13 @@
         <v>108</v>
       </c>
       <c r="AE311" t="s">
-        <v>1640</v>
+        <v>1642</v>
       </c>
       <c r="AF311" t="s">
-        <v>1733</v>
+        <v>1735</v>
       </c>
       <c r="AG311" s="2" t="s">
-        <v>2130</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="312" spans="1:33">
@@ -31832,13 +31838,13 @@
         <v>108</v>
       </c>
       <c r="AE312" t="s">
-        <v>1703</v>
+        <v>1705</v>
       </c>
       <c r="AF312" t="s">
-        <v>1796</v>
+        <v>1798</v>
       </c>
       <c r="AG312" s="2" t="s">
-        <v>2131</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="313" spans="1:33">
@@ -31909,13 +31915,13 @@
         <v>108</v>
       </c>
       <c r="AE313" t="s">
-        <v>1721</v>
+        <v>1723</v>
       </c>
       <c r="AF313" t="s">
-        <v>1814</v>
+        <v>1816</v>
       </c>
       <c r="AG313" s="2" t="s">
-        <v>2132</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="314" spans="1:33">
@@ -31986,13 +31992,13 @@
         <v>108</v>
       </c>
       <c r="AE314" t="s">
-        <v>1689</v>
+        <v>1691</v>
       </c>
       <c r="AF314" t="s">
-        <v>1782</v>
+        <v>1784</v>
       </c>
       <c r="AG314" s="2" t="s">
-        <v>2133</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="315" spans="1:33">
@@ -32063,13 +32069,13 @@
         <v>108</v>
       </c>
       <c r="AE315" t="s">
-        <v>1722</v>
+        <v>1724</v>
       </c>
       <c r="AF315" t="s">
-        <v>1815</v>
+        <v>1817</v>
       </c>
       <c r="AG315" s="2" t="s">
-        <v>2134</v>
+        <v>2136</v>
       </c>
     </row>
     <row r="316" spans="1:33">
@@ -32140,13 +32146,13 @@
         <v>108</v>
       </c>
       <c r="AE316" t="s">
-        <v>1721</v>
+        <v>1723</v>
       </c>
       <c r="AF316" t="s">
-        <v>1814</v>
+        <v>1816</v>
       </c>
       <c r="AG316" s="2" t="s">
-        <v>2135</v>
+        <v>2137</v>
       </c>
     </row>
     <row r="317" spans="1:33">
@@ -32214,16 +32220,16 @@
         <v>108</v>
       </c>
       <c r="AD317" s="3" t="s">
-        <v>1633</v>
+        <v>1635</v>
       </c>
       <c r="AE317" t="s">
-        <v>1723</v>
+        <v>1725</v>
       </c>
       <c r="AF317" t="s">
-        <v>1816</v>
+        <v>1818</v>
       </c>
       <c r="AG317" s="2" t="s">
-        <v>2136</v>
+        <v>2138</v>
       </c>
     </row>
     <row r="318" spans="1:33">
@@ -32291,16 +32297,16 @@
         <v>108</v>
       </c>
       <c r="AD318" s="3" t="s">
-        <v>1634</v>
+        <v>1636</v>
       </c>
       <c r="AE318" t="s">
-        <v>1723</v>
+        <v>1725</v>
       </c>
       <c r="AF318" t="s">
-        <v>1816</v>
+        <v>1818</v>
       </c>
       <c r="AG318" s="2" t="s">
-        <v>2137</v>
+        <v>2139</v>
       </c>
     </row>
     <row r="319" spans="1:33">
@@ -32368,16 +32374,16 @@
         <v>108</v>
       </c>
       <c r="AD319" s="3" t="s">
-        <v>1635</v>
+        <v>1637</v>
       </c>
       <c r="AE319" t="s">
-        <v>1723</v>
+        <v>1725</v>
       </c>
       <c r="AF319" t="s">
-        <v>1816</v>
+        <v>1818</v>
       </c>
       <c r="AG319" s="2" t="s">
-        <v>2138</v>
+        <v>2140</v>
       </c>
     </row>
     <row r="320" spans="1:33">
@@ -32448,13 +32454,13 @@
         <v>108</v>
       </c>
       <c r="AE320" t="s">
-        <v>1724</v>
+        <v>1726</v>
       </c>
       <c r="AF320" t="s">
-        <v>1817</v>
+        <v>1819</v>
       </c>
       <c r="AG320" s="2" t="s">
-        <v>2139</v>
+        <v>2141</v>
       </c>
     </row>
     <row r="321" spans="1:33">
@@ -32507,13 +32513,13 @@
         <v>108</v>
       </c>
       <c r="AE321" t="s">
-        <v>1692</v>
+        <v>1694</v>
       </c>
       <c r="AF321" t="s">
-        <v>1785</v>
+        <v>1787</v>
       </c>
       <c r="AG321" s="2" t="s">
-        <v>2140</v>
+        <v>2142</v>
       </c>
     </row>
     <row r="322" spans="1:33">
@@ -32566,13 +32572,13 @@
         <v>108</v>
       </c>
       <c r="AE322" t="s">
-        <v>1725</v>
+        <v>1727</v>
       </c>
       <c r="AF322" t="s">
-        <v>1818</v>
+        <v>1820</v>
       </c>
       <c r="AG322" s="2" t="s">
-        <v>2141</v>
+        <v>2143</v>
       </c>
     </row>
     <row r="323" spans="1:33">
@@ -32601,10 +32607,10 @@
         <v>921</v>
       </c>
       <c r="J323">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="K323" s="3" t="s">
-        <v>939</v>
+        <v>953</v>
       </c>
       <c r="L323" t="b">
         <v>0</v>
@@ -32628,10 +32634,10 @@
         <v>115</v>
       </c>
       <c r="AF323" t="s">
-        <v>1762</v>
+        <v>1764</v>
       </c>
       <c r="AG323" s="2" t="s">
-        <v>2142</v>
+        <v>2144</v>
       </c>
     </row>
     <row r="324" spans="1:33">
@@ -32677,6 +32683,9 @@
       <c r="AA324">
         <v>0</v>
       </c>
+      <c r="AB324" s="3" t="s">
+        <v>1559</v>
+      </c>
       <c r="AC324" t="s">
         <v>108</v>
       </c>
@@ -32684,13 +32693,13 @@
         <v>108</v>
       </c>
       <c r="AE324" t="s">
-        <v>1726</v>
+        <v>1728</v>
       </c>
       <c r="AF324" t="s">
-        <v>1819</v>
+        <v>1821</v>
       </c>
       <c r="AG324" s="2" t="s">
-        <v>2143</v>
+        <v>2145</v>
       </c>
     </row>
     <row r="325" spans="1:33">
@@ -32736,6 +32745,9 @@
       <c r="AA325">
         <v>0</v>
       </c>
+      <c r="AB325" s="3" t="s">
+        <v>1559</v>
+      </c>
       <c r="AC325" t="s">
         <v>108</v>
       </c>
@@ -32743,13 +32755,13 @@
         <v>108</v>
       </c>
       <c r="AE325" t="s">
-        <v>1726</v>
+        <v>1728</v>
       </c>
       <c r="AF325" t="s">
-        <v>1819</v>
+        <v>1821</v>
       </c>
       <c r="AG325" s="2" t="s">
-        <v>2144</v>
+        <v>2146</v>
       </c>
     </row>
     <row r="326" spans="1:33">
@@ -32795,6 +32807,9 @@
       <c r="AA326">
         <v>0</v>
       </c>
+      <c r="AB326" s="3" t="s">
+        <v>1560</v>
+      </c>
       <c r="AC326" t="s">
         <v>108</v>
       </c>
@@ -32802,13 +32817,13 @@
         <v>108</v>
       </c>
       <c r="AE326" t="s">
-        <v>1714</v>
+        <v>1716</v>
       </c>
       <c r="AF326" t="s">
-        <v>1807</v>
+        <v>1809</v>
       </c>
       <c r="AG326" s="2" t="s">
-        <v>2145</v>
+        <v>2147</v>
       </c>
     </row>
     <row r="327" spans="1:33">
@@ -32855,7 +32870,7 @@
         <v>0</v>
       </c>
       <c r="AB327" s="3" t="s">
-        <v>1559</v>
+        <v>1561</v>
       </c>
       <c r="AC327" t="s">
         <v>108</v>
@@ -32864,13 +32879,13 @@
         <v>108</v>
       </c>
       <c r="AE327" t="s">
-        <v>1644</v>
+        <v>1646</v>
       </c>
       <c r="AF327" t="s">
-        <v>1737</v>
+        <v>1739</v>
       </c>
       <c r="AG327" s="2" t="s">
-        <v>2146</v>
+        <v>2148</v>
       </c>
     </row>
     <row r="328" spans="1:33">
@@ -32917,7 +32932,7 @@
         <v>0</v>
       </c>
       <c r="AB328" s="3" t="s">
-        <v>1560</v>
+        <v>1562</v>
       </c>
       <c r="AC328" t="s">
         <v>108</v>
@@ -32926,13 +32941,13 @@
         <v>108</v>
       </c>
       <c r="AE328" t="s">
-        <v>1712</v>
+        <v>1714</v>
       </c>
       <c r="AF328" t="s">
-        <v>1805</v>
+        <v>1807</v>
       </c>
       <c r="AG328" s="2" t="s">
-        <v>2147</v>
+        <v>2149</v>
       </c>
     </row>
     <row r="329" spans="1:33">
@@ -32979,7 +32994,7 @@
         <v>0</v>
       </c>
       <c r="AB329" s="3" t="s">
-        <v>1561</v>
+        <v>1563</v>
       </c>
       <c r="AC329" t="s">
         <v>108</v>
@@ -32988,13 +33003,13 @@
         <v>108</v>
       </c>
       <c r="AE329" t="s">
-        <v>1712</v>
+        <v>1714</v>
       </c>
       <c r="AF329" t="s">
-        <v>1805</v>
+        <v>1807</v>
       </c>
       <c r="AG329" s="2" t="s">
-        <v>2148</v>
+        <v>2150</v>
       </c>
     </row>
     <row r="330" spans="1:33">
@@ -33047,13 +33062,13 @@
         <v>108</v>
       </c>
       <c r="AE330" t="s">
-        <v>1727</v>
+        <v>1729</v>
       </c>
       <c r="AF330" t="s">
-        <v>1820</v>
+        <v>1822</v>
       </c>
       <c r="AG330" s="2" t="s">
-        <v>2149</v>
+        <v>2151</v>
       </c>
     </row>
     <row r="331" spans="1:33">
@@ -33100,7 +33115,7 @@
         <v>0</v>
       </c>
       <c r="AB331" s="3" t="s">
-        <v>1562</v>
+        <v>1564</v>
       </c>
       <c r="AC331" t="s">
         <v>108</v>
@@ -33109,13 +33124,13 @@
         <v>108</v>
       </c>
       <c r="AE331" t="s">
-        <v>1728</v>
+        <v>1730</v>
       </c>
       <c r="AF331" t="s">
-        <v>1821</v>
+        <v>1823</v>
       </c>
       <c r="AG331" s="2" t="s">
-        <v>2150</v>
+        <v>2152</v>
       </c>
     </row>
     <row r="332" spans="1:33">
@@ -33162,7 +33177,7 @@
         <v>0</v>
       </c>
       <c r="AB332" s="3" t="s">
-        <v>1563</v>
+        <v>1565</v>
       </c>
       <c r="AC332" t="s">
         <v>108</v>
@@ -33171,13 +33186,13 @@
         <v>108</v>
       </c>
       <c r="AE332" t="s">
-        <v>1728</v>
+        <v>1730</v>
       </c>
       <c r="AF332" t="s">
-        <v>1821</v>
+        <v>1823</v>
       </c>
       <c r="AG332" s="2" t="s">
-        <v>2151</v>
+        <v>2153</v>
       </c>
     </row>
     <row r="333" spans="1:33">
@@ -33224,7 +33239,7 @@
         <v>0</v>
       </c>
       <c r="AB333" s="3" t="s">
-        <v>1564</v>
+        <v>1566</v>
       </c>
       <c r="AC333" t="s">
         <v>108</v>
@@ -33233,13 +33248,13 @@
         <v>108</v>
       </c>
       <c r="AE333" t="s">
-        <v>1728</v>
+        <v>1730</v>
       </c>
       <c r="AF333" t="s">
-        <v>1821</v>
+        <v>1823</v>
       </c>
       <c r="AG333" s="2" t="s">
-        <v>2152</v>
+        <v>2154</v>
       </c>
     </row>
   </sheetData>
